--- a/doc/XBR820  system spec/xbr820_register.xlsx
+++ b/doc/XBR820  system spec/xbr820_register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\XBR820\Document\Register\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lzj\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87385DB-BDD5-4732-9942-212F73D46B73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25AC252B-44B4-4065-8A3D-A234BE3C8C33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="20890" windowHeight="14620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MemMap" sheetId="20" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="935">
   <si>
     <t>RO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1818,30 +1818,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[29:0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{p4[5:0],p3,p2,p1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[31:30]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xC4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gpio_en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{p4_en[5:0],p3_en,p2_en,p1_en}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xC8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1850,10 +1830,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interrupt mask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xCC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2170,26 +2146,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>[31:1]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>afe_pmu_bypass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>afe signal controlled by cpu,all pmu signala are ignored</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>[31:24]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>aon_io_ctrl module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t1_val</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2210,10 +2170,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>io_sel ,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>io_val</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2246,22 +2202,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>timer_triger</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>0x7d00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[20]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_triger</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>[19]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2310,10 +2254,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>0xf8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bb_timer_cnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2324,10 +2264,6 @@
   <si>
     <t>[5:2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb adc triger mux sel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>bb timer count enable</t>
@@ -2343,14 +2279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bb_total_times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[31:7]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>0x44</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2379,10 +2307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x4c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[31:12]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2392,12 +2316,6 @@
   </si>
   <si>
     <t>adc cal noise init value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb count totals time to compare adc cal and thershold value
-1:count defined times and compare
-0:compare ,and don't care the times count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2448,14 +2366,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>io_ctrl_timer_en</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>io_ctrl_timer_enable signal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>io_mux
 1:sel io_contrll_module out
 0:sel gpio out signal</t>
@@ -2514,10 +2424,6 @@
   <si>
     <t>0x60</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>other</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>0x64</t>
@@ -3126,14 +3032,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>top control reg 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top control reg 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Data SRAM</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -3162,22 +3060,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>force dc</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>0x0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>R/W</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[19:8]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>RO</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3187,18 +3073,6 @@
   </si>
   <si>
     <t>adc dc detected</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[24]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7:5]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[23:20]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -3386,12 +3260,517 @@
     <t>timer 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>[1:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1_0 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1_1 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5:4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1_2 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7:6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1_3 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9:8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1_4 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11:10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1_5 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13:12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1_6 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15:14]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1_7 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[17:16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2_0 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[19:18]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2_1 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[21:20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2_2 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[23:22]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2_3 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25:24]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2_4 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27:26]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2_5 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[29:28]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[31:30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2_6 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2_7 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x55040005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3_0 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3_1 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3_2 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3_3 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3_4 pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trst_n pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCK pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMS pin share select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3_0 pin IE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[17]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3_1 pin IE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[18]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3_2 pin IE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[19]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3_3 pin IE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpio_oen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{p3_oen,p2_en,p1_oen}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{p3,p2,p1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xffffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vco_det_ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detect counter meet value base on tck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[24]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vco frequency detect enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[31:25]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[23:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vco cnt value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2_0 interrupt mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2_1 interrupt mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2_2 interrupt mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2_3 interrupt mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC interrupt mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb adc triger mux sel  0:bb triger 1:cpu reg triger</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1x:force dc 01:intial dc  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15:12]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13:12]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15:14]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27:16]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[31:28]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x26c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/W</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmu_lpmd_sel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">interrupt </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc_ac_22bit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[21:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc_ac_12bit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adc ac average </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adc ac sum </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc_dc_22bit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc dc sum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc_dc_12bit_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc dc average 1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc_dc_12bit_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27:16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc dc average 2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc_dc_12bit_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc_dc_12bit_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc dc average 4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc dc average 3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb RO data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot select</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">aon_io_ctrl </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">io_sel </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7:5]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9:8]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11:10]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13:12]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/W</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x15</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>io_pinmux</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>io ie switch enable for sleep mode  1:enable</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>supend mode osc16 control 10:shut down osc16  11:osc16 always on 0x:osc16 controlled by power mode status (sysio_lpmd_b)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb_wakeup_sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb wakeup flag generation select
+1x:disable bb wakeup signal 01:time &amp; threshold 1 meet 00:time meet only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep out reset select  0:32k pulse 1:pmu iso </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[31:6]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fifo_clr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fifo_clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3566,8 +3945,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3601,6 +3987,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3879,7 +4271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4100,23 +4492,11 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4132,6 +4512,40 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4166,7 +4580,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4175,10 +4592,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4193,25 +4625,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4498,357 +4923,357 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="38.109375" customWidth="1"/>
+    <col min="6" max="6" width="38.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1">
+    <row r="1" spans="1:6" ht="16" thickBot="1">
       <c r="A1" s="62" t="s">
+        <v>668</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>669</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>670</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>671</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>672</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" thickBot="1">
+      <c r="A2" s="65" t="s">
+        <v>674</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>675</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>676</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>677</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" thickBot="1">
+      <c r="A3" s="65" t="s">
+        <v>680</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>681</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>682</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>683</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>684</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.5">
+      <c r="A4" s="103" t="s">
+        <v>686</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>687</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>688</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>689</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>690</v>
+      </c>
+      <c r="F4" s="72" t="s">
         <v>691</v>
       </c>
-      <c r="B1" s="63" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="15.5">
+      <c r="A5" s="104"/>
+      <c r="B5" s="73" t="s">
         <v>692</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C5" s="73" t="s">
         <v>693</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D5" s="73" t="s">
+        <v>689</v>
+      </c>
+      <c r="E5" s="73" t="s">
         <v>694</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="F5" s="74" t="s">
         <v>695</v>
       </c>
-      <c r="F1" s="64" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="15.5">
+      <c r="A6" s="104"/>
+      <c r="B6" s="73" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A2" s="65" t="s">
+      <c r="C6" s="73" t="s">
         <v>697</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="D6" s="73" t="s">
         <v>698</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="E6" s="73" t="s">
         <v>699</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="F6" s="74" t="s">
         <v>700</v>
       </c>
-      <c r="E2" s="67" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="15.5">
+      <c r="A7" s="104"/>
+      <c r="B7" s="73" t="s">
         <v>701</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="C7" s="73" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A3" s="65" t="s">
+      <c r="D7" s="73" t="s">
+        <v>698</v>
+      </c>
+      <c r="E7" s="73" t="s">
         <v>703</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="F7" s="74" t="s">
         <v>704</v>
       </c>
-      <c r="C3" s="69" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="15.5">
+      <c r="A8" s="104"/>
+      <c r="B8" s="73" t="s">
         <v>705</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="C8" s="73" t="s">
         <v>706</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="D8" s="73" t="s">
+        <v>698</v>
+      </c>
+      <c r="E8" s="73" t="s">
         <v>707</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F8" s="74" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="95" t="s">
+    <row r="9" spans="1:6" ht="15.5">
+      <c r="A9" s="104"/>
+      <c r="B9" s="73" t="s">
         <v>709</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="C9" s="73" t="s">
         <v>710</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="D9" s="73" t="s">
+        <v>698</v>
+      </c>
+      <c r="E9" s="73" t="s">
         <v>711</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="F9" s="74" t="s">
         <v>712</v>
       </c>
-      <c r="E4" s="71" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="15.5">
+      <c r="A10" s="104"/>
+      <c r="B10" s="73" t="s">
         <v>713</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="C10" s="73" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="96"/>
-      <c r="B5" s="73" t="s">
+      <c r="D10" s="73" t="s">
+        <v>698</v>
+      </c>
+      <c r="E10" s="73" t="s">
         <v>715</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="F10" s="74" t="s">
         <v>716</v>
       </c>
-      <c r="D5" s="73" t="s">
-        <v>712</v>
-      </c>
-      <c r="E5" s="73" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="16" thickBot="1">
+      <c r="A11" s="104"/>
+      <c r="B11" s="75" t="s">
         <v>717</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="C11" s="75" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="96"/>
-      <c r="B6" s="73" t="s">
+      <c r="D11" s="75" t="s">
+        <v>698</v>
+      </c>
+      <c r="E11" s="75" t="s">
         <v>719</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="F11" s="76" t="s">
         <v>720</v>
       </c>
-      <c r="D6" s="73" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="15.5">
+      <c r="A12" s="105" t="s">
         <v>721</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="B12" s="75" t="s">
         <v>722</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="C12" s="75" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="96"/>
-      <c r="B7" s="73" t="s">
+      <c r="D12" s="75" t="s">
+        <v>698</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>684</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.5">
+      <c r="A13" s="104"/>
+      <c r="B13" s="75" t="s">
         <v>724</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C13" s="75" t="s">
         <v>725</v>
       </c>
-      <c r="D7" s="73" t="s">
-        <v>721</v>
-      </c>
-      <c r="E7" s="73" t="s">
+      <c r="D13" s="75" t="s">
+        <v>698</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>795</v>
+      </c>
+      <c r="F13" s="76"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.5">
+      <c r="A14" s="104"/>
+      <c r="B14" s="77" t="s">
         <v>726</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="C14" s="77" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="96"/>
-      <c r="B8" s="73" t="s">
-        <v>728</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>729</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>721</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>730</v>
-      </c>
-      <c r="F8" s="74" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="96"/>
-      <c r="B9" s="73" t="s">
-        <v>732</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>733</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>721</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>734</v>
-      </c>
-      <c r="F9" s="74" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="96"/>
-      <c r="B10" s="73" t="s">
-        <v>736</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>737</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>721</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>738</v>
-      </c>
-      <c r="F10" s="74" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="75" t="s">
-        <v>740</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>741</v>
-      </c>
-      <c r="D11" s="75" t="s">
-        <v>721</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>742</v>
-      </c>
-      <c r="F11" s="76" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="97" t="s">
-        <v>744</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>745</v>
-      </c>
-      <c r="C12" s="75" t="s">
-        <v>746</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>721</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>707</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="96"/>
-      <c r="B13" s="75" t="s">
-        <v>747</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>748</v>
-      </c>
-      <c r="D13" s="75" t="s">
-        <v>721</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>826</v>
-      </c>
-      <c r="F13" s="76"/>
-    </row>
-    <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="96"/>
-      <c r="B14" s="77" t="s">
-        <v>749</v>
-      </c>
-      <c r="C14" s="77" t="s">
-        <v>750</v>
-      </c>
       <c r="D14" s="77" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="E14" s="77"/>
       <c r="F14" s="78"/>
     </row>
-    <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="96"/>
+    <row r="15" spans="1:6" ht="15.5">
+      <c r="A15" s="104"/>
       <c r="B15" s="77" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="E15" s="77"/>
       <c r="F15" s="78"/>
     </row>
-    <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="96"/>
+    <row r="16" spans="1:6" ht="15.5">
+      <c r="A16" s="104"/>
       <c r="B16" s="77" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="C16" s="77" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="E16" s="77"/>
       <c r="F16" s="78"/>
     </row>
-    <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="96"/>
+    <row r="17" spans="1:6" ht="15.5">
+      <c r="A17" s="104"/>
       <c r="B17" s="77" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="E17" s="77"/>
       <c r="F17" s="78"/>
     </row>
-    <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="96"/>
+    <row r="18" spans="1:6" ht="15.5">
+      <c r="A18" s="104"/>
       <c r="B18" s="77" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>758</v>
+        <v>735</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="E18" s="77"/>
       <c r="F18" s="78"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A19" s="96"/>
+    <row r="19" spans="1:6" ht="16" thickBot="1">
+      <c r="A19" s="104"/>
       <c r="B19" s="79" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="E19" s="79"/>
       <c r="F19" s="80"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" thickBot="1">
+    <row r="20" spans="1:6" ht="16" thickBot="1">
       <c r="A20" s="81" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>763</v>
+        <v>740</v>
       </c>
       <c r="D20" s="82" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="F20" s="83"/>
     </row>
@@ -4867,130 +5292,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA98114-2501-4EF7-AF09-0FC113866AE7}">
   <dimension ref="B3:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3">
-      <c r="B3" s="121">
+      <c r="B3" s="91">
         <v>0</v>
       </c>
-      <c r="C3" s="121" t="s">
-        <v>828</v>
+      <c r="C3" s="91" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="121">
+      <c r="B4" s="91">
         <v>1</v>
       </c>
-      <c r="C4" s="121" t="s">
-        <v>569</v>
+      <c r="C4" s="91" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="121">
+      <c r="B5" s="91">
         <v>2</v>
       </c>
-      <c r="C5" s="121" t="s">
-        <v>830</v>
+      <c r="C5" s="91" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="121">
+      <c r="B6" s="91">
         <v>3</v>
       </c>
-      <c r="C6" s="121" t="s">
-        <v>829</v>
+      <c r="C6" s="91" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="121">
-        <v>4</v>
-      </c>
-      <c r="C7" s="121" t="s">
-        <v>831</v>
+      <c r="B7" s="91">
+        <v>4</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="121">
+      <c r="B8" s="91">
         <v>5</v>
       </c>
-      <c r="C8" s="121" t="s">
-        <v>832</v>
+      <c r="C8" s="91" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="121">
+      <c r="B9" s="91">
         <v>6</v>
       </c>
-      <c r="C9" s="121" t="s">
-        <v>833</v>
+      <c r="C9" s="91" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="121">
+      <c r="B10" s="91">
         <v>7</v>
       </c>
-      <c r="C10" s="121" t="s">
-        <v>834</v>
+      <c r="C10" s="91" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="121">
+      <c r="B11" s="91">
         <v>8</v>
       </c>
-      <c r="C11" s="121" t="s">
-        <v>835</v>
+      <c r="C11" s="91" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="121">
+      <c r="B12" s="91">
         <v>9</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="91" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="121">
+      <c r="B13" s="91">
         <v>10</v>
       </c>
-      <c r="C13" s="121" t="s">
-        <v>836</v>
+      <c r="C13" s="91" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="121">
+      <c r="B14" s="91">
         <v>11</v>
       </c>
-      <c r="C14" s="121" t="s">
-        <v>837</v>
+      <c r="C14" s="91" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="121">
+      <c r="B15" s="91">
         <v>12</v>
       </c>
-      <c r="C15" s="121" t="s">
-        <v>838</v>
+      <c r="C15" s="91" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="121">
+      <c r="B16" s="91">
         <v>13</v>
       </c>
-      <c r="C16" s="121" t="s">
-        <v>839</v>
+      <c r="C16" s="91" t="s">
+        <v>808</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5002,7 +5428,7 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.6640625" style="1"/>
@@ -5011,15 +5437,15 @@
     <col min="6" max="6" width="34.33203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.95" customHeight="1">
-      <c r="A1" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+    <row r="1" spans="1:6" ht="47" customHeight="1">
+      <c r="A1" s="109" t="s">
+        <v>743</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -5042,7 +5468,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="108" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -5062,7 +5488,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="102"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -5080,7 +5506,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="108" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5100,7 +5526,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="102"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -5118,7 +5544,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="17"/>
@@ -5132,7 +5558,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" customHeight="1">
-      <c r="A8" s="103"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -5149,8 +5575,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="79.2">
-      <c r="A9" s="99"/>
+    <row r="9" spans="1:6" ht="75">
+      <c r="A9" s="107"/>
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
@@ -5168,7 +5594,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="108" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -5187,8 +5613,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.6">
-      <c r="A11" s="102"/>
+    <row r="11" spans="1:6" ht="25">
+      <c r="A11" s="110"/>
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
@@ -5206,7 +5632,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="108" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -5225,8 +5651,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="39.6">
-      <c r="A13" s="100"/>
+    <row r="13" spans="1:6" ht="37.5">
+      <c r="A13" s="108"/>
       <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
@@ -5244,7 +5670,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="108" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -5263,8 +5689,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="26.4">
-      <c r="A15" s="100"/>
+    <row r="15" spans="1:6">
+      <c r="A15" s="108"/>
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
@@ -5363,8 +5789,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.55" customHeight="1">
-      <c r="A20" s="100" t="s">
+    <row r="20" spans="1:12" ht="17.5" customHeight="1">
+      <c r="A20" s="108" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="6"/>
@@ -5381,8 +5807,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.55" customHeight="1">
-      <c r="A21" s="100"/>
+    <row r="21" spans="1:12" ht="17.5" customHeight="1">
+      <c r="A21" s="108"/>
       <c r="B21" s="17" t="s">
         <v>4</v>
       </c>
@@ -5400,7 +5826,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="100"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="6" t="s">
         <v>4</v>
       </c>
@@ -5418,7 +5844,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="100"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
@@ -5436,7 +5862,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="100"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
@@ -5453,8 +5879,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17.55" customHeight="1">
-      <c r="A25" s="100" t="s">
+    <row r="25" spans="1:12" ht="17.5" customHeight="1">
+      <c r="A25" s="108" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="17"/>
@@ -5471,8 +5897,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="26.4">
-      <c r="A26" s="100"/>
+    <row r="26" spans="1:12" ht="25">
+      <c r="A26" s="108"/>
       <c r="B26" s="17" t="s">
         <v>4</v>
       </c>
@@ -5489,8 +5915,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="26.4">
-      <c r="A27" s="100"/>
+    <row r="27" spans="1:12">
+      <c r="A27" s="108"/>
       <c r="B27" s="17" t="s">
         <v>4</v>
       </c>
@@ -5507,8 +5933,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="26.4">
-      <c r="A28" s="100"/>
+    <row r="28" spans="1:12">
+      <c r="A28" s="108"/>
       <c r="B28" s="17" t="s">
         <v>4</v>
       </c>
@@ -5526,7 +5952,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="108" t="s">
         <v>77</v>
       </c>
       <c r="B29" s="6"/>
@@ -5544,7 +5970,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="100"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="6" t="s">
         <v>4</v>
       </c>
@@ -5562,7 +5988,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="100"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
@@ -5580,7 +6006,7 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="100"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="6" t="s">
         <v>4</v>
       </c>
@@ -5598,7 +6024,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="98" t="s">
+      <c r="A33" s="106" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="10"/>
@@ -5616,7 +6042,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="99"/>
+      <c r="A34" s="107"/>
       <c r="B34" s="10" t="s">
         <v>18</v>
       </c>
@@ -5634,7 +6060,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="106" t="s">
         <v>79</v>
       </c>
       <c r="B35" s="16"/>
@@ -5652,7 +6078,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="99"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="16" t="s">
         <v>4</v>
       </c>
@@ -5698,21 +6124,21 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45.45" customHeight="1">
-      <c r="A1" s="101" t="s">
-        <v>767</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+    <row r="1" spans="1:6" ht="45.5" customHeight="1">
+      <c r="A1" s="109" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -5735,7 +6161,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="108" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -5755,7 +6181,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="102"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="18" t="s">
         <v>82</v>
       </c>
@@ -5773,7 +6199,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="108" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -5793,7 +6219,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="102"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="18" t="s">
         <v>110</v>
       </c>
@@ -5811,7 +6237,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="108" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="18"/>
@@ -5825,7 +6251,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="100"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="21" t="s">
         <v>4</v>
       </c>
@@ -5842,8 +6268,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="56.55" customHeight="1">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:6" ht="56.5" customHeight="1">
+      <c r="A9" s="108"/>
       <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
@@ -5861,7 +6287,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="108" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="18"/>
@@ -5875,7 +6301,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="100"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="18" t="s">
         <v>4</v>
       </c>
@@ -5893,7 +6319,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="112" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="18"/>
@@ -5907,7 +6333,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="105"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="18" t="s">
         <v>4</v>
       </c>
@@ -5925,7 +6351,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="105"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
@@ -5943,7 +6369,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="105"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="18" t="s">
         <v>4</v>
       </c>
@@ -5961,7 +6387,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="105"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="18" t="s">
         <v>4</v>
       </c>
@@ -5979,7 +6405,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="105"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="18" t="s">
         <v>4</v>
       </c>
@@ -5997,7 +6423,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="112" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="18"/>
@@ -6011,7 +6437,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="105"/>
+      <c r="A19" s="113"/>
       <c r="B19" s="18" t="s">
         <v>4</v>
       </c>
@@ -6029,7 +6455,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="105"/>
+      <c r="A20" s="113"/>
       <c r="B20" s="18" t="s">
         <v>4</v>
       </c>
@@ -6047,7 +6473,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="105"/>
+      <c r="A21" s="113"/>
       <c r="B21" s="18" t="s">
         <v>4</v>
       </c>
@@ -6065,7 +6491,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="105"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="18" t="s">
         <v>4</v>
       </c>
@@ -6105,21 +6531,21 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.45" customHeight="1">
-      <c r="A1" s="101" t="s">
-        <v>771</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+    <row r="1" spans="1:6" ht="42.5" customHeight="1">
+      <c r="A1" s="109" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -6142,7 +6568,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="108" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -6162,7 +6588,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="100"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
@@ -6180,7 +6606,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="100"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -6198,7 +6624,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="102"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
@@ -6216,7 +6642,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="108" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -6235,8 +6661,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.6">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:6" ht="25">
+      <c r="A8" s="108"/>
       <c r="B8" s="21" t="s">
         <v>4</v>
       </c>
@@ -6253,8 +6679,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="39.6">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:6" ht="25">
+      <c r="A9" s="108"/>
       <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
@@ -6271,8 +6697,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.4">
-      <c r="A10" s="102"/>
+    <row r="10" spans="1:6" ht="25">
+      <c r="A10" s="110"/>
       <c r="B10" s="21" t="s">
         <v>110</v>
       </c>
@@ -6290,7 +6716,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="108" t="s">
         <v>126</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -6310,7 +6736,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="100"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="21" t="s">
         <v>4</v>
       </c>
@@ -6328,7 +6754,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="102"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="21" t="s">
         <v>110</v>
       </c>
@@ -6366,7 +6792,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="108" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -6385,8 +6811,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="26.4">
-      <c r="A16" s="100"/>
+    <row r="16" spans="1:6" ht="25">
+      <c r="A16" s="108"/>
       <c r="B16" s="21" t="s">
         <v>136</v>
       </c>
@@ -6404,7 +6830,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="108" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -6423,8 +6849,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="39.6">
-      <c r="A18" s="100"/>
+    <row r="18" spans="1:6" ht="37.5">
+      <c r="A18" s="108"/>
       <c r="B18" s="21" t="s">
         <v>141</v>
       </c>
@@ -6442,7 +6868,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="108" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -6462,7 +6888,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="100"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="21" t="s">
         <v>145</v>
       </c>
@@ -6479,8 +6905,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A21" s="100" t="s">
+    <row r="21" spans="1:6" ht="13" customHeight="1">
+      <c r="A21" s="108" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -6499,8 +6925,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.4">
-      <c r="A22" s="100"/>
+    <row r="22" spans="1:6">
+      <c r="A22" s="108"/>
       <c r="B22" s="21" t="s">
         <v>148</v>
       </c>
@@ -6517,8 +6943,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A23" s="100" t="s">
+    <row r="23" spans="1:6" ht="13" customHeight="1">
+      <c r="A23" s="108" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -6538,7 +6964,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="100"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="21" t="s">
         <v>149</v>
       </c>
@@ -6555,8 +6981,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A25" s="100" t="s">
+    <row r="25" spans="1:6" ht="13" customHeight="1">
+      <c r="A25" s="108" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -6576,7 +7002,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="100"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="21" t="s">
         <v>153</v>
       </c>
@@ -6614,30 +7040,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F97639-5499-4CB8-8C37-9AB97DD5CB65}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="K113" sqref="K113"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="8.6640625" style="24"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="1"/>
     <col min="6" max="6" width="63.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.55" customHeight="1">
-      <c r="A1" s="101" t="s">
-        <v>768</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+    <row r="1" spans="1:7" ht="50.5" customHeight="1">
+      <c r="A1" s="109" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="25" t="s">
@@ -6660,7 +7086,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="108" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -6678,12 +7104,12 @@
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="110" t="s">
+      <c r="G3" s="115" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="100"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="23" t="s">
         <v>163</v>
       </c>
@@ -6699,10 +7125,10 @@
       <c r="F4" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="107"/>
+      <c r="G4" s="116"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="100"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
@@ -6718,10 +7144,10 @@
       <c r="F5" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="G5" s="107"/>
+      <c r="G5" s="116"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="102"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="23" t="s">
         <v>27</v>
       </c>
@@ -6737,10 +7163,10 @@
       <c r="F6" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="G6" s="108"/>
+      <c r="G6" s="117"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="108" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -6758,12 +7184,12 @@
       <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="110" t="s">
+      <c r="G7" s="115" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:7" ht="15.5">
+      <c r="A8" s="108"/>
       <c r="B8" s="23" t="s">
         <v>110</v>
       </c>
@@ -6779,10 +7205,10 @@
       <c r="F8" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="107"/>
+      <c r="G8" s="116"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="100"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="23" t="s">
         <v>168</v>
       </c>
@@ -6798,10 +7224,10 @@
       <c r="F9" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="107"/>
+      <c r="G9" s="116"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="102"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="23" t="s">
         <v>169</v>
       </c>
@@ -6817,10 +7243,10 @@
       <c r="F10" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="108"/>
+      <c r="G10" s="117"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="108" t="s">
         <v>126</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -6838,12 +7264,12 @@
       <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="117" t="s">
+      <c r="G11" s="119" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="100"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="23" t="s">
         <v>183</v>
       </c>
@@ -6859,10 +7285,10 @@
       <c r="F12" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="G12" s="118"/>
+      <c r="G12" s="120"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="100"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="23" t="s">
         <v>184</v>
       </c>
@@ -6878,10 +7304,10 @@
       <c r="F13" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="G13" s="118"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6">
-      <c r="A14" s="102"/>
+      <c r="G13" s="120"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.5">
+      <c r="A14" s="110"/>
       <c r="B14" s="23" t="s">
         <v>110</v>
       </c>
@@ -6897,10 +7323,10 @@
       <c r="F14" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="119"/>
+      <c r="G14" s="121"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="108" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -6918,12 +7344,12 @@
       <c r="F15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="117" t="s">
+      <c r="G15" s="119" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="100"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="23" t="s">
         <v>4</v>
       </c>
@@ -6939,10 +7365,10 @@
       <c r="F16" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="G16" s="118"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6">
-      <c r="A17" s="100"/>
+      <c r="G16" s="120"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.5">
+      <c r="A17" s="108"/>
       <c r="B17" s="23" t="s">
         <v>110</v>
       </c>
@@ -6958,10 +7384,10 @@
       <c r="F17" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G17" s="118"/>
+      <c r="G17" s="120"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="100"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="23" t="s">
         <v>4</v>
       </c>
@@ -6977,10 +7403,10 @@
       <c r="F18" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="G18" s="118"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.6">
-      <c r="A19" s="102"/>
+      <c r="G18" s="120"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.5">
+      <c r="A19" s="110"/>
       <c r="B19" s="23" t="s">
         <v>110</v>
       </c>
@@ -6996,10 +7422,10 @@
       <c r="F19" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G19" s="119"/>
+      <c r="G19" s="121"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="108" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -7017,12 +7443,12 @@
       <c r="F20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="117" t="s">
+      <c r="G20" s="119" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="100"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="23" t="s">
         <v>110</v>
       </c>
@@ -7038,10 +7464,10 @@
       <c r="F21" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="G21" s="118"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6">
-      <c r="A22" s="100"/>
+      <c r="G21" s="120"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.5">
+      <c r="A22" s="108"/>
       <c r="B22" s="23" t="s">
         <v>4</v>
       </c>
@@ -7049,7 +7475,7 @@
         <v>28</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>38</v>
@@ -7057,10 +7483,10 @@
       <c r="F22" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="119"/>
+      <c r="G22" s="121"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="108" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -7078,12 +7504,12 @@
       <c r="F23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="120" t="s">
+      <c r="G23" s="118" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6">
-      <c r="A24" s="100"/>
+    <row r="24" spans="1:7" ht="15.5">
+      <c r="A24" s="108"/>
       <c r="B24" s="32" t="s">
         <v>218</v>
       </c>
@@ -7099,10 +7525,10 @@
       <c r="F24" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="G24" s="120"/>
+      <c r="G24" s="118"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="100"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="32" t="s">
         <v>218</v>
       </c>
@@ -7118,10 +7544,10 @@
       <c r="F25" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="G25" s="120"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.6">
-      <c r="A26" s="100"/>
+      <c r="G25" s="118"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.5">
+      <c r="A26" s="108"/>
       <c r="B26" s="32" t="s">
         <v>219</v>
       </c>
@@ -7137,10 +7563,10 @@
       <c r="F26" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="G26" s="120"/>
+      <c r="G26" s="118"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="100"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="32" t="s">
         <v>218</v>
       </c>
@@ -7156,10 +7582,10 @@
       <c r="F27" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="G27" s="120"/>
+      <c r="G27" s="118"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="100"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="32" t="s">
         <v>220</v>
       </c>
@@ -7175,10 +7601,10 @@
       <c r="F28" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G28" s="120"/>
+      <c r="G28" s="118"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="100"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="32" t="s">
         <v>218</v>
       </c>
@@ -7194,10 +7620,10 @@
       <c r="F29" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="G29" s="120"/>
+      <c r="G29" s="118"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="100"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="32" t="s">
         <v>220</v>
       </c>
@@ -7213,10 +7639,10 @@
       <c r="F30" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="G30" s="120"/>
+      <c r="G30" s="118"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="100"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="32" t="s">
         <v>221</v>
       </c>
@@ -7232,10 +7658,10 @@
       <c r="F31" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="G31" s="120"/>
+      <c r="G31" s="118"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="100"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="32" t="s">
         <v>218</v>
       </c>
@@ -7251,10 +7677,10 @@
       <c r="F32" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="G32" s="120"/>
+      <c r="G32" s="118"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="114" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="23" t="s">
@@ -7272,10 +7698,10 @@
       <c r="F33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="120"/>
+      <c r="G33" s="118"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="109"/>
+      <c r="A34" s="114"/>
       <c r="B34" s="23" t="s">
         <v>18</v>
       </c>
@@ -7291,10 +7717,10 @@
       <c r="F34" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="G34" s="120"/>
+      <c r="G34" s="118"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="109"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="32" t="s">
         <v>250</v>
       </c>
@@ -7310,10 +7736,10 @@
       <c r="F35" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="120"/>
+      <c r="G35" s="118"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="109"/>
+      <c r="A36" s="114"/>
       <c r="B36" s="32" t="s">
         <v>219</v>
       </c>
@@ -7329,10 +7755,10 @@
       <c r="F36" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="120"/>
+      <c r="G36" s="118"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="109"/>
+      <c r="A37" s="114"/>
       <c r="B37" s="32" t="s">
         <v>251</v>
       </c>
@@ -7348,10 +7774,10 @@
       <c r="F37" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="G37" s="120"/>
+      <c r="G37" s="118"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="109"/>
+      <c r="A38" s="114"/>
       <c r="B38" s="32" t="s">
         <v>218</v>
       </c>
@@ -7367,10 +7793,10 @@
       <c r="F38" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="G38" s="120"/>
+      <c r="G38" s="118"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="109"/>
+      <c r="A39" s="114"/>
       <c r="B39" s="32" t="s">
         <v>218</v>
       </c>
@@ -7386,10 +7812,10 @@
       <c r="F39" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="G39" s="120"/>
+      <c r="G39" s="118"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="109"/>
+      <c r="A40" s="114"/>
       <c r="B40" s="32" t="s">
         <v>218</v>
       </c>
@@ -7405,10 +7831,10 @@
       <c r="F40" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="G40" s="120"/>
+      <c r="G40" s="118"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="109"/>
+      <c r="A41" s="114"/>
       <c r="B41" s="32" t="s">
         <v>219</v>
       </c>
@@ -7424,10 +7850,10 @@
       <c r="F41" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="G41" s="120"/>
+      <c r="G41" s="118"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="109"/>
+      <c r="A42" s="114"/>
       <c r="B42" s="32" t="s">
         <v>219</v>
       </c>
@@ -7443,10 +7869,10 @@
       <c r="F42" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="G42" s="120"/>
+      <c r="G42" s="118"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="109"/>
+      <c r="A43" s="114"/>
       <c r="B43" s="32" t="s">
         <v>219</v>
       </c>
@@ -7462,10 +7888,10 @@
       <c r="F43" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="G43" s="120"/>
+      <c r="G43" s="118"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="114" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -7478,36 +7904,36 @@
         <v>26</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="110" t="s">
+      <c r="G44" s="115" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="109"/>
+      <c r="A45" s="114"/>
       <c r="B45" s="48" t="s">
         <v>218</v>
       </c>
       <c r="C45" s="49" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E45" s="49" t="s">
         <v>326</v>
       </c>
       <c r="F45" s="50" t="s">
-        <v>539</v>
-      </c>
-      <c r="G45" s="107"/>
+        <v>533</v>
+      </c>
+      <c r="G45" s="116"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="109"/>
+      <c r="A46" s="114"/>
       <c r="B46" s="33" t="s">
         <v>218</v>
       </c>
@@ -7523,10 +7949,10 @@
       <c r="F46" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="G46" s="107"/>
+      <c r="G46" s="116"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="109"/>
+      <c r="A47" s="114"/>
       <c r="B47" s="33" t="s">
         <v>219</v>
       </c>
@@ -7542,10 +7968,10 @@
       <c r="F47" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="G47" s="107"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.6">
-      <c r="A48" s="109"/>
+      <c r="G47" s="116"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.5">
+      <c r="A48" s="114"/>
       <c r="B48" s="34" t="s">
         <v>218</v>
       </c>
@@ -7561,10 +7987,10 @@
       <c r="F48" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="G48" s="107"/>
+      <c r="G48" s="116"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="109"/>
+      <c r="A49" s="114"/>
       <c r="B49" s="33" t="s">
         <v>218</v>
       </c>
@@ -7580,10 +8006,10 @@
       <c r="F49" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="G49" s="107"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.6">
-      <c r="A50" s="109"/>
+      <c r="G49" s="116"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.5">
+      <c r="A50" s="114"/>
       <c r="B50" s="33" t="s">
         <v>218</v>
       </c>
@@ -7599,10 +8025,10 @@
       <c r="F50" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="G50" s="107"/>
+      <c r="G50" s="116"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="109"/>
+      <c r="A51" s="114"/>
       <c r="B51" s="33" t="s">
         <v>218</v>
       </c>
@@ -7618,10 +8044,10 @@
       <c r="F51" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="G51" s="108"/>
+      <c r="G51" s="117"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="106" t="s">
+      <c r="A52" s="122" t="s">
         <v>22</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -7639,12 +8065,12 @@
       <c r="F52" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="120" t="s">
+      <c r="G52" s="118" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="115"/>
+      <c r="A53" s="123"/>
       <c r="B53" s="35" t="s">
         <v>218</v>
       </c>
@@ -7660,10 +8086,10 @@
       <c r="F53" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="G53" s="120"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.6">
-      <c r="A54" s="115"/>
+      <c r="G53" s="118"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.5">
+      <c r="A54" s="123"/>
       <c r="B54" s="35" t="s">
         <v>218</v>
       </c>
@@ -7679,10 +8105,10 @@
       <c r="F54" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G54" s="120"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.6">
-      <c r="A55" s="115"/>
+      <c r="G54" s="118"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.5">
+      <c r="A55" s="123"/>
       <c r="B55" s="35" t="s">
         <v>218</v>
       </c>
@@ -7698,10 +8124,10 @@
       <c r="F55" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="G55" s="120"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.6">
-      <c r="A56" s="115"/>
+      <c r="G55" s="118"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.5">
+      <c r="A56" s="123"/>
       <c r="B56" s="35" t="s">
         <v>218</v>
       </c>
@@ -7717,10 +8143,10 @@
       <c r="F56" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="G56" s="120"/>
+      <c r="G56" s="118"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="115"/>
+      <c r="A57" s="123"/>
       <c r="B57" s="35" t="s">
         <v>303</v>
       </c>
@@ -7736,10 +8162,10 @@
       <c r="F57" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="G57" s="120"/>
+      <c r="G57" s="118"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="115"/>
+      <c r="A58" s="123"/>
       <c r="B58" s="35" t="s">
         <v>303</v>
       </c>
@@ -7755,10 +8181,10 @@
       <c r="F58" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="G58" s="120"/>
+      <c r="G58" s="118"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="116"/>
+      <c r="A59" s="124"/>
       <c r="B59" s="35" t="s">
         <v>303</v>
       </c>
@@ -7774,10 +8200,10 @@
       <c r="F59" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="G59" s="120"/>
+      <c r="G59" s="118"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="109" t="s">
+      <c r="A60" s="114" t="s">
         <v>23</v>
       </c>
       <c r="B60" s="23" t="s">
@@ -7795,12 +8221,12 @@
       <c r="F60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="110" t="s">
+      <c r="G60" s="115" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="109"/>
+      <c r="A61" s="114"/>
       <c r="B61" s="32" t="s">
         <v>4</v>
       </c>
@@ -7816,10 +8242,10 @@
       <c r="F61" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G61" s="107"/>
+      <c r="G61" s="116"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="109"/>
+      <c r="A62" s="114"/>
       <c r="B62" s="32" t="s">
         <v>4</v>
       </c>
@@ -7835,10 +8261,10 @@
       <c r="F62" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G62" s="108"/>
+      <c r="G62" s="117"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="114" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -7856,12 +8282,12 @@
       <c r="F63" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="120" t="s">
+      <c r="G63" s="118" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="109"/>
+      <c r="A64" s="114"/>
       <c r="B64" s="32" t="s">
         <v>4</v>
       </c>
@@ -7877,10 +8303,10 @@
       <c r="F64" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="G64" s="120"/>
+      <c r="G64" s="118"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="109"/>
+      <c r="A65" s="114"/>
       <c r="B65" s="32" t="s">
         <v>4</v>
       </c>
@@ -7896,10 +8322,10 @@
       <c r="F65" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="G65" s="120"/>
+      <c r="G65" s="118"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="109"/>
+      <c r="A66" s="114"/>
       <c r="B66" s="32" t="s">
         <v>3</v>
       </c>
@@ -7915,10 +8341,10 @@
       <c r="F66" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="G66" s="120"/>
+      <c r="G66" s="118"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="109"/>
+      <c r="A67" s="114"/>
       <c r="B67" s="32" t="s">
         <v>3</v>
       </c>
@@ -7934,10 +8360,10 @@
       <c r="F67" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="G67" s="120"/>
+      <c r="G67" s="118"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="109"/>
+      <c r="A68" s="114"/>
       <c r="B68" s="32" t="s">
         <v>3</v>
       </c>
@@ -7953,11 +8379,11 @@
       <c r="F68" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="G68" s="120"/>
+      <c r="G68" s="118"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="109" t="s">
-        <v>51</v>
+      <c r="A69" s="114" t="s">
+        <v>77</v>
       </c>
       <c r="B69" s="23" t="s">
         <v>26</v>
@@ -7969,37 +8395,37 @@
         <v>26</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="110" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="109"/>
+      <c r="G69" s="118" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" customHeight="1">
+      <c r="A70" s="114"/>
       <c r="B70" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>543</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>38</v>
+        <v>537</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>544</v>
-      </c>
-      <c r="G70" s="107"/>
+        <v>538</v>
+      </c>
+      <c r="G70" s="118"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="109" t="s">
-        <v>77</v>
+      <c r="A71" s="114" t="s">
+        <v>78</v>
       </c>
       <c r="B71" s="23" t="s">
         <v>26</v>
@@ -8011,37 +8437,35 @@
         <v>26</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="120" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1">
-      <c r="A72" s="109"/>
+      <c r="G71" s="118"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="114"/>
       <c r="B72" s="32" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="G72" s="120"/>
+        <v>540</v>
+      </c>
+      <c r="G72" s="118"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="109" t="s">
-        <v>78</v>
+      <c r="A73" s="114" t="s">
+        <v>79</v>
       </c>
       <c r="B73" s="23" t="s">
         <v>26</v>
@@ -8049,531 +8473,488 @@
       <c r="C73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="46" t="s">
-        <v>26</v>
-      </c>
       <c r="E73" s="5" t="s">
-        <v>545</v>
+        <v>591</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="120"/>
+      <c r="G73" s="118"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="109"/>
-      <c r="B74" s="32" t="s">
+      <c r="A74" s="114"/>
+      <c r="B74" s="127" t="s">
+        <v>923</v>
+      </c>
+      <c r="C74" s="106" t="s">
+        <v>922</v>
+      </c>
+      <c r="D74" s="129" t="s">
+        <v>924</v>
+      </c>
+      <c r="E74" s="44" t="s">
+        <v>921</v>
+      </c>
+      <c r="F74" s="45" t="s">
+        <v>849</v>
+      </c>
+      <c r="G74" s="118"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="114"/>
+      <c r="B75" s="132"/>
+      <c r="C75" s="132"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="44" t="s">
+        <v>920</v>
+      </c>
+      <c r="F75" s="45" t="s">
+        <v>848</v>
+      </c>
+      <c r="G75" s="118"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="114"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="128"/>
+      <c r="D76" s="131"/>
+      <c r="E76" s="44" t="s">
+        <v>919</v>
+      </c>
+      <c r="F76" s="45" t="s">
+        <v>847</v>
+      </c>
+      <c r="G76" s="118"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="114"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="97"/>
+      <c r="E77" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="118"/>
+    </row>
+    <row r="78" spans="1:7" ht="42">
+      <c r="A78" s="114"/>
+      <c r="B78" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="91" t="s">
+        <v>590</v>
+      </c>
+      <c r="E78" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" s="57" t="s">
+        <v>592</v>
+      </c>
+      <c r="G78" s="118"/>
+    </row>
+    <row r="79" spans="1:7" ht="42">
+      <c r="A79" s="114"/>
+      <c r="B79" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="E79" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" s="57" t="s">
+        <v>589</v>
+      </c>
+      <c r="G79" s="118"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="114"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="118"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="114"/>
+      <c r="B81" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>917</v>
+      </c>
+      <c r="G81" s="118"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="114"/>
+      <c r="B82" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="G82" s="118"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="114" t="s">
+        <v>546</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="118" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="114"/>
+      <c r="B84" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="E84" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="G84" s="118"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="114"/>
+      <c r="B85" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="G85" s="118"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="114"/>
+      <c r="B86" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="G86" s="118"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="114" t="s">
+        <v>554</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="118" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="114"/>
+      <c r="B88" s="127" t="s">
+        <v>303</v>
+      </c>
+      <c r="C88" s="106" t="s">
+        <v>887</v>
+      </c>
+      <c r="D88" s="106" t="s">
+        <v>888</v>
+      </c>
+      <c r="E88" s="101" t="s">
+        <v>930</v>
+      </c>
+      <c r="F88" s="102" t="s">
+        <v>931</v>
+      </c>
+      <c r="G88" s="118"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="114"/>
+      <c r="B89" s="132"/>
+      <c r="C89" s="132"/>
+      <c r="D89" s="133"/>
+      <c r="E89" s="101" t="s">
+        <v>926</v>
+      </c>
+      <c r="F89" s="102" t="s">
+        <v>925</v>
+      </c>
+      <c r="G89" s="118"/>
+    </row>
+    <row r="90" spans="1:7" ht="28">
+      <c r="A90" s="114"/>
+      <c r="B90" s="128"/>
+      <c r="C90" s="128"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="F90" s="57" t="s">
+        <v>927</v>
+      </c>
+      <c r="G90" s="118"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="114"/>
+      <c r="B91" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="G91" s="118"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="114"/>
+      <c r="B92" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>549</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>550</v>
-      </c>
-      <c r="G74" s="120"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="109" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="F75" s="12" t="s">
+      <c r="E92" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="G92" s="118"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="114" t="s">
+        <v>568</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F93" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="120"/>
-    </row>
-    <row r="76" spans="1:7" ht="41.4">
-      <c r="A76" s="109"/>
-      <c r="B76" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" t="s">
-        <v>612</v>
-      </c>
-      <c r="E76" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F76" s="57" t="s">
-        <v>614</v>
-      </c>
-      <c r="G76" s="120"/>
-    </row>
-    <row r="77" spans="1:7" ht="41.4">
-      <c r="A77" s="109"/>
-      <c r="B77" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="E77" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F77" s="57" t="s">
-        <v>611</v>
-      </c>
-      <c r="G77" s="120"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="109"/>
-      <c r="B78" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F78" s="28" t="s">
-        <v>610</v>
-      </c>
-      <c r="G78" s="120"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="109"/>
-      <c r="B79" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="E79" s="9" t="s">
+      <c r="G93" s="115" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="25">
+      <c r="A94" s="114"/>
+      <c r="B94" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>929</v>
+      </c>
+      <c r="G94" s="116"/>
+    </row>
+    <row r="95" spans="1:7" ht="75">
+      <c r="A95" s="114"/>
+      <c r="B95" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="G95" s="116"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="114"/>
+      <c r="B96" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="E96" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F79" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="G79" s="120"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="109"/>
-      <c r="B80" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>553</v>
-      </c>
-      <c r="E80" s="9" t="s">
+      <c r="F96" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="G96" s="116"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="114"/>
+      <c r="B97" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="E97" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="G80" s="120"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="109" t="s">
-        <v>557</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="120" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="109"/>
-      <c r="B82" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="E82" s="47" t="s">
-        <v>563</v>
-      </c>
-      <c r="F82" s="28" t="s">
-        <v>564</v>
-      </c>
-      <c r="G82" s="120"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="109"/>
-      <c r="B83" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83" s="28" t="s">
-        <v>560</v>
-      </c>
-      <c r="E83" s="47" t="s">
-        <v>565</v>
-      </c>
-      <c r="F83" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="G83" s="120"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="109"/>
-      <c r="B84" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F84" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="G84" s="120"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="109"/>
-      <c r="B85" s="32" t="s">
-        <v>562</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>558</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F85" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="G85" s="120"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="109" t="s">
-        <v>568</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C86" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="120" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="109"/>
-      <c r="B87" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D87" s="28" t="s">
+      <c r="F97" s="28" t="s">
+        <v>878</v>
+      </c>
+      <c r="G97" s="116"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="114" t="s">
+        <v>572</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F87" s="28" t="s">
-        <v>572</v>
-      </c>
-      <c r="G87" s="120"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="109"/>
-      <c r="B88" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F88" s="28" t="s">
-        <v>573</v>
-      </c>
-      <c r="G88" s="120"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="109" t="s">
-        <v>586</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C89" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D89" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="110" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="39.6">
-      <c r="A90" s="109"/>
-      <c r="B90" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C90" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F90" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="G90" s="107"/>
-    </row>
-    <row r="91" spans="1:7" ht="79.2">
-      <c r="A91" s="109"/>
-      <c r="B91" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="F91" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="G91" s="107"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="109"/>
-      <c r="B92" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F92" s="28" t="s">
-        <v>582</v>
-      </c>
-      <c r="G92" s="107"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="109"/>
-      <c r="B93" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D93" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F93" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="G93" s="107"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="109" t="s">
-        <v>590</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C94" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D94" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" s="107"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="109"/>
-      <c r="B95" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="C95" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="E95" s="47" t="s">
-        <v>599</v>
-      </c>
-      <c r="F95" s="53" t="s">
-        <v>588</v>
-      </c>
-      <c r="G95" s="107"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="109" t="s">
-        <v>593</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C96" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D96" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" s="107"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="109"/>
-      <c r="B97" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="C97" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="E97" s="47" t="s">
-        <v>599</v>
-      </c>
-      <c r="F97" s="53" t="s">
-        <v>592</v>
-      </c>
-      <c r="G97" s="107"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="109" t="s">
-        <v>602</v>
-      </c>
-      <c r="B98" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C98" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D98" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>594</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G98" s="107"/>
+      <c r="G98" s="116"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="109"/>
+      <c r="A99" s="114"/>
       <c r="B99" s="23" t="s">
-        <v>577</v>
+        <v>889</v>
       </c>
       <c r="C99" s="46" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="E99" s="47" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="F99" s="53" t="s">
-        <v>596</v>
-      </c>
-      <c r="G99" s="107"/>
+        <v>570</v>
+      </c>
+      <c r="G99" s="116"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="109" t="s">
-        <v>183</v>
+      <c r="A100" s="114" t="s">
+        <v>791</v>
       </c>
       <c r="B100" s="23" t="s">
         <v>26</v>
@@ -8585,509 +8966,821 @@
         <v>26</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G100" s="107"/>
+      <c r="G100" s="116"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="109"/>
+      <c r="A101" s="114"/>
       <c r="B101" s="23" t="s">
-        <v>577</v>
+        <v>890</v>
       </c>
       <c r="C101" s="46" t="s">
         <v>28</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E101" s="47" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="F101" s="53" t="s">
-        <v>598</v>
-      </c>
-      <c r="G101" s="108"/>
+        <v>574</v>
+      </c>
+      <c r="G101" s="116"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="109" t="s">
-        <v>605</v>
+      <c r="A102" s="114" t="s">
+        <v>582</v>
       </c>
       <c r="B102" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D102" s="51" t="s">
+      <c r="C102" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" s="46" t="s">
         <v>26</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>268</v>
+        <v>884</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G102" s="110" t="s">
-        <v>625</v>
-      </c>
+      <c r="G102" s="116"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="109"/>
-      <c r="B103" s="88" t="s">
-        <v>786</v>
-      </c>
-      <c r="C103" s="84" t="s">
-        <v>787</v>
-      </c>
-      <c r="D103" s="89" t="s">
-        <v>784</v>
+      <c r="A103" s="114"/>
+      <c r="B103" s="95"/>
+      <c r="C103" s="92" t="s">
+        <v>761</v>
+      </c>
+      <c r="D103" s="94" t="s">
+        <v>762</v>
       </c>
       <c r="E103" s="44" t="s">
-        <v>792</v>
+        <v>883</v>
       </c>
       <c r="F103" s="45" t="s">
-        <v>785</v>
-      </c>
-      <c r="G103" s="107"/>
+        <v>763</v>
+      </c>
+      <c r="G103" s="116"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="109"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="84"/>
-      <c r="D104" s="89"/>
+      <c r="A104" s="114"/>
+      <c r="B104" s="95"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="94"/>
       <c r="E104" s="5" t="s">
-        <v>794</v>
+        <v>882</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G104" s="107"/>
+      <c r="G104" s="116"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="109"/>
-      <c r="B105" s="88"/>
-      <c r="C105" s="84" t="s">
-        <v>789</v>
-      </c>
-      <c r="D105" s="89" t="s">
-        <v>790</v>
+      <c r="A105" s="114"/>
+      <c r="B105" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="C105" s="92" t="s">
+        <v>534</v>
+      </c>
+      <c r="D105" s="94" t="s">
+        <v>759</v>
       </c>
       <c r="E105" s="44" t="s">
-        <v>788</v>
+        <v>881</v>
       </c>
       <c r="F105" s="45" t="s">
-        <v>791</v>
-      </c>
-      <c r="G105" s="107"/>
+        <v>879</v>
+      </c>
+      <c r="G105" s="116"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="109"/>
-      <c r="B106" s="88"/>
-      <c r="C106" s="84"/>
-      <c r="D106" s="84"/>
-      <c r="E106" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="F106" s="12" t="s">
+      <c r="A106" s="114"/>
+      <c r="B106" s="23" t="s">
+        <v>885</v>
+      </c>
+      <c r="C106" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="E106" s="47" t="s">
+        <v>580</v>
+      </c>
+      <c r="F106" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="G106" s="116"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F107" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G106" s="107"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="109"/>
-      <c r="B107" s="113" t="s">
-        <v>781</v>
-      </c>
-      <c r="C107" s="98" t="s">
-        <v>782</v>
-      </c>
-      <c r="D107" s="111" t="s">
-        <v>795</v>
-      </c>
-      <c r="E107" s="44" t="s">
-        <v>780</v>
-      </c>
-      <c r="F107" s="45" t="s">
-        <v>783</v>
-      </c>
-      <c r="G107" s="107"/>
-    </row>
-    <row r="108" spans="1:7" ht="55.2">
-      <c r="A108" s="109"/>
-      <c r="B108" s="114"/>
-      <c r="C108" s="114"/>
-      <c r="D108" s="112"/>
-      <c r="E108" s="61" t="s">
-        <v>779</v>
-      </c>
-      <c r="F108" s="55" t="s">
-        <v>607</v>
-      </c>
-      <c r="G108" s="107"/>
-    </row>
-    <row r="109" spans="1:7" ht="41.4">
-      <c r="A109" s="109"/>
+      <c r="G107" s="116"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="114"/>
+      <c r="B108" s="23" t="s">
+        <v>886</v>
+      </c>
+      <c r="C108" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E108" s="47" t="s">
+        <v>581</v>
+      </c>
+      <c r="F108" s="53" t="s">
+        <v>578</v>
+      </c>
+      <c r="G108" s="117"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="114" t="s">
+        <v>585</v>
+      </c>
       <c r="B109" s="23" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C109" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="D109" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="115" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="114"/>
+      <c r="B110" s="127" t="s">
+        <v>756</v>
+      </c>
+      <c r="C110" s="106" t="s">
+        <v>757</v>
+      </c>
+      <c r="D110" s="125" t="s">
+        <v>764</v>
+      </c>
+      <c r="E110" s="44" t="s">
+        <v>755</v>
+      </c>
+      <c r="F110" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="G110" s="116"/>
+    </row>
+    <row r="111" spans="1:7" ht="56">
+      <c r="A111" s="114"/>
+      <c r="B111" s="128"/>
+      <c r="C111" s="128"/>
+      <c r="D111" s="126"/>
+      <c r="E111" s="61" t="s">
+        <v>754</v>
+      </c>
+      <c r="F111" s="55" t="s">
+        <v>587</v>
+      </c>
+      <c r="G111" s="116"/>
+    </row>
+    <row r="112" spans="1:7" ht="42">
+      <c r="A112" s="114"/>
+      <c r="B112" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="E112" s="52" t="s">
+        <v>586</v>
+      </c>
+      <c r="F112" s="55" t="s">
         <v>796</v>
       </c>
-      <c r="E109" s="52" t="s">
-        <v>606</v>
-      </c>
-      <c r="F109" s="55" t="s">
-        <v>827</v>
-      </c>
-      <c r="G109" s="107"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="106" t="s">
-        <v>797</v>
-      </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="85" t="s">
-        <v>789</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="E110" s="87" t="s">
-        <v>808</v>
-      </c>
-      <c r="F110" s="55" t="s">
-        <v>809</v>
-      </c>
-      <c r="G110" s="86"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="107"/>
-      <c r="B111" s="23" t="s">
-        <v>786</v>
-      </c>
-      <c r="C111" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>804</v>
-      </c>
-      <c r="E111" s="87" t="s">
-        <v>805</v>
-      </c>
-      <c r="F111" s="55" t="s">
-        <v>806</v>
-      </c>
-      <c r="G111" s="86"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="107"/>
-      <c r="B112" s="23" t="s">
-        <v>786</v>
-      </c>
-      <c r="C112" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="E112" s="87" t="s">
-        <v>802</v>
-      </c>
-      <c r="F112" s="55" t="s">
-        <v>803</v>
-      </c>
-      <c r="G112" s="86"/>
+      <c r="G112" s="116"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="108"/>
-      <c r="B113" s="23" t="s">
-        <v>786</v>
-      </c>
-      <c r="C113" s="85" t="s">
-        <v>28</v>
+      <c r="A113" s="122" t="s">
+        <v>766</v>
+      </c>
+      <c r="B113" s="23"/>
+      <c r="C113" s="84" t="s">
+        <v>761</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>799</v>
-      </c>
-      <c r="E113" s="87" t="s">
-        <v>798</v>
+        <v>776</v>
+      </c>
+      <c r="E113" s="85" t="s">
+        <v>777</v>
       </c>
       <c r="F113" s="55" t="s">
-        <v>800</v>
-      </c>
-      <c r="G113" s="86"/>
+        <v>778</v>
+      </c>
+      <c r="G113" s="115" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="109" t="s">
-        <v>624</v>
-      </c>
+      <c r="A114" s="116"/>
       <c r="B114" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C114" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D114" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="120" t="s">
-        <v>623</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="C114" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="E114" s="85" t="s">
+        <v>774</v>
+      </c>
+      <c r="F114" s="55" t="s">
+        <v>775</v>
+      </c>
+      <c r="G114" s="116"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="109"/>
-      <c r="B115" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F115" s="28" t="s">
-        <v>621</v>
-      </c>
-      <c r="G115" s="120"/>
+      <c r="A115" s="116"/>
+      <c r="B115" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="C115" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="E115" s="85" t="s">
+        <v>771</v>
+      </c>
+      <c r="F115" s="55" t="s">
+        <v>772</v>
+      </c>
+      <c r="G115" s="116"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="109"/>
-      <c r="B116" s="32" t="s">
-        <v>562</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="F116" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="G116" s="120"/>
+      <c r="A116" s="117"/>
+      <c r="B116" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="C116" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="E116" s="85" t="s">
+        <v>767</v>
+      </c>
+      <c r="F116" s="55" t="s">
+        <v>769</v>
+      </c>
+      <c r="G116" s="117"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="109" t="s">
-        <v>626</v>
+      <c r="A117" s="114" t="s">
+        <v>602</v>
       </c>
       <c r="B117" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C117" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D117" s="59" t="s">
+      <c r="C117" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>656</v>
+        <v>553</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="110" t="s">
+      <c r="G117" s="118" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="114"/>
+      <c r="B118" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="F118" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="G118" s="118"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="114"/>
+      <c r="B119" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="F119" s="28" t="s">
+        <v>600</v>
+      </c>
+      <c r="G119" s="118"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="114" t="s">
+        <v>603</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="115" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="114"/>
+      <c r="B121" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="F121" s="28" t="s">
+        <v>611</v>
+      </c>
+      <c r="G121" s="116"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="114"/>
+      <c r="B122" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F122" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="G122" s="116"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="114"/>
+      <c r="B123" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="F123" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="G123" s="116"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="114"/>
+      <c r="B124" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="F124" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="G124" s="116"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="114"/>
+      <c r="B125" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="E125" s="9" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="109"/>
-      <c r="B118" s="32" t="s">
-        <v>632</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D118" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="F118" s="28" t="s">
-        <v>634</v>
-      </c>
-      <c r="G118" s="107"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="109"/>
-      <c r="B119" s="32" t="s">
-        <v>632</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D119" s="28" t="s">
-        <v>635</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="F119" s="28" t="s">
-        <v>636</v>
-      </c>
-      <c r="G119" s="107"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="109"/>
-      <c r="B120" s="32" t="s">
+      <c r="F125" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="G125" s="116"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="114"/>
+      <c r="B126" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="E126" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="C120" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D120" s="28" t="s">
-        <v>637</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="F120" s="28" t="s">
-        <v>638</v>
-      </c>
-      <c r="G120" s="107"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="109"/>
-      <c r="B121" s="32" t="s">
-        <v>631</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D121" s="28" t="s">
-        <v>639</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="F121" s="28" t="s">
-        <v>641</v>
-      </c>
-      <c r="G121" s="107"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="109"/>
-      <c r="B122" s="32" t="s">
-        <v>630</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122" s="28" t="s">
-        <v>642</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="F122" s="28" t="s">
-        <v>643</v>
-      </c>
-      <c r="G122" s="107"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="109"/>
-      <c r="B123" s="32" t="s">
-        <v>630</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" s="28" t="s">
-        <v>644</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="F123" s="28" t="s">
-        <v>645</v>
-      </c>
-      <c r="G123" s="107"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="109"/>
-      <c r="B124" s="32" t="s">
-        <v>629</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D124" s="28" t="s">
-        <v>646</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="F124" s="28" t="s">
-        <v>647</v>
-      </c>
-      <c r="G124" s="107"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="109"/>
-      <c r="B125" s="32" t="s">
+      <c r="F126" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="G126" s="116"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="114"/>
+      <c r="B127" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="E127" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C125" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125" s="28" t="s">
-        <v>648</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="F125" s="28" t="s">
-        <v>649</v>
-      </c>
-      <c r="G125" s="108"/>
+      <c r="F127" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="G127" s="116"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="114"/>
+      <c r="B128" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F128" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="G128" s="117"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="114" t="s">
+        <v>892</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="115" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="114"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="F130" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="G130" s="116"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="114" t="s">
+        <v>895</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="116"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="114"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>896</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="F132" s="28" t="s">
+        <v>897</v>
+      </c>
+      <c r="G132" s="116"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="114" t="s">
+        <v>901</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="116"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="114"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="28" t="s">
+        <v>899</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="F134" s="28" t="s">
+        <v>900</v>
+      </c>
+      <c r="G134" s="116"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="114" t="s">
+        <v>902</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="116"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="114"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="F136" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="G136" s="116"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="114"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="93"/>
+      <c r="D137" s="93"/>
+      <c r="E137" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="116"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="114"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="F138" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="G138" s="116"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="114" t="s">
+        <v>908</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="116"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="114"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="28" t="s">
+        <v>910</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="F140" s="28" t="s">
+        <v>911</v>
+      </c>
+      <c r="G140" s="116"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="114"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="93"/>
+      <c r="D141" s="93"/>
+      <c r="E141" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="116"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="114"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="28" t="s">
+        <v>909</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="F142" s="28" t="s">
+        <v>912</v>
+      </c>
+      <c r="G142" s="117"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A117:A125"/>
-    <mergeCell ref="G117:G125"/>
-    <mergeCell ref="G23:G43"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="G71:G80"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="G81:G85"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="G102:G109"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="G44:G51"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="G20:G22"/>
+  <mergeCells count="59">
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="G93:G108"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="G113:G116"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
@@ -9098,17 +9791,37 @@
     <mergeCell ref="A33:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A52:A59"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="G89:G101"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="A120:A128"/>
+    <mergeCell ref="G120:G128"/>
+    <mergeCell ref="G23:G43"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="G69:G82"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="G83:G86"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="G117:G119"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="G87:G92"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="G129:G142"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A134"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9118,27 +9831,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D0906-052D-43FD-A4BB-226D0BB88B0A}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.55" customHeight="1">
-      <c r="A1" s="101" t="s">
-        <v>769</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+    <row r="1" spans="1:6" ht="41.5" customHeight="1">
+      <c r="A1" s="109" t="s">
+        <v>746</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -9161,7 +9874,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="108" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -9181,7 +9894,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="100"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
@@ -9198,8 +9911,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="39.6">
-      <c r="A5" s="100"/>
+    <row r="5" spans="1:6" ht="37.5">
+      <c r="A5" s="108"/>
       <c r="B5" s="38" t="s">
         <v>4</v>
       </c>
@@ -9217,7 +9930,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="100"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="38" t="s">
         <v>4</v>
       </c>
@@ -9235,7 +9948,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="100"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="38" t="s">
         <v>4</v>
       </c>
@@ -9253,7 +9966,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="102"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="38" t="s">
         <v>163</v>
       </c>
@@ -9271,7 +9984,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="108" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -9291,7 +10004,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="100"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="38" t="s">
         <v>4</v>
       </c>
@@ -9309,7 +10022,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="100"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="38" t="s">
         <v>4</v>
       </c>
@@ -9327,7 +10040,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="100"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="38" t="s">
         <v>4</v>
       </c>
@@ -9345,7 +10058,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="100"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="38" t="s">
         <v>4</v>
       </c>
@@ -9363,7 +10076,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="100"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="38" t="s">
         <v>4</v>
       </c>
@@ -9380,8 +10093,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="132">
-      <c r="A15" s="102"/>
+    <row r="15" spans="1:6" ht="112.5">
+      <c r="A15" s="110"/>
       <c r="B15" s="38" t="s">
         <v>345</v>
       </c>
@@ -9389,7 +10102,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>825</v>
+        <v>794</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>156</v>
@@ -9399,7 +10112,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="108" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="38" t="s">
@@ -9419,7 +10132,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="102"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="38" t="s">
         <v>4</v>
       </c>
@@ -9437,7 +10150,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="108" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -9457,7 +10170,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="102"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="38" t="s">
         <v>4</v>
       </c>
@@ -9475,7 +10188,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="106" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -9494,8 +10207,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="52.8">
-      <c r="A21" s="103"/>
+    <row r="21" spans="1:6" ht="50">
+      <c r="A21" s="111"/>
       <c r="B21" s="38" t="s">
         <v>4</v>
       </c>
@@ -9513,7 +10226,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="103"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="38" t="s">
         <v>4</v>
       </c>
@@ -9531,7 +10244,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="103"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="38" t="s">
         <v>4</v>
       </c>
@@ -9549,7 +10262,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="103"/>
+      <c r="A24" s="111"/>
       <c r="B24" s="38" t="s">
         <v>4</v>
       </c>
@@ -9567,7 +10280,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="103"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="38" t="s">
         <v>4</v>
       </c>
@@ -9585,7 +10298,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="99"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="38" t="s">
         <v>4</v>
       </c>
@@ -9603,7 +10316,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="106" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="38" t="s">
@@ -9623,7 +10336,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="103"/>
+      <c r="A28" s="111"/>
       <c r="B28" s="38" t="s">
         <v>4</v>
       </c>
@@ -9640,8 +10353,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="105.6">
-      <c r="A29" s="103"/>
+    <row r="29" spans="1:6" ht="100">
+      <c r="A29" s="111"/>
       <c r="B29" s="38" t="s">
         <v>4</v>
       </c>
@@ -9659,7 +10372,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="103"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="38" t="s">
         <v>4</v>
       </c>
@@ -9676,8 +10389,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="118.8">
-      <c r="A31" s="99"/>
+    <row r="31" spans="1:6" ht="112.5">
+      <c r="A31" s="107"/>
       <c r="B31" s="38" t="s">
         <v>4</v>
       </c>
@@ -9695,7 +10408,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="108" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="38" t="s">
@@ -9715,7 +10428,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="100"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="38" t="s">
         <v>371</v>
       </c>
@@ -9732,8 +10445,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A34" s="100" t="s">
+    <row r="34" spans="1:6" ht="13" customHeight="1">
+      <c r="A34" s="108" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="38" t="s">
@@ -9753,7 +10466,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="100"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="38" t="s">
         <v>372</v>
       </c>
@@ -9771,58 +10484,73 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="90"/>
-      <c r="B36" s="90"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="90"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="5" t="s">
-        <v>59</v>
+        <v>395</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="96.6">
-      <c r="A37" s="100" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="90" t="s">
-        <v>812</v>
-      </c>
-      <c r="D37" s="90" t="s">
-        <v>813</v>
-      </c>
-      <c r="E37" s="91" t="s">
-        <v>814</v>
-      </c>
-      <c r="F37" s="92" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="100"/>
-      <c r="B38" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="B37" s="100"/>
+      <c r="C37" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="D37" s="100" t="s">
+        <v>933</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="84">
+      <c r="A38" s="111"/>
+      <c r="B38" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>781</v>
+      </c>
+      <c r="D38" s="86" t="s">
+        <v>782</v>
+      </c>
+      <c r="E38" s="87" t="s">
+        <v>783</v>
+      </c>
+      <c r="F38" s="88" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="107"/>
+      <c r="B39" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="90" t="s">
-        <v>810</v>
-      </c>
-      <c r="E38" s="15" t="s">
+      <c r="D39" s="86" t="s">
+        <v>779</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="19" t="s">
-        <v>811</v>
+      <c r="F39" s="19" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
@@ -9832,6 +10560,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A20:A26"/>
     <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A37:A39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9841,28 +10570,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9074A8-11E0-48D9-822A-54D3CEF7052B}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.08203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="109" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -9885,7 +10614,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="108" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -9905,7 +10634,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="102"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
@@ -9943,7 +10672,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="108" t="s">
         <v>126</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -9963,7 +10692,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="102"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="43" t="s">
         <v>4</v>
       </c>
@@ -9991,755 +10720,1229 @@
         <v>28</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="E8" s="44" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>773</v>
+      <c r="B9" s="106" t="s">
+        <v>841</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="106" t="s">
+        <v>750</v>
       </c>
       <c r="E9" s="44" t="s">
+        <v>838</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="132"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="44" t="s">
+        <v>837</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="132"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="44" t="s">
+        <v>835</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="132"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="44" t="s">
+        <v>833</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="132"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="44" t="s">
+        <v>831</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="132"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="44" t="s">
+        <v>829</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="132"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="44" t="s">
+        <v>827</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="132"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="44" t="s">
+        <v>825</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="132"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="44" t="s">
+        <v>823</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="132"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="44" t="s">
+        <v>821</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="132"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="44" t="s">
+        <v>819</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="132"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="44" t="s">
+        <v>817</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="132"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="44" t="s">
+        <v>815</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="132"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="44" t="s">
+        <v>813</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="132"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="44" t="s">
+        <v>811</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="128"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="44" t="s">
+        <v>809</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="106" t="s">
+        <v>863</v>
+      </c>
+      <c r="C25" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="106" t="s">
+        <v>751</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="132"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="44" t="s">
+        <v>858</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="132"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="44" t="s">
+        <v>856</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="132"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="44" t="s">
+        <v>854</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="132"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="44" t="s">
+        <v>852</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="132"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="44" t="s">
+        <v>850</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="132"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="98" t="s">
+        <v>823</v>
+      </c>
+      <c r="F31" s="99" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="132"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="F32" s="99" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="132"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="98" t="s">
+        <v>819</v>
+      </c>
+      <c r="F33" s="99" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="132"/>
+      <c r="B34" s="132"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="44" t="s">
+        <v>817</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="132"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="44" t="s">
+        <v>815</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="132"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="44" t="s">
+        <v>813</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="132"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="44" t="s">
+        <v>811</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="128"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="44" t="s">
+        <v>809</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13" customHeight="1">
+      <c r="A39" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="E39" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="45" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>774</v>
-      </c>
-      <c r="E10" s="44" t="s">
+      <c r="F39" s="45" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="E40" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="45" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A11" s="43" t="s">
-        <v>432</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="E11" s="44" t="s">
+      <c r="F40" s="45" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="E41" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="45" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>434</v>
-      </c>
-      <c r="E12" s="44" t="s">
+      <c r="F41" s="45" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="E42" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="45" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>436</v>
-      </c>
-      <c r="E13" s="44" t="s">
+      <c r="F42" s="45" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13" customHeight="1">
+      <c r="A43" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>440</v>
+      </c>
+      <c r="E43" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="45" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>438</v>
-      </c>
-      <c r="E14" s="44" t="s">
+      <c r="F43" s="45" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="E44" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="45" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A15" s="43" t="s">
-        <v>442</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>440</v>
-      </c>
-      <c r="E15" s="44" t="s">
+      <c r="F44" s="45" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>444</v>
+      </c>
+      <c r="E45" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="45" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>443</v>
-      </c>
-      <c r="E16" s="44" t="s">
+      <c r="F45" s="45" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>445</v>
+      </c>
+      <c r="E46" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="45" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>444</v>
-      </c>
-      <c r="E17" s="44" t="s">
+      <c r="F46" s="45" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="13" customHeight="1">
+      <c r="A47" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="E47" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="45" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>445</v>
-      </c>
-      <c r="E18" s="44" t="s">
+      <c r="F47" s="45" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="13" customHeight="1">
+      <c r="A48" s="106" t="s">
+        <v>554</v>
+      </c>
+      <c r="B48" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="93"/>
+      <c r="E48" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13" customHeight="1">
+      <c r="A49" s="132"/>
+      <c r="B49" s="132"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="106" t="s">
+        <v>864</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>866</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13" customHeight="1">
+      <c r="A50" s="128"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13" customHeight="1">
+      <c r="A51" s="106" t="s">
+        <v>568</v>
+      </c>
+      <c r="B51" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="106" t="s">
+        <v>871</v>
+      </c>
+      <c r="D51" s="96"/>
+      <c r="E51" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="13" customHeight="1">
+      <c r="A52" s="128"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="44" t="s">
+        <v>869</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="108" t="s">
+        <v>452</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="110"/>
+      <c r="B54" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="108" t="s">
+        <v>454</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="110"/>
+      <c r="B56" s="43" t="s">
+        <v>862</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>859</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="106" t="s">
+        <v>455</v>
+      </c>
+      <c r="B57" s="106" t="s">
+        <v>877</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="111"/>
+      <c r="B58" s="132"/>
+      <c r="C58" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="106" t="s">
+        <v>456</v>
+      </c>
+      <c r="E58" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="111"/>
+      <c r="B59" s="132"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="132"/>
+      <c r="E59" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="111"/>
+      <c r="B60" s="132"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="111"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="107"/>
+      <c r="B62" s="128"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="128"/>
+      <c r="E62" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="108" t="s">
+        <v>457</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="110"/>
+      <c r="B64" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>667</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="106" t="s">
+        <v>460</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="107"/>
+      <c r="B66" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="106" t="s">
+        <v>463</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="107"/>
+      <c r="B68" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="13" customHeight="1">
+      <c r="A69" s="60" t="s">
+        <v>634</v>
+      </c>
+      <c r="B69" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="60" t="s">
+        <v>635</v>
+      </c>
+      <c r="E69" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="45" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A19" s="43" t="s">
-        <v>451</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>446</v>
-      </c>
-      <c r="E19" s="44" t="s">
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="106" t="s">
+        <v>636</v>
+      </c>
+      <c r="B70" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="111"/>
+      <c r="B71" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="60" t="s">
+        <v>638</v>
+      </c>
+      <c r="E71" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="111"/>
+      <c r="B72" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="E72" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="111"/>
+      <c r="B73" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="60" t="s">
+        <v>640</v>
+      </c>
+      <c r="E73" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="107"/>
+      <c r="B74" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="60" t="s">
+        <v>641</v>
+      </c>
+      <c r="E74" s="60" t="s">
+        <v>642</v>
+      </c>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="1:6" ht="13" customHeight="1">
+      <c r="A75" s="60" t="s">
+        <v>643</v>
+      </c>
+      <c r="B75" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="60" t="s">
+        <v>644</v>
+      </c>
+      <c r="E75" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="45" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="100" t="s">
-        <v>452</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="1:6" ht="13" customHeight="1">
+      <c r="A76" s="60" t="s">
+        <v>645</v>
+      </c>
+      <c r="B76" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="60" t="s">
+        <v>646</v>
+      </c>
+      <c r="E76" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="1:6" ht="13" customHeight="1">
+      <c r="A77" s="60" t="s">
+        <v>647</v>
+      </c>
+      <c r="B77" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="60" t="s">
+        <v>648</v>
+      </c>
+      <c r="E77" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="1:6" ht="13" customHeight="1">
+      <c r="A78" s="60" t="s">
+        <v>649</v>
+      </c>
+      <c r="B78" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="60" t="s">
+        <v>650</v>
+      </c>
+      <c r="E78" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="106" t="s">
+        <v>651</v>
+      </c>
+      <c r="B79" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F79" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="102"/>
-      <c r="B21" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>453</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>454</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="100" t="s">
-        <v>457</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="F22" s="12" t="s">
+    <row r="80" spans="1:6">
+      <c r="A80" s="111"/>
+      <c r="B80" s="60" t="s">
+        <v>660</v>
+      </c>
+      <c r="C80" s="60" t="s">
+        <v>656</v>
+      </c>
+      <c r="D80" s="60" t="s">
+        <v>659</v>
+      </c>
+      <c r="E80" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="111"/>
+      <c r="B81" s="60" t="s">
+        <v>655</v>
+      </c>
+      <c r="C81" s="60" t="s">
+        <v>656</v>
+      </c>
+      <c r="D81" s="60" t="s">
+        <v>653</v>
+      </c>
+      <c r="E81" s="44" t="s">
+        <v>654</v>
+      </c>
+      <c r="F81" s="45" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="107"/>
+      <c r="B82" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="60" t="s">
+        <v>652</v>
+      </c>
+      <c r="E82" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="106" t="s">
+        <v>662</v>
+      </c>
+      <c r="B83" s="60"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="F83" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="102"/>
-      <c r="B23" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>458</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>454</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="98" t="s">
-        <v>460</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="99"/>
-      <c r="B25" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="E25" s="43" t="s">
+    <row r="84" spans="1:6" ht="13" customHeight="1">
+      <c r="A84" s="128"/>
+      <c r="B84" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="60" t="s">
+        <v>663</v>
+      </c>
+      <c r="E84" s="60" t="s">
+        <v>664</v>
+      </c>
+      <c r="F84" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="100" t="s">
-        <v>463</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="102"/>
-      <c r="B27" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>690</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="98" t="s">
-        <v>466</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="99"/>
-      <c r="B29" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>467</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>665</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="98" t="s">
-        <v>469</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="99"/>
-      <c r="B31" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>470</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>665</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A32" s="60" t="s">
-        <v>657</v>
-      </c>
-      <c r="B32" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="60" t="s">
-        <v>658</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="98" t="s">
-        <v>659</v>
-      </c>
-      <c r="B33" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="103"/>
-      <c r="B34" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="60" t="s">
-        <v>661</v>
-      </c>
-      <c r="E34" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="103"/>
-      <c r="B35" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>662</v>
-      </c>
-      <c r="E35" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="103"/>
-      <c r="B36" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>663</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="99"/>
-      <c r="B37" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="60" t="s">
-        <v>664</v>
-      </c>
-      <c r="E37" s="60" t="s">
-        <v>665</v>
-      </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A38" s="60" t="s">
-        <v>666</v>
-      </c>
-      <c r="B38" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="60" t="s">
-        <v>667</v>
-      </c>
-      <c r="E38" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A39" s="60" t="s">
-        <v>668</v>
-      </c>
-      <c r="B39" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="60" t="s">
-        <v>669</v>
-      </c>
-      <c r="E39" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A40" s="60" t="s">
-        <v>670</v>
-      </c>
-      <c r="B40" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="60" t="s">
-        <v>671</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A41" s="60" t="s">
-        <v>672</v>
-      </c>
-      <c r="B41" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="60" t="s">
-        <v>673</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="98" t="s">
-        <v>674</v>
-      </c>
-      <c r="B42" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="103"/>
-      <c r="B43" s="60" t="s">
-        <v>683</v>
-      </c>
-      <c r="C43" s="60" t="s">
-        <v>679</v>
-      </c>
-      <c r="D43" s="60" t="s">
-        <v>682</v>
-      </c>
-      <c r="E43" s="44" t="s">
-        <v>681</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="103"/>
-      <c r="B44" s="60" t="s">
-        <v>678</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>679</v>
-      </c>
-      <c r="D44" s="60" t="s">
-        <v>676</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>677</v>
-      </c>
-      <c r="F44" s="45" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="99"/>
-      <c r="B45" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="60" t="s">
-        <v>675</v>
-      </c>
-      <c r="E45" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="98" t="s">
-        <v>685</v>
-      </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A47" s="114"/>
-      <c r="B47" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="60" t="s">
-        <v>686</v>
-      </c>
-      <c r="E47" s="60" t="s">
-        <v>687</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>688</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="30">
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A62"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="D9:D24"/>
+    <mergeCell ref="C9:C24"/>
+    <mergeCell ref="B9:B24"/>
+    <mergeCell ref="A9:A24"/>
+    <mergeCell ref="D25:D38"/>
+    <mergeCell ref="C25:C38"/>
+    <mergeCell ref="B25:B38"/>
+    <mergeCell ref="A25:A38"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="B57:B62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10751,26 +11954,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5462A84-5583-420E-A5C1-7ED4CC9711D3}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.08203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="101" t="s">
-        <v>770</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="A1" s="109" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -10793,21 +11996,21 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="108" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
       <c r="E3" s="5" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="100"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
@@ -10815,17 +12018,17 @@
         <v>28</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="100"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="43" t="s">
         <v>4</v>
       </c>
@@ -10833,17 +12036,17 @@
         <v>28</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>325</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="100"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="43" t="s">
         <v>4</v>
       </c>
@@ -10851,17 +12054,17 @@
         <v>28</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>326</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="100"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="43" t="s">
         <v>4</v>
       </c>
@@ -10869,17 +12072,17 @@
         <v>28</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>324</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="100"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="43" t="s">
         <v>4</v>
       </c>
@@ -10887,17 +12090,17 @@
         <v>28</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>296</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="100"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="43" t="s">
         <v>4</v>
       </c>
@@ -10905,17 +12108,17 @@
         <v>28</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>295</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="100"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="43" t="s">
         <v>4</v>
       </c>
@@ -10923,17 +12126,17 @@
         <v>28</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>312</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="100"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="43" t="s">
         <v>4</v>
       </c>
@@ -10941,17 +12144,17 @@
         <v>28</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>294</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="100"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="43" t="s">
         <v>4</v>
       </c>
@@ -10959,17 +12162,17 @@
         <v>28</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>176</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="100"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="43" t="s">
         <v>4</v>
       </c>
@@ -10977,17 +12180,17 @@
         <v>28</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>334</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="100"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="43" t="s">
         <v>4</v>
       </c>
@@ -10995,17 +12198,17 @@
         <v>28</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>172</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="100"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="43" t="s">
         <v>4</v>
       </c>
@@ -11013,17 +12216,17 @@
         <v>28</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>263</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="100"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="43" t="s">
         <v>4</v>
       </c>
@@ -11031,17 +12234,17 @@
         <v>28</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="100"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="43"/>
       <c r="C17" s="8"/>
       <c r="D17" s="43"/>
@@ -11053,7 +12256,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="100"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
@@ -11061,17 +12264,17 @@
         <v>28</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="100"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="43" t="s">
         <v>4</v>
       </c>
@@ -11079,17 +12282,17 @@
         <v>28</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="102"/>
+      <c r="A20" s="110"/>
       <c r="B20" s="43" t="s">
         <v>4</v>
       </c>
@@ -11097,13 +12300,13 @@
         <v>28</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -11117,13 +12320,13 @@
         <v>28</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E21" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -11131,19 +12334,19 @@
         <v>126</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E22" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -11151,19 +12354,19 @@
         <v>418</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E23" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -11171,19 +12374,19 @@
         <v>18</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E24" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -11191,23 +12394,23 @@
         <v>19</v>
       </c>
       <c r="B25" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="43" t="s">
         <v>509</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>515</v>
       </c>
       <c r="E25" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="108" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="43" t="s">
@@ -11227,7 +12430,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="102"/>
+      <c r="A27" s="110"/>
       <c r="B27" s="43" t="s">
         <v>4</v>
       </c>
@@ -11235,17 +12438,17 @@
         <v>28</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="108" t="s">
         <v>432</v>
       </c>
       <c r="B28" s="43" t="s">
@@ -11265,7 +12468,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="102"/>
+      <c r="A29" s="110"/>
       <c r="B29" s="43" t="s">
         <v>4</v>
       </c>
@@ -11273,17 +12476,17 @@
         <v>28</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="108" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="43" t="s">
@@ -11303,7 +12506,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="102"/>
+      <c r="A31" s="110"/>
       <c r="B31" s="43" t="s">
         <v>4</v>
       </c>
@@ -11311,17 +12514,17 @@
         <v>28</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A32" s="100" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13" customHeight="1">
+      <c r="A32" s="108" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="43" t="s">
@@ -11341,7 +12544,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="102"/>
+      <c r="A33" s="110"/>
       <c r="B33" s="43" t="s">
         <v>4</v>
       </c>
@@ -11349,17 +12552,17 @@
         <v>28</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="108" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="43" t="s">
@@ -11379,7 +12582,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="102"/>
+      <c r="A35" s="110"/>
       <c r="B35" s="43" t="s">
         <v>4</v>
       </c>
@@ -11387,17 +12590,17 @@
         <v>28</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A36" s="100" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13" customHeight="1">
+      <c r="A36" s="108" t="s">
         <v>442</v>
       </c>
       <c r="B36" s="43" t="s">
@@ -11417,7 +12620,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="102"/>
+      <c r="A37" s="110"/>
       <c r="B37" s="43" t="s">
         <v>4</v>
       </c>
@@ -11425,17 +12628,17 @@
         <v>28</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="100" t="s">
+      <c r="A38" s="108" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="43" t="s">
@@ -11455,7 +12658,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="102"/>
+      <c r="A39" s="110"/>
       <c r="B39" s="43" t="s">
         <v>4</v>
       </c>
@@ -11463,17 +12666,17 @@
         <v>28</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="100" t="s">
+      <c r="A40" s="108" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="43" t="s">
@@ -11493,7 +12696,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="102"/>
+      <c r="A41" s="110"/>
       <c r="B41" s="43" t="s">
         <v>4</v>
       </c>
@@ -11501,17 +12704,17 @@
         <v>28</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="108" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="43" t="s">
@@ -11531,7 +12734,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="102"/>
+      <c r="A43" s="110"/>
       <c r="B43" s="43" t="s">
         <v>4</v>
       </c>
@@ -11539,17 +12742,17 @@
         <v>28</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="100" t="s">
+      <c r="A44" s="108" t="s">
         <v>451</v>
       </c>
       <c r="B44" s="43" t="s">
@@ -11569,7 +12772,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="102"/>
+      <c r="A45" s="110"/>
       <c r="B45" s="43" t="s">
         <v>4</v>
       </c>
@@ -11577,93 +12780,93 @@
         <v>28</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="93" t="s">
-        <v>568</v>
-      </c>
-      <c r="B46" s="94" t="s">
+      <c r="A46" s="89" t="s">
+        <v>554</v>
+      </c>
+      <c r="B46" s="90" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="94" t="s">
-        <v>816</v>
-      </c>
-      <c r="E46" s="94" t="s">
+      <c r="D46" s="90" t="s">
+        <v>785</v>
+      </c>
+      <c r="E46" s="90" t="s">
         <v>5</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>817</v>
+        <v>786</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="93" t="s">
-        <v>586</v>
-      </c>
-      <c r="B47" s="94" t="s">
+      <c r="A47" s="89" t="s">
+        <v>568</v>
+      </c>
+      <c r="B47" s="90" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="94" t="s">
-        <v>818</v>
-      </c>
-      <c r="E47" s="94" t="s">
+      <c r="D47" s="90" t="s">
+        <v>787</v>
+      </c>
+      <c r="E47" s="90" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>819</v>
+        <v>788</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="93" t="s">
-        <v>590</v>
-      </c>
-      <c r="B48" s="94" t="s">
+      <c r="A48" s="89" t="s">
+        <v>572</v>
+      </c>
+      <c r="B48" s="90" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="94" t="s">
-        <v>820</v>
-      </c>
-      <c r="E48" s="94" t="s">
+      <c r="D48" s="90" t="s">
+        <v>789</v>
+      </c>
+      <c r="E48" s="90" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>821</v>
+        <v>790</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="93" t="s">
-        <v>822</v>
-      </c>
-      <c r="B49" s="94" t="s">
+      <c r="A49" s="89" t="s">
+        <v>791</v>
+      </c>
+      <c r="B49" s="90" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="94" t="s">
-        <v>823</v>
-      </c>
-      <c r="E49" s="94" t="s">
+      <c r="D49" s="90" t="s">
+        <v>792</v>
+      </c>
+      <c r="E49" s="90" t="s">
         <v>5</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>824</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -11695,22 +12898,22 @@
       <selection activeCell="A10" sqref="A10:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.08203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="109" t="s">
         <v>382</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -11733,7 +12936,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="108" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -11750,8 +12953,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.4">
-      <c r="A4" s="100"/>
+    <row r="4" spans="1:6" ht="25">
+      <c r="A4" s="108"/>
       <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
@@ -11768,8 +12971,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="39.6">
-      <c r="A5" s="100"/>
+    <row r="5" spans="1:6" ht="37.5">
+      <c r="A5" s="108"/>
       <c r="B5" s="43" t="s">
         <v>4</v>
       </c>
@@ -11787,7 +12990,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="100"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="43" t="s">
         <v>110</v>
       </c>
@@ -11805,7 +13008,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="100"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="43" t="s">
         <v>110</v>
       </c>
@@ -11823,7 +13026,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="100"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="43" t="s">
         <v>4</v>
       </c>
@@ -11841,7 +13044,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="102"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="43" t="s">
         <v>4</v>
       </c>
@@ -11859,7 +13062,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="108" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="43" t="s">
@@ -11879,7 +13082,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="100"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="43" t="s">
         <v>4</v>
       </c>
@@ -11897,7 +13100,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="100"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="43" t="s">
         <v>4</v>
       </c>
@@ -11915,7 +13118,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="100"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="43" t="s">
         <v>4</v>
       </c>
@@ -11933,7 +13136,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="100"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="43" t="s">
         <v>4</v>
       </c>
@@ -11951,7 +13154,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="102"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="43" t="s">
         <v>4</v>
       </c>
@@ -11969,7 +13172,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="108" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -11989,7 +13192,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="100"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="43" t="s">
         <v>4</v>
       </c>
@@ -12007,7 +13210,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="100"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
@@ -12025,7 +13228,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="102"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="43" t="s">
         <v>4</v>
       </c>
@@ -12043,7 +13246,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="108" t="s">
         <v>418</v>
       </c>
       <c r="B20" s="43" t="s">
@@ -12063,7 +13266,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="100"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="43" t="s">
         <v>4</v>
       </c>
@@ -12081,7 +13284,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="100"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="43" t="s">
         <v>4</v>
       </c>
@@ -12099,7 +13302,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="102"/>
+      <c r="A23" s="110"/>
       <c r="B23" s="43" t="s">
         <v>4</v>
       </c>

--- a/doc/XBR820  system spec/xbr820_register.xlsx
+++ b/doc/XBR820  system spec/xbr820_register.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lzj\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25AC252B-44B4-4065-8A3D-A234BE3C8C33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="20890" windowHeight="14620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="20888" windowHeight="14618" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MemMap" sheetId="20" r:id="rId1"/>
@@ -24,9 +18,9 @@
     <sheet name="flash" sheetId="18" r:id="rId9"/>
     <sheet name="interrupts" sheetId="21" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="941">
   <si>
     <t>RO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3765,12 +3759,76 @@
     <t>fifo_clear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>暂时没用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>N-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stop</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-ACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>查询</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>restart receive mode1 &amp; 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3951,6 +4009,17 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -4271,7 +4340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4547,6 +4616,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4697,7 +4769,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -4732,7 +4804,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -4909,31 +4981,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EB3F28-8067-4A17-9578-304DE1B9D9E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="17.08203125" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" customWidth="1"/>
+    <col min="3" max="3" width="17.06640625" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="38.08203125" customWidth="1"/>
+    <col min="6" max="6" width="38.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="15.4" thickBot="1">
       <c r="A1" s="62" t="s">
         <v>668</v>
       </c>
@@ -4953,7 +5025,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" thickBot="1">
+    <row r="2" spans="1:6" ht="15.4" thickBot="1">
       <c r="A2" s="65" t="s">
         <v>674</v>
       </c>
@@ -4973,7 +5045,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" thickBot="1">
+    <row r="3" spans="1:6" ht="15.4" thickBot="1">
       <c r="A3" s="65" t="s">
         <v>680</v>
       </c>
@@ -4993,8 +5065,8 @@
         <v>685</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5">
-      <c r="A4" s="103" t="s">
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="104" t="s">
         <v>686</v>
       </c>
       <c r="B4" s="71" t="s">
@@ -5013,8 +5085,8 @@
         <v>691</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.5">
-      <c r="A5" s="104"/>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="105"/>
       <c r="B5" s="73" t="s">
         <v>692</v>
       </c>
@@ -5031,8 +5103,8 @@
         <v>695</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5">
-      <c r="A6" s="104"/>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="105"/>
       <c r="B6" s="73" t="s">
         <v>696</v>
       </c>
@@ -5049,8 +5121,8 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5">
-      <c r="A7" s="104"/>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="105"/>
       <c r="B7" s="73" t="s">
         <v>701</v>
       </c>
@@ -5067,8 +5139,8 @@
         <v>704</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5">
-      <c r="A8" s="104"/>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="105"/>
       <c r="B8" s="73" t="s">
         <v>705</v>
       </c>
@@ -5085,8 +5157,8 @@
         <v>708</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5">
-      <c r="A9" s="104"/>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="105"/>
       <c r="B9" s="73" t="s">
         <v>709</v>
       </c>
@@ -5103,8 +5175,8 @@
         <v>712</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.5">
-      <c r="A10" s="104"/>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="105"/>
       <c r="B10" s="73" t="s">
         <v>713</v>
       </c>
@@ -5121,8 +5193,8 @@
         <v>716</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" thickBot="1">
-      <c r="A11" s="104"/>
+    <row r="11" spans="1:6" ht="15.4" thickBot="1">
+      <c r="A11" s="105"/>
       <c r="B11" s="75" t="s">
         <v>717</v>
       </c>
@@ -5139,8 +5211,8 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.5">
-      <c r="A12" s="105" t="s">
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="106" t="s">
         <v>721</v>
       </c>
       <c r="B12" s="75" t="s">
@@ -5159,8 +5231,8 @@
         <v>753</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5">
-      <c r="A13" s="104"/>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="105"/>
       <c r="B13" s="75" t="s">
         <v>724</v>
       </c>
@@ -5175,8 +5247,8 @@
       </c>
       <c r="F13" s="76"/>
     </row>
-    <row r="14" spans="1:6" ht="15.5">
-      <c r="A14" s="104"/>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="105"/>
       <c r="B14" s="77" t="s">
         <v>726</v>
       </c>
@@ -5189,8 +5261,8 @@
       <c r="E14" s="77"/>
       <c r="F14" s="78"/>
     </row>
-    <row r="15" spans="1:6" ht="15.5">
-      <c r="A15" s="104"/>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="105"/>
       <c r="B15" s="77" t="s">
         <v>728</v>
       </c>
@@ -5203,8 +5275,8 @@
       <c r="E15" s="77"/>
       <c r="F15" s="78"/>
     </row>
-    <row r="16" spans="1:6" ht="15.5">
-      <c r="A16" s="104"/>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="105"/>
       <c r="B16" s="77" t="s">
         <v>730</v>
       </c>
@@ -5217,8 +5289,8 @@
       <c r="E16" s="77"/>
       <c r="F16" s="78"/>
     </row>
-    <row r="17" spans="1:6" ht="15.5">
-      <c r="A17" s="104"/>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="105"/>
       <c r="B17" s="77" t="s">
         <v>732</v>
       </c>
@@ -5231,8 +5303,8 @@
       <c r="E17" s="77"/>
       <c r="F17" s="78"/>
     </row>
-    <row r="18" spans="1:6" ht="15.5">
-      <c r="A18" s="104"/>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="105"/>
       <c r="B18" s="77" t="s">
         <v>734</v>
       </c>
@@ -5245,8 +5317,8 @@
       <c r="E18" s="77"/>
       <c r="F18" s="78"/>
     </row>
-    <row r="19" spans="1:6" ht="16" thickBot="1">
-      <c r="A19" s="104"/>
+    <row r="19" spans="1:6" ht="15.4" thickBot="1">
+      <c r="A19" s="105"/>
       <c r="B19" s="79" t="s">
         <v>736</v>
       </c>
@@ -5259,7 +5331,7 @@
       <c r="E19" s="79"/>
       <c r="F19" s="80"/>
     </row>
-    <row r="20" spans="1:6" ht="16" thickBot="1">
+    <row r="20" spans="1:6" ht="15.4" thickBot="1">
       <c r="A20" s="81" t="s">
         <v>738</v>
       </c>
@@ -5289,16 +5361,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA98114-2501-4EF7-AF09-0FC113866AE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="24.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3">
@@ -5421,33 +5493,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E50D85-45BE-43BD-8EEE-DE4DF7191B60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.6640625" style="1"/>
     <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="1"/>
     <col min="6" max="6" width="34.33203125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="47" customHeight="1">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:7" ht="47" customHeight="1">
+      <c r="A1" s="110" t="s">
         <v>743</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -5467,8 +5540,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="109" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -5487,8 +5560,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="110"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="111"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -5505,8 +5578,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="109" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5525,8 +5598,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="111"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -5543,8 +5616,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="106" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="107" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="17"/>
@@ -5557,8 +5630,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="48" customHeight="1">
-      <c r="A8" s="111"/>
+    <row r="8" spans="1:7" ht="48" customHeight="1">
+      <c r="A8" s="112"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -5575,8 +5648,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75">
-      <c r="A9" s="107"/>
+    <row r="9" spans="1:7" ht="76.5">
+      <c r="A9" s="108"/>
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
@@ -5593,8 +5666,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="108" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="109" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -5613,8 +5686,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25">
-      <c r="A11" s="110"/>
+    <row r="11" spans="1:7" ht="38.25">
+      <c r="A11" s="111"/>
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
@@ -5630,9 +5703,12 @@
       <c r="F11" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="108" t="s">
+      <c r="G11" s="103" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="109" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -5651,8 +5727,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="37.5">
-      <c r="A13" s="108"/>
+    <row r="13" spans="1:7" ht="38.25">
+      <c r="A13" s="109"/>
       <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
@@ -5668,9 +5744,12 @@
       <c r="F13" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="108" t="s">
+      <c r="G13" s="103" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="109" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -5689,8 +5768,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="108"/>
+    <row r="15" spans="1:7" ht="25.9">
+      <c r="A15" s="109"/>
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
@@ -5706,8 +5785,11 @@
       <c r="F15" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="103" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="20" t="s">
         <v>20</v>
       </c>
@@ -5789,8 +5871,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.5" customHeight="1">
-      <c r="A20" s="108" t="s">
+    <row r="20" spans="1:12" ht="17.55" customHeight="1">
+      <c r="A20" s="109" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="6"/>
@@ -5807,8 +5889,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.5" customHeight="1">
-      <c r="A21" s="108"/>
+    <row r="21" spans="1:12" ht="17.55" customHeight="1">
+      <c r="A21" s="109"/>
       <c r="B21" s="17" t="s">
         <v>4</v>
       </c>
@@ -5824,9 +5906,12 @@
       <c r="F21" s="19" t="s">
         <v>81</v>
       </c>
+      <c r="G21" s="103" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="108"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="6" t="s">
         <v>4</v>
       </c>
@@ -5844,7 +5929,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="108"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
@@ -5862,7 +5947,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="108"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
@@ -5879,8 +5964,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17.5" customHeight="1">
-      <c r="A25" s="108" t="s">
+    <row r="25" spans="1:12" ht="17.55" customHeight="1">
+      <c r="A25" s="109" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="17"/>
@@ -5897,8 +5982,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="25">
-      <c r="A26" s="108"/>
+    <row r="26" spans="1:12" ht="25.5">
+      <c r="A26" s="109"/>
       <c r="B26" s="17" t="s">
         <v>4</v>
       </c>
@@ -5914,9 +5999,12 @@
       <c r="F26" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="108"/>
+      <c r="G26" s="103" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="25.5">
+      <c r="A27" s="109"/>
       <c r="B27" s="17" t="s">
         <v>4</v>
       </c>
@@ -5933,8 +6021,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="108"/>
+    <row r="28" spans="1:12" ht="25.5">
+      <c r="A28" s="109"/>
       <c r="B28" s="17" t="s">
         <v>4</v>
       </c>
@@ -5952,7 +6040,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="108" t="s">
+      <c r="A29" s="109" t="s">
         <v>77</v>
       </c>
       <c r="B29" s="6"/>
@@ -5970,7 +6058,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="108"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="6" t="s">
         <v>4</v>
       </c>
@@ -5986,9 +6074,12 @@
       <c r="F30" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="G30" s="103" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="108"/>
+      <c r="A31" s="109"/>
       <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
@@ -6004,9 +6095,12 @@
       <c r="F31" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="G31" s="103" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="108"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="6" t="s">
         <v>4</v>
       </c>
@@ -6022,9 +6116,12 @@
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="G32" s="103" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="106" t="s">
+      <c r="A33" s="107" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="10"/>
@@ -6042,7 +6139,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="107"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="10" t="s">
         <v>18</v>
       </c>
@@ -6060,7 +6157,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="107" t="s">
         <v>79</v>
       </c>
       <c r="B35" s="16"/>
@@ -6078,7 +6175,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="107"/>
+      <c r="A36" s="108"/>
       <c r="B36" s="16" t="s">
         <v>4</v>
       </c>
@@ -6117,28 +6214,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920B052D-1130-4579-8DCD-D18586615F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.5" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>744</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -6161,7 +6258,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -6181,7 +6278,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="18" t="s">
         <v>82</v>
       </c>
@@ -6199,7 +6296,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -6219,7 +6316,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="110"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="18" t="s">
         <v>110</v>
       </c>
@@ -6237,7 +6334,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="109" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="18"/>
@@ -6251,7 +6348,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="108"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="21" t="s">
         <v>4</v>
       </c>
@@ -6268,8 +6365,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="56.5" customHeight="1">
-      <c r="A9" s="108"/>
+    <row r="9" spans="1:6" ht="56.55" customHeight="1">
+      <c r="A9" s="109"/>
       <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
@@ -6287,7 +6384,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="109" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="18"/>
@@ -6301,7 +6398,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="108"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="18" t="s">
         <v>4</v>
       </c>
@@ -6319,7 +6416,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="113" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="18"/>
@@ -6333,7 +6430,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="113"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="18" t="s">
         <v>4</v>
       </c>
@@ -6351,7 +6448,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="113"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
@@ -6369,7 +6466,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="113"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="18" t="s">
         <v>4</v>
       </c>
@@ -6387,7 +6484,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="113"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="18" t="s">
         <v>4</v>
       </c>
@@ -6405,7 +6502,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="113"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="18" t="s">
         <v>4</v>
       </c>
@@ -6423,7 +6520,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="113" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="18"/>
@@ -6437,7 +6534,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="113"/>
+      <c r="A19" s="114"/>
       <c r="B19" s="18" t="s">
         <v>4</v>
       </c>
@@ -6455,7 +6552,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="113"/>
+      <c r="A20" s="114"/>
       <c r="B20" s="18" t="s">
         <v>4</v>
       </c>
@@ -6473,7 +6570,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="113"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="18" t="s">
         <v>4</v>
       </c>
@@ -6491,7 +6588,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="113"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="18" t="s">
         <v>4</v>
       </c>
@@ -6524,28 +6621,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A8365A-66C7-4E96-8C24-5C7B8139E778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42.5" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>748</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -6568,7 +6665,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -6588,7 +6685,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
@@ -6606,7 +6703,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -6624,7 +6721,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="110"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
@@ -6642,7 +6739,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="109" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -6661,8 +6758,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="25">
-      <c r="A8" s="108"/>
+    <row r="8" spans="1:6" ht="38.25">
+      <c r="A8" s="109"/>
       <c r="B8" s="21" t="s">
         <v>4</v>
       </c>
@@ -6679,8 +6776,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="25">
-      <c r="A9" s="108"/>
+    <row r="9" spans="1:6" ht="38.25">
+      <c r="A9" s="109"/>
       <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
@@ -6697,8 +6794,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:6" ht="25.5">
+      <c r="A10" s="111"/>
       <c r="B10" s="21" t="s">
         <v>110</v>
       </c>
@@ -6716,7 +6813,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="109" t="s">
         <v>126</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -6736,7 +6833,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="108"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="21" t="s">
         <v>4</v>
       </c>
@@ -6754,7 +6851,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="110"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="21" t="s">
         <v>110</v>
       </c>
@@ -6792,7 +6889,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="109" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -6811,8 +6908,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="25">
-      <c r="A16" s="108"/>
+    <row r="16" spans="1:6" ht="25.5">
+      <c r="A16" s="109"/>
       <c r="B16" s="21" t="s">
         <v>136</v>
       </c>
@@ -6830,7 +6927,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="109" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -6849,8 +6946,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="37.5">
-      <c r="A18" s="108"/>
+    <row r="18" spans="1:6" ht="38.25">
+      <c r="A18" s="109"/>
       <c r="B18" s="21" t="s">
         <v>141</v>
       </c>
@@ -6868,7 +6965,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="109" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -6888,7 +6985,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="108"/>
+      <c r="A20" s="109"/>
       <c r="B20" s="21" t="s">
         <v>145</v>
       </c>
@@ -6905,8 +7002,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13" customHeight="1">
-      <c r="A21" s="108" t="s">
+    <row r="21" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A21" s="109" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -6925,8 +7022,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="108"/>
+    <row r="22" spans="1:6" ht="25.5">
+      <c r="A22" s="109"/>
       <c r="B22" s="21" t="s">
         <v>148</v>
       </c>
@@ -6943,8 +7040,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13" customHeight="1">
-      <c r="A23" s="108" t="s">
+    <row r="23" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A23" s="109" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -6964,7 +7061,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="108"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="21" t="s">
         <v>149</v>
       </c>
@@ -6981,8 +7078,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13" customHeight="1">
-      <c r="A25" s="108" t="s">
+    <row r="25" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A25" s="109" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -7002,7 +7099,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="108"/>
+      <c r="A26" s="109"/>
       <c r="B26" s="21" t="s">
         <v>153</v>
       </c>
@@ -7039,31 +7136,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F97639-5499-4CB8-8C37-9AB97DD5CB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
     <col min="2" max="2" width="8.6640625" style="24"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="1"/>
     <col min="6" max="6" width="63.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.4140625" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.5" customHeight="1">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:7" ht="50.55" customHeight="1">
+      <c r="A1" s="110" t="s">
         <v>745</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="25" t="s">
@@ -7086,7 +7183,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -7104,12 +7201,12 @@
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="116" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="108"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="23" t="s">
         <v>163</v>
       </c>
@@ -7125,10 +7222,10 @@
       <c r="F4" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="116"/>
+      <c r="G4" s="117"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="108"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
@@ -7144,10 +7241,10 @@
       <c r="F5" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="G5" s="116"/>
+      <c r="G5" s="117"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="110"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="23" t="s">
         <v>27</v>
       </c>
@@ -7163,10 +7260,10 @@
       <c r="F6" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="G6" s="117"/>
+      <c r="G6" s="118"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="109" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -7184,12 +7281,12 @@
       <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="115" t="s">
+      <c r="G7" s="116" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
-      <c r="A8" s="108"/>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="109"/>
       <c r="B8" s="23" t="s">
         <v>110</v>
       </c>
@@ -7205,10 +7302,10 @@
       <c r="F8" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="116"/>
+      <c r="G8" s="117"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="108"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="23" t="s">
         <v>168</v>
       </c>
@@ -7224,10 +7321,10 @@
       <c r="F9" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="116"/>
+      <c r="G9" s="117"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="110"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="23" t="s">
         <v>169</v>
       </c>
@@ -7243,10 +7340,10 @@
       <c r="F10" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="117"/>
+      <c r="G10" s="118"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="109" t="s">
         <v>126</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -7264,12 +7361,12 @@
       <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="120" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="108"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="23" t="s">
         <v>183</v>
       </c>
@@ -7285,10 +7382,10 @@
       <c r="F12" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="G12" s="120"/>
+      <c r="G12" s="121"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="108"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="23" t="s">
         <v>184</v>
       </c>
@@ -7304,10 +7401,10 @@
       <c r="F13" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="G13" s="120"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.5">
-      <c r="A14" s="110"/>
+      <c r="G13" s="121"/>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="111"/>
       <c r="B14" s="23" t="s">
         <v>110</v>
       </c>
@@ -7323,10 +7420,10 @@
       <c r="F14" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="121"/>
+      <c r="G14" s="122"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="109" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -7344,12 +7441,12 @@
       <c r="F15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="119" t="s">
+      <c r="G15" s="120" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="108"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="23" t="s">
         <v>4</v>
       </c>
@@ -7365,10 +7462,10 @@
       <c r="F16" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="G16" s="120"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.5">
-      <c r="A17" s="108"/>
+      <c r="G16" s="121"/>
+    </row>
+    <row r="17" spans="1:7" ht="15">
+      <c r="A17" s="109"/>
       <c r="B17" s="23" t="s">
         <v>110</v>
       </c>
@@ -7384,10 +7481,10 @@
       <c r="F17" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G17" s="120"/>
+      <c r="G17" s="121"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="108"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="23" t="s">
         <v>4</v>
       </c>
@@ -7403,10 +7500,10 @@
       <c r="F18" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="G18" s="120"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.5">
-      <c r="A19" s="110"/>
+      <c r="G18" s="121"/>
+    </row>
+    <row r="19" spans="1:7" ht="15">
+      <c r="A19" s="111"/>
       <c r="B19" s="23" t="s">
         <v>110</v>
       </c>
@@ -7422,10 +7519,10 @@
       <c r="F19" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G19" s="121"/>
+      <c r="G19" s="122"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="109" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -7443,12 +7540,12 @@
       <c r="F20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="119" t="s">
+      <c r="G20" s="120" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="108"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="23" t="s">
         <v>110</v>
       </c>
@@ -7464,10 +7561,10 @@
       <c r="F21" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="G21" s="120"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.5">
-      <c r="A22" s="108"/>
+      <c r="G21" s="121"/>
+    </row>
+    <row r="22" spans="1:7" ht="15">
+      <c r="A22" s="109"/>
       <c r="B22" s="23" t="s">
         <v>4</v>
       </c>
@@ -7483,10 +7580,10 @@
       <c r="F22" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="121"/>
+      <c r="G22" s="122"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="109" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -7504,12 +7601,12 @@
       <c r="F23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="118" t="s">
+      <c r="G23" s="119" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.5">
-      <c r="A24" s="108"/>
+    <row r="24" spans="1:7" ht="15">
+      <c r="A24" s="109"/>
       <c r="B24" s="32" t="s">
         <v>218</v>
       </c>
@@ -7525,10 +7622,10 @@
       <c r="F24" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="G24" s="118"/>
+      <c r="G24" s="119"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="108"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="32" t="s">
         <v>218</v>
       </c>
@@ -7544,10 +7641,10 @@
       <c r="F25" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="G25" s="118"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.5">
-      <c r="A26" s="108"/>
+      <c r="G25" s="119"/>
+    </row>
+    <row r="26" spans="1:7" ht="15">
+      <c r="A26" s="109"/>
       <c r="B26" s="32" t="s">
         <v>219</v>
       </c>
@@ -7563,10 +7660,10 @@
       <c r="F26" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="G26" s="118"/>
+      <c r="G26" s="119"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="108"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="32" t="s">
         <v>218</v>
       </c>
@@ -7582,10 +7679,10 @@
       <c r="F27" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="G27" s="118"/>
+      <c r="G27" s="119"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="108"/>
+      <c r="A28" s="109"/>
       <c r="B28" s="32" t="s">
         <v>220</v>
       </c>
@@ -7601,10 +7698,10 @@
       <c r="F28" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G28" s="118"/>
+      <c r="G28" s="119"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="108"/>
+      <c r="A29" s="109"/>
       <c r="B29" s="32" t="s">
         <v>218</v>
       </c>
@@ -7620,10 +7717,10 @@
       <c r="F29" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="G29" s="118"/>
+      <c r="G29" s="119"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="108"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="32" t="s">
         <v>220</v>
       </c>
@@ -7639,10 +7736,10 @@
       <c r="F30" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="G30" s="118"/>
+      <c r="G30" s="119"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="108"/>
+      <c r="A31" s="109"/>
       <c r="B31" s="32" t="s">
         <v>221</v>
       </c>
@@ -7658,10 +7755,10 @@
       <c r="F31" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="G31" s="118"/>
+      <c r="G31" s="119"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="108"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="32" t="s">
         <v>218</v>
       </c>
@@ -7677,10 +7774,10 @@
       <c r="F32" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="G32" s="118"/>
+      <c r="G32" s="119"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="114" t="s">
+      <c r="A33" s="115" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="23" t="s">
@@ -7698,10 +7795,10 @@
       <c r="F33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="118"/>
+      <c r="G33" s="119"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="114"/>
+      <c r="A34" s="115"/>
       <c r="B34" s="23" t="s">
         <v>18</v>
       </c>
@@ -7717,10 +7814,10 @@
       <c r="F34" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="G34" s="118"/>
+      <c r="G34" s="119"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="114"/>
+      <c r="A35" s="115"/>
       <c r="B35" s="32" t="s">
         <v>250</v>
       </c>
@@ -7736,10 +7833,10 @@
       <c r="F35" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="118"/>
+      <c r="G35" s="119"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="114"/>
+      <c r="A36" s="115"/>
       <c r="B36" s="32" t="s">
         <v>219</v>
       </c>
@@ -7755,10 +7852,10 @@
       <c r="F36" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="118"/>
+      <c r="G36" s="119"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="114"/>
+      <c r="A37" s="115"/>
       <c r="B37" s="32" t="s">
         <v>251</v>
       </c>
@@ -7774,10 +7871,10 @@
       <c r="F37" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="G37" s="118"/>
+      <c r="G37" s="119"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="114"/>
+      <c r="A38" s="115"/>
       <c r="B38" s="32" t="s">
         <v>218</v>
       </c>
@@ -7793,10 +7890,10 @@
       <c r="F38" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="G38" s="118"/>
+      <c r="G38" s="119"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="114"/>
+      <c r="A39" s="115"/>
       <c r="B39" s="32" t="s">
         <v>218</v>
       </c>
@@ -7812,10 +7909,10 @@
       <c r="F39" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="G39" s="118"/>
+      <c r="G39" s="119"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="114"/>
+      <c r="A40" s="115"/>
       <c r="B40" s="32" t="s">
         <v>218</v>
       </c>
@@ -7831,10 +7928,10 @@
       <c r="F40" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="G40" s="118"/>
+      <c r="G40" s="119"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="114"/>
+      <c r="A41" s="115"/>
       <c r="B41" s="32" t="s">
         <v>219</v>
       </c>
@@ -7850,10 +7947,10 @@
       <c r="F41" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="G41" s="118"/>
+      <c r="G41" s="119"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="114"/>
+      <c r="A42" s="115"/>
       <c r="B42" s="32" t="s">
         <v>219</v>
       </c>
@@ -7869,10 +7966,10 @@
       <c r="F42" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="G42" s="118"/>
+      <c r="G42" s="119"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="114"/>
+      <c r="A43" s="115"/>
       <c r="B43" s="32" t="s">
         <v>219</v>
       </c>
@@ -7888,10 +7985,10 @@
       <c r="F43" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="G43" s="118"/>
+      <c r="G43" s="119"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="114" t="s">
+      <c r="A44" s="115" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -7909,12 +8006,12 @@
       <c r="F44" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="115" t="s">
+      <c r="G44" s="116" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="114"/>
+      <c r="A45" s="115"/>
       <c r="B45" s="48" t="s">
         <v>218</v>
       </c>
@@ -7930,10 +8027,10 @@
       <c r="F45" s="50" t="s">
         <v>533</v>
       </c>
-      <c r="G45" s="116"/>
+      <c r="G45" s="117"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="114"/>
+      <c r="A46" s="115"/>
       <c r="B46" s="33" t="s">
         <v>218</v>
       </c>
@@ -7949,10 +8046,10 @@
       <c r="F46" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="G46" s="116"/>
+      <c r="G46" s="117"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="114"/>
+      <c r="A47" s="115"/>
       <c r="B47" s="33" t="s">
         <v>219</v>
       </c>
@@ -7968,10 +8065,10 @@
       <c r="F47" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="G47" s="116"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.5">
-      <c r="A48" s="114"/>
+      <c r="G47" s="117"/>
+    </row>
+    <row r="48" spans="1:7" ht="15">
+      <c r="A48" s="115"/>
       <c r="B48" s="34" t="s">
         <v>218</v>
       </c>
@@ -7987,10 +8084,10 @@
       <c r="F48" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="G48" s="116"/>
+      <c r="G48" s="117"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="114"/>
+      <c r="A49" s="115"/>
       <c r="B49" s="33" t="s">
         <v>218</v>
       </c>
@@ -8006,10 +8103,10 @@
       <c r="F49" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="G49" s="116"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.5">
-      <c r="A50" s="114"/>
+      <c r="G49" s="117"/>
+    </row>
+    <row r="50" spans="1:7" ht="15">
+      <c r="A50" s="115"/>
       <c r="B50" s="33" t="s">
         <v>218</v>
       </c>
@@ -8025,10 +8122,10 @@
       <c r="F50" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="G50" s="116"/>
+      <c r="G50" s="117"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="114"/>
+      <c r="A51" s="115"/>
       <c r="B51" s="33" t="s">
         <v>218</v>
       </c>
@@ -8044,10 +8141,10 @@
       <c r="F51" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="G51" s="117"/>
+      <c r="G51" s="118"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="122" t="s">
+      <c r="A52" s="123" t="s">
         <v>22</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -8065,12 +8162,12 @@
       <c r="F52" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="118" t="s">
+      <c r="G52" s="119" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="123"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="35" t="s">
         <v>218</v>
       </c>
@@ -8086,10 +8183,10 @@
       <c r="F53" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="G53" s="118"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.5">
-      <c r="A54" s="123"/>
+      <c r="G53" s="119"/>
+    </row>
+    <row r="54" spans="1:7" ht="15">
+      <c r="A54" s="124"/>
       <c r="B54" s="35" t="s">
         <v>218</v>
       </c>
@@ -8105,10 +8202,10 @@
       <c r="F54" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G54" s="118"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.5">
-      <c r="A55" s="123"/>
+      <c r="G54" s="119"/>
+    </row>
+    <row r="55" spans="1:7" ht="15">
+      <c r="A55" s="124"/>
       <c r="B55" s="35" t="s">
         <v>218</v>
       </c>
@@ -8124,10 +8221,10 @@
       <c r="F55" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="G55" s="118"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.5">
-      <c r="A56" s="123"/>
+      <c r="G55" s="119"/>
+    </row>
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="124"/>
       <c r="B56" s="35" t="s">
         <v>218</v>
       </c>
@@ -8143,10 +8240,10 @@
       <c r="F56" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="G56" s="118"/>
+      <c r="G56" s="119"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="123"/>
+      <c r="A57" s="124"/>
       <c r="B57" s="35" t="s">
         <v>303</v>
       </c>
@@ -8162,10 +8259,10 @@
       <c r="F57" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="G57" s="118"/>
+      <c r="G57" s="119"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="123"/>
+      <c r="A58" s="124"/>
       <c r="B58" s="35" t="s">
         <v>303</v>
       </c>
@@ -8181,10 +8278,10 @@
       <c r="F58" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="G58" s="118"/>
+      <c r="G58" s="119"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="124"/>
+      <c r="A59" s="125"/>
       <c r="B59" s="35" t="s">
         <v>303</v>
       </c>
@@ -8200,10 +8297,10 @@
       <c r="F59" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="G59" s="118"/>
+      <c r="G59" s="119"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="114" t="s">
+      <c r="A60" s="115" t="s">
         <v>23</v>
       </c>
       <c r="B60" s="23" t="s">
@@ -8221,12 +8318,12 @@
       <c r="F60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="115" t="s">
+      <c r="G60" s="116" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="114"/>
+      <c r="A61" s="115"/>
       <c r="B61" s="32" t="s">
         <v>4</v>
       </c>
@@ -8242,10 +8339,10 @@
       <c r="F61" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G61" s="116"/>
+      <c r="G61" s="117"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="114"/>
+      <c r="A62" s="115"/>
       <c r="B62" s="32" t="s">
         <v>4</v>
       </c>
@@ -8261,10 +8358,10 @@
       <c r="F62" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G62" s="117"/>
+      <c r="G62" s="118"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="114" t="s">
+      <c r="A63" s="115" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -8282,12 +8379,12 @@
       <c r="F63" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="118" t="s">
+      <c r="G63" s="119" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="114"/>
+      <c r="A64" s="115"/>
       <c r="B64" s="32" t="s">
         <v>4</v>
       </c>
@@ -8303,10 +8400,10 @@
       <c r="F64" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="G64" s="118"/>
+      <c r="G64" s="119"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="114"/>
+      <c r="A65" s="115"/>
       <c r="B65" s="32" t="s">
         <v>4</v>
       </c>
@@ -8322,10 +8419,10 @@
       <c r="F65" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="G65" s="118"/>
+      <c r="G65" s="119"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="114"/>
+      <c r="A66" s="115"/>
       <c r="B66" s="32" t="s">
         <v>3</v>
       </c>
@@ -8341,10 +8438,10 @@
       <c r="F66" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="G66" s="118"/>
+      <c r="G66" s="119"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="114"/>
+      <c r="A67" s="115"/>
       <c r="B67" s="32" t="s">
         <v>3</v>
       </c>
@@ -8360,10 +8457,10 @@
       <c r="F67" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="G67" s="118"/>
+      <c r="G67" s="119"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="114"/>
+      <c r="A68" s="115"/>
       <c r="B68" s="32" t="s">
         <v>3</v>
       </c>
@@ -8379,10 +8476,10 @@
       <c r="F68" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="G68" s="118"/>
+      <c r="G68" s="119"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="114" t="s">
+      <c r="A69" s="115" t="s">
         <v>77</v>
       </c>
       <c r="B69" s="23" t="s">
@@ -8400,12 +8497,12 @@
       <c r="F69" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="118" t="s">
+      <c r="G69" s="119" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1">
-      <c r="A70" s="114"/>
+      <c r="A70" s="115"/>
       <c r="B70" s="32" t="s">
         <v>544</v>
       </c>
@@ -8421,10 +8518,10 @@
       <c r="F70" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="G70" s="118"/>
+      <c r="G70" s="119"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="114" t="s">
+      <c r="A71" s="115" t="s">
         <v>78</v>
       </c>
       <c r="B71" s="23" t="s">
@@ -8442,10 +8539,10 @@
       <c r="F71" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="118"/>
+      <c r="G71" s="119"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="114"/>
+      <c r="A72" s="115"/>
       <c r="B72" s="32" t="s">
         <v>545</v>
       </c>
@@ -8461,10 +8558,10 @@
       <c r="F72" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="G72" s="118"/>
+      <c r="G72" s="119"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="114" t="s">
+      <c r="A73" s="115" t="s">
         <v>79</v>
       </c>
       <c r="B73" s="23" t="s">
@@ -8479,17 +8576,17 @@
       <c r="F73" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="118"/>
+      <c r="G73" s="119"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="114"/>
-      <c r="B74" s="127" t="s">
+      <c r="A74" s="115"/>
+      <c r="B74" s="128" t="s">
         <v>923</v>
       </c>
-      <c r="C74" s="106" t="s">
+      <c r="C74" s="107" t="s">
         <v>922</v>
       </c>
-      <c r="D74" s="129" t="s">
+      <c r="D74" s="130" t="s">
         <v>924</v>
       </c>
       <c r="E74" s="44" t="s">
@@ -8498,36 +8595,36 @@
       <c r="F74" s="45" t="s">
         <v>849</v>
       </c>
-      <c r="G74" s="118"/>
+      <c r="G74" s="119"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="114"/>
-      <c r="B75" s="132"/>
-      <c r="C75" s="132"/>
-      <c r="D75" s="130"/>
+      <c r="A75" s="115"/>
+      <c r="B75" s="133"/>
+      <c r="C75" s="133"/>
+      <c r="D75" s="131"/>
       <c r="E75" s="44" t="s">
         <v>920</v>
       </c>
       <c r="F75" s="45" t="s">
         <v>848</v>
       </c>
-      <c r="G75" s="118"/>
+      <c r="G75" s="119"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="114"/>
-      <c r="B76" s="128"/>
-      <c r="C76" s="128"/>
-      <c r="D76" s="131"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="129"/>
+      <c r="C76" s="129"/>
+      <c r="D76" s="132"/>
       <c r="E76" s="44" t="s">
         <v>919</v>
       </c>
       <c r="F76" s="45" t="s">
         <v>847</v>
       </c>
-      <c r="G76" s="118"/>
+      <c r="G76" s="119"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="114"/>
+      <c r="A77" s="115"/>
       <c r="B77" s="23"/>
       <c r="C77" s="97"/>
       <c r="E77" s="5" t="s">
@@ -8536,10 +8633,10 @@
       <c r="F77" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="118"/>
-    </row>
-    <row r="78" spans="1:7" ht="42">
-      <c r="A78" s="114"/>
+      <c r="G77" s="119"/>
+    </row>
+    <row r="78" spans="1:7" ht="41.65">
+      <c r="A78" s="115"/>
       <c r="B78" s="23" t="s">
         <v>218</v>
       </c>
@@ -8555,10 +8652,10 @@
       <c r="F78" s="57" t="s">
         <v>592</v>
       </c>
-      <c r="G78" s="118"/>
-    </row>
-    <row r="79" spans="1:7" ht="42">
-      <c r="A79" s="114"/>
+      <c r="G78" s="119"/>
+    </row>
+    <row r="79" spans="1:7" ht="41.65">
+      <c r="A79" s="115"/>
       <c r="B79" s="32" t="s">
         <v>4</v>
       </c>
@@ -8574,10 +8671,10 @@
       <c r="F79" s="57" t="s">
         <v>589</v>
       </c>
-      <c r="G79" s="118"/>
+      <c r="G79" s="119"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="114"/>
+      <c r="A80" s="115"/>
       <c r="B80" s="32"/>
       <c r="C80" s="9"/>
       <c r="D80" s="28"/>
@@ -8587,10 +8684,10 @@
       <c r="F80" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="118"/>
+      <c r="G80" s="119"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="114"/>
+      <c r="A81" s="115"/>
       <c r="B81" s="32" t="s">
         <v>4</v>
       </c>
@@ -8606,10 +8703,10 @@
       <c r="F81" s="28" t="s">
         <v>917</v>
       </c>
-      <c r="G81" s="118"/>
+      <c r="G81" s="119"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="114"/>
+      <c r="A82" s="115"/>
       <c r="B82" s="32" t="s">
         <v>4</v>
       </c>
@@ -8625,10 +8722,10 @@
       <c r="F82" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="G82" s="118"/>
+      <c r="G82" s="119"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="114" t="s">
+      <c r="A83" s="115" t="s">
         <v>546</v>
       </c>
       <c r="B83" s="23" t="s">
@@ -8646,12 +8743,12 @@
       <c r="F83" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="118" t="s">
+      <c r="G83" s="119" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="114"/>
+      <c r="A84" s="115"/>
       <c r="B84" s="23" t="s">
         <v>4</v>
       </c>
@@ -8667,10 +8764,10 @@
       <c r="F84" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="G84" s="118"/>
+      <c r="G84" s="119"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="114"/>
+      <c r="A85" s="115"/>
       <c r="B85" s="32" t="s">
         <v>4</v>
       </c>
@@ -8686,10 +8783,10 @@
       <c r="F85" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="G85" s="118"/>
+      <c r="G85" s="119"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="114"/>
+      <c r="A86" s="115"/>
       <c r="B86" s="32" t="s">
         <v>550</v>
       </c>
@@ -8705,10 +8802,10 @@
       <c r="F86" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="G86" s="118"/>
+      <c r="G86" s="119"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="114" t="s">
+      <c r="A87" s="115" t="s">
         <v>554</v>
       </c>
       <c r="B87" s="23" t="s">
@@ -8726,19 +8823,19 @@
       <c r="F87" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="118" t="s">
+      <c r="G87" s="119" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="114"/>
-      <c r="B88" s="127" t="s">
+      <c r="A88" s="115"/>
+      <c r="B88" s="128" t="s">
         <v>303</v>
       </c>
-      <c r="C88" s="106" t="s">
+      <c r="C88" s="107" t="s">
         <v>887</v>
       </c>
-      <c r="D88" s="106" t="s">
+      <c r="D88" s="107" t="s">
         <v>888</v>
       </c>
       <c r="E88" s="101" t="s">
@@ -8747,36 +8844,36 @@
       <c r="F88" s="102" t="s">
         <v>931</v>
       </c>
-      <c r="G88" s="118"/>
+      <c r="G88" s="119"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="114"/>
-      <c r="B89" s="132"/>
-      <c r="C89" s="132"/>
-      <c r="D89" s="133"/>
+      <c r="A89" s="115"/>
+      <c r="B89" s="133"/>
+      <c r="C89" s="133"/>
+      <c r="D89" s="134"/>
       <c r="E89" s="101" t="s">
         <v>926</v>
       </c>
       <c r="F89" s="102" t="s">
         <v>925</v>
       </c>
-      <c r="G89" s="118"/>
-    </row>
-    <row r="90" spans="1:7" ht="28">
-      <c r="A90" s="114"/>
-      <c r="B90" s="128"/>
-      <c r="C90" s="128"/>
-      <c r="D90" s="134"/>
+      <c r="G89" s="119"/>
+    </row>
+    <row r="90" spans="1:7" ht="27.75">
+      <c r="A90" s="115"/>
+      <c r="B90" s="129"/>
+      <c r="C90" s="129"/>
+      <c r="D90" s="135"/>
       <c r="E90" s="9" t="s">
         <v>811</v>
       </c>
       <c r="F90" s="57" t="s">
         <v>927</v>
       </c>
-      <c r="G90" s="118"/>
+      <c r="G90" s="119"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="114"/>
+      <c r="A91" s="115"/>
       <c r="B91" s="32" t="s">
         <v>4</v>
       </c>
@@ -8792,10 +8889,10 @@
       <c r="F91" s="28" t="s">
         <v>558</v>
       </c>
-      <c r="G91" s="118"/>
+      <c r="G91" s="119"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="114"/>
+      <c r="A92" s="115"/>
       <c r="B92" s="32" t="s">
         <v>4</v>
       </c>
@@ -8811,10 +8908,10 @@
       <c r="F92" s="28" t="s">
         <v>559</v>
       </c>
-      <c r="G92" s="118"/>
+      <c r="G92" s="119"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="114" t="s">
+      <c r="A93" s="115" t="s">
         <v>568</v>
       </c>
       <c r="B93" s="23" t="s">
@@ -8832,12 +8929,12 @@
       <c r="F93" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G93" s="115" t="s">
+      <c r="G93" s="116" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="25">
-      <c r="A94" s="114"/>
+    <row r="94" spans="1:7" ht="25.5">
+      <c r="A94" s="115"/>
       <c r="B94" s="23" t="s">
         <v>110</v>
       </c>
@@ -8853,10 +8950,10 @@
       <c r="F94" s="19" t="s">
         <v>929</v>
       </c>
-      <c r="G94" s="116"/>
-    </row>
-    <row r="95" spans="1:7" ht="75">
-      <c r="A95" s="114"/>
+      <c r="G94" s="117"/>
+    </row>
+    <row r="95" spans="1:7" ht="76.5">
+      <c r="A95" s="115"/>
       <c r="B95" s="23" t="s">
         <v>4</v>
       </c>
@@ -8872,10 +8969,10 @@
       <c r="F95" s="19" t="s">
         <v>567</v>
       </c>
-      <c r="G95" s="116"/>
+      <c r="G95" s="117"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="114"/>
+      <c r="A96" s="115"/>
       <c r="B96" s="32" t="s">
         <v>4</v>
       </c>
@@ -8891,10 +8988,10 @@
       <c r="F96" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="G96" s="116"/>
+      <c r="G96" s="117"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="114"/>
+      <c r="A97" s="115"/>
       <c r="B97" s="32" t="s">
         <v>4</v>
       </c>
@@ -8910,10 +9007,10 @@
       <c r="F97" s="28" t="s">
         <v>878</v>
       </c>
-      <c r="G97" s="116"/>
+      <c r="G97" s="117"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="114" t="s">
+      <c r="A98" s="115" t="s">
         <v>572</v>
       </c>
       <c r="B98" s="23" t="s">
@@ -8931,10 +9028,10 @@
       <c r="F98" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G98" s="116"/>
+      <c r="G98" s="117"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="114"/>
+      <c r="A99" s="115"/>
       <c r="B99" s="23" t="s">
         <v>889</v>
       </c>
@@ -8950,10 +9047,10 @@
       <c r="F99" s="53" t="s">
         <v>570</v>
       </c>
-      <c r="G99" s="116"/>
+      <c r="G99" s="117"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="114" t="s">
+      <c r="A100" s="115" t="s">
         <v>791</v>
       </c>
       <c r="B100" s="23" t="s">
@@ -8971,10 +9068,10 @@
       <c r="F100" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G100" s="116"/>
+      <c r="G100" s="117"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="114"/>
+      <c r="A101" s="115"/>
       <c r="B101" s="23" t="s">
         <v>890</v>
       </c>
@@ -8990,10 +9087,10 @@
       <c r="F101" s="53" t="s">
         <v>574</v>
       </c>
-      <c r="G101" s="116"/>
+      <c r="G101" s="117"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="114" t="s">
+      <c r="A102" s="115" t="s">
         <v>582</v>
       </c>
       <c r="B102" s="23" t="s">
@@ -9011,10 +9108,10 @@
       <c r="F102" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G102" s="116"/>
+      <c r="G102" s="117"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="114"/>
+      <c r="A103" s="115"/>
       <c r="B103" s="95"/>
       <c r="C103" s="92" t="s">
         <v>761</v>
@@ -9028,10 +9125,10 @@
       <c r="F103" s="45" t="s">
         <v>763</v>
       </c>
-      <c r="G103" s="116"/>
+      <c r="G103" s="117"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="114"/>
+      <c r="A104" s="115"/>
       <c r="B104" s="95"/>
       <c r="C104" s="92"/>
       <c r="D104" s="94"/>
@@ -9041,10 +9138,10 @@
       <c r="F104" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G104" s="116"/>
+      <c r="G104" s="117"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="114"/>
+      <c r="A105" s="115"/>
       <c r="B105" s="95" t="s">
         <v>218</v>
       </c>
@@ -9060,10 +9157,10 @@
       <c r="F105" s="45" t="s">
         <v>879</v>
       </c>
-      <c r="G105" s="116"/>
+      <c r="G105" s="117"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="114"/>
+      <c r="A106" s="115"/>
       <c r="B106" s="23" t="s">
         <v>885</v>
       </c>
@@ -9079,10 +9176,10 @@
       <c r="F106" s="53" t="s">
         <v>577</v>
       </c>
-      <c r="G106" s="116"/>
+      <c r="G106" s="117"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="114" t="s">
+      <c r="A107" s="115" t="s">
         <v>183</v>
       </c>
       <c r="B107" s="23" t="s">
@@ -9100,10 +9197,10 @@
       <c r="F107" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G107" s="116"/>
+      <c r="G107" s="117"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="114"/>
+      <c r="A108" s="115"/>
       <c r="B108" s="23" t="s">
         <v>886</v>
       </c>
@@ -9119,10 +9216,10 @@
       <c r="F108" s="53" t="s">
         <v>578</v>
       </c>
-      <c r="G108" s="117"/>
+      <c r="G108" s="118"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="114" t="s">
+      <c r="A109" s="115" t="s">
         <v>585</v>
       </c>
       <c r="B109" s="23" t="s">
@@ -9140,19 +9237,19 @@
       <c r="F109" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G109" s="115" t="s">
+      <c r="G109" s="116" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="114"/>
-      <c r="B110" s="127" t="s">
+      <c r="A110" s="115"/>
+      <c r="B110" s="128" t="s">
         <v>756</v>
       </c>
-      <c r="C110" s="106" t="s">
+      <c r="C110" s="107" t="s">
         <v>757</v>
       </c>
-      <c r="D110" s="125" t="s">
+      <c r="D110" s="126" t="s">
         <v>764</v>
       </c>
       <c r="E110" s="44" t="s">
@@ -9161,23 +9258,23 @@
       <c r="F110" s="45" t="s">
         <v>758</v>
       </c>
-      <c r="G110" s="116"/>
-    </row>
-    <row r="111" spans="1:7" ht="56">
-      <c r="A111" s="114"/>
-      <c r="B111" s="128"/>
-      <c r="C111" s="128"/>
-      <c r="D111" s="126"/>
+      <c r="G110" s="117"/>
+    </row>
+    <row r="111" spans="1:7" ht="55.5">
+      <c r="A111" s="115"/>
+      <c r="B111" s="129"/>
+      <c r="C111" s="129"/>
+      <c r="D111" s="127"/>
       <c r="E111" s="61" t="s">
         <v>754</v>
       </c>
       <c r="F111" s="55" t="s">
         <v>587</v>
       </c>
-      <c r="G111" s="116"/>
-    </row>
-    <row r="112" spans="1:7" ht="42">
-      <c r="A112" s="114"/>
+      <c r="G111" s="117"/>
+    </row>
+    <row r="112" spans="1:7" ht="41.65">
+      <c r="A112" s="115"/>
       <c r="B112" s="23" t="s">
         <v>4</v>
       </c>
@@ -9193,10 +9290,10 @@
       <c r="F112" s="55" t="s">
         <v>796</v>
       </c>
-      <c r="G112" s="116"/>
+      <c r="G112" s="117"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="122" t="s">
+      <c r="A113" s="123" t="s">
         <v>766</v>
       </c>
       <c r="B113" s="23"/>
@@ -9212,12 +9309,12 @@
       <c r="F113" s="55" t="s">
         <v>778</v>
       </c>
-      <c r="G113" s="115" t="s">
+      <c r="G113" s="116" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="116"/>
+      <c r="A114" s="117"/>
       <c r="B114" s="23" t="s">
         <v>760</v>
       </c>
@@ -9233,10 +9330,10 @@
       <c r="F114" s="55" t="s">
         <v>775</v>
       </c>
-      <c r="G114" s="116"/>
+      <c r="G114" s="117"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="116"/>
+      <c r="A115" s="117"/>
       <c r="B115" s="23" t="s">
         <v>760</v>
       </c>
@@ -9252,10 +9349,10 @@
       <c r="F115" s="55" t="s">
         <v>772</v>
       </c>
-      <c r="G115" s="116"/>
+      <c r="G115" s="117"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="117"/>
+      <c r="A116" s="118"/>
       <c r="B116" s="23" t="s">
         <v>760</v>
       </c>
@@ -9271,10 +9368,10 @@
       <c r="F116" s="55" t="s">
         <v>769</v>
       </c>
-      <c r="G116" s="117"/>
+      <c r="G116" s="118"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="114" t="s">
+      <c r="A117" s="115" t="s">
         <v>602</v>
       </c>
       <c r="B117" s="23" t="s">
@@ -9292,12 +9389,12 @@
       <c r="F117" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="118" t="s">
+      <c r="G117" s="119" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="114"/>
+      <c r="A118" s="115"/>
       <c r="B118" s="32" t="s">
         <v>110</v>
       </c>
@@ -9313,10 +9410,10 @@
       <c r="F118" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="G118" s="118"/>
+      <c r="G118" s="119"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="114"/>
+      <c r="A119" s="115"/>
       <c r="B119" s="32" t="s">
         <v>550</v>
       </c>
@@ -9332,10 +9429,10 @@
       <c r="F119" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="G119" s="118"/>
+      <c r="G119" s="119"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="114" t="s">
+      <c r="A120" s="115" t="s">
         <v>603</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -9353,12 +9450,12 @@
       <c r="F120" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G120" s="115" t="s">
+      <c r="G120" s="116" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="114"/>
+      <c r="A121" s="115"/>
       <c r="B121" s="32" t="s">
         <v>609</v>
       </c>
@@ -9374,10 +9471,10 @@
       <c r="F121" s="28" t="s">
         <v>611</v>
       </c>
-      <c r="G121" s="116"/>
+      <c r="G121" s="117"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="114"/>
+      <c r="A122" s="115"/>
       <c r="B122" s="32" t="s">
         <v>609</v>
       </c>
@@ -9393,10 +9490,10 @@
       <c r="F122" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="G122" s="116"/>
+      <c r="G122" s="117"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="114"/>
+      <c r="A123" s="115"/>
       <c r="B123" s="32" t="s">
         <v>606</v>
       </c>
@@ -9412,10 +9509,10 @@
       <c r="F123" s="28" t="s">
         <v>615</v>
       </c>
-      <c r="G123" s="116"/>
+      <c r="G123" s="117"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="114"/>
+      <c r="A124" s="115"/>
       <c r="B124" s="32" t="s">
         <v>608</v>
       </c>
@@ -9431,10 +9528,10 @@
       <c r="F124" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="G124" s="116"/>
+      <c r="G124" s="117"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="114"/>
+      <c r="A125" s="115"/>
       <c r="B125" s="32" t="s">
         <v>607</v>
       </c>
@@ -9450,10 +9547,10 @@
       <c r="F125" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="G125" s="116"/>
+      <c r="G125" s="117"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="114"/>
+      <c r="A126" s="115"/>
       <c r="B126" s="32" t="s">
         <v>607</v>
       </c>
@@ -9469,10 +9566,10 @@
       <c r="F126" s="28" t="s">
         <v>622</v>
       </c>
-      <c r="G126" s="116"/>
+      <c r="G126" s="117"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="114"/>
+      <c r="A127" s="115"/>
       <c r="B127" s="32" t="s">
         <v>606</v>
       </c>
@@ -9488,10 +9585,10 @@
       <c r="F127" s="28" t="s">
         <v>624</v>
       </c>
-      <c r="G127" s="116"/>
+      <c r="G127" s="117"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="114"/>
+      <c r="A128" s="115"/>
       <c r="B128" s="32" t="s">
         <v>605</v>
       </c>
@@ -9507,10 +9604,10 @@
       <c r="F128" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="G128" s="117"/>
+      <c r="G128" s="118"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="114" t="s">
+      <c r="A129" s="115" t="s">
         <v>892</v>
       </c>
       <c r="B129" s="23" t="s">
@@ -9528,12 +9625,12 @@
       <c r="F129" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G129" s="115" t="s">
+      <c r="G129" s="116" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="114"/>
+      <c r="A130" s="115"/>
       <c r="B130" s="32"/>
       <c r="C130" s="9" t="s">
         <v>0</v>
@@ -9547,10 +9644,10 @@
       <c r="F130" s="28" t="s">
         <v>898</v>
       </c>
-      <c r="G130" s="116"/>
+      <c r="G130" s="117"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="114" t="s">
+      <c r="A131" s="115" t="s">
         <v>895</v>
       </c>
       <c r="B131" s="23" t="s">
@@ -9568,10 +9665,10 @@
       <c r="F131" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G131" s="116"/>
+      <c r="G131" s="117"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="114"/>
+      <c r="A132" s="115"/>
       <c r="B132" s="32"/>
       <c r="C132" s="9" t="s">
         <v>0</v>
@@ -9585,10 +9682,10 @@
       <c r="F132" s="28" t="s">
         <v>897</v>
       </c>
-      <c r="G132" s="116"/>
+      <c r="G132" s="117"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="114" t="s">
+      <c r="A133" s="115" t="s">
         <v>901</v>
       </c>
       <c r="B133" s="23" t="s">
@@ -9606,10 +9703,10 @@
       <c r="F133" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G133" s="116"/>
+      <c r="G133" s="117"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="114"/>
+      <c r="A134" s="115"/>
       <c r="B134" s="32"/>
       <c r="C134" s="9" t="s">
         <v>0</v>
@@ -9623,10 +9720,10 @@
       <c r="F134" s="28" t="s">
         <v>900</v>
       </c>
-      <c r="G134" s="116"/>
+      <c r="G134" s="117"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="114" t="s">
+      <c r="A135" s="115" t="s">
         <v>902</v>
       </c>
       <c r="B135" s="23" t="s">
@@ -9644,10 +9741,10 @@
       <c r="F135" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G135" s="116"/>
+      <c r="G135" s="117"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="114"/>
+      <c r="A136" s="115"/>
       <c r="B136" s="23"/>
       <c r="C136" s="9" t="s">
         <v>0</v>
@@ -9661,10 +9758,10 @@
       <c r="F136" s="28" t="s">
         <v>907</v>
       </c>
-      <c r="G136" s="116"/>
+      <c r="G136" s="117"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="114"/>
+      <c r="A137" s="115"/>
       <c r="B137" s="23"/>
       <c r="C137" s="93"/>
       <c r="D137" s="93"/>
@@ -9674,10 +9771,10 @@
       <c r="F137" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G137" s="116"/>
+      <c r="G137" s="117"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="114"/>
+      <c r="A138" s="115"/>
       <c r="B138" s="32"/>
       <c r="C138" s="9" t="s">
         <v>0</v>
@@ -9691,10 +9788,10 @@
       <c r="F138" s="28" t="s">
         <v>904</v>
       </c>
-      <c r="G138" s="116"/>
+      <c r="G138" s="117"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="114" t="s">
+      <c r="A139" s="115" t="s">
         <v>908</v>
       </c>
       <c r="B139" s="23" t="s">
@@ -9712,10 +9809,10 @@
       <c r="F139" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G139" s="116"/>
+      <c r="G139" s="117"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="114"/>
+      <c r="A140" s="115"/>
       <c r="B140" s="23"/>
       <c r="C140" s="9" t="s">
         <v>0</v>
@@ -9729,10 +9826,10 @@
       <c r="F140" s="28" t="s">
         <v>911</v>
       </c>
-      <c r="G140" s="116"/>
+      <c r="G140" s="117"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="114"/>
+      <c r="A141" s="115"/>
       <c r="B141" s="23"/>
       <c r="C141" s="93"/>
       <c r="D141" s="93"/>
@@ -9742,10 +9839,10 @@
       <c r="F141" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G141" s="116"/>
+      <c r="G141" s="117"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="114"/>
+      <c r="A142" s="115"/>
       <c r="B142" s="32"/>
       <c r="C142" s="9" t="s">
         <v>0</v>
@@ -9759,7 +9856,7 @@
       <c r="F142" s="28" t="s">
         <v>912</v>
       </c>
-      <c r="G142" s="117"/>
+      <c r="G142" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="59">
@@ -9830,28 +9927,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D0906-052D-43FD-A4BB-226D0BB88B0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.5" customHeight="1">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:6" ht="41.55" customHeight="1">
+      <c r="A1" s="110" t="s">
         <v>746</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -9874,7 +9971,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -9894,7 +9991,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
@@ -9911,8 +10008,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="37.5">
-      <c r="A5" s="108"/>
+    <row r="5" spans="1:6" ht="38.25">
+      <c r="A5" s="109"/>
       <c r="B5" s="38" t="s">
         <v>4</v>
       </c>
@@ -9930,7 +10027,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="108"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="38" t="s">
         <v>4</v>
       </c>
@@ -9948,7 +10045,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="38" t="s">
         <v>4</v>
       </c>
@@ -9966,7 +10063,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="110"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="38" t="s">
         <v>163</v>
       </c>
@@ -9984,7 +10081,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="109" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -10004,7 +10101,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="108"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="38" t="s">
         <v>4</v>
       </c>
@@ -10022,7 +10119,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="108"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="38" t="s">
         <v>4</v>
       </c>
@@ -10040,7 +10137,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="108"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="38" t="s">
         <v>4</v>
       </c>
@@ -10058,7 +10155,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="108"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="38" t="s">
         <v>4</v>
       </c>
@@ -10076,7 +10173,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="108"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="38" t="s">
         <v>4</v>
       </c>
@@ -10093,8 +10190,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="112.5">
-      <c r="A15" s="110"/>
+    <row r="15" spans="1:6" ht="127.5">
+      <c r="A15" s="111"/>
       <c r="B15" s="38" t="s">
         <v>345</v>
       </c>
@@ -10112,7 +10209,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="109" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="38" t="s">
@@ -10132,7 +10229,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="110"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="38" t="s">
         <v>4</v>
       </c>
@@ -10150,7 +10247,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="109" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -10170,7 +10267,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="110"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="38" t="s">
         <v>4</v>
       </c>
@@ -10188,7 +10285,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="106" t="s">
+      <c r="A20" s="107" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -10207,8 +10304,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="50">
-      <c r="A21" s="111"/>
+    <row r="21" spans="1:6" ht="51">
+      <c r="A21" s="112"/>
       <c r="B21" s="38" t="s">
         <v>4</v>
       </c>
@@ -10226,7 +10323,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="111"/>
+      <c r="A22" s="112"/>
       <c r="B22" s="38" t="s">
         <v>4</v>
       </c>
@@ -10244,7 +10341,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="111"/>
+      <c r="A23" s="112"/>
       <c r="B23" s="38" t="s">
         <v>4</v>
       </c>
@@ -10262,7 +10359,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="111"/>
+      <c r="A24" s="112"/>
       <c r="B24" s="38" t="s">
         <v>4</v>
       </c>
@@ -10280,7 +10377,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="111"/>
+      <c r="A25" s="112"/>
       <c r="B25" s="38" t="s">
         <v>4</v>
       </c>
@@ -10298,7 +10395,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="107"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="38" t="s">
         <v>4</v>
       </c>
@@ -10316,7 +10413,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="107" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="38" t="s">
@@ -10336,7 +10433,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="111"/>
+      <c r="A28" s="112"/>
       <c r="B28" s="38" t="s">
         <v>4</v>
       </c>
@@ -10353,8 +10450,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="100">
-      <c r="A29" s="111"/>
+    <row r="29" spans="1:6" ht="102">
+      <c r="A29" s="112"/>
       <c r="B29" s="38" t="s">
         <v>4</v>
       </c>
@@ -10372,7 +10469,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="111"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="38" t="s">
         <v>4</v>
       </c>
@@ -10389,8 +10486,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="112.5">
-      <c r="A31" s="107"/>
+    <row r="31" spans="1:6" ht="114.75">
+      <c r="A31" s="108"/>
       <c r="B31" s="38" t="s">
         <v>4</v>
       </c>
@@ -10408,7 +10505,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="108" t="s">
+      <c r="A32" s="109" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="38" t="s">
@@ -10428,7 +10525,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="108"/>
+      <c r="A33" s="109"/>
       <c r="B33" s="38" t="s">
         <v>371</v>
       </c>
@@ -10445,8 +10542,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13" customHeight="1">
-      <c r="A34" s="108" t="s">
+    <row r="34" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A34" s="109" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="38" t="s">
@@ -10466,7 +10563,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="108"/>
+      <c r="A35" s="109"/>
       <c r="B35" s="38" t="s">
         <v>372</v>
       </c>
@@ -10496,7 +10593,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="107" t="s">
         <v>22</v>
       </c>
       <c r="B37" s="100"/>
@@ -10513,8 +10610,8 @@
         <v>934</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="84">
-      <c r="A38" s="111"/>
+    <row r="38" spans="1:6" ht="83.25">
+      <c r="A38" s="112"/>
       <c r="B38" s="86" t="s">
         <v>26</v>
       </c>
@@ -10532,7 +10629,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="107"/>
+      <c r="A39" s="108"/>
       <c r="B39" s="86" t="s">
         <v>4</v>
       </c>
@@ -10551,6 +10648,7 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
@@ -10560,7 +10658,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A20:A26"/>
     <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A37:A39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10569,29 +10666,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9074A8-11E0-48D9-822A-54D3CEF7052B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="2" max="2" width="12.08203125" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -10614,7 +10711,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -10634,7 +10731,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
@@ -10672,7 +10769,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="109" t="s">
         <v>126</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -10692,7 +10789,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="110"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="43" t="s">
         <v>4</v>
       </c>
@@ -10730,16 +10827,16 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="107" t="s">
         <v>841</v>
       </c>
-      <c r="C9" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="106" t="s">
+      <c r="C9" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="107" t="s">
         <v>750</v>
       </c>
       <c r="E9" s="44" t="s">
@@ -10750,10 +10847,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="132"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
       <c r="E10" s="44" t="s">
         <v>837</v>
       </c>
@@ -10762,10 +10859,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="132"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
       <c r="E11" s="44" t="s">
         <v>835</v>
       </c>
@@ -10774,10 +10871,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="132"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
+      <c r="A12" s="133"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
       <c r="E12" s="44" t="s">
         <v>833</v>
       </c>
@@ -10786,10 +10883,10 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="132"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
       <c r="E13" s="44" t="s">
         <v>831</v>
       </c>
@@ -10798,10 +10895,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="132"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
       <c r="E14" s="44" t="s">
         <v>829</v>
       </c>
@@ -10810,10 +10907,10 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="132"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
       <c r="E15" s="44" t="s">
         <v>827</v>
       </c>
@@ -10822,10 +10919,10 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="132"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
       <c r="E16" s="44" t="s">
         <v>825</v>
       </c>
@@ -10834,10 +10931,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="132"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
+      <c r="A17" s="133"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
       <c r="E17" s="44" t="s">
         <v>823</v>
       </c>
@@ -10846,10 +10943,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="132"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
       <c r="E18" s="44" t="s">
         <v>821</v>
       </c>
@@ -10858,10 +10955,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="132"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
+      <c r="A19" s="133"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
       <c r="E19" s="44" t="s">
         <v>819</v>
       </c>
@@ -10870,10 +10967,10 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="132"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
+      <c r="A20" s="133"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
       <c r="E20" s="44" t="s">
         <v>817</v>
       </c>
@@ -10882,10 +10979,10 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="132"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
+      <c r="A21" s="133"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
       <c r="E21" s="44" t="s">
         <v>815</v>
       </c>
@@ -10894,10 +10991,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="132"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
       <c r="E22" s="44" t="s">
         <v>813</v>
       </c>
@@ -10906,10 +11003,10 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="132"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
+      <c r="A23" s="133"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
       <c r="E23" s="44" t="s">
         <v>811</v>
       </c>
@@ -10918,10 +11015,10 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="128"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
       <c r="E24" s="44" t="s">
         <v>809</v>
       </c>
@@ -10930,16 +11027,16 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="106" t="s">
+      <c r="B25" s="107" t="s">
         <v>863</v>
       </c>
-      <c r="C25" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="106" t="s">
+      <c r="C25" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="107" t="s">
         <v>751</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -10950,10 +11047,10 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="132"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
       <c r="E26" s="44" t="s">
         <v>858</v>
       </c>
@@ -10962,10 +11059,10 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="132"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
+      <c r="A27" s="133"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
       <c r="E27" s="44" t="s">
         <v>856</v>
       </c>
@@ -10974,10 +11071,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="132"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
+      <c r="A28" s="133"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
       <c r="E28" s="44" t="s">
         <v>854</v>
       </c>
@@ -10986,10 +11083,10 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="132"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
+      <c r="A29" s="133"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
       <c r="E29" s="44" t="s">
         <v>852</v>
       </c>
@@ -10998,10 +11095,10 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="132"/>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
+      <c r="A30" s="133"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
       <c r="E30" s="44" t="s">
         <v>850</v>
       </c>
@@ -11010,10 +11107,10 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="132"/>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
+      <c r="A31" s="133"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
       <c r="E31" s="98" t="s">
         <v>823</v>
       </c>
@@ -11022,10 +11119,10 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="132"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
+      <c r="A32" s="133"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
       <c r="E32" s="98" t="s">
         <v>821</v>
       </c>
@@ -11034,10 +11131,10 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="132"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
+      <c r="A33" s="133"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="133"/>
       <c r="E33" s="98" t="s">
         <v>819</v>
       </c>
@@ -11046,10 +11143,10 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="132"/>
-      <c r="B34" s="132"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
+      <c r="A34" s="133"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="133"/>
       <c r="E34" s="44" t="s">
         <v>817</v>
       </c>
@@ -11058,10 +11155,10 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="132"/>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
+      <c r="A35" s="133"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="133"/>
       <c r="E35" s="44" t="s">
         <v>815</v>
       </c>
@@ -11070,10 +11167,10 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="132"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
+      <c r="A36" s="133"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
       <c r="E36" s="44" t="s">
         <v>813</v>
       </c>
@@ -11082,10 +11179,10 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="132"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
+      <c r="A37" s="133"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="133"/>
       <c r="E37" s="44" t="s">
         <v>811</v>
       </c>
@@ -11094,10 +11191,10 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="128"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
+      <c r="A38" s="129"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
       <c r="E38" s="44" t="s">
         <v>809</v>
       </c>
@@ -11105,7 +11202,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13" customHeight="1">
+    <row r="39" spans="1:6" ht="13.05" customHeight="1">
       <c r="A39" s="43" t="s">
         <v>432</v>
       </c>
@@ -11185,7 +11282,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13" customHeight="1">
+    <row r="43" spans="1:6" ht="13.05" customHeight="1">
       <c r="A43" s="43" t="s">
         <v>442</v>
       </c>
@@ -11265,7 +11362,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13" customHeight="1">
+    <row r="47" spans="1:6" ht="13.05" customHeight="1">
       <c r="A47" s="43" t="s">
         <v>451</v>
       </c>
@@ -11285,14 +11382,14 @@
         <v>450</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13" customHeight="1">
-      <c r="A48" s="106" t="s">
+    <row r="48" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A48" s="107" t="s">
         <v>554</v>
       </c>
-      <c r="B48" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="106" t="s">
+      <c r="B48" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="107" t="s">
         <v>28</v>
       </c>
       <c r="D48" s="93"/>
@@ -11303,11 +11400,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13" customHeight="1">
-      <c r="A49" s="132"/>
-      <c r="B49" s="132"/>
-      <c r="C49" s="132"/>
-      <c r="D49" s="106" t="s">
+    <row r="49" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A49" s="133"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="107" t="s">
         <v>864</v>
       </c>
       <c r="E49" s="44" t="s">
@@ -11317,11 +11414,11 @@
         <v>867</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13" customHeight="1">
-      <c r="A50" s="128"/>
-      <c r="B50" s="128"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="128"/>
+    <row r="50" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A50" s="129"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
       <c r="E50" s="44" t="s">
         <v>502</v>
       </c>
@@ -11329,14 +11426,14 @@
         <v>865</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13" customHeight="1">
-      <c r="A51" s="106" t="s">
+    <row r="51" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A51" s="107" t="s">
         <v>568</v>
       </c>
-      <c r="B51" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="106" t="s">
+      <c r="B51" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="107" t="s">
         <v>871</v>
       </c>
       <c r="D51" s="96"/>
@@ -11347,10 +11444,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="13" customHeight="1">
-      <c r="A52" s="128"/>
-      <c r="B52" s="128"/>
-      <c r="C52" s="128"/>
+    <row r="52" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A52" s="129"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="129"/>
       <c r="D52" s="93"/>
       <c r="E52" s="44" t="s">
         <v>869</v>
@@ -11360,7 +11457,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="108" t="s">
+      <c r="A53" s="109" t="s">
         <v>452</v>
       </c>
       <c r="B53" s="43" t="s">
@@ -11380,7 +11477,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="110"/>
+      <c r="A54" s="111"/>
       <c r="B54" s="43" t="s">
         <v>4</v>
       </c>
@@ -11398,7 +11495,7 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="108" t="s">
+      <c r="A55" s="109" t="s">
         <v>454</v>
       </c>
       <c r="B55" s="43" t="s">
@@ -11418,7 +11515,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="110"/>
+      <c r="A56" s="111"/>
       <c r="B56" s="43" t="s">
         <v>862</v>
       </c>
@@ -11436,10 +11533,10 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="106" t="s">
+      <c r="A57" s="107" t="s">
         <v>455</v>
       </c>
-      <c r="B57" s="106" t="s">
+      <c r="B57" s="107" t="s">
         <v>877</v>
       </c>
       <c r="C57" s="43" t="s">
@@ -11456,12 +11553,12 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="111"/>
-      <c r="B58" s="132"/>
-      <c r="C58" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="106" t="s">
+      <c r="A58" s="112"/>
+      <c r="B58" s="133"/>
+      <c r="C58" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="107" t="s">
         <v>456</v>
       </c>
       <c r="E58" s="93" t="s">
@@ -11472,10 +11569,10 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="111"/>
-      <c r="B59" s="132"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="132"/>
+      <c r="A59" s="112"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="133"/>
       <c r="E59" s="93" t="s">
         <v>43</v>
       </c>
@@ -11484,10 +11581,10 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="111"/>
-      <c r="B60" s="132"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="132"/>
+      <c r="A60" s="112"/>
+      <c r="B60" s="133"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="133"/>
       <c r="E60" s="93" t="s">
         <v>42</v>
       </c>
@@ -11496,10 +11593,10 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="111"/>
-      <c r="B61" s="132"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="132"/>
+      <c r="A61" s="112"/>
+      <c r="B61" s="133"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="133"/>
       <c r="E61" s="93" t="s">
         <v>41</v>
       </c>
@@ -11508,10 +11605,10 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="107"/>
-      <c r="B62" s="128"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="128"/>
+      <c r="A62" s="108"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="129"/>
       <c r="E62" s="43" t="s">
         <v>38</v>
       </c>
@@ -11520,7 +11617,7 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="109" t="s">
         <v>457</v>
       </c>
       <c r="B63" s="43" t="s">
@@ -11540,7 +11637,7 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="110"/>
+      <c r="A64" s="111"/>
       <c r="B64" s="43" t="s">
         <v>4</v>
       </c>
@@ -11558,7 +11655,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="107" t="s">
         <v>460</v>
       </c>
       <c r="B65" s="43" t="s">
@@ -11578,7 +11675,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="107"/>
+      <c r="A66" s="108"/>
       <c r="B66" s="43" t="s">
         <v>4</v>
       </c>
@@ -11596,7 +11693,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="107" t="s">
         <v>463</v>
       </c>
       <c r="B67" s="43" t="s">
@@ -11616,7 +11713,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="107"/>
+      <c r="A68" s="108"/>
       <c r="B68" s="43" t="s">
         <v>4</v>
       </c>
@@ -11633,7 +11730,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="13" customHeight="1">
+    <row r="69" spans="1:6" ht="13.05" customHeight="1">
       <c r="A69" s="60" t="s">
         <v>634</v>
       </c>
@@ -11652,7 +11749,7 @@
       <c r="F69" s="13"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="106" t="s">
+      <c r="A70" s="107" t="s">
         <v>636</v>
       </c>
       <c r="B70" s="60" t="s">
@@ -11672,7 +11769,7 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="111"/>
+      <c r="A71" s="112"/>
       <c r="B71" s="60" t="s">
         <v>4</v>
       </c>
@@ -11688,7 +11785,7 @@
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="111"/>
+      <c r="A72" s="112"/>
       <c r="B72" s="60" t="s">
         <v>4</v>
       </c>
@@ -11704,7 +11801,7 @@
       <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="111"/>
+      <c r="A73" s="112"/>
       <c r="B73" s="60" t="s">
         <v>4</v>
       </c>
@@ -11720,7 +11817,7 @@
       <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="107"/>
+      <c r="A74" s="108"/>
       <c r="B74" s="60" t="s">
         <v>4</v>
       </c>
@@ -11735,7 +11832,7 @@
       </c>
       <c r="F74" s="13"/>
     </row>
-    <row r="75" spans="1:6" ht="13" customHeight="1">
+    <row r="75" spans="1:6" ht="13.05" customHeight="1">
       <c r="A75" s="60" t="s">
         <v>643</v>
       </c>
@@ -11753,7 +11850,7 @@
       </c>
       <c r="F75" s="13"/>
     </row>
-    <row r="76" spans="1:6" ht="13" customHeight="1">
+    <row r="76" spans="1:6" ht="13.05" customHeight="1">
       <c r="A76" s="60" t="s">
         <v>645</v>
       </c>
@@ -11771,7 +11868,7 @@
       </c>
       <c r="F76" s="13"/>
     </row>
-    <row r="77" spans="1:6" ht="13" customHeight="1">
+    <row r="77" spans="1:6" ht="13.05" customHeight="1">
       <c r="A77" s="60" t="s">
         <v>647</v>
       </c>
@@ -11789,7 +11886,7 @@
       </c>
       <c r="F77" s="13"/>
     </row>
-    <row r="78" spans="1:6" ht="13" customHeight="1">
+    <row r="78" spans="1:6" ht="13.05" customHeight="1">
       <c r="A78" s="60" t="s">
         <v>649</v>
       </c>
@@ -11808,7 +11905,7 @@
       <c r="F78" s="13"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="106" t="s">
+      <c r="A79" s="107" t="s">
         <v>651</v>
       </c>
       <c r="B79" s="60" t="s">
@@ -11828,7 +11925,7 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="111"/>
+      <c r="A80" s="112"/>
       <c r="B80" s="60" t="s">
         <v>660</v>
       </c>
@@ -11846,7 +11943,7 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="111"/>
+      <c r="A81" s="112"/>
       <c r="B81" s="60" t="s">
         <v>655</v>
       </c>
@@ -11864,7 +11961,7 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="107"/>
+      <c r="A82" s="108"/>
       <c r="B82" s="60" t="s">
         <v>4</v>
       </c>
@@ -11880,7 +11977,7 @@
       <c r="F82" s="13"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="106" t="s">
+      <c r="A83" s="107" t="s">
         <v>662</v>
       </c>
       <c r="B83" s="60"/>
@@ -11893,8 +11990,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="13" customHeight="1">
-      <c r="A84" s="128"/>
+    <row r="84" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A84" s="129"/>
       <c r="B84" s="60" t="s">
         <v>4</v>
       </c>
@@ -11951,29 +12048,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5462A84-5583-420E-A5C1-7ED4CC9711D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="2" max="2" width="12.08203125" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>747</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -11996,7 +12093,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="43"/>
@@ -12010,7 +12107,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
@@ -12028,7 +12125,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="43" t="s">
         <v>4</v>
       </c>
@@ -12046,7 +12143,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="108"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="43" t="s">
         <v>4</v>
       </c>
@@ -12064,7 +12161,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="43" t="s">
         <v>4</v>
       </c>
@@ -12082,7 +12179,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="108"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="43" t="s">
         <v>4</v>
       </c>
@@ -12100,7 +12197,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="108"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="43" t="s">
         <v>4</v>
       </c>
@@ -12118,7 +12215,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="108"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="43" t="s">
         <v>4</v>
       </c>
@@ -12136,7 +12233,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="108"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="43" t="s">
         <v>4</v>
       </c>
@@ -12154,7 +12251,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="108"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="43" t="s">
         <v>4</v>
       </c>
@@ -12172,7 +12269,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="108"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="43" t="s">
         <v>4</v>
       </c>
@@ -12190,7 +12287,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="108"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="43" t="s">
         <v>4</v>
       </c>
@@ -12208,7 +12305,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="108"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="43" t="s">
         <v>4</v>
       </c>
@@ -12226,7 +12323,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="108"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="43" t="s">
         <v>4</v>
       </c>
@@ -12244,7 +12341,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="108"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="43"/>
       <c r="C17" s="8"/>
       <c r="D17" s="43"/>
@@ -12256,7 +12353,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="108"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
@@ -12274,7 +12371,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="108"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="43" t="s">
         <v>4</v>
       </c>
@@ -12292,7 +12389,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="110"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="43" t="s">
         <v>4</v>
       </c>
@@ -12410,7 +12507,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="109" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="43" t="s">
@@ -12430,7 +12527,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="110"/>
+      <c r="A27" s="111"/>
       <c r="B27" s="43" t="s">
         <v>4</v>
       </c>
@@ -12448,7 +12545,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="109" t="s">
         <v>432</v>
       </c>
       <c r="B28" s="43" t="s">
@@ -12468,7 +12565,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="110"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="43" t="s">
         <v>4</v>
       </c>
@@ -12486,7 +12583,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="109" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="43" t="s">
@@ -12506,7 +12603,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="110"/>
+      <c r="A31" s="111"/>
       <c r="B31" s="43" t="s">
         <v>4</v>
       </c>
@@ -12523,8 +12620,8 @@
         <v>517</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13" customHeight="1">
-      <c r="A32" s="108" t="s">
+    <row r="32" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A32" s="109" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="43" t="s">
@@ -12544,7 +12641,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="110"/>
+      <c r="A33" s="111"/>
       <c r="B33" s="43" t="s">
         <v>4</v>
       </c>
@@ -12562,7 +12659,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="108" t="s">
+      <c r="A34" s="109" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="43" t="s">
@@ -12582,7 +12679,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="110"/>
+      <c r="A35" s="111"/>
       <c r="B35" s="43" t="s">
         <v>4</v>
       </c>
@@ -12599,8 +12696,8 @@
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13" customHeight="1">
-      <c r="A36" s="108" t="s">
+    <row r="36" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A36" s="109" t="s">
         <v>442</v>
       </c>
       <c r="B36" s="43" t="s">
@@ -12620,7 +12717,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="110"/>
+      <c r="A37" s="111"/>
       <c r="B37" s="43" t="s">
         <v>4</v>
       </c>
@@ -12638,7 +12735,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="108" t="s">
+      <c r="A38" s="109" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="43" t="s">
@@ -12658,7 +12755,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="110"/>
+      <c r="A39" s="111"/>
       <c r="B39" s="43" t="s">
         <v>4</v>
       </c>
@@ -12676,7 +12773,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="109" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="43" t="s">
@@ -12696,7 +12793,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="110"/>
+      <c r="A41" s="111"/>
       <c r="B41" s="43" t="s">
         <v>4</v>
       </c>
@@ -12714,7 +12811,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="109" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="43" t="s">
@@ -12734,7 +12831,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="110"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="43" t="s">
         <v>4</v>
       </c>
@@ -12752,7 +12849,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="109" t="s">
         <v>451</v>
       </c>
       <c r="B44" s="43" t="s">
@@ -12772,7 +12869,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="110"/>
+      <c r="A45" s="111"/>
       <c r="B45" s="43" t="s">
         <v>4</v>
       </c>
@@ -12891,29 +12988,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D8D7B2-3DC2-4B4A-B1C5-224E4D25B711}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="2" max="2" width="12.08203125" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>382</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -12936,7 +13033,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -12953,8 +13050,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25">
-      <c r="A4" s="108"/>
+    <row r="4" spans="1:6" ht="25.5">
+      <c r="A4" s="109"/>
       <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
@@ -12971,8 +13068,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="37.5">
-      <c r="A5" s="108"/>
+    <row r="5" spans="1:6" ht="38.25">
+      <c r="A5" s="109"/>
       <c r="B5" s="43" t="s">
         <v>4</v>
       </c>
@@ -12990,7 +13087,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="108"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="43" t="s">
         <v>110</v>
       </c>
@@ -13008,7 +13105,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="43" t="s">
         <v>110</v>
       </c>
@@ -13026,7 +13123,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="108"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="43" t="s">
         <v>4</v>
       </c>
@@ -13044,7 +13141,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="110"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="43" t="s">
         <v>4</v>
       </c>
@@ -13062,7 +13159,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="109" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="43" t="s">
@@ -13082,7 +13179,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="108"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="43" t="s">
         <v>4</v>
       </c>
@@ -13100,7 +13197,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="108"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="43" t="s">
         <v>4</v>
       </c>
@@ -13118,7 +13215,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="108"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="43" t="s">
         <v>4</v>
       </c>
@@ -13136,7 +13233,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="108"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="43" t="s">
         <v>4</v>
       </c>
@@ -13154,7 +13251,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="110"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="43" t="s">
         <v>4</v>
       </c>
@@ -13172,7 +13269,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="109" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -13192,7 +13289,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="108"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="43" t="s">
         <v>4</v>
       </c>
@@ -13210,7 +13307,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="108"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
@@ -13228,7 +13325,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="110"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="43" t="s">
         <v>4</v>
       </c>
@@ -13246,7 +13343,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="109" t="s">
         <v>418</v>
       </c>
       <c r="B20" s="43" t="s">
@@ -13266,7 +13363,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="108"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="43" t="s">
         <v>4</v>
       </c>
@@ -13284,7 +13381,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="108"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="43" t="s">
         <v>4</v>
       </c>
@@ -13302,7 +13399,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="110"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="43" t="s">
         <v>4</v>
       </c>

--- a/doc/XBR820  system spec/xbr820_register.xlsx
+++ b/doc/XBR820  system spec/xbr820_register.xlsx
@@ -238,14 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cpu_command[3:0]: The IIC MASTER command
-     4'h1: Transmit mode.
-     4'h2: Receive mode.
-     4'h7: Restart receive mode 1.
-     4'hF: Restart receive mode 2.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cpu_clk_str_en
 1: clock stretch enable
 0: clock stretch disable</t>
@@ -3821,6 +3813,14 @@
       </rPr>
       <t>用</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu_command[3:0]: The IIC MASTER command
+     4'h1: Transmit mode.
+     4'h2: Receive mode.
+     4'h7: Restart receive mode 1.
+     4'hF: Restart receive mode 2.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4652,16 +4652,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4675,39 +4708,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4981,7 +4981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5007,256 +5007,256 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.4" thickBot="1">
       <c r="A1" s="62" t="s">
+        <v>667</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>668</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="C1" s="63" t="s">
         <v>669</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="D1" s="63" t="s">
         <v>670</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="E1" s="63" t="s">
         <v>671</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="F1" s="64" t="s">
         <v>672</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.4" thickBot="1">
       <c r="A2" s="65" t="s">
+        <v>673</v>
+      </c>
+      <c r="B2" s="66" t="s">
         <v>674</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>675</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="D2" s="67" t="s">
         <v>676</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="E2" s="67" t="s">
         <v>677</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="F2" s="68" t="s">
         <v>678</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.4" thickBot="1">
       <c r="A3" s="65" t="s">
+        <v>679</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>680</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="C3" s="69" t="s">
         <v>681</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="D3" s="70" t="s">
         <v>682</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="E3" s="70" t="s">
         <v>683</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="F3" s="68" t="s">
         <v>684</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="104" t="s">
+        <v>685</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>686</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="C4" s="71" t="s">
         <v>687</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="D4" s="71" t="s">
         <v>688</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="E4" s="71" t="s">
         <v>689</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="F4" s="72" t="s">
         <v>690</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="105"/>
       <c r="B5" s="73" t="s">
+        <v>691</v>
+      </c>
+      <c r="C5" s="73" t="s">
         <v>692</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="D5" s="73" t="s">
+        <v>688</v>
+      </c>
+      <c r="E5" s="73" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="73" t="s">
-        <v>689</v>
-      </c>
-      <c r="E5" s="73" t="s">
+      <c r="F5" s="74" t="s">
         <v>694</v>
-      </c>
-      <c r="F5" s="74" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="105"/>
       <c r="B6" s="73" t="s">
+        <v>695</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>696</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="D6" s="73" t="s">
         <v>697</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="E6" s="73" t="s">
         <v>698</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="F6" s="74" t="s">
         <v>699</v>
-      </c>
-      <c r="F6" s="74" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="105"/>
       <c r="B7" s="73" t="s">
+        <v>700</v>
+      </c>
+      <c r="C7" s="73" t="s">
         <v>701</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="D7" s="73" t="s">
+        <v>697</v>
+      </c>
+      <c r="E7" s="73" t="s">
         <v>702</v>
       </c>
-      <c r="D7" s="73" t="s">
-        <v>698</v>
-      </c>
-      <c r="E7" s="73" t="s">
+      <c r="F7" s="74" t="s">
         <v>703</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="105"/>
       <c r="B8" s="73" t="s">
+        <v>704</v>
+      </c>
+      <c r="C8" s="73" t="s">
         <v>705</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="D8" s="73" t="s">
+        <v>697</v>
+      </c>
+      <c r="E8" s="73" t="s">
         <v>706</v>
       </c>
-      <c r="D8" s="73" t="s">
-        <v>698</v>
-      </c>
-      <c r="E8" s="73" t="s">
+      <c r="F8" s="74" t="s">
         <v>707</v>
-      </c>
-      <c r="F8" s="74" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="105"/>
       <c r="B9" s="73" t="s">
+        <v>708</v>
+      </c>
+      <c r="C9" s="73" t="s">
         <v>709</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="D9" s="73" t="s">
+        <v>697</v>
+      </c>
+      <c r="E9" s="73" t="s">
         <v>710</v>
       </c>
-      <c r="D9" s="73" t="s">
-        <v>698</v>
-      </c>
-      <c r="E9" s="73" t="s">
+      <c r="F9" s="74" t="s">
         <v>711</v>
-      </c>
-      <c r="F9" s="74" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="105"/>
       <c r="B10" s="73" t="s">
+        <v>712</v>
+      </c>
+      <c r="C10" s="73" t="s">
         <v>713</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="D10" s="73" t="s">
+        <v>697</v>
+      </c>
+      <c r="E10" s="73" t="s">
         <v>714</v>
       </c>
-      <c r="D10" s="73" t="s">
-        <v>698</v>
-      </c>
-      <c r="E10" s="73" t="s">
+      <c r="F10" s="74" t="s">
         <v>715</v>
-      </c>
-      <c r="F10" s="74" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.4" thickBot="1">
       <c r="A11" s="105"/>
       <c r="B11" s="75" t="s">
+        <v>716</v>
+      </c>
+      <c r="C11" s="75" t="s">
         <v>717</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="D11" s="75" t="s">
+        <v>697</v>
+      </c>
+      <c r="E11" s="75" t="s">
         <v>718</v>
       </c>
-      <c r="D11" s="75" t="s">
-        <v>698</v>
-      </c>
-      <c r="E11" s="75" t="s">
+      <c r="F11" s="76" t="s">
         <v>719</v>
-      </c>
-      <c r="F11" s="76" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="106" t="s">
+        <v>720</v>
+      </c>
+      <c r="B12" s="75" t="s">
         <v>721</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="C12" s="75" t="s">
         <v>722</v>
       </c>
-      <c r="C12" s="75" t="s">
-        <v>723</v>
-      </c>
       <c r="D12" s="75" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E12" s="75" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F12" s="76" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="105"/>
       <c r="B13" s="75" t="s">
+        <v>723</v>
+      </c>
+      <c r="C13" s="75" t="s">
         <v>724</v>
       </c>
-      <c r="C13" s="75" t="s">
-        <v>725</v>
-      </c>
       <c r="D13" s="75" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E13" s="75" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F13" s="76"/>
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="105"/>
       <c r="B14" s="77" t="s">
+        <v>725</v>
+      </c>
+      <c r="C14" s="77" t="s">
         <v>726</v>
       </c>
-      <c r="C14" s="77" t="s">
-        <v>727</v>
-      </c>
       <c r="D14" s="77" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E14" s="77"/>
       <c r="F14" s="78"/>
@@ -5264,13 +5264,13 @@
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="105"/>
       <c r="B15" s="77" t="s">
+        <v>727</v>
+      </c>
+      <c r="C15" s="77" t="s">
         <v>728</v>
       </c>
-      <c r="C15" s="77" t="s">
-        <v>729</v>
-      </c>
       <c r="D15" s="77" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E15" s="77"/>
       <c r="F15" s="78"/>
@@ -5278,13 +5278,13 @@
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="105"/>
       <c r="B16" s="77" t="s">
+        <v>729</v>
+      </c>
+      <c r="C16" s="77" t="s">
         <v>730</v>
       </c>
-      <c r="C16" s="77" t="s">
-        <v>731</v>
-      </c>
       <c r="D16" s="77" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E16" s="77"/>
       <c r="F16" s="78"/>
@@ -5292,13 +5292,13 @@
     <row r="17" spans="1:6" ht="15">
       <c r="A17" s="105"/>
       <c r="B17" s="77" t="s">
+        <v>731</v>
+      </c>
+      <c r="C17" s="77" t="s">
         <v>732</v>
       </c>
-      <c r="C17" s="77" t="s">
-        <v>733</v>
-      </c>
       <c r="D17" s="77" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E17" s="77"/>
       <c r="F17" s="78"/>
@@ -5306,13 +5306,13 @@
     <row r="18" spans="1:6" ht="15">
       <c r="A18" s="105"/>
       <c r="B18" s="77" t="s">
+        <v>733</v>
+      </c>
+      <c r="C18" s="77" t="s">
         <v>734</v>
       </c>
-      <c r="C18" s="77" t="s">
-        <v>735</v>
-      </c>
       <c r="D18" s="77" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E18" s="77"/>
       <c r="F18" s="78"/>
@@ -5320,32 +5320,32 @@
     <row r="19" spans="1:6" ht="15.4" thickBot="1">
       <c r="A19" s="105"/>
       <c r="B19" s="79" t="s">
+        <v>735</v>
+      </c>
+      <c r="C19" s="79" t="s">
         <v>736</v>
       </c>
-      <c r="C19" s="79" t="s">
-        <v>737</v>
-      </c>
       <c r="D19" s="79" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E19" s="79"/>
       <c r="F19" s="80"/>
     </row>
     <row r="20" spans="1:6" ht="15.4" thickBot="1">
       <c r="A20" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="B20" s="82" t="s">
         <v>738</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="C20" s="82" t="s">
         <v>739</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="D20" s="82" t="s">
         <v>740</v>
       </c>
-      <c r="D20" s="82" t="s">
+      <c r="E20" s="82" t="s">
         <v>741</v>
-      </c>
-      <c r="E20" s="82" t="s">
-        <v>742</v>
       </c>
       <c r="F20" s="83"/>
     </row>
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="91" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -5386,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -5394,7 +5394,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -5402,7 +5402,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -5410,7 +5410,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -5418,7 +5418,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -5426,7 +5426,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="91" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -5434,7 +5434,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -5442,7 +5442,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="91" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -5450,7 +5450,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -5458,7 +5458,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -5466,7 +5466,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -5474,7 +5474,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -5482,7 +5482,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -5497,7 +5497,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
@@ -5512,7 +5512,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="47" customHeight="1">
       <c r="A1" s="110" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -5575,7 +5575,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5624,7 +5624,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="17"/>
       <c r="E7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>12</v>
@@ -5639,13 +5639,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="76.5">
@@ -5663,7 +5663,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>55</v>
+        <v>940</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5701,10 +5701,10 @@
         <v>35</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="103" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5742,10 +5742,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="103" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5783,10 +5783,10 @@
         <v>35</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="103" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5800,13 +5800,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5820,13 +5820,13 @@
         <v>8</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5840,13 +5840,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
@@ -5862,13 +5862,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.55" customHeight="1">
@@ -5898,16 +5898,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="103" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -5919,13 +5919,13 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -5937,13 +5937,13 @@
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -5991,16 +5991,16 @@
         <v>28</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G26" s="103" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="25.5">
@@ -6012,13 +6012,13 @@
         <v>28</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="25.5">
@@ -6030,18 +6030,18 @@
         <v>28</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
@@ -6075,7 +6075,7 @@
         <v>48</v>
       </c>
       <c r="G30" s="103" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -6096,7 +6096,7 @@
         <v>47</v>
       </c>
       <c r="G31" s="103" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -6117,12 +6117,12 @@
         <v>46</v>
       </c>
       <c r="G32" s="103" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
@@ -6158,7 +6158,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16" t="s">
@@ -6229,7 +6229,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45.5" customHeight="1">
       <c r="A1" s="110" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -6280,19 +6280,19 @@
     <row r="4" spans="1:6">
       <c r="A4" s="111"/>
       <c r="B4" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6318,19 +6318,19 @@
     <row r="6" spans="1:6">
       <c r="A6" s="111"/>
       <c r="B6" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6341,7 +6341,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="18"/>
       <c r="E7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>12</v>
@@ -6356,13 +6356,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="56.55" customHeight="1">
@@ -6374,13 +6374,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6391,7 +6391,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="18"/>
       <c r="E10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>12</v>
@@ -6406,13 +6406,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6423,7 +6423,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="18"/>
       <c r="E12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>12</v>
@@ -6438,13 +6438,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6456,13 +6456,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6474,13 +6474,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6492,13 +6492,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6510,13 +6510,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6542,13 +6542,13 @@
         <v>28</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6560,13 +6560,13 @@
         <v>28</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6578,13 +6578,13 @@
         <v>28</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6596,13 +6596,13 @@
         <v>28</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -6636,7 +6636,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42.5" customHeight="1">
       <c r="A1" s="110" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -6693,13 +6693,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6711,13 +6711,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6729,13 +6729,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6767,13 +6767,13 @@
         <v>28</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="38.25">
@@ -6785,36 +6785,36 @@
         <v>28</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5">
       <c r="A10" s="111"/>
       <c r="B10" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>26</v>
@@ -6826,7 +6826,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>12</v>
@@ -6841,31 +6841,31 @@
         <v>25</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="111"/>
       <c r="B13" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6879,13 +6879,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6902,7 +6902,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>12</v>
@@ -6911,19 +6911,19 @@
     <row r="16" spans="1:6" ht="25.5">
       <c r="A16" s="109"/>
       <c r="B16" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6940,7 +6940,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>12</v>
@@ -6949,19 +6949,19 @@
     <row r="18" spans="1:6" ht="38.25">
       <c r="A18" s="109"/>
       <c r="B18" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>138</v>
-      </c>
       <c r="F18" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6978,7 +6978,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>12</v>
@@ -6987,19 +6987,19 @@
     <row r="20" spans="1:6">
       <c r="A20" s="109"/>
       <c r="B20" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="F20" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.05" customHeight="1">
@@ -7016,7 +7016,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>12</v>
@@ -7025,19 +7025,19 @@
     <row r="22" spans="1:6" ht="25.5">
       <c r="A22" s="109"/>
       <c r="B22" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.05" customHeight="1">
@@ -7054,7 +7054,7 @@
         <v>26</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>12</v>
@@ -7063,19 +7063,19 @@
     <row r="24" spans="1:6">
       <c r="A24" s="109"/>
       <c r="B24" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="21" t="s">
+      <c r="E24" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>150</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="13.05" customHeight="1">
@@ -7092,7 +7092,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>12</v>
@@ -7101,19 +7101,19 @@
     <row r="26" spans="1:6">
       <c r="A26" s="109"/>
       <c r="B26" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -7154,7 +7154,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="50.55" customHeight="1">
       <c r="A1" s="110" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -7196,33 +7196,33 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="116" t="s">
-        <v>192</v>
+      <c r="G3" s="127" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="109"/>
       <c r="B4" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="117"/>
+        <v>156</v>
+      </c>
+      <c r="G4" s="124"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="109"/>
@@ -7233,15 +7233,15 @@
         <v>28</v>
       </c>
       <c r="D5" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" s="117"/>
+      <c r="G5" s="124"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="111"/>
@@ -7252,15 +7252,15 @@
         <v>28</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="118"/>
+        <v>169</v>
+      </c>
+      <c r="G6" s="125"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="109" t="s">
@@ -7276,75 +7276,75 @@
         <v>26</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="116" t="s">
-        <v>193</v>
+      <c r="G7" s="127" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15">
       <c r="A8" s="109"/>
       <c r="B8" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="G8" s="117"/>
+      <c r="G8" s="124"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="109"/>
       <c r="B9" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="117"/>
+        <v>177</v>
+      </c>
+      <c r="G9" s="124"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="111"/>
       <c r="B10" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="118"/>
+        <v>178</v>
+      </c>
+      <c r="G10" s="125"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>26</v>
@@ -7356,71 +7356,71 @@
         <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="120" t="s">
-        <v>194</v>
+      <c r="G11" s="133" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="109"/>
       <c r="B12" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" s="121"/>
+        <v>188</v>
+      </c>
+      <c r="G12" s="134"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="109"/>
       <c r="B13" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>185</v>
-      </c>
       <c r="F13" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="121"/>
+        <v>189</v>
+      </c>
+      <c r="G13" s="134"/>
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" s="111"/>
       <c r="B14" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="122"/>
+        <v>190</v>
+      </c>
+      <c r="G14" s="135"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="109" t="s">
@@ -7441,8 +7441,8 @@
       <c r="F15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="120" t="s">
-        <v>203</v>
+      <c r="G15" s="133" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7454,34 +7454,34 @@
         <v>28</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="G16" s="121"/>
+        <v>198</v>
+      </c>
+      <c r="G16" s="134"/>
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="A17" s="109"/>
       <c r="B17" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="G17" s="121"/>
+        <v>199</v>
+      </c>
+      <c r="G17" s="134"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="109"/>
@@ -7492,34 +7492,34 @@
         <v>28</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="G18" s="121"/>
+        <v>200</v>
+      </c>
+      <c r="G18" s="134"/>
     </row>
     <row r="19" spans="1:7" ht="15">
       <c r="A19" s="111"/>
       <c r="B19" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E19" s="38" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="122"/>
+        <v>201</v>
+      </c>
+      <c r="G19" s="135"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="109" t="s">
@@ -7540,28 +7540,28 @@
       <c r="F20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="120" t="s">
-        <v>208</v>
+      <c r="G20" s="133" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="109"/>
       <c r="B21" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="F21" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="F21" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="G21" s="121"/>
+      <c r="G21" s="134"/>
     </row>
     <row r="22" spans="1:7" ht="15">
       <c r="A22" s="109"/>
@@ -7572,15 +7572,15 @@
         <v>28</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="G22" s="122"/>
+        <v>206</v>
+      </c>
+      <c r="G22" s="135"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="109" t="s">
@@ -7596,188 +7596,188 @@
         <v>26</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="119" t="s">
-        <v>269</v>
+      <c r="G23" s="132" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15">
       <c r="A24" s="109"/>
       <c r="B24" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="G24" s="119"/>
+        <v>230</v>
+      </c>
+      <c r="G24" s="132"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="109"/>
       <c r="B25" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" s="119"/>
+        <v>231</v>
+      </c>
+      <c r="G25" s="132"/>
     </row>
     <row r="26" spans="1:7" ht="15">
       <c r="A26" s="109"/>
       <c r="B26" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="G26" s="119"/>
+        <v>232</v>
+      </c>
+      <c r="G26" s="132"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="109"/>
       <c r="B27" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="G27" s="119"/>
+        <v>233</v>
+      </c>
+      <c r="G27" s="132"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="109"/>
       <c r="B28" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="G28" s="119"/>
+        <v>234</v>
+      </c>
+      <c r="G28" s="132"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="109"/>
       <c r="B29" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="G29" s="119"/>
+        <v>235</v>
+      </c>
+      <c r="G29" s="132"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="109"/>
       <c r="B30" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="G30" s="119"/>
+        <v>236</v>
+      </c>
+      <c r="G30" s="132"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="109"/>
       <c r="B31" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>222</v>
-      </c>
       <c r="F31" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="G31" s="119"/>
+        <v>237</v>
+      </c>
+      <c r="G31" s="132"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="109"/>
       <c r="B32" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E32" s="39" t="s">
         <v>38</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="G32" s="119"/>
+        <v>238</v>
+      </c>
+      <c r="G32" s="132"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="115" t="s">
+      <c r="A33" s="126" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="23" t="s">
@@ -7790,15 +7790,15 @@
         <v>26</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="119"/>
+      <c r="G33" s="132"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="115"/>
+      <c r="A34" s="126"/>
       <c r="B34" s="23" t="s">
         <v>18</v>
       </c>
@@ -7806,189 +7806,189 @@
         <v>28</v>
       </c>
       <c r="D34" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" s="132"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="126"/>
+      <c r="B35" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="E34" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="F34" s="28" t="s">
+      <c r="E35" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="F35" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="G34" s="119"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="115"/>
-      <c r="B35" s="32" t="s">
+      <c r="G35" s="132"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="126"/>
+      <c r="B36" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" s="132"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="126"/>
+      <c r="B37" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="G35" s="119"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="115"/>
-      <c r="B36" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="28" t="s">
+      <c r="C37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="E36" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="F36" s="28" t="s">
+      <c r="E37" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="119"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="115"/>
-      <c r="B37" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="28" t="s">
+      <c r="G37" s="132"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="126"/>
+      <c r="B38" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="E37" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="F37" s="28" t="s">
+      <c r="E38" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="G37" s="119"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="115"/>
-      <c r="B38" s="32" t="s">
+      <c r="G38" s="132"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="126"/>
+      <c r="B39" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G39" s="132"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="126"/>
+      <c r="B40" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="G40" s="132"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="126"/>
+      <c r="B41" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="G38" s="119"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="115"/>
-      <c r="B39" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="G39" s="119"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="115"/>
-      <c r="B40" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="28" t="s">
+      <c r="C41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="G40" s="119"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="115"/>
-      <c r="B41" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="E41" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="G41" s="119"/>
+        <v>258</v>
+      </c>
+      <c r="G41" s="132"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="115"/>
+      <c r="A42" s="126"/>
       <c r="B42" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>41</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="G42" s="119"/>
+        <v>259</v>
+      </c>
+      <c r="G42" s="132"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="115"/>
+      <c r="A43" s="126"/>
       <c r="B43" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E43" s="39" t="s">
         <v>38</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G43" s="119"/>
+        <v>260</v>
+      </c>
+      <c r="G43" s="132"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="115" t="s">
+      <c r="A44" s="126" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -8001,147 +8001,147 @@
         <v>26</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="116" t="s">
-        <v>284</v>
+      <c r="G44" s="127" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="115"/>
+      <c r="A45" s="126"/>
       <c r="B45" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>533</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="G45" s="124"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="126"/>
+      <c r="B46" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="G46" s="124"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="126"/>
+      <c r="B47" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C45" s="49" t="s">
-        <v>534</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>532</v>
-      </c>
-      <c r="E45" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="F45" s="50" t="s">
-        <v>533</v>
-      </c>
-      <c r="G45" s="117"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="115"/>
-      <c r="B46" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="28" t="s">
+      <c r="C47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="E46" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="F46" s="28" t="s">
+      <c r="E47" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="G46" s="117"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="115"/>
-      <c r="B47" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="G47" s="117"/>
+      <c r="G47" s="124"/>
     </row>
     <row r="48" spans="1:7" ht="15">
-      <c r="A48" s="115"/>
+      <c r="A48" s="126"/>
       <c r="B48" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E48" s="39" t="s">
         <v>43</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="G48" s="117"/>
+        <v>279</v>
+      </c>
+      <c r="G48" s="124"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="115"/>
+      <c r="A49" s="126"/>
       <c r="B49" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E49" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="G49" s="117"/>
+        <v>280</v>
+      </c>
+      <c r="G49" s="124"/>
     </row>
     <row r="50" spans="1:7" ht="15">
-      <c r="A50" s="115"/>
+      <c r="A50" s="126"/>
       <c r="B50" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E50" s="39" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="G50" s="117"/>
+        <v>281</v>
+      </c>
+      <c r="G50" s="124"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="115"/>
+      <c r="A51" s="126"/>
       <c r="B51" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E51" s="39" t="s">
         <v>38</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="G51" s="118"/>
+        <v>282</v>
+      </c>
+      <c r="G51" s="125"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="123" t="s">
@@ -8157,150 +8157,150 @@
         <v>26</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="119" t="s">
-        <v>305</v>
+      <c r="G52" s="132" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="124"/>
+      <c r="A53" s="130"/>
       <c r="B53" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="G53" s="132"/>
+    </row>
+    <row r="54" spans="1:7" ht="15">
+      <c r="A54" s="130"/>
+      <c r="B54" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="E53" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="F53" s="28" t="s">
+      <c r="E54" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="F54" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="G53" s="119"/>
-    </row>
-    <row r="54" spans="1:7" ht="15">
-      <c r="A54" s="124"/>
-      <c r="B54" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="36" t="s">
+      <c r="G54" s="132"/>
+    </row>
+    <row r="55" spans="1:7" ht="15">
+      <c r="A55" s="130"/>
+      <c r="B55" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="E54" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="F54" s="28" t="s">
+      <c r="E55" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="F55" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G54" s="119"/>
-    </row>
-    <row r="55" spans="1:7" ht="15">
-      <c r="A55" s="124"/>
-      <c r="B55" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="36" t="s">
+      <c r="G55" s="132"/>
+    </row>
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="130"/>
+      <c r="B56" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="E55" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="F55" s="28" t="s">
+      <c r="E56" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="F56" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="G55" s="119"/>
-    </row>
-    <row r="56" spans="1:7" ht="15">
-      <c r="A56" s="124"/>
-      <c r="B56" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="36" t="s">
+      <c r="G56" s="132"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="130"/>
+      <c r="B57" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="E56" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="F56" s="28" t="s">
+      <c r="E57" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="F57" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="G56" s="119"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="124"/>
-      <c r="B57" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="28" t="s">
+      <c r="G57" s="132"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="130"/>
+      <c r="B58" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="E57" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="F57" s="28" t="s">
+      <c r="E58" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="F58" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="G57" s="119"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="124"/>
-      <c r="B58" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="28" t="s">
+      <c r="G58" s="132"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="131"/>
+      <c r="B59" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="E58" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="G58" s="119"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="125"/>
-      <c r="B59" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>291</v>
-      </c>
       <c r="E59" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="G59" s="119"/>
+        <v>301</v>
+      </c>
+      <c r="G59" s="132"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="115" t="s">
+      <c r="A60" s="126" t="s">
         <v>23</v>
       </c>
       <c r="B60" s="23" t="s">
@@ -8313,17 +8313,17 @@
         <v>26</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="116" t="s">
-        <v>310</v>
+      <c r="G60" s="127" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="115"/>
+      <c r="A61" s="126"/>
       <c r="B61" s="32" t="s">
         <v>4</v>
       </c>
@@ -8331,18 +8331,18 @@
         <v>28</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E61" s="37" t="s">
         <v>41</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="G61" s="117"/>
+        <v>307</v>
+      </c>
+      <c r="G61" s="124"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="115"/>
+      <c r="A62" s="126"/>
       <c r="B62" s="32" t="s">
         <v>4</v>
       </c>
@@ -8350,18 +8350,18 @@
         <v>28</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E62" s="37" t="s">
         <v>38</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="G62" s="118"/>
+        <v>308</v>
+      </c>
+      <c r="G62" s="125"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="115" t="s">
+      <c r="A63" s="126" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -8374,17 +8374,17 @@
         <v>26</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="119" t="s">
-        <v>328</v>
+      <c r="G63" s="132" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="115"/>
+      <c r="A64" s="126"/>
       <c r="B64" s="32" t="s">
         <v>4</v>
       </c>
@@ -8392,18 +8392,18 @@
         <v>0</v>
       </c>
       <c r="D64" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F64" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="G64" s="119"/>
+      <c r="G64" s="132"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="115"/>
+      <c r="A65" s="126"/>
       <c r="B65" s="32" t="s">
         <v>4</v>
       </c>
@@ -8411,18 +8411,18 @@
         <v>0</v>
       </c>
       <c r="D65" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F65" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="E65" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="F65" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="G65" s="119"/>
+      <c r="G65" s="132"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="115"/>
+      <c r="A66" s="126"/>
       <c r="B66" s="32" t="s">
         <v>3</v>
       </c>
@@ -8430,18 +8430,18 @@
         <v>0</v>
       </c>
       <c r="D66" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="E66" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="F66" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="E66" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="F66" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="G66" s="119"/>
+      <c r="G66" s="132"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="115"/>
+      <c r="A67" s="126"/>
       <c r="B67" s="32" t="s">
         <v>3</v>
       </c>
@@ -8449,18 +8449,18 @@
         <v>0</v>
       </c>
       <c r="D67" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F67" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="E67" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="F67" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="G67" s="119"/>
+      <c r="G67" s="132"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="115"/>
+      <c r="A68" s="126"/>
       <c r="B68" s="32" t="s">
         <v>3</v>
       </c>
@@ -8468,19 +8468,19 @@
         <v>0</v>
       </c>
       <c r="D68" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="E68" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="F68" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="F68" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="G68" s="119"/>
+      <c r="G68" s="132"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="115" t="s">
-        <v>77</v>
+      <c r="A69" s="126" t="s">
+        <v>76</v>
       </c>
       <c r="B69" s="23" t="s">
         <v>26</v>
@@ -8492,37 +8492,37 @@
         <v>26</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="119" t="s">
-        <v>915</v>
+      <c r="G69" s="132" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1">
-      <c r="A70" s="115"/>
+      <c r="A70" s="126"/>
       <c r="B70" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F70" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="F70" s="28" t="s">
-        <v>538</v>
-      </c>
-      <c r="G70" s="119"/>
+      <c r="G70" s="132"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="115" t="s">
-        <v>78</v>
+      <c r="A71" s="126" t="s">
+        <v>77</v>
       </c>
       <c r="B71" s="23" t="s">
         <v>26</v>
@@ -8534,35 +8534,35 @@
         <v>26</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="119"/>
+      <c r="G71" s="132"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="115"/>
+      <c r="A72" s="126"/>
       <c r="B72" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D72" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F72" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="E72" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="G72" s="119"/>
+      <c r="G72" s="132"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="115" t="s">
-        <v>79</v>
+      <c r="A73" s="126" t="s">
+        <v>78</v>
       </c>
       <c r="B73" s="23" t="s">
         <v>26</v>
@@ -8571,91 +8571,91 @@
         <v>26</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="119"/>
+      <c r="G73" s="132"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="115"/>
-      <c r="B74" s="128" t="s">
+      <c r="A74" s="126"/>
+      <c r="B74" s="120" t="s">
+        <v>922</v>
+      </c>
+      <c r="C74" s="107" t="s">
+        <v>921</v>
+      </c>
+      <c r="D74" s="115" t="s">
         <v>923</v>
       </c>
-      <c r="C74" s="107" t="s">
-        <v>922</v>
-      </c>
-      <c r="D74" s="130" t="s">
-        <v>924</v>
-      </c>
       <c r="E74" s="44" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F74" s="45" t="s">
-        <v>849</v>
-      </c>
-      <c r="G74" s="119"/>
+        <v>848</v>
+      </c>
+      <c r="G74" s="132"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="115"/>
-      <c r="B75" s="133"/>
-      <c r="C75" s="133"/>
-      <c r="D75" s="131"/>
+      <c r="A75" s="126"/>
+      <c r="B75" s="118"/>
+      <c r="C75" s="118"/>
+      <c r="D75" s="116"/>
       <c r="E75" s="44" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F75" s="45" t="s">
-        <v>848</v>
-      </c>
-      <c r="G75" s="119"/>
+        <v>847</v>
+      </c>
+      <c r="G75" s="132"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="115"/>
-      <c r="B76" s="129"/>
-      <c r="C76" s="129"/>
-      <c r="D76" s="132"/>
+      <c r="A76" s="126"/>
+      <c r="B76" s="119"/>
+      <c r="C76" s="119"/>
+      <c r="D76" s="117"/>
       <c r="E76" s="44" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F76" s="45" t="s">
-        <v>847</v>
-      </c>
-      <c r="G76" s="119"/>
+        <v>846</v>
+      </c>
+      <c r="G76" s="132"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="115"/>
+      <c r="A77" s="126"/>
       <c r="B77" s="23"/>
       <c r="C77" s="97"/>
       <c r="E77" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="119"/>
+      <c r="G77" s="132"/>
     </row>
     <row r="78" spans="1:7" ht="41.65">
-      <c r="A78" s="115"/>
+      <c r="A78" s="126"/>
       <c r="B78" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E78" s="56" t="s">
         <v>45</v>
       </c>
       <c r="F78" s="57" t="s">
-        <v>592</v>
-      </c>
-      <c r="G78" s="119"/>
+        <v>591</v>
+      </c>
+      <c r="G78" s="132"/>
     </row>
     <row r="79" spans="1:7" ht="41.65">
-      <c r="A79" s="115"/>
+      <c r="A79" s="126"/>
       <c r="B79" s="32" t="s">
         <v>4</v>
       </c>
@@ -8663,31 +8663,31 @@
         <v>28</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E79" s="54" t="s">
         <v>43</v>
       </c>
       <c r="F79" s="57" t="s">
-        <v>589</v>
-      </c>
-      <c r="G79" s="119"/>
+        <v>588</v>
+      </c>
+      <c r="G79" s="132"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="115"/>
+      <c r="A80" s="126"/>
       <c r="B80" s="32"/>
       <c r="C80" s="9"/>
       <c r="D80" s="28"/>
       <c r="E80" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="119"/>
+      <c r="G80" s="132"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="115"/>
+      <c r="A81" s="126"/>
       <c r="B81" s="32" t="s">
         <v>4</v>
       </c>
@@ -8695,18 +8695,18 @@
         <v>28</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F81" s="28" t="s">
-        <v>917</v>
-      </c>
-      <c r="G81" s="119"/>
+        <v>916</v>
+      </c>
+      <c r="G81" s="132"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="115"/>
+      <c r="A82" s="126"/>
       <c r="B82" s="32" t="s">
         <v>4</v>
       </c>
@@ -8714,19 +8714,19 @@
         <v>28</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F82" s="28" t="s">
-        <v>543</v>
-      </c>
-      <c r="G82" s="119"/>
+        <v>542</v>
+      </c>
+      <c r="G82" s="132"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="115" t="s">
-        <v>546</v>
+      <c r="A83" s="126" t="s">
+        <v>545</v>
       </c>
       <c r="B83" s="23" t="s">
         <v>26</v>
@@ -8738,17 +8738,17 @@
         <v>26</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="119" t="s">
-        <v>594</v>
+      <c r="G83" s="132" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="115"/>
+      <c r="A84" s="126"/>
       <c r="B84" s="23" t="s">
         <v>4</v>
       </c>
@@ -8756,57 +8756,57 @@
         <v>28</v>
       </c>
       <c r="D84" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="E84" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="G84" s="132"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="126"/>
+      <c r="B85" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="G85" s="132"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="126"/>
+      <c r="B86" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="E84" s="47" t="s">
-        <v>551</v>
-      </c>
-      <c r="F84" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="G84" s="119"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="115"/>
-      <c r="B85" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F85" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="G85" s="119"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="115"/>
-      <c r="B86" s="32" t="s">
-        <v>550</v>
-      </c>
       <c r="C86" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F86" s="28" t="s">
-        <v>593</v>
-      </c>
-      <c r="G86" s="119"/>
+        <v>592</v>
+      </c>
+      <c r="G86" s="132"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="115" t="s">
-        <v>554</v>
+      <c r="A87" s="126" t="s">
+        <v>553</v>
       </c>
       <c r="B87" s="23" t="s">
         <v>26</v>
@@ -8818,62 +8818,62 @@
         <v>26</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="119" t="s">
-        <v>555</v>
+      <c r="G87" s="132" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="115"/>
-      <c r="B88" s="128" t="s">
-        <v>303</v>
+      <c r="A88" s="126"/>
+      <c r="B88" s="120" t="s">
+        <v>302</v>
       </c>
       <c r="C88" s="107" t="s">
+        <v>886</v>
+      </c>
+      <c r="D88" s="107" t="s">
         <v>887</v>
       </c>
-      <c r="D88" s="107" t="s">
-        <v>888</v>
-      </c>
       <c r="E88" s="101" t="s">
+        <v>929</v>
+      </c>
+      <c r="F88" s="102" t="s">
         <v>930</v>
       </c>
-      <c r="F88" s="102" t="s">
-        <v>931</v>
-      </c>
-      <c r="G88" s="119"/>
+      <c r="G88" s="132"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="115"/>
-      <c r="B89" s="133"/>
-      <c r="C89" s="133"/>
-      <c r="D89" s="134"/>
+      <c r="A89" s="126"/>
+      <c r="B89" s="118"/>
+      <c r="C89" s="118"/>
+      <c r="D89" s="121"/>
       <c r="E89" s="101" t="s">
+        <v>925</v>
+      </c>
+      <c r="F89" s="102" t="s">
+        <v>924</v>
+      </c>
+      <c r="G89" s="132"/>
+    </row>
+    <row r="90" spans="1:7" ht="27.75">
+      <c r="A90" s="126"/>
+      <c r="B90" s="119"/>
+      <c r="C90" s="119"/>
+      <c r="D90" s="122"/>
+      <c r="E90" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="F90" s="57" t="s">
         <v>926</v>
       </c>
-      <c r="F89" s="102" t="s">
-        <v>925</v>
-      </c>
-      <c r="G89" s="119"/>
-    </row>
-    <row r="90" spans="1:7" ht="27.75">
-      <c r="A90" s="115"/>
-      <c r="B90" s="129"/>
-      <c r="C90" s="129"/>
-      <c r="D90" s="135"/>
-      <c r="E90" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F90" s="57" t="s">
-        <v>927</v>
-      </c>
-      <c r="G90" s="119"/>
+      <c r="G90" s="132"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="115"/>
+      <c r="A91" s="126"/>
       <c r="B91" s="32" t="s">
         <v>4</v>
       </c>
@@ -8881,18 +8881,18 @@
         <v>25</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F91" s="28" t="s">
-        <v>558</v>
-      </c>
-      <c r="G91" s="119"/>
+        <v>557</v>
+      </c>
+      <c r="G91" s="132"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="115"/>
+      <c r="A92" s="126"/>
       <c r="B92" s="32" t="s">
         <v>4</v>
       </c>
@@ -8900,19 +8900,19 @@
         <v>25</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F92" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="G92" s="119"/>
+        <v>558</v>
+      </c>
+      <c r="G92" s="132"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="115" t="s">
-        <v>568</v>
+      <c r="A93" s="126" t="s">
+        <v>567</v>
       </c>
       <c r="B93" s="23" t="s">
         <v>26</v>
@@ -8924,36 +8924,36 @@
         <v>26</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G93" s="116" t="s">
-        <v>560</v>
+      <c r="G93" s="127" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="25.5">
-      <c r="A94" s="115"/>
+      <c r="A94" s="126"/>
       <c r="B94" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94" s="46" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="F94" s="19" t="s">
         <v>928</v>
       </c>
-      <c r="E94" s="15" t="s">
-        <v>815</v>
-      </c>
-      <c r="F94" s="19" t="s">
-        <v>929</v>
-      </c>
-      <c r="G94" s="117"/>
+      <c r="G94" s="124"/>
     </row>
     <row r="95" spans="1:7" ht="76.5">
-      <c r="A95" s="115"/>
+      <c r="A95" s="126"/>
       <c r="B95" s="23" t="s">
         <v>4</v>
       </c>
@@ -8961,18 +8961,18 @@
         <v>28</v>
       </c>
       <c r="D95" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E95" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="E95" s="15" t="s">
-        <v>565</v>
-      </c>
       <c r="F95" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="G95" s="117"/>
+        <v>566</v>
+      </c>
+      <c r="G95" s="124"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="115"/>
+      <c r="A96" s="126"/>
       <c r="B96" s="32" t="s">
         <v>4</v>
       </c>
@@ -8980,18 +8980,18 @@
         <v>28</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F96" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="G96" s="117"/>
+        <v>565</v>
+      </c>
+      <c r="G96" s="124"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="115"/>
+      <c r="A97" s="126"/>
       <c r="B97" s="32" t="s">
         <v>4</v>
       </c>
@@ -8999,19 +8999,19 @@
         <v>28</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F97" s="28" t="s">
-        <v>878</v>
-      </c>
-      <c r="G97" s="117"/>
+        <v>877</v>
+      </c>
+      <c r="G97" s="124"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="115" t="s">
-        <v>572</v>
+      <c r="A98" s="126" t="s">
+        <v>571</v>
       </c>
       <c r="B98" s="23" t="s">
         <v>26</v>
@@ -9023,75 +9023,75 @@
         <v>26</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G98" s="117"/>
+      <c r="G98" s="124"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="115"/>
+      <c r="A99" s="126"/>
       <c r="B99" s="23" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C99" s="46" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="E99" s="47" t="s">
+        <v>578</v>
+      </c>
+      <c r="F99" s="53" t="s">
         <v>569</v>
       </c>
-      <c r="E99" s="47" t="s">
-        <v>579</v>
-      </c>
-      <c r="F99" s="53" t="s">
+      <c r="G99" s="124"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="126" t="s">
+        <v>790</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="G99" s="117"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="115" t="s">
-        <v>791</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>571</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G100" s="117"/>
+      <c r="G100" s="124"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="115"/>
+      <c r="A101" s="126"/>
       <c r="B101" s="23" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C101" s="46" t="s">
         <v>28</v>
       </c>
       <c r="D101" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="E101" s="47" t="s">
+        <v>578</v>
+      </c>
+      <c r="F101" s="53" t="s">
         <v>573</v>
       </c>
-      <c r="E101" s="47" t="s">
-        <v>579</v>
-      </c>
-      <c r="F101" s="53" t="s">
-        <v>574</v>
-      </c>
-      <c r="G101" s="117"/>
+      <c r="G101" s="124"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="115" t="s">
-        <v>582</v>
+      <c r="A102" s="126" t="s">
+        <v>581</v>
       </c>
       <c r="B102" s="23" t="s">
         <v>26</v>
@@ -9103,84 +9103,84 @@
         <v>26</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G102" s="117"/>
+      <c r="G102" s="124"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="115"/>
+      <c r="A103" s="126"/>
       <c r="B103" s="95"/>
       <c r="C103" s="92" t="s">
+        <v>760</v>
+      </c>
+      <c r="D103" s="94" t="s">
         <v>761</v>
       </c>
-      <c r="D103" s="94" t="s">
+      <c r="E103" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="F103" s="45" t="s">
         <v>762</v>
       </c>
-      <c r="E103" s="44" t="s">
-        <v>883</v>
-      </c>
-      <c r="F103" s="45" t="s">
-        <v>763</v>
-      </c>
-      <c r="G103" s="117"/>
+      <c r="G103" s="124"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="115"/>
+      <c r="A104" s="126"/>
       <c r="B104" s="95"/>
       <c r="C104" s="92"/>
       <c r="D104" s="94"/>
       <c r="E104" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G104" s="117"/>
+      <c r="G104" s="124"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="115"/>
+      <c r="A105" s="126"/>
       <c r="B105" s="95" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C105" s="92" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D105" s="94" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E105" s="44" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F105" s="45" t="s">
-        <v>879</v>
-      </c>
-      <c r="G105" s="117"/>
+        <v>878</v>
+      </c>
+      <c r="G105" s="124"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="115"/>
+      <c r="A106" s="126"/>
       <c r="B106" s="23" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C106" s="46" t="s">
         <v>28</v>
       </c>
       <c r="D106" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="E106" s="47" t="s">
+        <v>579</v>
+      </c>
+      <c r="F106" s="53" t="s">
         <v>576</v>
       </c>
-      <c r="E106" s="47" t="s">
-        <v>580</v>
-      </c>
-      <c r="F106" s="53" t="s">
-        <v>577</v>
-      </c>
-      <c r="G106" s="117"/>
+      <c r="G106" s="124"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="115" t="s">
-        <v>183</v>
+      <c r="A107" s="126" t="s">
+        <v>182</v>
       </c>
       <c r="B107" s="23" t="s">
         <v>26</v>
@@ -9192,35 +9192,35 @@
         <v>26</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G107" s="117"/>
+      <c r="G107" s="124"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="115"/>
+      <c r="A108" s="126"/>
       <c r="B108" s="23" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C108" s="46" t="s">
         <v>28</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E108" s="47" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F108" s="53" t="s">
-        <v>578</v>
-      </c>
-      <c r="G108" s="118"/>
+        <v>577</v>
+      </c>
+      <c r="G108" s="125"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="115" t="s">
-        <v>585</v>
+      <c r="A109" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="B109" s="23" t="s">
         <v>26</v>
@@ -9232,147 +9232,147 @@
         <v>26</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G109" s="116" t="s">
-        <v>914</v>
+      <c r="G109" s="127" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="115"/>
-      <c r="B110" s="128" t="s">
+      <c r="A110" s="126"/>
+      <c r="B110" s="120" t="s">
+        <v>755</v>
+      </c>
+      <c r="C110" s="107" t="s">
         <v>756</v>
       </c>
-      <c r="C110" s="107" t="s">
+      <c r="D110" s="128" t="s">
+        <v>763</v>
+      </c>
+      <c r="E110" s="44" t="s">
+        <v>754</v>
+      </c>
+      <c r="F110" s="45" t="s">
         <v>757</v>
       </c>
-      <c r="D110" s="126" t="s">
+      <c r="G110" s="124"/>
+    </row>
+    <row r="111" spans="1:7" ht="55.5">
+      <c r="A111" s="126"/>
+      <c r="B111" s="119"/>
+      <c r="C111" s="119"/>
+      <c r="D111" s="129"/>
+      <c r="E111" s="61" t="s">
+        <v>753</v>
+      </c>
+      <c r="F111" s="55" t="s">
+        <v>586</v>
+      </c>
+      <c r="G111" s="124"/>
+    </row>
+    <row r="112" spans="1:7" ht="41.65">
+      <c r="A112" s="126"/>
+      <c r="B112" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="E110" s="44" t="s">
-        <v>755</v>
-      </c>
-      <c r="F110" s="45" t="s">
-        <v>758</v>
-      </c>
-      <c r="G110" s="117"/>
-    </row>
-    <row r="111" spans="1:7" ht="55.5">
-      <c r="A111" s="115"/>
-      <c r="B111" s="129"/>
-      <c r="C111" s="129"/>
-      <c r="D111" s="127"/>
-      <c r="E111" s="61" t="s">
-        <v>754</v>
-      </c>
-      <c r="F111" s="55" t="s">
-        <v>587</v>
-      </c>
-      <c r="G111" s="117"/>
-    </row>
-    <row r="112" spans="1:7" ht="41.65">
-      <c r="A112" s="115"/>
-      <c r="B112" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>765</v>
-      </c>
       <c r="E112" s="52" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F112" s="55" t="s">
-        <v>796</v>
-      </c>
-      <c r="G112" s="117"/>
+        <v>795</v>
+      </c>
+      <c r="G112" s="124"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="123" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="84" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D113" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="E113" s="85" t="s">
         <v>776</v>
       </c>
-      <c r="E113" s="85" t="s">
+      <c r="F113" s="55" t="s">
         <v>777</v>
       </c>
-      <c r="F113" s="55" t="s">
-        <v>778</v>
-      </c>
-      <c r="G113" s="116" t="s">
-        <v>891</v>
+      <c r="G113" s="127" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="117"/>
+      <c r="A114" s="124"/>
       <c r="B114" s="23" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C114" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D114" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="E114" s="85" t="s">
         <v>773</v>
       </c>
-      <c r="E114" s="85" t="s">
+      <c r="F114" s="55" t="s">
         <v>774</v>
       </c>
-      <c r="F114" s="55" t="s">
-        <v>775</v>
-      </c>
-      <c r="G114" s="117"/>
+      <c r="G114" s="124"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="117"/>
+      <c r="A115" s="124"/>
       <c r="B115" s="23" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C115" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D115" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="E115" s="85" t="s">
         <v>770</v>
       </c>
-      <c r="E115" s="85" t="s">
+      <c r="F115" s="55" t="s">
         <v>771</v>
       </c>
-      <c r="F115" s="55" t="s">
-        <v>772</v>
-      </c>
-      <c r="G115" s="117"/>
+      <c r="G115" s="124"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="118"/>
+      <c r="A116" s="125"/>
       <c r="B116" s="23" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C116" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D116" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="E116" s="85" t="s">
+        <v>766</v>
+      </c>
+      <c r="F116" s="55" t="s">
         <v>768</v>
       </c>
-      <c r="E116" s="85" t="s">
-        <v>767</v>
-      </c>
-      <c r="F116" s="55" t="s">
-        <v>769</v>
-      </c>
-      <c r="G116" s="118"/>
+      <c r="G116" s="125"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="115" t="s">
-        <v>602</v>
+      <c r="A117" s="126" t="s">
+        <v>601</v>
       </c>
       <c r="B117" s="23" t="s">
         <v>26</v>
@@ -9384,56 +9384,56 @@
         <v>26</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="119" t="s">
-        <v>601</v>
+      <c r="G117" s="132" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="115"/>
+      <c r="A118" s="126"/>
       <c r="B118" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D118" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="F118" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="G118" s="132"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="126"/>
+      <c r="B119" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="F118" s="28" t="s">
+      <c r="E119" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="F119" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="G118" s="119"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="115"/>
-      <c r="B119" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D119" s="28" t="s">
-        <v>597</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="F119" s="28" t="s">
-        <v>600</v>
-      </c>
-      <c r="G119" s="119"/>
+      <c r="G119" s="132"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="115" t="s">
-        <v>603</v>
+      <c r="A120" s="126" t="s">
+        <v>602</v>
       </c>
       <c r="B120" s="23" t="s">
         <v>26</v>
@@ -9445,170 +9445,170 @@
         <v>26</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G120" s="116" t="s">
+      <c r="G120" s="127" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="126"/>
+      <c r="B121" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="F121" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="G121" s="124"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="126"/>
+      <c r="B122" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>611</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F122" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="G122" s="124"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="126"/>
+      <c r="B123" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="F123" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="G123" s="124"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="126"/>
+      <c r="B124" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="F124" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="G124" s="124"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="126"/>
+      <c r="B125" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="F125" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="G125" s="124"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="126"/>
+      <c r="B126" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="F126" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="G126" s="124"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="126"/>
+      <c r="B127" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="F127" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="G127" s="124"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="126"/>
+      <c r="B128" s="32" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="115"/>
-      <c r="B121" s="32" t="s">
-        <v>609</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D121" s="28" t="s">
-        <v>610</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="F121" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="G121" s="117"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="115"/>
-      <c r="B122" s="32" t="s">
-        <v>609</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="F122" s="28" t="s">
-        <v>613</v>
-      </c>
-      <c r="G122" s="117"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="115"/>
-      <c r="B123" s="32" t="s">
-        <v>606</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="F123" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="G123" s="117"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="115"/>
-      <c r="B124" s="32" t="s">
-        <v>608</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D124" s="28" t="s">
+      <c r="C128" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="E128" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="E124" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="F124" s="28" t="s">
-        <v>618</v>
-      </c>
-      <c r="G124" s="117"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="115"/>
-      <c r="B125" s="32" t="s">
-        <v>607</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F125" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="G125" s="117"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="115"/>
-      <c r="B126" s="32" t="s">
-        <v>607</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D126" s="28" t="s">
-        <v>621</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="F126" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="G126" s="117"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="115"/>
-      <c r="B127" s="32" t="s">
-        <v>606</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D127" s="28" t="s">
-        <v>623</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F127" s="28" t="s">
-        <v>624</v>
-      </c>
-      <c r="G127" s="117"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="115"/>
-      <c r="B128" s="32" t="s">
-        <v>605</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D128" s="28" t="s">
+      <c r="F128" s="28" t="s">
         <v>625</v>
       </c>
-      <c r="E128" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="F128" s="28" t="s">
-        <v>626</v>
-      </c>
-      <c r="G128" s="118"/>
+      <c r="G128" s="125"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="115" t="s">
-        <v>892</v>
+      <c r="A129" s="126" t="s">
+        <v>891</v>
       </c>
       <c r="B129" s="23" t="s">
         <v>26</v>
@@ -9620,36 +9620,36 @@
         <v>26</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G129" s="116" t="s">
-        <v>913</v>
+      <c r="G129" s="127" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="115"/>
+      <c r="A130" s="126"/>
       <c r="B130" s="32"/>
       <c r="C130" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D130" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="E130" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="F130" s="28" t="s">
+        <v>897</v>
+      </c>
+      <c r="G130" s="124"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="126" t="s">
         <v>894</v>
       </c>
-      <c r="F130" s="28" t="s">
-        <v>898</v>
-      </c>
-      <c r="G130" s="117"/>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="115" t="s">
-        <v>895</v>
-      </c>
       <c r="B131" s="23" t="s">
         <v>26</v>
       </c>
@@ -9660,33 +9660,33 @@
         <v>26</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G131" s="117"/>
+      <c r="G131" s="124"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="115"/>
+      <c r="A132" s="126"/>
       <c r="B132" s="32"/>
       <c r="C132" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D132" s="28" t="s">
+        <v>895</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="F132" s="28" t="s">
         <v>896</v>
       </c>
-      <c r="E132" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="F132" s="28" t="s">
-        <v>897</v>
-      </c>
-      <c r="G132" s="117"/>
+      <c r="G132" s="124"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="115" t="s">
-        <v>901</v>
+      <c r="A133" s="126" t="s">
+        <v>900</v>
       </c>
       <c r="B133" s="23" t="s">
         <v>26</v>
@@ -9698,33 +9698,33 @@
         <v>26</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G133" s="117"/>
+      <c r="G133" s="124"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="115"/>
+      <c r="A134" s="126"/>
       <c r="B134" s="32"/>
       <c r="C134" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D134" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="F134" s="28" t="s">
         <v>899</v>
       </c>
-      <c r="E134" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="F134" s="28" t="s">
-        <v>900</v>
-      </c>
-      <c r="G134" s="117"/>
+      <c r="G134" s="124"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="115" t="s">
-        <v>902</v>
+      <c r="A135" s="126" t="s">
+        <v>901</v>
       </c>
       <c r="B135" s="23" t="s">
         <v>26</v>
@@ -9736,63 +9736,63 @@
         <v>26</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F135" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G135" s="117"/>
+      <c r="G135" s="124"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="115"/>
+      <c r="A136" s="126"/>
       <c r="B136" s="23"/>
       <c r="C136" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D136" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="E136" s="9" t="s">
         <v>905</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="F136" s="28" t="s">
         <v>906</v>
       </c>
-      <c r="F136" s="28" t="s">
-        <v>907</v>
-      </c>
-      <c r="G136" s="117"/>
+      <c r="G136" s="124"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="115"/>
+      <c r="A137" s="126"/>
       <c r="B137" s="23"/>
       <c r="C137" s="93"/>
       <c r="D137" s="93"/>
       <c r="E137" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G137" s="117"/>
+      <c r="G137" s="124"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="115"/>
+      <c r="A138" s="126"/>
       <c r="B138" s="32"/>
       <c r="C138" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D138" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="F138" s="28" t="s">
         <v>903</v>
       </c>
-      <c r="E138" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="F138" s="28" t="s">
-        <v>904</v>
-      </c>
-      <c r="G138" s="117"/>
+      <c r="G138" s="124"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="115" t="s">
-        <v>908</v>
+      <c r="A139" s="126" t="s">
+        <v>907</v>
       </c>
       <c r="B139" s="23" t="s">
         <v>26</v>
@@ -9804,99 +9804,68 @@
         <v>26</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F139" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G139" s="117"/>
+      <c r="G139" s="124"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="115"/>
+      <c r="A140" s="126"/>
       <c r="B140" s="23"/>
       <c r="C140" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D140" s="28" t="s">
+        <v>909</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="F140" s="28" t="s">
         <v>910</v>
       </c>
-      <c r="E140" s="9" t="s">
-        <v>906</v>
-      </c>
-      <c r="F140" s="28" t="s">
-        <v>911</v>
-      </c>
-      <c r="G140" s="117"/>
+      <c r="G140" s="124"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="115"/>
+      <c r="A141" s="126"/>
       <c r="B141" s="23"/>
       <c r="C141" s="93"/>
       <c r="D141" s="93"/>
       <c r="E141" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F141" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G141" s="117"/>
+      <c r="G141" s="124"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="115"/>
+      <c r="A142" s="126"/>
       <c r="B142" s="32"/>
       <c r="C142" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F142" s="28" t="s">
-        <v>912</v>
-      </c>
-      <c r="G142" s="118"/>
+        <v>911</v>
+      </c>
+      <c r="G142" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="G93:G108"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="G113:G116"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="G129:G142"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A134"/>
     <mergeCell ref="A120:A128"/>
     <mergeCell ref="G120:G128"/>
     <mergeCell ref="G23:G43"/>
@@ -9913,12 +9882,43 @@
     <mergeCell ref="G87:G92"/>
     <mergeCell ref="G44:G51"/>
     <mergeCell ref="A63:A68"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="G129:G142"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="G93:G108"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="G113:G116"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B88:B90"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9942,7 +9942,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="41.55" customHeight="1">
       <c r="A1" s="110" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -9984,7 +9984,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>12</v>
@@ -9999,13 +9999,13 @@
         <v>28</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.25">
@@ -10017,13 +10017,13 @@
         <v>28</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10035,13 +10035,13 @@
         <v>28</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10053,31 +10053,31 @@
         <v>28</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="111"/>
       <c r="B8" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10094,7 +10094,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>12</v>
@@ -10109,13 +10109,13 @@
         <v>28</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10127,13 +10127,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10145,13 +10145,13 @@
         <v>28</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10163,13 +10163,13 @@
         <v>28</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10181,36 +10181,36 @@
         <v>0</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="127.5">
       <c r="A15" s="111"/>
       <c r="B15" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>793</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>345</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>794</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>26</v>
@@ -10222,7 +10222,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>12</v>
@@ -10237,13 +10237,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>350</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10260,7 +10260,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>12</v>
@@ -10275,13 +10275,13 @@
         <v>28</v>
       </c>
       <c r="D19" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>352</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10298,7 +10298,7 @@
         <v>26</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>12</v>
@@ -10313,13 +10313,13 @@
         <v>0</v>
       </c>
       <c r="D21" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10331,13 +10331,13 @@
         <v>0</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10349,13 +10349,13 @@
         <v>28</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10367,13 +10367,13 @@
         <v>0</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10385,13 +10385,13 @@
         <v>28</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10403,13 +10403,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10426,7 +10426,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>12</v>
@@ -10441,13 +10441,13 @@
         <v>0</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="102">
@@ -10459,13 +10459,13 @@
         <v>0</v>
       </c>
       <c r="D29" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>369</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10477,13 +10477,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="114.75">
@@ -10495,13 +10495,13 @@
         <v>0</v>
       </c>
       <c r="D31" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="19" t="s">
         <v>366</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -10518,7 +10518,7 @@
         <v>26</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>12</v>
@@ -10527,19 +10527,19 @@
     <row r="33" spans="1:6">
       <c r="A33" s="109"/>
       <c r="B33" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.05" customHeight="1">
@@ -10556,7 +10556,7 @@
         <v>26</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>12</v>
@@ -10565,19 +10565,19 @@
     <row r="35" spans="1:6">
       <c r="A35" s="109"/>
       <c r="B35" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -10586,7 +10586,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="86"/>
       <c r="E36" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>12</v>
@@ -10598,16 +10598,16 @@
       </c>
       <c r="B37" s="100"/>
       <c r="C37" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D37" s="100" t="s">
+        <v>932</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" s="40" t="s">
         <v>933</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="83.25">
@@ -10616,16 +10616,16 @@
         <v>26</v>
       </c>
       <c r="C38" s="86" t="s">
+        <v>780</v>
+      </c>
+      <c r="D38" s="86" t="s">
         <v>781</v>
       </c>
-      <c r="D38" s="86" t="s">
+      <c r="E38" s="87" t="s">
         <v>782</v>
       </c>
-      <c r="E38" s="87" t="s">
+      <c r="F38" s="88" t="s">
         <v>783</v>
-      </c>
-      <c r="F38" s="88" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -10637,13 +10637,13 @@
         <v>0</v>
       </c>
       <c r="D39" s="86" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -10682,7 +10682,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
       <c r="A1" s="110" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -10715,19 +10715,19 @@
         <v>14</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E3" s="44" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10739,13 +10739,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10753,24 +10753,24 @@
         <v>16</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>26</v>
@@ -10782,7 +10782,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>12</v>
@@ -10797,13 +10797,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>429</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10817,13 +10817,13 @@
         <v>28</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E8" s="44" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10831,199 +10831,199 @@
         <v>19</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C9" s="107" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="107" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E9" s="44" t="s">
+        <v>837</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="44" t="s">
+        <v>836</v>
+      </c>
+      <c r="F10" s="45" t="s">
         <v>838</v>
       </c>
-      <c r="F9" s="45" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="133"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="44" t="s">
-        <v>837</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>839</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="133"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
       <c r="E11" s="44" t="s">
+        <v>834</v>
+      </c>
+      <c r="F11" s="45" t="s">
         <v>835</v>
       </c>
-      <c r="F11" s="45" t="s">
-        <v>836</v>
-      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="133"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="44" t="s">
+        <v>832</v>
+      </c>
+      <c r="F12" s="45" t="s">
         <v>833</v>
       </c>
-      <c r="F12" s="45" t="s">
-        <v>834</v>
-      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="133"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="44" t="s">
+        <v>830</v>
+      </c>
+      <c r="F13" s="45" t="s">
         <v>831</v>
       </c>
-      <c r="F13" s="45" t="s">
-        <v>832</v>
-      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="133"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
       <c r="E14" s="44" t="s">
+        <v>828</v>
+      </c>
+      <c r="F14" s="45" t="s">
         <v>829</v>
       </c>
-      <c r="F14" s="45" t="s">
-        <v>830</v>
-      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="133"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
       <c r="E15" s="44" t="s">
+        <v>826</v>
+      </c>
+      <c r="F15" s="45" t="s">
         <v>827</v>
       </c>
-      <c r="F15" s="45" t="s">
-        <v>828</v>
-      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="133"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="44" t="s">
+        <v>824</v>
+      </c>
+      <c r="F16" s="45" t="s">
         <v>825</v>
       </c>
-      <c r="F16" s="45" t="s">
-        <v>826</v>
-      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="133"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
       <c r="E17" s="44" t="s">
+        <v>822</v>
+      </c>
+      <c r="F17" s="45" t="s">
         <v>823</v>
       </c>
-      <c r="F17" s="45" t="s">
-        <v>824</v>
-      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="133"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
       <c r="E18" s="44" t="s">
+        <v>820</v>
+      </c>
+      <c r="F18" s="45" t="s">
         <v>821</v>
       </c>
-      <c r="F18" s="45" t="s">
-        <v>822</v>
-      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="133"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
       <c r="E19" s="44" t="s">
+        <v>818</v>
+      </c>
+      <c r="F19" s="45" t="s">
         <v>819</v>
       </c>
-      <c r="F19" s="45" t="s">
-        <v>820</v>
-      </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="133"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="44" t="s">
+        <v>816</v>
+      </c>
+      <c r="F20" s="45" t="s">
         <v>817</v>
       </c>
-      <c r="F20" s="45" t="s">
-        <v>818</v>
-      </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="133"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="44" t="s">
+        <v>814</v>
+      </c>
+      <c r="F21" s="45" t="s">
         <v>815</v>
       </c>
-      <c r="F21" s="45" t="s">
-        <v>816</v>
-      </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="133"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
       <c r="E22" s="44" t="s">
+        <v>812</v>
+      </c>
+      <c r="F22" s="45" t="s">
         <v>813</v>
       </c>
-      <c r="F22" s="45" t="s">
-        <v>814</v>
-      </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="133"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
       <c r="E23" s="44" t="s">
+        <v>810</v>
+      </c>
+      <c r="F23" s="45" t="s">
         <v>811</v>
       </c>
-      <c r="F23" s="45" t="s">
-        <v>812</v>
-      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="129"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
       <c r="E24" s="44" t="s">
+        <v>808</v>
+      </c>
+      <c r="F24" s="45" t="s">
         <v>809</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -11031,180 +11031,180 @@
         <v>20</v>
       </c>
       <c r="B25" s="107" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C25" s="107" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="107" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="133"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
       <c r="E26" s="44" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="133"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
       <c r="E27" s="44" t="s">
+        <v>855</v>
+      </c>
+      <c r="F27" s="45" t="s">
         <v>856</v>
       </c>
-      <c r="F27" s="45" t="s">
-        <v>857</v>
-      </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="133"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
       <c r="E28" s="44" t="s">
+        <v>853</v>
+      </c>
+      <c r="F28" s="45" t="s">
         <v>854</v>
       </c>
-      <c r="F28" s="45" t="s">
-        <v>855</v>
-      </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="133"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
       <c r="E29" s="44" t="s">
+        <v>851</v>
+      </c>
+      <c r="F29" s="45" t="s">
         <v>852</v>
       </c>
-      <c r="F29" s="45" t="s">
-        <v>853</v>
-      </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="133"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
       <c r="E30" s="44" t="s">
+        <v>849</v>
+      </c>
+      <c r="F30" s="45" t="s">
         <v>850</v>
       </c>
-      <c r="F30" s="45" t="s">
-        <v>851</v>
-      </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="133"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
+      <c r="A31" s="118"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
       <c r="E31" s="98" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F31" s="99" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="133"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="98" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F32" s="99" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="133"/>
-      <c r="B33" s="133"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="133"/>
+      <c r="A33" s="118"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
       <c r="E33" s="98" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F33" s="99" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="133"/>
-      <c r="B34" s="133"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="133"/>
+      <c r="A34" s="118"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="44" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="133"/>
-      <c r="B35" s="133"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
       <c r="E35" s="44" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="133"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
+      <c r="A36" s="118"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="44" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="133"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="133"/>
+      <c r="A37" s="118"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="44" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="129"/>
-      <c r="B38" s="129"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="129"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="44" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.05" customHeight="1">
       <c r="A39" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B39" s="43" t="s">
         <v>4</v>
@@ -11213,13 +11213,13 @@
         <v>28</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E39" s="44" t="s">
         <v>5</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -11233,13 +11233,13 @@
         <v>28</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E40" s="44" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -11253,13 +11253,13 @@
         <v>28</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E41" s="44" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -11273,18 +11273,18 @@
         <v>28</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E42" s="44" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.05" customHeight="1">
       <c r="A43" s="43" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B43" s="43" t="s">
         <v>4</v>
@@ -11293,18 +11293,18 @@
         <v>28</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E43" s="44" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44" s="43" t="s">
         <v>4</v>
@@ -11313,18 +11313,18 @@
         <v>28</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E44" s="44" t="s">
         <v>5</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45" s="43" t="s">
         <v>4</v>
@@ -11333,18 +11333,18 @@
         <v>28</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E45" s="44" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B46" s="43" t="s">
         <v>4</v>
@@ -11353,18 +11353,18 @@
         <v>28</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E46" s="44" t="s">
         <v>5</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.05" customHeight="1">
       <c r="A47" s="43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B47" s="43" t="s">
         <v>4</v>
@@ -11373,18 +11373,18 @@
         <v>28</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E47" s="44" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.05" customHeight="1">
       <c r="A48" s="107" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B48" s="107" t="s">
         <v>4</v>
@@ -11394,71 +11394,71 @@
       </c>
       <c r="D48" s="93"/>
       <c r="E48" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A49" s="133"/>
-      <c r="B49" s="133"/>
-      <c r="C49" s="133"/>
+      <c r="A49" s="118"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
       <c r="D49" s="107" t="s">
+        <v>863</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>865</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A50" s="119"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="F50" s="45" t="s">
         <v>864</v>
-      </c>
-      <c r="E49" s="44" t="s">
-        <v>866</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A50" s="129"/>
-      <c r="B50" s="129"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="129"/>
-      <c r="E50" s="44" t="s">
-        <v>502</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.05" customHeight="1">
       <c r="A51" s="107" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B51" s="107" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="107" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D51" s="96"/>
       <c r="E51" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A52" s="129"/>
-      <c r="B52" s="129"/>
-      <c r="C52" s="129"/>
+      <c r="A52" s="119"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
       <c r="D52" s="93"/>
       <c r="E52" s="44" t="s">
+        <v>868</v>
+      </c>
+      <c r="F52" s="45" t="s">
         <v>869</v>
-      </c>
-      <c r="F52" s="45" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="109" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B53" s="43" t="s">
         <v>26</v>
@@ -11470,7 +11470,7 @@
         <v>26</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>12</v>
@@ -11485,18 +11485,18 @@
         <v>28</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="109" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B55" s="43" t="s">
         <v>26</v>
@@ -11508,7 +11508,7 @@
         <v>26</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>12</v>
@@ -11517,27 +11517,27 @@
     <row r="56" spans="1:6">
       <c r="A56" s="111"/>
       <c r="B56" s="43" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D56" s="43" t="s">
+        <v>858</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>859</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="107" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B57" s="107" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>26</v>
@@ -11546,7 +11546,7 @@
         <v>26</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>12</v>
@@ -11554,71 +11554,71 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="112"/>
-      <c r="B58" s="133"/>
+      <c r="B58" s="118"/>
       <c r="C58" s="107" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="107" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E58" s="93" t="s">
         <v>45</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="112"/>
-      <c r="B59" s="133"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="133"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="124"/>
+      <c r="D59" s="118"/>
       <c r="E59" s="93" t="s">
         <v>43</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="112"/>
-      <c r="B60" s="133"/>
-      <c r="C60" s="117"/>
-      <c r="D60" s="133"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="124"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="93" t="s">
         <v>42</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="112"/>
-      <c r="B61" s="133"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="133"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="118"/>
       <c r="E61" s="93" t="s">
         <v>41</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="108"/>
-      <c r="B62" s="129"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="129"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="43" t="s">
         <v>38</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="109" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B63" s="43" t="s">
         <v>26</v>
@@ -11630,7 +11630,7 @@
         <v>26</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>12</v>
@@ -11645,18 +11645,18 @@
         <v>28</v>
       </c>
       <c r="D64" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="F64" s="13" t="s">
         <v>458</v>
-      </c>
-      <c r="E64" s="43" t="s">
-        <v>667</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="107" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B65" s="43" t="s">
         <v>26</v>
@@ -11668,7 +11668,7 @@
         <v>26</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>12</v>
@@ -11683,18 +11683,18 @@
         <v>28</v>
       </c>
       <c r="D66" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>641</v>
+      </c>
+      <c r="F66" s="13" t="s">
         <v>461</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>642</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="107" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B67" s="43" t="s">
         <v>26</v>
@@ -11706,7 +11706,7 @@
         <v>26</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>12</v>
@@ -11721,18 +11721,18 @@
         <v>28</v>
       </c>
       <c r="D68" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>641</v>
+      </c>
+      <c r="F68" s="13" t="s">
         <v>464</v>
-      </c>
-      <c r="E68" s="43" t="s">
-        <v>642</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="13.05" customHeight="1">
       <c r="A69" s="60" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B69" s="60" t="s">
         <v>4</v>
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="60" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E69" s="60" t="s">
         <v>5</v>
@@ -11750,19 +11750,19 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="107" t="s">
+        <v>635</v>
+      </c>
+      <c r="B70" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>636</v>
-      </c>
-      <c r="B70" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>637</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>12</v>
@@ -11777,10 +11777,10 @@
         <v>0</v>
       </c>
       <c r="D71" s="60" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E71" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F71" s="13"/>
     </row>
@@ -11793,10 +11793,10 @@
         <v>0</v>
       </c>
       <c r="D72" s="60" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E72" s="60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F72" s="13"/>
     </row>
@@ -11809,10 +11809,10 @@
         <v>0</v>
       </c>
       <c r="D73" s="60" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E73" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F73" s="13"/>
     </row>
@@ -11825,16 +11825,16 @@
         <v>0</v>
       </c>
       <c r="D74" s="60" t="s">
+        <v>640</v>
+      </c>
+      <c r="E74" s="60" t="s">
         <v>641</v>
-      </c>
-      <c r="E74" s="60" t="s">
-        <v>642</v>
       </c>
       <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" ht="13.05" customHeight="1">
       <c r="A75" s="60" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B75" s="60" t="s">
         <v>4</v>
@@ -11843,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="60" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E75" s="60" t="s">
         <v>5</v>
@@ -11852,7 +11852,7 @@
     </row>
     <row r="76" spans="1:6" ht="13.05" customHeight="1">
       <c r="A76" s="60" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B76" s="60" t="s">
         <v>4</v>
@@ -11861,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="60" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E76" s="60" t="s">
         <v>5</v>
@@ -11870,7 +11870,7 @@
     </row>
     <row r="77" spans="1:6" ht="13.05" customHeight="1">
       <c r="A77" s="60" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B77" s="60" t="s">
         <v>4</v>
@@ -11879,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="60" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E77" s="60" t="s">
         <v>5</v>
@@ -11888,7 +11888,7 @@
     </row>
     <row r="78" spans="1:6" ht="13.05" customHeight="1">
       <c r="A78" s="60" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B78" s="60" t="s">
         <v>4</v>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="60" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E78" s="60" t="s">
         <v>5</v>
@@ -11906,7 +11906,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="107" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B79" s="60" t="s">
         <v>26</v>
@@ -11918,7 +11918,7 @@
         <v>26</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>12</v>
@@ -11927,37 +11927,37 @@
     <row r="80" spans="1:6">
       <c r="A80" s="112"/>
       <c r="B80" s="60" t="s">
+        <v>659</v>
+      </c>
+      <c r="C80" s="60" t="s">
+        <v>655</v>
+      </c>
+      <c r="D80" s="60" t="s">
+        <v>658</v>
+      </c>
+      <c r="E80" s="44" t="s">
+        <v>657</v>
+      </c>
+      <c r="F80" s="45" t="s">
         <v>660</v>
-      </c>
-      <c r="C80" s="60" t="s">
-        <v>656</v>
-      </c>
-      <c r="D80" s="60" t="s">
-        <v>659</v>
-      </c>
-      <c r="E80" s="44" t="s">
-        <v>658</v>
-      </c>
-      <c r="F80" s="45" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="112"/>
       <c r="B81" s="60" t="s">
+        <v>654</v>
+      </c>
+      <c r="C81" s="60" t="s">
         <v>655</v>
       </c>
-      <c r="C81" s="60" t="s">
+      <c r="D81" s="60" t="s">
+        <v>652</v>
+      </c>
+      <c r="E81" s="44" t="s">
+        <v>653</v>
+      </c>
+      <c r="F81" s="45" t="s">
         <v>656</v>
-      </c>
-      <c r="D81" s="60" t="s">
-        <v>653</v>
-      </c>
-      <c r="E81" s="44" t="s">
-        <v>654</v>
-      </c>
-      <c r="F81" s="45" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="60" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E82" s="60" t="s">
         <v>38</v>
@@ -11978,20 +11978,20 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="107" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B83" s="60"/>
       <c r="C83" s="8"/>
       <c r="D83" s="60"/>
       <c r="E83" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A84" s="129"/>
+      <c r="A84" s="119"/>
       <c r="B84" s="60" t="s">
         <v>4</v>
       </c>
@@ -11999,24 +11999,24 @@
         <v>0</v>
       </c>
       <c r="D84" s="60" t="s">
+        <v>662</v>
+      </c>
+      <c r="E84" s="60" t="s">
         <v>663</v>
       </c>
-      <c r="E84" s="60" t="s">
+      <c r="F84" s="13" t="s">
         <v>664</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>665</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="B57:B62"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A7"/>
@@ -12033,13 +12033,13 @@
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12064,7 +12064,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
       <c r="A1" s="110" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -12100,7 +12100,7 @@
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
       <c r="E3" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>12</v>
@@ -12115,13 +12115,13 @@
         <v>28</v>
       </c>
       <c r="D4" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>496</v>
-      </c>
       <c r="F4" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -12133,13 +12133,13 @@
         <v>28</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12151,13 +12151,13 @@
         <v>28</v>
       </c>
       <c r="D6" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>492</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12169,13 +12169,13 @@
         <v>28</v>
       </c>
       <c r="D7" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>490</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12187,13 +12187,13 @@
         <v>28</v>
       </c>
       <c r="D8" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>488</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -12205,13 +12205,13 @@
         <v>28</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -12223,13 +12223,13 @@
         <v>28</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -12241,13 +12241,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -12259,13 +12259,13 @@
         <v>28</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -12277,13 +12277,13 @@
         <v>28</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -12295,13 +12295,13 @@
         <v>28</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -12313,13 +12313,13 @@
         <v>28</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -12331,13 +12331,13 @@
         <v>28</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -12361,13 +12361,13 @@
         <v>28</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -12379,13 +12379,13 @@
         <v>28</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -12397,13 +12397,13 @@
         <v>28</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -12417,53 +12417,53 @@
         <v>28</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E21" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>503</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>504</v>
       </c>
       <c r="E22" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E23" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -12471,19 +12471,19 @@
         <v>18</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E24" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -12491,19 +12491,19 @@
         <v>19</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E25" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -12520,7 +12520,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>12</v>
@@ -12535,18 +12535,18 @@
         <v>28</v>
       </c>
       <c r="D27" s="43" t="s">
+        <v>511</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>512</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="109" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B28" s="43" t="s">
         <v>26</v>
@@ -12558,7 +12558,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>12</v>
@@ -12573,13 +12573,13 @@
         <v>28</v>
       </c>
       <c r="D29" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>514</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -12596,7 +12596,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>12</v>
@@ -12611,13 +12611,13 @@
         <v>28</v>
       </c>
       <c r="D31" s="43" t="s">
+        <v>515</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>516</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13.05" customHeight="1">
@@ -12634,7 +12634,7 @@
         <v>26</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>12</v>
@@ -12649,13 +12649,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>518</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -12672,7 +12672,7 @@
         <v>26</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>12</v>
@@ -12687,18 +12687,18 @@
         <v>28</v>
       </c>
       <c r="D35" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>520</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.05" customHeight="1">
       <c r="A36" s="109" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B36" s="43" t="s">
         <v>26</v>
@@ -12710,7 +12710,7 @@
         <v>26</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>12</v>
@@ -12725,18 +12725,18 @@
         <v>28</v>
       </c>
       <c r="D37" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>522</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="43" t="s">
         <v>26</v>
@@ -12748,7 +12748,7 @@
         <v>26</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>12</v>
@@ -12763,18 +12763,18 @@
         <v>28</v>
       </c>
       <c r="D39" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>524</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="109" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="43" t="s">
         <v>26</v>
@@ -12786,7 +12786,7 @@
         <v>26</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>12</v>
@@ -12801,18 +12801,18 @@
         <v>28</v>
       </c>
       <c r="D41" s="43" t="s">
+        <v>525</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>526</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="109" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="43" t="s">
         <v>26</v>
@@ -12824,7 +12824,7 @@
         <v>26</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>12</v>
@@ -12839,18 +12839,18 @@
         <v>28</v>
       </c>
       <c r="D43" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>528</v>
-      </c>
-      <c r="E43" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="109" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B44" s="43" t="s">
         <v>26</v>
@@ -12862,7 +12862,7 @@
         <v>26</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>12</v>
@@ -12877,18 +12877,18 @@
         <v>28</v>
       </c>
       <c r="D45" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>530</v>
-      </c>
-      <c r="E45" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="89" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B46" s="90" t="s">
         <v>4</v>
@@ -12897,18 +12897,18 @@
         <v>0</v>
       </c>
       <c r="D46" s="90" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E46" s="90" t="s">
         <v>5</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="89" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B47" s="90" t="s">
         <v>4</v>
@@ -12917,18 +12917,18 @@
         <v>0</v>
       </c>
       <c r="D47" s="90" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E47" s="90" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="89" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B48" s="90" t="s">
         <v>4</v>
@@ -12937,18 +12937,18 @@
         <v>0</v>
       </c>
       <c r="D48" s="90" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E48" s="90" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="89" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B49" s="90" t="s">
         <v>4</v>
@@ -12957,13 +12957,13 @@
         <v>0</v>
       </c>
       <c r="D49" s="90" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E49" s="90" t="s">
         <v>5</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -13004,7 +13004,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
       <c r="A1" s="110" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -13044,7 +13044,7 @@
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>24</v>
@@ -13059,13 +13059,13 @@
         <v>28</v>
       </c>
       <c r="D4" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>393</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.25">
@@ -13077,49 +13077,49 @@
         <v>28</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="109"/>
       <c r="B6" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="109"/>
       <c r="B7" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -13131,13 +13131,13 @@
         <v>28</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -13149,13 +13149,13 @@
         <v>28</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E9" s="43" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -13169,13 +13169,13 @@
         <v>28</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>407</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -13187,13 +13187,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="19" t="s">
         <v>405</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -13205,13 +13205,13 @@
         <v>28</v>
       </c>
       <c r="D12" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>402</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -13223,13 +13223,13 @@
         <v>28</v>
       </c>
       <c r="D13" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>400</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -13241,13 +13241,13 @@
         <v>28</v>
       </c>
       <c r="D14" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>398</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -13259,18 +13259,18 @@
         <v>28</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>4</v>
@@ -13279,13 +13279,13 @@
         <v>28</v>
       </c>
       <c r="D16" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>416</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -13297,13 +13297,13 @@
         <v>28</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -13315,13 +13315,13 @@
         <v>28</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -13333,18 +13333,18 @@
         <v>28</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="109" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B20" s="43" t="s">
         <v>4</v>
@@ -13353,13 +13353,13 @@
         <v>28</v>
       </c>
       <c r="D20" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>425</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -13371,13 +13371,13 @@
         <v>28</v>
       </c>
       <c r="D21" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>423</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -13389,13 +13389,13 @@
         <v>28</v>
       </c>
       <c r="D22" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>421</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -13407,13 +13407,13 @@
         <v>28</v>
       </c>
       <c r="D23" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>419</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/doc/XBR820  system spec/xbr820_register.xlsx
+++ b/doc/XBR820  system spec/xbr820_register.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\XBR820\Document\Register\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D009F694-4FDE-46AA-81F2-18C95B4F9678}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22695" windowHeight="12578" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MemMap" sheetId="20" r:id="rId1"/>
@@ -24,9 +18,9 @@
     <sheet name="flash" sheetId="18" r:id="rId9"/>
     <sheet name="interrupts" sheetId="21" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="961">
   <si>
     <t>RO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3869,12 +3863,26 @@
     <t>IO triger mode  1:over threshold triger  0:time meet triger</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>stop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>之后立起来</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4055,6 +4063,11 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -4375,7 +4388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4690,16 +4703,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4714,38 +4760,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4807,7 +4823,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -4842,7 +4858,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -5019,31 +5035,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EB3F28-8067-4A17-9578-304DE1B9D9E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="38.109375" customWidth="1"/>
+    <col min="6" max="6" width="38.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1">
+    <row r="1" spans="1:6" ht="15.4" thickBot="1">
       <c r="A1" s="62" t="s">
         <v>663</v>
       </c>
@@ -5063,7 +5079,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" thickBot="1">
+    <row r="2" spans="1:6" ht="15.4" thickBot="1">
       <c r="A2" s="65" t="s">
         <v>669</v>
       </c>
@@ -5083,7 +5099,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" thickBot="1">
+    <row r="3" spans="1:6" ht="15.4" thickBot="1">
       <c r="A3" s="65" t="s">
         <v>675</v>
       </c>
@@ -5231,7 +5247,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" thickBot="1">
+    <row r="11" spans="1:6" ht="15.4" thickBot="1">
       <c r="A11" s="106"/>
       <c r="B11" s="75" t="s">
         <v>712</v>
@@ -5355,7 +5371,7 @@
       <c r="E18" s="77"/>
       <c r="F18" s="78"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" thickBot="1">
+    <row r="19" spans="1:6" ht="15.4" thickBot="1">
       <c r="A19" s="106"/>
       <c r="B19" s="79" t="s">
         <v>731</v>
@@ -5369,7 +5385,7 @@
       <c r="E19" s="79"/>
       <c r="F19" s="80"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" thickBot="1">
+    <row r="20" spans="1:6" ht="15.4" thickBot="1">
       <c r="A20" s="81" t="s">
         <v>733</v>
       </c>
@@ -5399,16 +5415,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA98114-2501-4EF7-AF09-0FC113866AE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3">
@@ -5531,14 +5547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E50D85-45BE-43BD-8EEE-DE4DF7191B60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.6640625" style="1"/>
@@ -5547,7 +5563,7 @@
     <col min="6" max="6" width="34.33203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.95" customHeight="1">
+    <row r="1" spans="1:6" ht="47" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>738</v>
       </c>
@@ -5685,7 +5701,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="79.2">
+    <row r="9" spans="1:6" ht="76.5">
       <c r="A9" s="109"/>
       <c r="B9" s="6" t="s">
         <v>3</v>
@@ -5723,7 +5739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.6">
+    <row r="11" spans="1:6" ht="38.25">
       <c r="A11" s="112"/>
       <c r="B11" s="6" t="s">
         <v>3</v>
@@ -5761,7 +5777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="39.6">
+    <row r="13" spans="1:6" ht="38.25">
       <c r="A13" s="110"/>
       <c r="B13" s="104" t="s">
         <v>3</v>
@@ -5779,7 +5795,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="39.6">
+    <row r="14" spans="1:6" ht="38.25">
       <c r="A14" s="110"/>
       <c r="B14" s="6" t="s">
         <v>3</v>
@@ -5817,7 +5833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="26.4">
+    <row r="16" spans="1:6" ht="25.5">
       <c r="A16" s="110"/>
       <c r="B16" s="6" t="s">
         <v>10</v>
@@ -6091,7 +6107,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="26.4">
+    <row r="31" spans="1:12" ht="25.5">
       <c r="A31" s="110"/>
       <c r="B31" s="17" t="s">
         <v>4</v>
@@ -6109,7 +6125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="26.4">
+    <row r="32" spans="1:12" ht="25.5">
       <c r="A32" s="110"/>
       <c r="B32" s="17" t="s">
         <v>4</v>
@@ -6126,8 +6142,11 @@
       <c r="F32" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="26.4">
+      <c r="G32" s="137" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="25.5">
       <c r="A33" s="110"/>
       <c r="B33" s="17" t="s">
         <v>4</v>
@@ -6329,20 +6348,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920B052D-1130-4579-8DCD-D18586615F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45.45" customHeight="1">
+    <row r="1" spans="1:6" ht="45.5" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>739</v>
       </c>
@@ -6838,20 +6857,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A8365A-66C7-4E96-8C24-5C7B8139E778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.45" customHeight="1">
+    <row r="1" spans="1:6" ht="42.5" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>743</v>
       </c>
@@ -6975,7 +6994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.6">
+    <row r="8" spans="1:6" ht="38.25">
       <c r="A8" s="110"/>
       <c r="B8" s="21" t="s">
         <v>4</v>
@@ -6993,7 +7012,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="39.6">
+    <row r="9" spans="1:6" ht="38.25">
       <c r="A9" s="110"/>
       <c r="B9" s="21" t="s">
         <v>4</v>
@@ -7011,7 +7030,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.4">
+    <row r="10" spans="1:6" ht="25.5">
       <c r="A10" s="112"/>
       <c r="B10" s="21" t="s">
         <v>105</v>
@@ -7125,7 +7144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="26.4">
+    <row r="16" spans="1:6" ht="25.5">
       <c r="A16" s="110"/>
       <c r="B16" s="21" t="s">
         <v>131</v>
@@ -7163,7 +7182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="39.6">
+    <row r="18" spans="1:6" ht="38.25">
       <c r="A18" s="110"/>
       <c r="B18" s="21" t="s">
         <v>136</v>
@@ -7239,7 +7258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.4">
+    <row r="22" spans="1:6" ht="25.5">
       <c r="A22" s="110"/>
       <c r="B22" s="21" t="s">
         <v>143</v>
@@ -7353,20 +7372,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F97639-5499-4CB8-8C37-9AB97DD5CB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
     <col min="2" max="2" width="8.6640625" style="24"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="1"/>
     <col min="6" max="6" width="63.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.55" customHeight="1">
@@ -7418,7 +7437,7 @@
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="G3" s="128" t="s">
         <v>187</v>
       </c>
     </row>
@@ -7439,7 +7458,7 @@
       <c r="F4" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="118"/>
+      <c r="G4" s="125"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="110"/>
@@ -7458,7 +7477,7 @@
       <c r="F5" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="118"/>
+      <c r="G5" s="125"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="112"/>
@@ -7477,7 +7496,7 @@
       <c r="F6" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="119"/>
+      <c r="G6" s="126"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="110" t="s">
@@ -7498,11 +7517,11 @@
       <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="128" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="110"/>
       <c r="B8" s="23" t="s">
         <v>105</v>
@@ -7519,7 +7538,7 @@
       <c r="F8" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="118"/>
+      <c r="G8" s="125"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="110"/>
@@ -7538,7 +7557,7 @@
       <c r="F9" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="118"/>
+      <c r="G9" s="125"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="112"/>
@@ -7557,7 +7576,7 @@
       <c r="F10" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="119"/>
+      <c r="G10" s="126"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="110" t="s">
@@ -7578,7 +7597,7 @@
       <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="121" t="s">
+      <c r="G11" s="134" t="s">
         <v>189</v>
       </c>
     </row>
@@ -7599,7 +7618,7 @@
       <c r="F12" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="122"/>
+      <c r="G12" s="135"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="110"/>
@@ -7618,9 +7637,9 @@
       <c r="F13" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="122"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6">
+      <c r="G13" s="135"/>
+    </row>
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="112"/>
       <c r="B14" s="23" t="s">
         <v>105</v>
@@ -7637,7 +7656,7 @@
       <c r="F14" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="123"/>
+      <c r="G14" s="136"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="110" t="s">
@@ -7658,7 +7677,7 @@
       <c r="F15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="121" t="s">
+      <c r="G15" s="134" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7679,9 +7698,9 @@
       <c r="F16" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="G16" s="122"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6">
+      <c r="G16" s="135"/>
+    </row>
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="110"/>
       <c r="B17" s="23" t="s">
         <v>105</v>
@@ -7698,7 +7717,7 @@
       <c r="F17" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="G17" s="122"/>
+      <c r="G17" s="135"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="110"/>
@@ -7717,9 +7736,9 @@
       <c r="F18" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="G18" s="122"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.6">
+      <c r="G18" s="135"/>
+    </row>
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="112"/>
       <c r="B19" s="23" t="s">
         <v>105</v>
@@ -7736,7 +7755,7 @@
       <c r="F19" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="G19" s="123"/>
+      <c r="G19" s="136"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="110" t="s">
@@ -7757,7 +7776,7 @@
       <c r="F20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="121" t="s">
+      <c r="G20" s="134" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7778,9 +7797,9 @@
       <c r="F21" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="G21" s="122"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6">
+      <c r="G21" s="135"/>
+    </row>
+    <row r="22" spans="1:7" ht="15">
       <c r="A22" s="110"/>
       <c r="B22" s="23" t="s">
         <v>4</v>
@@ -7797,7 +7816,7 @@
       <c r="F22" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G22" s="123"/>
+      <c r="G22" s="136"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="110" t="s">
@@ -7818,11 +7837,11 @@
       <c r="F23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="120" t="s">
+      <c r="G23" s="133" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="110"/>
       <c r="B24" s="32" t="s">
         <v>213</v>
@@ -7839,7 +7858,7 @@
       <c r="F24" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="G24" s="120"/>
+      <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="110"/>
@@ -7858,9 +7877,9 @@
       <c r="F25" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="G25" s="120"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.6">
+      <c r="G25" s="133"/>
+    </row>
+    <row r="26" spans="1:7" ht="15">
       <c r="A26" s="110"/>
       <c r="B26" s="32" t="s">
         <v>214</v>
@@ -7877,7 +7896,7 @@
       <c r="F26" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="G26" s="120"/>
+      <c r="G26" s="133"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="110"/>
@@ -7896,7 +7915,7 @@
       <c r="F27" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="G27" s="120"/>
+      <c r="G27" s="133"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="110"/>
@@ -7915,7 +7934,7 @@
       <c r="F28" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="G28" s="120"/>
+      <c r="G28" s="133"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="110"/>
@@ -7934,7 +7953,7 @@
       <c r="F29" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="G29" s="120"/>
+      <c r="G29" s="133"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="110"/>
@@ -7953,7 +7972,7 @@
       <c r="F30" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="G30" s="120"/>
+      <c r="G30" s="133"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="110"/>
@@ -7972,7 +7991,7 @@
       <c r="F31" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="G31" s="120"/>
+      <c r="G31" s="133"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="110"/>
@@ -7991,10 +8010,10 @@
       <c r="F32" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="G32" s="120"/>
+      <c r="G32" s="133"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="116" t="s">
+      <c r="A33" s="127" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="23" t="s">
@@ -8012,10 +8031,10 @@
       <c r="F33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="120"/>
+      <c r="G33" s="133"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="116"/>
+      <c r="A34" s="127"/>
       <c r="B34" s="23" t="s">
         <v>18</v>
       </c>
@@ -8031,10 +8050,10 @@
       <c r="F34" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="G34" s="120"/>
+      <c r="G34" s="133"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="116"/>
+      <c r="A35" s="127"/>
       <c r="B35" s="32" t="s">
         <v>245</v>
       </c>
@@ -8050,10 +8069,10 @@
       <c r="F35" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="G35" s="120"/>
+      <c r="G35" s="133"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="116"/>
+      <c r="A36" s="127"/>
       <c r="B36" s="32" t="s">
         <v>214</v>
       </c>
@@ -8069,10 +8088,10 @@
       <c r="F36" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="G36" s="120"/>
+      <c r="G36" s="133"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="116"/>
+      <c r="A37" s="127"/>
       <c r="B37" s="32" t="s">
         <v>246</v>
       </c>
@@ -8088,10 +8107,10 @@
       <c r="F37" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="G37" s="120"/>
+      <c r="G37" s="133"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="116"/>
+      <c r="A38" s="127"/>
       <c r="B38" s="32" t="s">
         <v>213</v>
       </c>
@@ -8107,10 +8126,10 @@
       <c r="F38" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="G38" s="120"/>
+      <c r="G38" s="133"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="116"/>
+      <c r="A39" s="127"/>
       <c r="B39" s="32" t="s">
         <v>213</v>
       </c>
@@ -8126,10 +8145,10 @@
       <c r="F39" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="G39" s="120"/>
+      <c r="G39" s="133"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="116"/>
+      <c r="A40" s="127"/>
       <c r="B40" s="32" t="s">
         <v>213</v>
       </c>
@@ -8145,10 +8164,10 @@
       <c r="F40" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="G40" s="120"/>
+      <c r="G40" s="133"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="116"/>
+      <c r="A41" s="127"/>
       <c r="B41" s="32" t="s">
         <v>214</v>
       </c>
@@ -8164,10 +8183,10 @@
       <c r="F41" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="G41" s="120"/>
+      <c r="G41" s="133"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="116"/>
+      <c r="A42" s="127"/>
       <c r="B42" s="32" t="s">
         <v>214</v>
       </c>
@@ -8183,10 +8202,10 @@
       <c r="F42" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="G42" s="120"/>
+      <c r="G42" s="133"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="116"/>
+      <c r="A43" s="127"/>
       <c r="B43" s="32" t="s">
         <v>214</v>
       </c>
@@ -8202,10 +8221,10 @@
       <c r="F43" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="G43" s="120"/>
+      <c r="G43" s="133"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="116" t="s">
+      <c r="A44" s="127" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -8223,12 +8242,12 @@
       <c r="F44" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="117" t="s">
+      <c r="G44" s="128" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="116"/>
+      <c r="A45" s="127"/>
       <c r="B45" s="48" t="s">
         <v>213</v>
       </c>
@@ -8244,10 +8263,10 @@
       <c r="F45" s="50" t="s">
         <v>528</v>
       </c>
-      <c r="G45" s="118"/>
+      <c r="G45" s="125"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="116"/>
+      <c r="A46" s="127"/>
       <c r="B46" s="33" t="s">
         <v>213</v>
       </c>
@@ -8263,10 +8282,10 @@
       <c r="F46" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="G46" s="118"/>
+      <c r="G46" s="125"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="116"/>
+      <c r="A47" s="127"/>
       <c r="B47" s="33" t="s">
         <v>214</v>
       </c>
@@ -8282,10 +8301,10 @@
       <c r="F47" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="G47" s="118"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.6">
-      <c r="A48" s="116"/>
+      <c r="G47" s="125"/>
+    </row>
+    <row r="48" spans="1:7" ht="15">
+      <c r="A48" s="127"/>
       <c r="B48" s="34" t="s">
         <v>213</v>
       </c>
@@ -8301,10 +8320,10 @@
       <c r="F48" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="G48" s="118"/>
+      <c r="G48" s="125"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="116"/>
+      <c r="A49" s="127"/>
       <c r="B49" s="33" t="s">
         <v>213</v>
       </c>
@@ -8320,10 +8339,10 @@
       <c r="F49" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="G49" s="118"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.6">
-      <c r="A50" s="116"/>
+      <c r="G49" s="125"/>
+    </row>
+    <row r="50" spans="1:7" ht="15">
+      <c r="A50" s="127"/>
       <c r="B50" s="33" t="s">
         <v>213</v>
       </c>
@@ -8339,10 +8358,10 @@
       <c r="F50" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="G50" s="118"/>
+      <c r="G50" s="125"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="116"/>
+      <c r="A51" s="127"/>
       <c r="B51" s="33" t="s">
         <v>213</v>
       </c>
@@ -8358,7 +8377,7 @@
       <c r="F51" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="G51" s="119"/>
+      <c r="G51" s="126"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="124" t="s">
@@ -8379,12 +8398,12 @@
       <c r="F52" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="120" t="s">
+      <c r="G52" s="133" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="125"/>
+      <c r="A53" s="131"/>
       <c r="B53" s="35" t="s">
         <v>213</v>
       </c>
@@ -8400,10 +8419,10 @@
       <c r="F53" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="G53" s="120"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.6">
-      <c r="A54" s="125"/>
+      <c r="G53" s="133"/>
+    </row>
+    <row r="54" spans="1:7" ht="15">
+      <c r="A54" s="131"/>
       <c r="B54" s="35" t="s">
         <v>213</v>
       </c>
@@ -8419,10 +8438,10 @@
       <c r="F54" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="G54" s="120"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.6">
-      <c r="A55" s="125"/>
+      <c r="G54" s="133"/>
+    </row>
+    <row r="55" spans="1:7" ht="15">
+      <c r="A55" s="131"/>
       <c r="B55" s="35" t="s">
         <v>213</v>
       </c>
@@ -8438,10 +8457,10 @@
       <c r="F55" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="G55" s="120"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.6">
-      <c r="A56" s="125"/>
+      <c r="G55" s="133"/>
+    </row>
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="131"/>
       <c r="B56" s="35" t="s">
         <v>213</v>
       </c>
@@ -8457,10 +8476,10 @@
       <c r="F56" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="G56" s="120"/>
+      <c r="G56" s="133"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="125"/>
+      <c r="A57" s="131"/>
       <c r="B57" s="35" t="s">
         <v>298</v>
       </c>
@@ -8476,10 +8495,10 @@
       <c r="F57" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="G57" s="120"/>
+      <c r="G57" s="133"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="125"/>
+      <c r="A58" s="131"/>
       <c r="B58" s="35" t="s">
         <v>298</v>
       </c>
@@ -8495,10 +8514,10 @@
       <c r="F58" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="G58" s="120"/>
+      <c r="G58" s="133"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="126"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="35" t="s">
         <v>298</v>
       </c>
@@ -8514,10 +8533,10 @@
       <c r="F59" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="G59" s="120"/>
+      <c r="G59" s="133"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="116" t="s">
+      <c r="A60" s="127" t="s">
         <v>23</v>
       </c>
       <c r="B60" s="23" t="s">
@@ -8535,12 +8554,12 @@
       <c r="F60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="117" t="s">
+      <c r="G60" s="128" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="116"/>
+      <c r="A61" s="127"/>
       <c r="B61" s="32" t="s">
         <v>4</v>
       </c>
@@ -8556,10 +8575,10 @@
       <c r="F61" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="G61" s="118"/>
+      <c r="G61" s="125"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="116"/>
+      <c r="A62" s="127"/>
       <c r="B62" s="32" t="s">
         <v>4</v>
       </c>
@@ -8575,10 +8594,10 @@
       <c r="F62" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="G62" s="119"/>
+      <c r="G62" s="126"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="116" t="s">
+      <c r="A63" s="127" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -8596,12 +8615,12 @@
       <c r="F63" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="120" t="s">
+      <c r="G63" s="133" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="116"/>
+      <c r="A64" s="127"/>
       <c r="B64" s="32" t="s">
         <v>4</v>
       </c>
@@ -8617,10 +8636,10 @@
       <c r="F64" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G64" s="120"/>
+      <c r="G64" s="133"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="116"/>
+      <c r="A65" s="127"/>
       <c r="B65" s="32" t="s">
         <v>4</v>
       </c>
@@ -8636,10 +8655,10 @@
       <c r="F65" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="G65" s="120"/>
+      <c r="G65" s="133"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="116"/>
+      <c r="A66" s="127"/>
       <c r="B66" s="32" t="s">
         <v>3</v>
       </c>
@@ -8655,10 +8674,10 @@
       <c r="F66" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="G66" s="120"/>
+      <c r="G66" s="133"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="116"/>
+      <c r="A67" s="127"/>
       <c r="B67" s="32" t="s">
         <v>3</v>
       </c>
@@ -8674,10 +8693,10 @@
       <c r="F67" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="G67" s="120"/>
+      <c r="G67" s="133"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="116"/>
+      <c r="A68" s="127"/>
       <c r="B68" s="32" t="s">
         <v>3</v>
       </c>
@@ -8693,10 +8712,10 @@
       <c r="F68" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="G68" s="120"/>
+      <c r="G68" s="133"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="116" t="s">
+      <c r="A69" s="127" t="s">
         <v>77</v>
       </c>
       <c r="B69" s="23" t="s">
@@ -8714,12 +8733,12 @@
       <c r="F69" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="120" t="s">
+      <c r="G69" s="133" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1">
-      <c r="A70" s="116"/>
+      <c r="A70" s="127"/>
       <c r="B70" s="32" t="s">
         <v>539</v>
       </c>
@@ -8735,10 +8754,10 @@
       <c r="F70" s="28" t="s">
         <v>533</v>
       </c>
-      <c r="G70" s="120"/>
+      <c r="G70" s="133"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="116" t="s">
+      <c r="A71" s="127" t="s">
         <v>78</v>
       </c>
       <c r="B71" s="23" t="s">
@@ -8756,10 +8775,10 @@
       <c r="F71" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="120"/>
+      <c r="G71" s="133"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="116"/>
+      <c r="A72" s="127"/>
       <c r="B72" s="32" t="s">
         <v>540</v>
       </c>
@@ -8775,10 +8794,10 @@
       <c r="F72" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="G72" s="120"/>
+      <c r="G72" s="133"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="116" t="s">
+      <c r="A73" s="127" t="s">
         <v>79</v>
       </c>
       <c r="B73" s="23" t="s">
@@ -8793,17 +8812,17 @@
       <c r="F73" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="120"/>
+      <c r="G73" s="133"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="116"/>
-      <c r="B74" s="129" t="s">
+      <c r="A74" s="127"/>
+      <c r="B74" s="121" t="s">
         <v>918</v>
       </c>
       <c r="C74" s="108" t="s">
         <v>917</v>
       </c>
-      <c r="D74" s="131" t="s">
+      <c r="D74" s="116" t="s">
         <v>919</v>
       </c>
       <c r="E74" s="44" t="s">
@@ -8812,36 +8831,36 @@
       <c r="F74" s="45" t="s">
         <v>844</v>
       </c>
-      <c r="G74" s="120"/>
+      <c r="G74" s="133"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="116"/>
-      <c r="B75" s="134"/>
-      <c r="C75" s="134"/>
-      <c r="D75" s="132"/>
+      <c r="A75" s="127"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="119"/>
+      <c r="D75" s="117"/>
       <c r="E75" s="44" t="s">
         <v>915</v>
       </c>
       <c r="F75" s="45" t="s">
         <v>843</v>
       </c>
-      <c r="G75" s="120"/>
+      <c r="G75" s="133"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="116"/>
-      <c r="B76" s="130"/>
-      <c r="C76" s="130"/>
-      <c r="D76" s="133"/>
+      <c r="A76" s="127"/>
+      <c r="B76" s="120"/>
+      <c r="C76" s="120"/>
+      <c r="D76" s="118"/>
       <c r="E76" s="44" t="s">
         <v>914</v>
       </c>
       <c r="F76" s="45" t="s">
         <v>842</v>
       </c>
-      <c r="G76" s="120"/>
+      <c r="G76" s="133"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="116"/>
+      <c r="A77" s="127"/>
       <c r="B77" s="23"/>
       <c r="C77" s="97"/>
       <c r="E77" s="5" t="s">
@@ -8850,10 +8869,10 @@
       <c r="F77" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="120"/>
-    </row>
-    <row r="78" spans="1:7" ht="41.4">
-      <c r="A78" s="116"/>
+      <c r="G77" s="133"/>
+    </row>
+    <row r="78" spans="1:7" ht="41.65">
+      <c r="A78" s="127"/>
       <c r="B78" s="23" t="s">
         <v>213</v>
       </c>
@@ -8869,10 +8888,10 @@
       <c r="F78" s="57" t="s">
         <v>587</v>
       </c>
-      <c r="G78" s="120"/>
-    </row>
-    <row r="79" spans="1:7" ht="41.4">
-      <c r="A79" s="116"/>
+      <c r="G78" s="133"/>
+    </row>
+    <row r="79" spans="1:7" ht="41.65">
+      <c r="A79" s="127"/>
       <c r="B79" s="32" t="s">
         <v>4</v>
       </c>
@@ -8888,10 +8907,10 @@
       <c r="F79" s="57" t="s">
         <v>584</v>
       </c>
-      <c r="G79" s="120"/>
+      <c r="G79" s="133"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="116"/>
+      <c r="A80" s="127"/>
       <c r="B80" s="32"/>
       <c r="C80" s="9"/>
       <c r="D80" s="28"/>
@@ -8901,10 +8920,10 @@
       <c r="F80" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="120"/>
+      <c r="G80" s="133"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="116"/>
+      <c r="A81" s="127"/>
       <c r="B81" s="32" t="s">
         <v>4</v>
       </c>
@@ -8920,10 +8939,10 @@
       <c r="F81" s="28" t="s">
         <v>912</v>
       </c>
-      <c r="G81" s="120"/>
+      <c r="G81" s="133"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="116"/>
+      <c r="A82" s="127"/>
       <c r="B82" s="32" t="s">
         <v>4</v>
       </c>
@@ -8939,10 +8958,10 @@
       <c r="F82" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="G82" s="120"/>
+      <c r="G82" s="133"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="116" t="s">
+      <c r="A83" s="127" t="s">
         <v>541</v>
       </c>
       <c r="B83" s="23" t="s">
@@ -8960,12 +8979,12 @@
       <c r="F83" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="120" t="s">
+      <c r="G83" s="133" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="116"/>
+      <c r="A84" s="127"/>
       <c r="B84" s="23" t="s">
         <v>4</v>
       </c>
@@ -8981,10 +9000,10 @@
       <c r="F84" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="G84" s="120"/>
+      <c r="G84" s="133"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="116"/>
+      <c r="A85" s="127"/>
       <c r="B85" s="32" t="s">
         <v>4</v>
       </c>
@@ -9000,10 +9019,10 @@
       <c r="F85" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="G85" s="120"/>
+      <c r="G85" s="133"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="116"/>
+      <c r="A86" s="127"/>
       <c r="B86" s="32" t="s">
         <v>545</v>
       </c>
@@ -9019,10 +9038,10 @@
       <c r="F86" s="28" t="s">
         <v>588</v>
       </c>
-      <c r="G86" s="120"/>
+      <c r="G86" s="133"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="116" t="s">
+      <c r="A87" s="127" t="s">
         <v>549</v>
       </c>
       <c r="B87" s="23" t="s">
@@ -9040,13 +9059,13 @@
       <c r="F87" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="120" t="s">
+      <c r="G87" s="133" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="116"/>
-      <c r="B88" s="129" t="s">
+      <c r="A88" s="127"/>
+      <c r="B88" s="121" t="s">
         <v>298</v>
       </c>
       <c r="C88" s="108" t="s">
@@ -9061,36 +9080,36 @@
       <c r="F88" s="102" t="s">
         <v>926</v>
       </c>
-      <c r="G88" s="120"/>
+      <c r="G88" s="133"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="116"/>
-      <c r="B89" s="134"/>
-      <c r="C89" s="134"/>
-      <c r="D89" s="135"/>
+      <c r="A89" s="127"/>
+      <c r="B89" s="119"/>
+      <c r="C89" s="119"/>
+      <c r="D89" s="122"/>
       <c r="E89" s="101" t="s">
         <v>921</v>
       </c>
       <c r="F89" s="102" t="s">
         <v>920</v>
       </c>
-      <c r="G89" s="120"/>
-    </row>
-    <row r="90" spans="1:7" ht="27.6">
-      <c r="A90" s="116"/>
-      <c r="B90" s="130"/>
-      <c r="C90" s="130"/>
-      <c r="D90" s="136"/>
+      <c r="G89" s="133"/>
+    </row>
+    <row r="90" spans="1:7" ht="27.75">
+      <c r="A90" s="127"/>
+      <c r="B90" s="120"/>
+      <c r="C90" s="120"/>
+      <c r="D90" s="123"/>
       <c r="E90" s="9" t="s">
         <v>806</v>
       </c>
       <c r="F90" s="57" t="s">
         <v>922</v>
       </c>
-      <c r="G90" s="120"/>
+      <c r="G90" s="133"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="116"/>
+      <c r="A91" s="127"/>
       <c r="B91" s="32" t="s">
         <v>4</v>
       </c>
@@ -9106,10 +9125,10 @@
       <c r="F91" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="G91" s="120"/>
+      <c r="G91" s="133"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="116"/>
+      <c r="A92" s="127"/>
       <c r="B92" s="32" t="s">
         <v>4</v>
       </c>
@@ -9125,10 +9144,10 @@
       <c r="F92" s="28" t="s">
         <v>554</v>
       </c>
-      <c r="G92" s="120"/>
+      <c r="G92" s="133"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="116" t="s">
+      <c r="A93" s="127" t="s">
         <v>563</v>
       </c>
       <c r="B93" s="23" t="s">
@@ -9146,12 +9165,12 @@
       <c r="F93" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G93" s="117" t="s">
+      <c r="G93" s="128" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="116"/>
+      <c r="A94" s="127"/>
       <c r="B94" s="23"/>
       <c r="C94" s="104"/>
       <c r="D94" s="104"/>
@@ -9161,10 +9180,10 @@
       <c r="F94" s="45" t="s">
         <v>959</v>
       </c>
-      <c r="G94" s="118"/>
+      <c r="G94" s="125"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="116"/>
+      <c r="A95" s="127"/>
       <c r="B95" s="23"/>
       <c r="C95" s="104"/>
       <c r="D95" s="104"/>
@@ -9174,10 +9193,10 @@
       <c r="F95" s="45" t="s">
         <v>956</v>
       </c>
-      <c r="G95" s="118"/>
-    </row>
-    <row r="96" spans="1:7" ht="26.4">
-      <c r="A96" s="116"/>
+      <c r="G95" s="125"/>
+    </row>
+    <row r="96" spans="1:7" ht="25.5">
+      <c r="A96" s="127"/>
       <c r="B96" s="23" t="s">
         <v>105</v>
       </c>
@@ -9193,10 +9212,10 @@
       <c r="F96" s="19" t="s">
         <v>924</v>
       </c>
-      <c r="G96" s="118"/>
-    </row>
-    <row r="97" spans="1:7" ht="79.2">
-      <c r="A97" s="116"/>
+      <c r="G96" s="125"/>
+    </row>
+    <row r="97" spans="1:7" ht="76.5">
+      <c r="A97" s="127"/>
       <c r="B97" s="23" t="s">
         <v>4</v>
       </c>
@@ -9212,10 +9231,10 @@
       <c r="F97" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="G97" s="118"/>
+      <c r="G97" s="125"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="116"/>
+      <c r="A98" s="127"/>
       <c r="B98" s="32" t="s">
         <v>4</v>
       </c>
@@ -9231,10 +9250,10 @@
       <c r="F98" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="G98" s="118"/>
+      <c r="G98" s="125"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="116"/>
+      <c r="A99" s="127"/>
       <c r="B99" s="32" t="s">
         <v>4</v>
       </c>
@@ -9250,10 +9269,10 @@
       <c r="F99" s="28" t="s">
         <v>873</v>
       </c>
-      <c r="G99" s="118"/>
+      <c r="G99" s="125"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="116" t="s">
+      <c r="A100" s="127" t="s">
         <v>567</v>
       </c>
       <c r="B100" s="23" t="s">
@@ -9271,10 +9290,10 @@
       <c r="F100" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G100" s="118"/>
+      <c r="G100" s="125"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="116"/>
+      <c r="A101" s="127"/>
       <c r="B101" s="23" t="s">
         <v>884</v>
       </c>
@@ -9290,10 +9309,10 @@
       <c r="F101" s="53" t="s">
         <v>565</v>
       </c>
-      <c r="G101" s="118"/>
+      <c r="G101" s="125"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="116" t="s">
+      <c r="A102" s="127" t="s">
         <v>786</v>
       </c>
       <c r="B102" s="23" t="s">
@@ -9311,10 +9330,10 @@
       <c r="F102" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G102" s="118"/>
+      <c r="G102" s="125"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="116"/>
+      <c r="A103" s="127"/>
       <c r="B103" s="23" t="s">
         <v>885</v>
       </c>
@@ -9330,10 +9349,10 @@
       <c r="F103" s="53" t="s">
         <v>569</v>
       </c>
-      <c r="G103" s="118"/>
+      <c r="G103" s="125"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="116" t="s">
+      <c r="A104" s="127" t="s">
         <v>577</v>
       </c>
       <c r="B104" s="23" t="s">
@@ -9351,10 +9370,10 @@
       <c r="F104" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G104" s="118"/>
+      <c r="G104" s="125"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="116"/>
+      <c r="A105" s="127"/>
       <c r="B105" s="95"/>
       <c r="C105" s="92" t="s">
         <v>756</v>
@@ -9368,10 +9387,10 @@
       <c r="F105" s="45" t="s">
         <v>758</v>
       </c>
-      <c r="G105" s="118"/>
+      <c r="G105" s="125"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="116"/>
+      <c r="A106" s="127"/>
       <c r="B106" s="95"/>
       <c r="C106" s="92"/>
       <c r="D106" s="94"/>
@@ -9381,10 +9400,10 @@
       <c r="F106" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G106" s="118"/>
+      <c r="G106" s="125"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="116"/>
+      <c r="A107" s="127"/>
       <c r="B107" s="95" t="s">
         <v>213</v>
       </c>
@@ -9400,10 +9419,10 @@
       <c r="F107" s="45" t="s">
         <v>874</v>
       </c>
-      <c r="G107" s="118"/>
+      <c r="G107" s="125"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="116"/>
+      <c r="A108" s="127"/>
       <c r="B108" s="23" t="s">
         <v>880</v>
       </c>
@@ -9419,10 +9438,10 @@
       <c r="F108" s="53" t="s">
         <v>572</v>
       </c>
-      <c r="G108" s="118"/>
+      <c r="G108" s="125"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="116" t="s">
+      <c r="A109" s="127" t="s">
         <v>178</v>
       </c>
       <c r="B109" s="23" t="s">
@@ -9440,10 +9459,10 @@
       <c r="F109" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G109" s="118"/>
+      <c r="G109" s="125"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="116"/>
+      <c r="A110" s="127"/>
       <c r="B110" s="23" t="s">
         <v>881</v>
       </c>
@@ -9459,10 +9478,10 @@
       <c r="F110" s="53" t="s">
         <v>573</v>
       </c>
-      <c r="G110" s="119"/>
+      <c r="G110" s="126"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="116" t="s">
+      <c r="A111" s="127" t="s">
         <v>580</v>
       </c>
       <c r="B111" s="23" t="s">
@@ -9480,19 +9499,19 @@
       <c r="F111" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G111" s="117" t="s">
+      <c r="G111" s="128" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="116"/>
-      <c r="B112" s="129" t="s">
+      <c r="A112" s="127"/>
+      <c r="B112" s="121" t="s">
         <v>751</v>
       </c>
       <c r="C112" s="108" t="s">
         <v>752</v>
       </c>
-      <c r="D112" s="127" t="s">
+      <c r="D112" s="129" t="s">
         <v>759</v>
       </c>
       <c r="E112" s="44" t="s">
@@ -9501,23 +9520,23 @@
       <c r="F112" s="45" t="s">
         <v>753</v>
       </c>
-      <c r="G112" s="118"/>
-    </row>
-    <row r="113" spans="1:7" ht="55.2">
-      <c r="A113" s="116"/>
-      <c r="B113" s="130"/>
-      <c r="C113" s="130"/>
-      <c r="D113" s="128"/>
+      <c r="G112" s="125"/>
+    </row>
+    <row r="113" spans="1:7" ht="55.5">
+      <c r="A113" s="127"/>
+      <c r="B113" s="120"/>
+      <c r="C113" s="120"/>
+      <c r="D113" s="130"/>
       <c r="E113" s="61" t="s">
         <v>749</v>
       </c>
       <c r="F113" s="55" t="s">
         <v>582</v>
       </c>
-      <c r="G113" s="118"/>
-    </row>
-    <row r="114" spans="1:7" ht="41.4">
-      <c r="A114" s="116"/>
+      <c r="G113" s="125"/>
+    </row>
+    <row r="114" spans="1:7" ht="41.65">
+      <c r="A114" s="127"/>
       <c r="B114" s="23" t="s">
         <v>4</v>
       </c>
@@ -9533,7 +9552,7 @@
       <c r="F114" s="55" t="s">
         <v>791</v>
       </c>
-      <c r="G114" s="118"/>
+      <c r="G114" s="125"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="124" t="s">
@@ -9552,12 +9571,12 @@
       <c r="F115" s="55" t="s">
         <v>773</v>
       </c>
-      <c r="G115" s="117" t="s">
+      <c r="G115" s="128" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="118"/>
+      <c r="A116" s="125"/>
       <c r="B116" s="23" t="s">
         <v>755</v>
       </c>
@@ -9573,10 +9592,10 @@
       <c r="F116" s="55" t="s">
         <v>770</v>
       </c>
-      <c r="G116" s="118"/>
+      <c r="G116" s="125"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="118"/>
+      <c r="A117" s="125"/>
       <c r="B117" s="23" t="s">
         <v>755</v>
       </c>
@@ -9592,10 +9611,10 @@
       <c r="F117" s="55" t="s">
         <v>767</v>
       </c>
-      <c r="G117" s="118"/>
+      <c r="G117" s="125"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="119"/>
+      <c r="A118" s="126"/>
       <c r="B118" s="23" t="s">
         <v>755</v>
       </c>
@@ -9611,10 +9630,10 @@
       <c r="F118" s="55" t="s">
         <v>764</v>
       </c>
-      <c r="G118" s="119"/>
+      <c r="G118" s="126"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="116" t="s">
+      <c r="A119" s="127" t="s">
         <v>597</v>
       </c>
       <c r="B119" s="23" t="s">
@@ -9632,12 +9651,12 @@
       <c r="F119" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G119" s="120" t="s">
+      <c r="G119" s="133" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="116"/>
+      <c r="A120" s="127"/>
       <c r="B120" s="32" t="s">
         <v>105</v>
       </c>
@@ -9653,10 +9672,10 @@
       <c r="F120" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="G120" s="120"/>
+      <c r="G120" s="133"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="116"/>
+      <c r="A121" s="127"/>
       <c r="B121" s="32" t="s">
         <v>545</v>
       </c>
@@ -9672,10 +9691,10 @@
       <c r="F121" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="G121" s="120"/>
+      <c r="G121" s="133"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="116" t="s">
+      <c r="A122" s="127" t="s">
         <v>598</v>
       </c>
       <c r="B122" s="23" t="s">
@@ -9693,12 +9712,12 @@
       <c r="F122" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G122" s="117" t="s">
+      <c r="G122" s="128" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="116"/>
+      <c r="A123" s="127"/>
       <c r="B123" s="32" t="s">
         <v>604</v>
       </c>
@@ -9714,10 +9733,10 @@
       <c r="F123" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="G123" s="118"/>
+      <c r="G123" s="125"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="116"/>
+      <c r="A124" s="127"/>
       <c r="B124" s="32" t="s">
         <v>604</v>
       </c>
@@ -9733,10 +9752,10 @@
       <c r="F124" s="28" t="s">
         <v>608</v>
       </c>
-      <c r="G124" s="118"/>
+      <c r="G124" s="125"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="116"/>
+      <c r="A125" s="127"/>
       <c r="B125" s="32" t="s">
         <v>601</v>
       </c>
@@ -9752,10 +9771,10 @@
       <c r="F125" s="28" t="s">
         <v>610</v>
       </c>
-      <c r="G125" s="118"/>
+      <c r="G125" s="125"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="116"/>
+      <c r="A126" s="127"/>
       <c r="B126" s="32" t="s">
         <v>603</v>
       </c>
@@ -9771,10 +9790,10 @@
       <c r="F126" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="G126" s="118"/>
+      <c r="G126" s="125"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="116"/>
+      <c r="A127" s="127"/>
       <c r="B127" s="32" t="s">
         <v>602</v>
       </c>
@@ -9790,10 +9809,10 @@
       <c r="F127" s="28" t="s">
         <v>615</v>
       </c>
-      <c r="G127" s="118"/>
+      <c r="G127" s="125"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="116"/>
+      <c r="A128" s="127"/>
       <c r="B128" s="32" t="s">
         <v>602</v>
       </c>
@@ -9809,10 +9828,10 @@
       <c r="F128" s="28" t="s">
         <v>617</v>
       </c>
-      <c r="G128" s="118"/>
+      <c r="G128" s="125"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="116"/>
+      <c r="A129" s="127"/>
       <c r="B129" s="32" t="s">
         <v>601</v>
       </c>
@@ -9828,10 +9847,10 @@
       <c r="F129" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="G129" s="118"/>
+      <c r="G129" s="125"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="116"/>
+      <c r="A130" s="127"/>
       <c r="B130" s="32" t="s">
         <v>600</v>
       </c>
@@ -9847,10 +9866,10 @@
       <c r="F130" s="28" t="s">
         <v>621</v>
       </c>
-      <c r="G130" s="119"/>
+      <c r="G130" s="126"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="116" t="s">
+      <c r="A131" s="127" t="s">
         <v>887</v>
       </c>
       <c r="B131" s="23" t="s">
@@ -9868,12 +9887,12 @@
       <c r="F131" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G131" s="117" t="s">
+      <c r="G131" s="128" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="116"/>
+      <c r="A132" s="127"/>
       <c r="B132" s="32"/>
       <c r="C132" s="9" t="s">
         <v>0</v>
@@ -9887,10 +9906,10 @@
       <c r="F132" s="28" t="s">
         <v>893</v>
       </c>
-      <c r="G132" s="118"/>
+      <c r="G132" s="125"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="116" t="s">
+      <c r="A133" s="127" t="s">
         <v>890</v>
       </c>
       <c r="B133" s="23" t="s">
@@ -9908,10 +9927,10 @@
       <c r="F133" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G133" s="118"/>
+      <c r="G133" s="125"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="116"/>
+      <c r="A134" s="127"/>
       <c r="B134" s="32"/>
       <c r="C134" s="9" t="s">
         <v>0</v>
@@ -9925,10 +9944,10 @@
       <c r="F134" s="28" t="s">
         <v>892</v>
       </c>
-      <c r="G134" s="118"/>
+      <c r="G134" s="125"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="116" t="s">
+      <c r="A135" s="127" t="s">
         <v>896</v>
       </c>
       <c r="B135" s="23" t="s">
@@ -9946,10 +9965,10 @@
       <c r="F135" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G135" s="118"/>
+      <c r="G135" s="125"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="116"/>
+      <c r="A136" s="127"/>
       <c r="B136" s="32"/>
       <c r="C136" s="9" t="s">
         <v>0</v>
@@ -9963,10 +9982,10 @@
       <c r="F136" s="28" t="s">
         <v>895</v>
       </c>
-      <c r="G136" s="118"/>
+      <c r="G136" s="125"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="116" t="s">
+      <c r="A137" s="127" t="s">
         <v>897</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -9984,10 +10003,10 @@
       <c r="F137" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G137" s="118"/>
+      <c r="G137" s="125"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="116"/>
+      <c r="A138" s="127"/>
       <c r="B138" s="23"/>
       <c r="C138" s="9" t="s">
         <v>0</v>
@@ -10001,10 +10020,10 @@
       <c r="F138" s="28" t="s">
         <v>902</v>
       </c>
-      <c r="G138" s="118"/>
+      <c r="G138" s="125"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="116"/>
+      <c r="A139" s="127"/>
       <c r="B139" s="23"/>
       <c r="C139" s="93"/>
       <c r="D139" s="93"/>
@@ -10014,10 +10033,10 @@
       <c r="F139" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G139" s="118"/>
+      <c r="G139" s="125"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="116"/>
+      <c r="A140" s="127"/>
       <c r="B140" s="32"/>
       <c r="C140" s="9" t="s">
         <v>0</v>
@@ -10031,10 +10050,10 @@
       <c r="F140" s="28" t="s">
         <v>899</v>
       </c>
-      <c r="G140" s="118"/>
+      <c r="G140" s="125"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="116" t="s">
+      <c r="A141" s="127" t="s">
         <v>903</v>
       </c>
       <c r="B141" s="23" t="s">
@@ -10052,10 +10071,10 @@
       <c r="F141" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G141" s="118"/>
+      <c r="G141" s="125"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="116"/>
+      <c r="A142" s="127"/>
       <c r="B142" s="23"/>
       <c r="C142" s="9" t="s">
         <v>0</v>
@@ -10069,10 +10088,10 @@
       <c r="F142" s="28" t="s">
         <v>906</v>
       </c>
-      <c r="G142" s="118"/>
+      <c r="G142" s="125"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="116"/>
+      <c r="A143" s="127"/>
       <c r="B143" s="23"/>
       <c r="C143" s="93"/>
       <c r="D143" s="93"/>
@@ -10082,10 +10101,10 @@
       <c r="F143" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G143" s="118"/>
+      <c r="G143" s="125"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="116"/>
+      <c r="A144" s="127"/>
       <c r="B144" s="32"/>
       <c r="C144" s="9" t="s">
         <v>0</v>
@@ -10099,47 +10118,16 @@
       <c r="F144" s="28" t="s">
         <v>907</v>
       </c>
-      <c r="G144" s="119"/>
+      <c r="G144" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="G93:G110"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="G115:G118"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="G131:G144"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A135:A136"/>
     <mergeCell ref="A122:A130"/>
     <mergeCell ref="G122:G130"/>
     <mergeCell ref="G23:G43"/>
@@ -10156,12 +10144,43 @@
     <mergeCell ref="G87:G92"/>
     <mergeCell ref="G44:G51"/>
     <mergeCell ref="A63:A68"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="G131:G144"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="G93:G110"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="G115:G118"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B88:B90"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10170,14 +10189,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D0906-052D-43FD-A4BB-226D0BB88B0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
@@ -10251,7 +10270,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="39.6">
+    <row r="5" spans="1:6" ht="38.25">
       <c r="A5" s="110"/>
       <c r="B5" s="38" t="s">
         <v>4</v>
@@ -10433,7 +10452,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="132">
+    <row r="15" spans="1:6" ht="127.5">
       <c r="A15" s="112"/>
       <c r="B15" s="38" t="s">
         <v>340</v>
@@ -10547,7 +10566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="52.8">
+    <row r="21" spans="1:6" ht="51">
       <c r="A21" s="113"/>
       <c r="B21" s="38" t="s">
         <v>4</v>
@@ -10693,7 +10712,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="105.6">
+    <row r="29" spans="1:6" ht="102">
       <c r="A29" s="113"/>
       <c r="B29" s="38" t="s">
         <v>4</v>
@@ -10729,7 +10748,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="118.8">
+    <row r="31" spans="1:6" ht="114.75">
       <c r="A31" s="109"/>
       <c r="B31" s="38" t="s">
         <v>4</v>
@@ -10853,7 +10872,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="96.6">
+    <row r="38" spans="1:6" ht="83.25">
       <c r="A38" s="113"/>
       <c r="B38" s="86" t="s">
         <v>26</v>
@@ -10909,16 +10928,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9074A8-11E0-48D9-822A-54D3CEF7052B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
@@ -11090,10 +11109,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="134"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="44" t="s">
         <v>832</v>
       </c>
@@ -11102,10 +11121,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="134"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="44" t="s">
         <v>830</v>
       </c>
@@ -11114,10 +11133,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="134"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="44" t="s">
         <v>828</v>
       </c>
@@ -11126,10 +11145,10 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="134"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="44" t="s">
         <v>826</v>
       </c>
@@ -11138,10 +11157,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="134"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="44" t="s">
         <v>824</v>
       </c>
@@ -11150,10 +11169,10 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="134"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="44" t="s">
         <v>822</v>
       </c>
@@ -11162,10 +11181,10 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="134"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="44" t="s">
         <v>820</v>
       </c>
@@ -11174,10 +11193,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="134"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="44" t="s">
         <v>818</v>
       </c>
@@ -11186,10 +11205,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="134"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="44" t="s">
         <v>816</v>
       </c>
@@ -11198,10 +11217,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="134"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
       <c r="E19" s="44" t="s">
         <v>814</v>
       </c>
@@ -11210,10 +11229,10 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="134"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="44" t="s">
         <v>812</v>
       </c>
@@ -11222,10 +11241,10 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="134"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
       <c r="E21" s="44" t="s">
         <v>810</v>
       </c>
@@ -11234,10 +11253,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="134"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
       <c r="E22" s="44" t="s">
         <v>808</v>
       </c>
@@ -11246,10 +11265,10 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="134"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
       <c r="E23" s="44" t="s">
         <v>806</v>
       </c>
@@ -11258,10 +11277,10 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="130"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
+      <c r="A24" s="120"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
       <c r="E24" s="44" t="s">
         <v>804</v>
       </c>
@@ -11290,10 +11309,10 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="134"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
       <c r="E26" s="44" t="s">
         <v>853</v>
       </c>
@@ -11302,10 +11321,10 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="134"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
       <c r="E27" s="44" t="s">
         <v>851</v>
       </c>
@@ -11314,10 +11333,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="134"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
       <c r="E28" s="44" t="s">
         <v>849</v>
       </c>
@@ -11326,10 +11345,10 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="134"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
       <c r="E29" s="44" t="s">
         <v>847</v>
       </c>
@@ -11338,10 +11357,10 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="134"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
       <c r="E30" s="44" t="s">
         <v>845</v>
       </c>
@@ -11350,10 +11369,10 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="134"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
       <c r="E31" s="98" t="s">
         <v>818</v>
       </c>
@@ -11362,10 +11381,10 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="134"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="98" t="s">
         <v>816</v>
       </c>
@@ -11374,10 +11393,10 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="134"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="98" t="s">
         <v>814</v>
       </c>
@@ -11386,10 +11405,10 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="134"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="44" t="s">
         <v>812</v>
       </c>
@@ -11398,10 +11417,10 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="134"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="44" t="s">
         <v>810</v>
       </c>
@@ -11410,10 +11429,10 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="134"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="44" t="s">
         <v>808</v>
       </c>
@@ -11422,10 +11441,10 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="134"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="44" t="s">
         <v>806</v>
       </c>
@@ -11434,10 +11453,10 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="130"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
+      <c r="A38" s="120"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
       <c r="E38" s="44" t="s">
         <v>804</v>
       </c>
@@ -11644,9 +11663,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A49" s="134"/>
-      <c r="B49" s="134"/>
-      <c r="C49" s="134"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
       <c r="D49" s="108" t="s">
         <v>859</v>
       </c>
@@ -11658,10 +11677,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A50" s="130"/>
-      <c r="B50" s="130"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
+      <c r="A50" s="120"/>
+      <c r="B50" s="120"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="120"/>
       <c r="E50" s="44" t="s">
         <v>497</v>
       </c>
@@ -11688,9 +11707,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A52" s="130"/>
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
+      <c r="A52" s="120"/>
+      <c r="B52" s="120"/>
+      <c r="C52" s="120"/>
       <c r="D52" s="93"/>
       <c r="E52" s="44" t="s">
         <v>864</v>
@@ -11797,7 +11816,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="113"/>
-      <c r="B58" s="134"/>
+      <c r="B58" s="119"/>
       <c r="C58" s="108" t="s">
         <v>28</v>
       </c>
@@ -11813,9 +11832,9 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="113"/>
-      <c r="B59" s="134"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="134"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="93" t="s">
         <v>43</v>
       </c>
@@ -11825,9 +11844,9 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="113"/>
-      <c r="B60" s="134"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="134"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="93" t="s">
         <v>42</v>
       </c>
@@ -11837,9 +11856,9 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="113"/>
-      <c r="B61" s="134"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="134"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="93" t="s">
         <v>41</v>
       </c>
@@ -11849,9 +11868,9 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="109"/>
-      <c r="B62" s="130"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="130"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="120"/>
       <c r="E62" s="43" t="s">
         <v>38</v>
       </c>
@@ -12234,7 +12253,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A84" s="130"/>
+      <c r="A84" s="120"/>
       <c r="B84" s="60" t="s">
         <v>4</v>
       </c>
@@ -12253,13 +12272,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="B57:B62"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A7"/>
@@ -12276,13 +12295,13 @@
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12291,16 +12310,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5462A84-5583-420E-A5C1-7ED4CC9711D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
@@ -13231,16 +13250,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D8D7B2-3DC2-4B4A-B1C5-224E4D25B711}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
@@ -13293,7 +13312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.4">
+    <row r="4" spans="1:6" ht="25.5">
       <c r="A4" s="110"/>
       <c r="B4" s="43" t="s">
         <v>4</v>
@@ -13311,7 +13330,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="39.6">
+    <row r="5" spans="1:6" ht="38.25">
       <c r="A5" s="110"/>
       <c r="B5" s="43" t="s">
         <v>4</v>

--- a/doc/XBR820  system spec/xbr820_register.xlsx
+++ b/doc/XBR820  system spec/xbr820_register.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lzj\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25AC252B-44B4-4065-8A3D-A234BE3C8C33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="20890" windowHeight="14620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="20888" windowHeight="14618" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MemMap" sheetId="20" r:id="rId1"/>
@@ -24,9 +18,9 @@
     <sheet name="flash" sheetId="18" r:id="rId9"/>
     <sheet name="interrupts" sheetId="21" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="967">
   <si>
     <t>RO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2250,10 +2244,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>bb_timer_en</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>bb_timer_cnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2264,10 +2254,6 @@
   <si>
     <t>[5:2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb timer count enable</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>bb times value
@@ -3765,12 +3751,148 @@
     <t>fifo_clear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb_timer_en</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb timer count enable</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32K除bb_timer_cnt为ADC采样脉冲</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询中断源</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit0: adc一次</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit1: 平均值一次</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>adc raw data累加，可以用于光敏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头波的（带吴工算法的）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头波平均值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上2次raw data累加平均值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一次raw data累加平均值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上3次raw data累加平均值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上4次raw data累加平均值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>00：电平中断</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>写ｂｉｔ０：１清ａｄｃ一次的中断</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽对应的中断才写１</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头波的触发门限</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴工算法相关的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部DC平均值与ｎｏｉｓｅ的差值门限</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>１０在门限之内也不更新ｎｏｉｓｅ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ｎｏｉｓｅ初值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>０１生效ｎｏｉｓｅ初值（沿更新）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ｐ２．０外部输入中断唤醒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ｐ２．１算法模块输出</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>写１时ｐ２．１由ｉｏ＿ｖａｌｕｅ控制</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>写０时算法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>30ｓ感应延时</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定停顿延时</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3952,8 +4074,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3993,6 +4136,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4271,7 +4480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4431,13 +4640,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4495,12 +4698,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4578,51 +4775,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -4631,11 +4783,226 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4697,7 +5064,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -4732,7 +5099,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -4909,373 +5276,373 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EB3F28-8067-4A17-9578-304DE1B9D9E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="17.08203125" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" customWidth="1"/>
+    <col min="3" max="3" width="17.06640625" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="38.08203125" customWidth="1"/>
+    <col min="6" max="6" width="38.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:6" ht="15.4" thickBot="1">
+      <c r="A1" s="60" t="s">
+        <v>666</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>667</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>668</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="D1" s="61" t="s">
         <v>669</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="E1" s="61" t="s">
         <v>670</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="F1" s="62" t="s">
         <v>671</v>
       </c>
-      <c r="E1" s="63" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15.4" thickBot="1">
+      <c r="A2" s="63" t="s">
         <v>672</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="B2" s="64" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" thickBot="1">
-      <c r="A2" s="65" t="s">
+      <c r="C2" s="65" t="s">
         <v>674</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="D2" s="65" t="s">
         <v>675</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="E2" s="65" t="s">
         <v>676</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="F2" s="66" t="s">
         <v>677</v>
       </c>
-      <c r="E2" s="67" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="15.4" thickBot="1">
+      <c r="A3" s="63" t="s">
         <v>678</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" thickBot="1">
-      <c r="A3" s="65" t="s">
+      <c r="C3" s="67" t="s">
         <v>680</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="D3" s="68" t="s">
         <v>681</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="E3" s="68" t="s">
         <v>682</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="F3" s="66" t="s">
         <v>683</v>
       </c>
-      <c r="E3" s="70" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="99" t="s">
         <v>684</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.5">
-      <c r="A4" s="103" t="s">
+      <c r="C4" s="69" t="s">
         <v>686</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="D4" s="69" t="s">
         <v>687</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="E4" s="69" t="s">
         <v>688</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="F4" s="70" t="s">
         <v>689</v>
       </c>
-      <c r="E4" s="71" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="100"/>
+      <c r="B5" s="71" t="s">
         <v>690</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="C5" s="71" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.5">
-      <c r="A5" s="104"/>
-      <c r="B5" s="73" t="s">
+      <c r="D5" s="71" t="s">
+        <v>687</v>
+      </c>
+      <c r="E5" s="71" t="s">
         <v>692</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="F5" s="72" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="73" t="s">
-        <v>689</v>
-      </c>
-      <c r="E5" s="73" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="100"/>
+      <c r="B6" s="71" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="C6" s="71" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.5">
-      <c r="A6" s="104"/>
-      <c r="B6" s="73" t="s">
+      <c r="D6" s="71" t="s">
         <v>696</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="E6" s="71" t="s">
         <v>697</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="F6" s="72" t="s">
         <v>698</v>
       </c>
-      <c r="E6" s="73" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="100"/>
+      <c r="B7" s="71" t="s">
         <v>699</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="C7" s="71" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.5">
-      <c r="A7" s="104"/>
-      <c r="B7" s="73" t="s">
+      <c r="D7" s="71" t="s">
+        <v>696</v>
+      </c>
+      <c r="E7" s="71" t="s">
         <v>701</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="F7" s="72" t="s">
         <v>702</v>
       </c>
-      <c r="D7" s="73" t="s">
-        <v>698</v>
-      </c>
-      <c r="E7" s="73" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="100"/>
+      <c r="B8" s="71" t="s">
         <v>703</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="C8" s="71" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.5">
-      <c r="A8" s="104"/>
-      <c r="B8" s="73" t="s">
+      <c r="D8" s="71" t="s">
+        <v>696</v>
+      </c>
+      <c r="E8" s="71" t="s">
         <v>705</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="F8" s="72" t="s">
         <v>706</v>
       </c>
-      <c r="D8" s="73" t="s">
-        <v>698</v>
-      </c>
-      <c r="E8" s="73" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="100"/>
+      <c r="B9" s="71" t="s">
         <v>707</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="C9" s="71" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.5">
-      <c r="A9" s="104"/>
-      <c r="B9" s="73" t="s">
+      <c r="D9" s="71" t="s">
+        <v>696</v>
+      </c>
+      <c r="E9" s="71" t="s">
         <v>709</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="F9" s="72" t="s">
         <v>710</v>
       </c>
-      <c r="D9" s="73" t="s">
-        <v>698</v>
-      </c>
-      <c r="E9" s="73" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="100"/>
+      <c r="B10" s="71" t="s">
         <v>711</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="C10" s="71" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.5">
-      <c r="A10" s="104"/>
-      <c r="B10" s="73" t="s">
+      <c r="D10" s="71" t="s">
+        <v>696</v>
+      </c>
+      <c r="E10" s="71" t="s">
         <v>713</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="F10" s="72" t="s">
         <v>714</v>
       </c>
-      <c r="D10" s="73" t="s">
-        <v>698</v>
-      </c>
-      <c r="E10" s="73" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="15.4" thickBot="1">
+      <c r="A11" s="100"/>
+      <c r="B11" s="73" t="s">
         <v>715</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="C11" s="73" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16" thickBot="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="75" t="s">
+      <c r="D11" s="73" t="s">
+        <v>696</v>
+      </c>
+      <c r="E11" s="73" t="s">
         <v>717</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="F11" s="74" t="s">
         <v>718</v>
       </c>
-      <c r="D11" s="75" t="s">
-        <v>698</v>
-      </c>
-      <c r="E11" s="75" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="101" t="s">
         <v>719</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="B12" s="73" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.5">
-      <c r="A12" s="105" t="s">
+      <c r="C12" s="73" t="s">
         <v>721</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="D12" s="73" t="s">
+        <v>696</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>682</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="100"/>
+      <c r="B13" s="73" t="s">
         <v>722</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C13" s="73" t="s">
         <v>723</v>
       </c>
-      <c r="D12" s="75" t="s">
-        <v>698</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>684</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.5">
-      <c r="A13" s="104"/>
-      <c r="B13" s="75" t="s">
+      <c r="D13" s="73" t="s">
+        <v>696</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>793</v>
+      </c>
+      <c r="F13" s="74"/>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="100"/>
+      <c r="B14" s="75" t="s">
         <v>724</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C14" s="75" t="s">
         <v>725</v>
       </c>
-      <c r="D13" s="75" t="s">
-        <v>698</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>795</v>
-      </c>
-      <c r="F13" s="76"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.5">
-      <c r="A14" s="104"/>
-      <c r="B14" s="77" t="s">
+      <c r="D14" s="75" t="s">
+        <v>696</v>
+      </c>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="100"/>
+      <c r="B15" s="75" t="s">
         <v>726</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C15" s="75" t="s">
         <v>727</v>
       </c>
-      <c r="D14" s="77" t="s">
-        <v>698</v>
-      </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.5">
-      <c r="A15" s="104"/>
-      <c r="B15" s="77" t="s">
+      <c r="D15" s="75" t="s">
+        <v>696</v>
+      </c>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="100"/>
+      <c r="B16" s="75" t="s">
         <v>728</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C16" s="75" t="s">
         <v>729</v>
       </c>
-      <c r="D15" s="77" t="s">
-        <v>698</v>
-      </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="78"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.5">
-      <c r="A16" s="104"/>
-      <c r="B16" s="77" t="s">
+      <c r="D16" s="75" t="s">
+        <v>696</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="100"/>
+      <c r="B17" s="75" t="s">
         <v>730</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C17" s="75" t="s">
         <v>731</v>
       </c>
-      <c r="D16" s="77" t="s">
-        <v>698</v>
-      </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.5">
-      <c r="A17" s="104"/>
-      <c r="B17" s="77" t="s">
+      <c r="D17" s="75" t="s">
+        <v>696</v>
+      </c>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="100"/>
+      <c r="B18" s="75" t="s">
         <v>732</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C18" s="75" t="s">
         <v>733</v>
       </c>
-      <c r="D17" s="77" t="s">
-        <v>698</v>
-      </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.5">
-      <c r="A18" s="104"/>
-      <c r="B18" s="77" t="s">
+      <c r="D18" s="75" t="s">
+        <v>696</v>
+      </c>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.4" thickBot="1">
+      <c r="A19" s="100"/>
+      <c r="B19" s="77" t="s">
         <v>734</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C19" s="77" t="s">
         <v>735</v>
       </c>
-      <c r="D18" s="77" t="s">
-        <v>698</v>
-      </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-    </row>
-    <row r="19" spans="1:6" ht="16" thickBot="1">
-      <c r="A19" s="104"/>
-      <c r="B19" s="79" t="s">
+      <c r="D19" s="77" t="s">
+        <v>696</v>
+      </c>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.4" thickBot="1">
+      <c r="A20" s="79" t="s">
         <v>736</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="B20" s="80" t="s">
         <v>737</v>
       </c>
-      <c r="D19" s="79" t="s">
-        <v>698</v>
-      </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="80"/>
-    </row>
-    <row r="20" spans="1:6" ht="16" thickBot="1">
-      <c r="A20" s="81" t="s">
+      <c r="C20" s="80" t="s">
         <v>738</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="D20" s="80" t="s">
         <v>739</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="E20" s="80" t="s">
         <v>740</v>
       </c>
-      <c r="D20" s="82" t="s">
-        <v>741</v>
-      </c>
-      <c r="E20" s="82" t="s">
-        <v>742</v>
-      </c>
-      <c r="F20" s="83"/>
+      <c r="F20" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5289,128 +5656,131 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA98114-2501-4EF7-AF09-0FC113866AE7}">
-  <dimension ref="B3:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="24.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
-      <c r="B3" s="91">
+    <row r="3" spans="2:4">
+      <c r="B3" s="87">
         <v>0</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="87" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="87">
+        <v>1</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="D4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="87">
+        <v>2</v>
+      </c>
+      <c r="C5" s="87" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="91">
-        <v>1</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="91">
-        <v>2</v>
-      </c>
-      <c r="C5" s="91" t="s">
+    <row r="6" spans="2:4">
+      <c r="B6" s="87">
+        <v>3</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="87">
+        <v>4</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="87">
+        <v>5</v>
+      </c>
+      <c r="C8" s="87" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="91">
-        <v>3</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="91">
-        <v>4</v>
-      </c>
-      <c r="C7" s="91" t="s">
+    <row r="9" spans="2:4">
+      <c r="B9" s="87">
+        <v>6</v>
+      </c>
+      <c r="C9" s="87" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="91">
-        <v>5</v>
-      </c>
-      <c r="C8" s="91" t="s">
+    <row r="10" spans="2:4">
+      <c r="B10" s="87">
+        <v>7</v>
+      </c>
+      <c r="C10" s="87" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="91">
-        <v>6</v>
-      </c>
-      <c r="C9" s="91" t="s">
+    <row r="11" spans="2:4">
+      <c r="B11" s="87">
+        <v>8</v>
+      </c>
+      <c r="C11" s="87" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="91">
-        <v>7</v>
-      </c>
-      <c r="C10" s="91" t="s">
+    <row r="12" spans="2:4">
+      <c r="B12" s="87">
+        <v>9</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="87">
+        <v>10</v>
+      </c>
+      <c r="C13" s="87" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="91">
-        <v>8</v>
-      </c>
-      <c r="C11" s="91" t="s">
+    <row r="14" spans="2:4">
+      <c r="B14" s="87">
+        <v>11</v>
+      </c>
+      <c r="C14" s="87" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="91">
-        <v>9</v>
-      </c>
-      <c r="C12" s="91" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="91">
-        <v>10</v>
-      </c>
-      <c r="C13" s="91" t="s">
+    <row r="15" spans="2:4">
+      <c r="B15" s="87">
+        <v>12</v>
+      </c>
+      <c r="C15" s="87" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="91">
-        <v>11</v>
-      </c>
-      <c r="C14" s="91" t="s">
+    <row r="16" spans="2:4">
+      <c r="B16" s="87">
+        <v>13</v>
+      </c>
+      <c r="C16" s="87" t="s">
         <v>806</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="91">
-        <v>12</v>
-      </c>
-      <c r="C15" s="91" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="91">
-        <v>13</v>
-      </c>
-      <c r="C16" s="91" t="s">
-        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -5421,14 +5791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E50D85-45BE-43BD-8EEE-DE4DF7191B60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.6640625" style="1"/>
@@ -5438,14 +5808,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="47" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>743</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="A1" s="105" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -5468,7 +5838,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="104" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -5488,7 +5858,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -5506,7 +5876,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="104" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5526,7 +5896,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="110"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -5544,7 +5914,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="17"/>
@@ -5558,7 +5928,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" customHeight="1">
-      <c r="A8" s="111"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -5575,8 +5945,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75">
-      <c r="A9" s="107"/>
+    <row r="9" spans="1:6" ht="76.5">
+      <c r="A9" s="103"/>
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
@@ -5594,7 +5964,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="104" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -5613,8 +5983,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25">
-      <c r="A11" s="110"/>
+    <row r="11" spans="1:6" ht="38.25">
+      <c r="A11" s="106"/>
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
@@ -5632,7 +6002,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="104" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -5651,8 +6021,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="37.5">
-      <c r="A13" s="108"/>
+    <row r="13" spans="1:6" ht="38.25">
+      <c r="A13" s="104"/>
       <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
@@ -5670,7 +6040,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="104" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -5689,8 +6059,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="108"/>
+    <row r="15" spans="1:6" ht="25.5">
+      <c r="A15" s="104"/>
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
@@ -5789,8 +6159,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.5" customHeight="1">
-      <c r="A20" s="108" t="s">
+    <row r="20" spans="1:12" ht="17.55" customHeight="1">
+      <c r="A20" s="104" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="6"/>
@@ -5807,8 +6177,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.5" customHeight="1">
-      <c r="A21" s="108"/>
+    <row r="21" spans="1:12" ht="17.55" customHeight="1">
+      <c r="A21" s="104"/>
       <c r="B21" s="17" t="s">
         <v>4</v>
       </c>
@@ -5826,7 +6196,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="108"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="6" t="s">
         <v>4</v>
       </c>
@@ -5844,7 +6214,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="108"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
@@ -5862,7 +6232,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="108"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
@@ -5879,8 +6249,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17.5" customHeight="1">
-      <c r="A25" s="108" t="s">
+    <row r="25" spans="1:12" ht="17.55" customHeight="1">
+      <c r="A25" s="104" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="17"/>
@@ -5897,8 +6267,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="25">
-      <c r="A26" s="108"/>
+    <row r="26" spans="1:12" ht="25.5">
+      <c r="A26" s="104"/>
       <c r="B26" s="17" t="s">
         <v>4</v>
       </c>
@@ -5915,8 +6285,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="108"/>
+    <row r="27" spans="1:12" ht="25.5">
+      <c r="A27" s="104"/>
       <c r="B27" s="17" t="s">
         <v>4</v>
       </c>
@@ -5933,8 +6303,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="108"/>
+    <row r="28" spans="1:12" ht="25.5">
+      <c r="A28" s="104"/>
       <c r="B28" s="17" t="s">
         <v>4</v>
       </c>
@@ -5952,7 +6322,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="108" t="s">
+      <c r="A29" s="104" t="s">
         <v>77</v>
       </c>
       <c r="B29" s="6"/>
@@ -5970,7 +6340,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="108"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="6" t="s">
         <v>4</v>
       </c>
@@ -5988,7 +6358,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="108"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
@@ -6006,7 +6376,7 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="108"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="6" t="s">
         <v>4</v>
       </c>
@@ -6024,7 +6394,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="106" t="s">
+      <c r="A33" s="102" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="10"/>
@@ -6042,7 +6412,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="107"/>
+      <c r="A34" s="103"/>
       <c r="B34" s="10" t="s">
         <v>18</v>
       </c>
@@ -6060,7 +6430,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="102" t="s">
         <v>79</v>
       </c>
       <c r="B35" s="16"/>
@@ -6078,7 +6448,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="107"/>
+      <c r="A36" s="103"/>
       <c r="B36" s="16" t="s">
         <v>4</v>
       </c>
@@ -6117,28 +6487,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920B052D-1130-4579-8DCD-D18586615F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.5" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>744</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="A1" s="105" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -6161,7 +6531,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="104" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -6181,7 +6551,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="18" t="s">
         <v>82</v>
       </c>
@@ -6199,7 +6569,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="104" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -6219,7 +6589,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="110"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="18" t="s">
         <v>110</v>
       </c>
@@ -6237,7 +6607,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="104" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="18"/>
@@ -6251,7 +6621,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="108"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="21" t="s">
         <v>4</v>
       </c>
@@ -6268,8 +6638,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="56.5" customHeight="1">
-      <c r="A9" s="108"/>
+    <row r="9" spans="1:6" ht="56.55" customHeight="1">
+      <c r="A9" s="104"/>
       <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
@@ -6287,7 +6657,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="104" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="18"/>
@@ -6301,7 +6671,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="108"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="18" t="s">
         <v>4</v>
       </c>
@@ -6319,7 +6689,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="108" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="18"/>
@@ -6333,7 +6703,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="113"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="18" t="s">
         <v>4</v>
       </c>
@@ -6351,7 +6721,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="113"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
@@ -6369,7 +6739,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="113"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="18" t="s">
         <v>4</v>
       </c>
@@ -6387,7 +6757,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="113"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="18" t="s">
         <v>4</v>
       </c>
@@ -6405,7 +6775,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="113"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="18" t="s">
         <v>4</v>
       </c>
@@ -6423,7 +6793,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="108" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="18"/>
@@ -6437,7 +6807,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="113"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="18" t="s">
         <v>4</v>
       </c>
@@ -6455,7 +6825,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="113"/>
+      <c r="A20" s="109"/>
       <c r="B20" s="18" t="s">
         <v>4</v>
       </c>
@@ -6473,7 +6843,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="113"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="18" t="s">
         <v>4</v>
       </c>
@@ -6491,7 +6861,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="113"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="18" t="s">
         <v>4</v>
       </c>
@@ -6524,28 +6894,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A8365A-66C7-4E96-8C24-5C7B8139E778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42.5" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>748</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="A1" s="105" t="s">
+        <v>746</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -6568,7 +6938,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="104" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -6588,7 +6958,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
@@ -6606,7 +6976,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -6624,7 +6994,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="110"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
@@ -6642,7 +7012,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="104" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -6661,8 +7031,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="25">
-      <c r="A8" s="108"/>
+    <row r="8" spans="1:6" ht="38.25">
+      <c r="A8" s="104"/>
       <c r="B8" s="21" t="s">
         <v>4</v>
       </c>
@@ -6679,8 +7049,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="25">
-      <c r="A9" s="108"/>
+    <row r="9" spans="1:6" ht="38.25">
+      <c r="A9" s="104"/>
       <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
@@ -6697,8 +7067,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:6" ht="25.5">
+      <c r="A10" s="106"/>
       <c r="B10" s="21" t="s">
         <v>110</v>
       </c>
@@ -6716,7 +7086,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="104" t="s">
         <v>126</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -6736,7 +7106,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="108"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="21" t="s">
         <v>4</v>
       </c>
@@ -6754,7 +7124,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="110"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="21" t="s">
         <v>110</v>
       </c>
@@ -6792,7 +7162,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="104" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -6811,8 +7181,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="25">
-      <c r="A16" s="108"/>
+    <row r="16" spans="1:6" ht="25.5">
+      <c r="A16" s="104"/>
       <c r="B16" s="21" t="s">
         <v>136</v>
       </c>
@@ -6830,7 +7200,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="104" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -6849,8 +7219,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="37.5">
-      <c r="A18" s="108"/>
+    <row r="18" spans="1:6" ht="38.25">
+      <c r="A18" s="104"/>
       <c r="B18" s="21" t="s">
         <v>141</v>
       </c>
@@ -6868,7 +7238,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="104" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -6888,7 +7258,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="108"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="21" t="s">
         <v>145</v>
       </c>
@@ -6905,8 +7275,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13" customHeight="1">
-      <c r="A21" s="108" t="s">
+    <row r="21" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A21" s="104" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -6925,8 +7295,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="108"/>
+    <row r="22" spans="1:6" ht="25.5">
+      <c r="A22" s="104"/>
       <c r="B22" s="21" t="s">
         <v>148</v>
       </c>
@@ -6943,8 +7313,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13" customHeight="1">
-      <c r="A23" s="108" t="s">
+    <row r="23" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A23" s="104" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -6964,7 +7334,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="108"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="21" t="s">
         <v>149</v>
       </c>
@@ -6981,8 +7351,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13" customHeight="1">
-      <c r="A25" s="108" t="s">
+    <row r="25" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A25" s="104" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -7002,7 +7372,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="108"/>
+      <c r="A26" s="104"/>
       <c r="B26" s="21" t="s">
         <v>153</v>
       </c>
@@ -7039,31 +7409,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F97639-5499-4CB8-8C37-9AB97DD5CB65}">
-  <dimension ref="A1:G142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
     <col min="2" max="2" width="8.6640625" style="24"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="1"/>
     <col min="6" max="6" width="63.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.4140625" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" customWidth="1"/>
+    <col min="8" max="8" width="34.9296875" style="183" customWidth="1"/>
+    <col min="9" max="9" width="15.9296875" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.5" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>745</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+    <row r="1" spans="1:7" ht="50.55" customHeight="1">
+      <c r="A1" s="105" t="s">
+        <v>743</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="25" t="s">
@@ -7086,7 +7459,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="104" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -7104,12 +7477,12 @@
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="122" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="108"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="23" t="s">
         <v>163</v>
       </c>
@@ -7125,10 +7498,10 @@
       <c r="F4" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="116"/>
+      <c r="G4" s="119"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="108"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
@@ -7144,10 +7517,10 @@
       <c r="F5" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="G5" s="116"/>
+      <c r="G5" s="119"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="110"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="23" t="s">
         <v>27</v>
       </c>
@@ -7163,10 +7536,10 @@
       <c r="F6" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="G6" s="117"/>
+      <c r="G6" s="120"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="104" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -7184,12 +7557,12 @@
       <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="115" t="s">
+      <c r="G7" s="122" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
-      <c r="A8" s="108"/>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="104"/>
       <c r="B8" s="23" t="s">
         <v>110</v>
       </c>
@@ -7205,10 +7578,10 @@
       <c r="F8" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="116"/>
+      <c r="G8" s="119"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="108"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="23" t="s">
         <v>168</v>
       </c>
@@ -7224,10 +7597,10 @@
       <c r="F9" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="116"/>
+      <c r="G9" s="119"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="110"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="23" t="s">
         <v>169</v>
       </c>
@@ -7243,10 +7616,10 @@
       <c r="F10" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="117"/>
+      <c r="G10" s="120"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="104" t="s">
         <v>126</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -7264,12 +7637,12 @@
       <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="128" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="108"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="23" t="s">
         <v>183</v>
       </c>
@@ -7285,10 +7658,10 @@
       <c r="F12" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="G12" s="120"/>
+      <c r="G12" s="129"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="108"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="23" t="s">
         <v>184</v>
       </c>
@@ -7304,10 +7677,10 @@
       <c r="F13" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="G13" s="120"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.5">
-      <c r="A14" s="110"/>
+      <c r="G13" s="129"/>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="106"/>
       <c r="B14" s="23" t="s">
         <v>110</v>
       </c>
@@ -7323,10 +7696,10 @@
       <c r="F14" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="121"/>
+      <c r="G14" s="130"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="104" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -7344,12 +7717,12 @@
       <c r="F15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="119" t="s">
+      <c r="G15" s="128" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="108"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="23" t="s">
         <v>4</v>
       </c>
@@ -7365,10 +7738,10 @@
       <c r="F16" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="G16" s="120"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.5">
-      <c r="A17" s="108"/>
+      <c r="G16" s="129"/>
+    </row>
+    <row r="17" spans="1:7" ht="15">
+      <c r="A17" s="104"/>
       <c r="B17" s="23" t="s">
         <v>110</v>
       </c>
@@ -7384,10 +7757,10 @@
       <c r="F17" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G17" s="120"/>
+      <c r="G17" s="129"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="108"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="23" t="s">
         <v>4</v>
       </c>
@@ -7403,10 +7776,10 @@
       <c r="F18" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="G18" s="120"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.5">
-      <c r="A19" s="110"/>
+      <c r="G18" s="129"/>
+    </row>
+    <row r="19" spans="1:7" ht="15">
+      <c r="A19" s="106"/>
       <c r="B19" s="23" t="s">
         <v>110</v>
       </c>
@@ -7422,10 +7795,10 @@
       <c r="F19" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G19" s="121"/>
+      <c r="G19" s="130"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="104" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -7443,12 +7816,12 @@
       <c r="F20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="119" t="s">
+      <c r="G20" s="128" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="108"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="23" t="s">
         <v>110</v>
       </c>
@@ -7464,10 +7837,10 @@
       <c r="F21" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="G21" s="120"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.5">
-      <c r="A22" s="108"/>
+      <c r="G21" s="129"/>
+    </row>
+    <row r="22" spans="1:7" ht="15">
+      <c r="A22" s="104"/>
       <c r="B22" s="23" t="s">
         <v>4</v>
       </c>
@@ -7475,7 +7848,7 @@
         <v>28</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>38</v>
@@ -7483,10 +7856,10 @@
       <c r="F22" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="121"/>
+      <c r="G22" s="130"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="104" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -7504,12 +7877,12 @@
       <c r="F23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="118" t="s">
+      <c r="G23" s="127" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.5">
-      <c r="A24" s="108"/>
+    <row r="24" spans="1:7" ht="15">
+      <c r="A24" s="104"/>
       <c r="B24" s="32" t="s">
         <v>218</v>
       </c>
@@ -7525,10 +7898,10 @@
       <c r="F24" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="G24" s="118"/>
+      <c r="G24" s="127"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="108"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="32" t="s">
         <v>218</v>
       </c>
@@ -7544,10 +7917,10 @@
       <c r="F25" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="G25" s="118"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.5">
-      <c r="A26" s="108"/>
+      <c r="G25" s="127"/>
+    </row>
+    <row r="26" spans="1:7" ht="15">
+      <c r="A26" s="104"/>
       <c r="B26" s="32" t="s">
         <v>219</v>
       </c>
@@ -7563,10 +7936,10 @@
       <c r="F26" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="G26" s="118"/>
+      <c r="G26" s="127"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="108"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="32" t="s">
         <v>218</v>
       </c>
@@ -7582,10 +7955,10 @@
       <c r="F27" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="G27" s="118"/>
+      <c r="G27" s="127"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="108"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="32" t="s">
         <v>220</v>
       </c>
@@ -7601,10 +7974,10 @@
       <c r="F28" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G28" s="118"/>
+      <c r="G28" s="127"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="108"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="32" t="s">
         <v>218</v>
       </c>
@@ -7620,10 +7993,10 @@
       <c r="F29" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="G29" s="118"/>
+      <c r="G29" s="127"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="108"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="32" t="s">
         <v>220</v>
       </c>
@@ -7639,10 +8012,10 @@
       <c r="F30" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="G30" s="118"/>
+      <c r="G30" s="127"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="108"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="32" t="s">
         <v>221</v>
       </c>
@@ -7658,10 +8031,10 @@
       <c r="F31" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="G31" s="118"/>
+      <c r="G31" s="127"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="108"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="32" t="s">
         <v>218</v>
       </c>
@@ -7677,10 +8050,10 @@
       <c r="F32" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="G32" s="118"/>
+      <c r="G32" s="127"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="114" t="s">
+      <c r="A33" s="121" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="23" t="s">
@@ -7698,10 +8071,10 @@
       <c r="F33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="118"/>
+      <c r="G33" s="127"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="114"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="23" t="s">
         <v>18</v>
       </c>
@@ -7717,10 +8090,10 @@
       <c r="F34" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="G34" s="118"/>
+      <c r="G34" s="127"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="114"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="32" t="s">
         <v>250</v>
       </c>
@@ -7736,10 +8109,10 @@
       <c r="F35" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="118"/>
+      <c r="G35" s="127"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="114"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="32" t="s">
         <v>219</v>
       </c>
@@ -7755,10 +8128,10 @@
       <c r="F36" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="118"/>
+      <c r="G36" s="127"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="114"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="32" t="s">
         <v>251</v>
       </c>
@@ -7774,10 +8147,10 @@
       <c r="F37" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="G37" s="118"/>
+      <c r="G37" s="127"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="114"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="32" t="s">
         <v>218</v>
       </c>
@@ -7793,10 +8166,10 @@
       <c r="F38" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="G38" s="118"/>
+      <c r="G38" s="127"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="114"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="32" t="s">
         <v>218</v>
       </c>
@@ -7812,10 +8185,10 @@
       <c r="F39" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="G39" s="118"/>
+      <c r="G39" s="127"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="114"/>
+      <c r="A40" s="121"/>
       <c r="B40" s="32" t="s">
         <v>218</v>
       </c>
@@ -7831,10 +8204,10 @@
       <c r="F40" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="G40" s="118"/>
+      <c r="G40" s="127"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="114"/>
+      <c r="A41" s="121"/>
       <c r="B41" s="32" t="s">
         <v>219</v>
       </c>
@@ -7850,10 +8223,10 @@
       <c r="F41" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="G41" s="118"/>
+      <c r="G41" s="127"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="114"/>
+      <c r="A42" s="121"/>
       <c r="B42" s="32" t="s">
         <v>219</v>
       </c>
@@ -7869,10 +8242,10 @@
       <c r="F42" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="G42" s="118"/>
+      <c r="G42" s="127"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="114"/>
+      <c r="A43" s="121"/>
       <c r="B43" s="32" t="s">
         <v>219</v>
       </c>
@@ -7888,10 +8261,10 @@
       <c r="F43" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="G43" s="118"/>
+      <c r="G43" s="127"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="114" t="s">
+      <c r="A44" s="121" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -7909,12 +8282,12 @@
       <c r="F44" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="115" t="s">
+      <c r="G44" s="122" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="114"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="48" t="s">
         <v>218</v>
       </c>
@@ -7930,10 +8303,10 @@
       <c r="F45" s="50" t="s">
         <v>533</v>
       </c>
-      <c r="G45" s="116"/>
+      <c r="G45" s="119"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="114"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="33" t="s">
         <v>218</v>
       </c>
@@ -7949,10 +8322,10 @@
       <c r="F46" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="G46" s="116"/>
+      <c r="G46" s="119"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="114"/>
+      <c r="A47" s="121"/>
       <c r="B47" s="33" t="s">
         <v>219</v>
       </c>
@@ -7968,10 +8341,10 @@
       <c r="F47" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="G47" s="116"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.5">
-      <c r="A48" s="114"/>
+      <c r="G47" s="119"/>
+    </row>
+    <row r="48" spans="1:7" ht="15">
+      <c r="A48" s="121"/>
       <c r="B48" s="34" t="s">
         <v>218</v>
       </c>
@@ -7987,10 +8360,10 @@
       <c r="F48" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="G48" s="116"/>
+      <c r="G48" s="119"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="114"/>
+      <c r="A49" s="121"/>
       <c r="B49" s="33" t="s">
         <v>218</v>
       </c>
@@ -8006,10 +8379,10 @@
       <c r="F49" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="G49" s="116"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.5">
-      <c r="A50" s="114"/>
+      <c r="G49" s="119"/>
+    </row>
+    <row r="50" spans="1:7" ht="15">
+      <c r="A50" s="121"/>
       <c r="B50" s="33" t="s">
         <v>218</v>
       </c>
@@ -8025,10 +8398,10 @@
       <c r="F50" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="G50" s="116"/>
+      <c r="G50" s="119"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="114"/>
+      <c r="A51" s="121"/>
       <c r="B51" s="33" t="s">
         <v>218</v>
       </c>
@@ -8044,10 +8417,10 @@
       <c r="F51" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="G51" s="117"/>
+      <c r="G51" s="120"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="122" t="s">
+      <c r="A52" s="118" t="s">
         <v>22</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -8065,12 +8438,12 @@
       <c r="F52" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="118" t="s">
+      <c r="G52" s="127" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="123"/>
+      <c r="A53" s="125"/>
       <c r="B53" s="35" t="s">
         <v>218</v>
       </c>
@@ -8086,10 +8459,10 @@
       <c r="F53" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="G53" s="118"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.5">
-      <c r="A54" s="123"/>
+      <c r="G53" s="127"/>
+    </row>
+    <row r="54" spans="1:7" ht="15">
+      <c r="A54" s="125"/>
       <c r="B54" s="35" t="s">
         <v>218</v>
       </c>
@@ -8105,10 +8478,10 @@
       <c r="F54" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G54" s="118"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.5">
-      <c r="A55" s="123"/>
+      <c r="G54" s="127"/>
+    </row>
+    <row r="55" spans="1:7" ht="15">
+      <c r="A55" s="125"/>
       <c r="B55" s="35" t="s">
         <v>218</v>
       </c>
@@ -8124,10 +8497,10 @@
       <c r="F55" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="G55" s="118"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.5">
-      <c r="A56" s="123"/>
+      <c r="G55" s="127"/>
+    </row>
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="125"/>
       <c r="B56" s="35" t="s">
         <v>218</v>
       </c>
@@ -8143,10 +8516,10 @@
       <c r="F56" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="G56" s="118"/>
+      <c r="G56" s="127"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="123"/>
+      <c r="A57" s="125"/>
       <c r="B57" s="35" t="s">
         <v>303</v>
       </c>
@@ -8162,10 +8535,10 @@
       <c r="F57" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="G57" s="118"/>
+      <c r="G57" s="127"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="123"/>
+      <c r="A58" s="125"/>
       <c r="B58" s="35" t="s">
         <v>303</v>
       </c>
@@ -8181,10 +8554,10 @@
       <c r="F58" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="G58" s="118"/>
+      <c r="G58" s="127"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="124"/>
+      <c r="A59" s="126"/>
       <c r="B59" s="35" t="s">
         <v>303</v>
       </c>
@@ -8200,10 +8573,10 @@
       <c r="F59" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="G59" s="118"/>
+      <c r="G59" s="127"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="114" t="s">
+      <c r="A60" s="121" t="s">
         <v>23</v>
       </c>
       <c r="B60" s="23" t="s">
@@ -8221,12 +8594,12 @@
       <c r="F60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="115" t="s">
+      <c r="G60" s="122" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="114"/>
+      <c r="A61" s="121"/>
       <c r="B61" s="32" t="s">
         <v>4</v>
       </c>
@@ -8242,10 +8615,10 @@
       <c r="F61" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G61" s="116"/>
+      <c r="G61" s="119"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="114"/>
+      <c r="A62" s="121"/>
       <c r="B62" s="32" t="s">
         <v>4</v>
       </c>
@@ -8261,10 +8634,10 @@
       <c r="F62" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G62" s="117"/>
+      <c r="G62" s="120"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="114" t="s">
+      <c r="A63" s="121" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -8282,12 +8655,12 @@
       <c r="F63" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="118" t="s">
+      <c r="G63" s="127" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="114"/>
+      <c r="A64" s="121"/>
       <c r="B64" s="32" t="s">
         <v>4</v>
       </c>
@@ -8303,10 +8676,10 @@
       <c r="F64" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="G64" s="118"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="114"/>
+      <c r="G64" s="127"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="121"/>
       <c r="B65" s="32" t="s">
         <v>4</v>
       </c>
@@ -8322,10 +8695,10 @@
       <c r="F65" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="G65" s="118"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="114"/>
+      <c r="G65" s="127"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="121"/>
       <c r="B66" s="32" t="s">
         <v>3</v>
       </c>
@@ -8341,10 +8714,10 @@
       <c r="F66" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="G66" s="118"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="114"/>
+      <c r="G66" s="127"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="121"/>
       <c r="B67" s="32" t="s">
         <v>3</v>
       </c>
@@ -8360,111 +8733,122 @@
       <c r="F67" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="G67" s="118"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="114"/>
-      <c r="B68" s="32" t="s">
+      <c r="G67" s="127"/>
+    </row>
+    <row r="68" spans="1:8" s="182" customFormat="1">
+      <c r="A68" s="121"/>
+      <c r="B68" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="E68" s="181" t="s">
         <v>322</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F68" s="180" t="s">
         <v>323</v>
       </c>
-      <c r="G68" s="118"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="114" t="s">
+      <c r="G68" s="127"/>
+      <c r="H68" s="184" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="166" customFormat="1">
+      <c r="A69" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="5" t="s">
+      <c r="B69" s="162" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="163" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="164" t="s">
         <v>536</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="118" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1">
-      <c r="A70" s="114"/>
-      <c r="B70" s="32" t="s">
+      <c r="G69" s="127" t="s">
+        <v>913</v>
+      </c>
+      <c r="H69" s="185"/>
+    </row>
+    <row r="70" spans="1:8" s="166" customFormat="1" ht="15" customHeight="1">
+      <c r="A70" s="161"/>
+      <c r="B70" s="167" t="s">
         <v>544</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="28" t="s">
+      <c r="C70" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="169" t="s">
         <v>537</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="168" t="s">
         <v>502</v>
       </c>
-      <c r="F70" s="28" t="s">
+      <c r="F70" s="169" t="s">
         <v>538</v>
       </c>
-      <c r="G70" s="118"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="114" t="s">
+      <c r="G70" s="127"/>
+      <c r="H70" s="185" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="166" customFormat="1">
+      <c r="A71" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="5" t="s">
+      <c r="B71" s="162" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="163" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="164" t="s">
         <v>536</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="118"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="114"/>
-      <c r="B72" s="32" t="s">
+      <c r="G71" s="127"/>
+      <c r="H71" s="185"/>
+    </row>
+    <row r="72" spans="1:8" s="166" customFormat="1">
+      <c r="A72" s="161"/>
+      <c r="B72" s="167" t="s">
         <v>545</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="28" t="s">
+      <c r="C72" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="169" t="s">
         <v>539</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="168" t="s">
         <v>502</v>
       </c>
-      <c r="F72" s="28" t="s">
+      <c r="F72" s="169" t="s">
         <v>540</v>
       </c>
-      <c r="G72" s="118"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="114" t="s">
+      <c r="G72" s="127"/>
+      <c r="H72" s="185" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="121" t="s">
         <v>79</v>
       </c>
       <c r="B73" s="23" t="s">
@@ -8474,161 +8858,175 @@
         <v>26</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="118"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="114"/>
-      <c r="B74" s="127" t="s">
-        <v>923</v>
-      </c>
-      <c r="C74" s="106" t="s">
+      <c r="G73" s="127"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="121"/>
+      <c r="B74" s="115" t="s">
+        <v>921</v>
+      </c>
+      <c r="C74" s="102" t="s">
+        <v>920</v>
+      </c>
+      <c r="D74" s="110" t="s">
         <v>922</v>
       </c>
-      <c r="D74" s="129" t="s">
-        <v>924</v>
-      </c>
       <c r="E74" s="44" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F74" s="45" t="s">
-        <v>849</v>
-      </c>
-      <c r="G74" s="118"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="114"/>
-      <c r="B75" s="132"/>
-      <c r="C75" s="132"/>
-      <c r="D75" s="130"/>
+        <v>847</v>
+      </c>
+      <c r="G74" s="127"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="121"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="113"/>
+      <c r="D75" s="111"/>
       <c r="E75" s="44" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F75" s="45" t="s">
-        <v>848</v>
-      </c>
-      <c r="G75" s="118"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="114"/>
-      <c r="B76" s="128"/>
-      <c r="C76" s="128"/>
-      <c r="D76" s="131"/>
+        <v>846</v>
+      </c>
+      <c r="G75" s="127"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="121"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="114"/>
+      <c r="D76" s="112"/>
       <c r="E76" s="44" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F76" s="45" t="s">
-        <v>847</v>
-      </c>
-      <c r="G76" s="118"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="114"/>
+        <v>845</v>
+      </c>
+      <c r="G76" s="127"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="121"/>
       <c r="B77" s="23"/>
-      <c r="C77" s="97"/>
+      <c r="C77" s="93"/>
       <c r="E77" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="118"/>
-    </row>
-    <row r="78" spans="1:7" ht="42">
-      <c r="A78" s="114"/>
-      <c r="B78" s="23" t="s">
+      <c r="G77" s="127"/>
+    </row>
+    <row r="78" spans="1:8" s="177" customFormat="1" ht="41.65">
+      <c r="A78" s="121"/>
+      <c r="B78" s="172" t="s">
         <v>218</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" s="91" t="s">
+      <c r="C78" s="173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="174" t="s">
+        <v>588</v>
+      </c>
+      <c r="E78" s="175" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" s="176" t="s">
         <v>590</v>
       </c>
-      <c r="E78" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F78" s="57" t="s">
-        <v>592</v>
-      </c>
-      <c r="G78" s="118"/>
-    </row>
-    <row r="79" spans="1:7" ht="42">
-      <c r="A79" s="114"/>
-      <c r="B79" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>588</v>
-      </c>
-      <c r="E79" s="54" t="s">
+      <c r="G78" s="127"/>
+      <c r="H78" s="186" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="166" customFormat="1" ht="41.65">
+      <c r="A79" s="121"/>
+      <c r="B79" s="167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="169" t="s">
+        <v>586</v>
+      </c>
+      <c r="E79" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="57" t="s">
-        <v>589</v>
-      </c>
-      <c r="G79" s="118"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="114"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="F80" s="12" t="s">
+      <c r="F79" s="171" t="s">
+        <v>587</v>
+      </c>
+      <c r="G79" s="127"/>
+      <c r="H79" s="185" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="166" customFormat="1">
+      <c r="A80" s="121"/>
+      <c r="B80" s="167"/>
+      <c r="C80" s="168"/>
+      <c r="D80" s="169"/>
+      <c r="E80" s="164" t="s">
+        <v>914</v>
+      </c>
+      <c r="F80" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="118"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="114"/>
-      <c r="B81" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" s="28" t="s">
+      <c r="G80" s="127"/>
+      <c r="H80" s="185"/>
+    </row>
+    <row r="81" spans="1:9" s="166" customFormat="1">
+      <c r="A81" s="121"/>
+      <c r="B81" s="167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="169" t="s">
         <v>541</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="F81" s="28" t="s">
-        <v>917</v>
-      </c>
-      <c r="G81" s="118"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="114"/>
-      <c r="B82" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="28" t="s">
+      <c r="F81" s="169" t="s">
+        <v>915</v>
+      </c>
+      <c r="G81" s="127"/>
+      <c r="H81" s="185" t="s">
+        <v>963</v>
+      </c>
+      <c r="I81" s="166" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="166" customFormat="1">
+      <c r="A82" s="121"/>
+      <c r="B82" s="167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="169" t="s">
         <v>542</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="F82" s="28" t="s">
+      <c r="F82" s="169" t="s">
         <v>543</v>
       </c>
-      <c r="G82" s="118"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="114" t="s">
+      <c r="G82" s="127"/>
+      <c r="H82" s="185"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="121" t="s">
         <v>546</v>
       </c>
       <c r="B83" s="23" t="s">
@@ -8641,17 +9039,17 @@
         <v>26</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="118" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="114"/>
+      <c r="G83" s="127" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="121"/>
       <c r="B84" s="23" t="s">
         <v>4</v>
       </c>
@@ -8667,10 +9065,10 @@
       <c r="F84" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="G84" s="118"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="114"/>
+      <c r="G84" s="127"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="121"/>
       <c r="B85" s="32" t="s">
         <v>4</v>
       </c>
@@ -8686,10 +9084,10 @@
       <c r="F85" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="G85" s="118"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="114"/>
+      <c r="G85" s="127"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="121"/>
       <c r="B86" s="32" t="s">
         <v>550</v>
       </c>
@@ -8703,12 +9101,12 @@
         <v>143</v>
       </c>
       <c r="F86" s="28" t="s">
-        <v>593</v>
-      </c>
-      <c r="G86" s="118"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="114" t="s">
+        <v>591</v>
+      </c>
+      <c r="G86" s="127"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="121" t="s">
         <v>554</v>
       </c>
       <c r="B87" s="23" t="s">
@@ -8721,62 +9119,62 @@
         <v>26</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="118" t="s">
+      <c r="G87" s="127" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="114"/>
-      <c r="B88" s="127" t="s">
+    <row r="88" spans="1:9">
+      <c r="A88" s="121"/>
+      <c r="B88" s="115" t="s">
         <v>303</v>
       </c>
-      <c r="C88" s="106" t="s">
-        <v>887</v>
-      </c>
-      <c r="D88" s="106" t="s">
-        <v>888</v>
-      </c>
-      <c r="E88" s="101" t="s">
-        <v>930</v>
-      </c>
-      <c r="F88" s="102" t="s">
-        <v>931</v>
-      </c>
-      <c r="G88" s="118"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="114"/>
-      <c r="B89" s="132"/>
-      <c r="C89" s="132"/>
-      <c r="D89" s="133"/>
-      <c r="E89" s="101" t="s">
-        <v>926</v>
-      </c>
-      <c r="F89" s="102" t="s">
+      <c r="C88" s="102" t="s">
+        <v>885</v>
+      </c>
+      <c r="D88" s="102" t="s">
+        <v>886</v>
+      </c>
+      <c r="E88" s="97" t="s">
+        <v>928</v>
+      </c>
+      <c r="F88" s="98" t="s">
+        <v>929</v>
+      </c>
+      <c r="G88" s="127"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="121"/>
+      <c r="B89" s="113"/>
+      <c r="C89" s="113"/>
+      <c r="D89" s="116"/>
+      <c r="E89" s="97" t="s">
+        <v>924</v>
+      </c>
+      <c r="F89" s="98" t="s">
+        <v>923</v>
+      </c>
+      <c r="G89" s="127"/>
+    </row>
+    <row r="90" spans="1:9" ht="27.75">
+      <c r="A90" s="121"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="114"/>
+      <c r="D90" s="117"/>
+      <c r="E90" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="F90" s="55" t="s">
         <v>925</v>
       </c>
-      <c r="G89" s="118"/>
-    </row>
-    <row r="90" spans="1:7" ht="28">
-      <c r="A90" s="114"/>
-      <c r="B90" s="128"/>
-      <c r="C90" s="128"/>
-      <c r="D90" s="134"/>
-      <c r="E90" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F90" s="57" t="s">
-        <v>927</v>
-      </c>
-      <c r="G90" s="118"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="114"/>
+      <c r="G90" s="127"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="121"/>
       <c r="B91" s="32" t="s">
         <v>4</v>
       </c>
@@ -8792,10 +9190,10 @@
       <c r="F91" s="28" t="s">
         <v>558</v>
       </c>
-      <c r="G91" s="118"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="114"/>
+      <c r="G91" s="127"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="121"/>
       <c r="B92" s="32" t="s">
         <v>4</v>
       </c>
@@ -8811,11 +9209,11 @@
       <c r="F92" s="28" t="s">
         <v>559</v>
       </c>
-      <c r="G92" s="118"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="114" t="s">
-        <v>568</v>
+      <c r="G92" s="127"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="121" t="s">
+        <v>566</v>
       </c>
       <c r="B93" s="23" t="s">
         <v>26</v>
@@ -8827,17 +9225,17 @@
         <v>26</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G93" s="115" t="s">
+      <c r="G93" s="122" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="25">
-      <c r="A94" s="114"/>
+    <row r="94" spans="1:9" ht="25.5">
+      <c r="A94" s="121"/>
       <c r="B94" s="23" t="s">
         <v>110</v>
       </c>
@@ -8845,56 +9243,63 @@
         <v>28</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>929</v>
-      </c>
-      <c r="G94" s="116"/>
-    </row>
-    <row r="95" spans="1:7" ht="75">
-      <c r="A95" s="114"/>
-      <c r="B95" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D95" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="G94" s="119"/>
+    </row>
+    <row r="95" spans="1:9" s="160" customFormat="1" ht="76.5">
+      <c r="A95" s="121"/>
+      <c r="B95" s="155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="157" t="s">
+        <v>563</v>
+      </c>
+      <c r="E95" s="158" t="s">
         <v>564</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="F95" s="159" t="s">
         <v>565</v>
       </c>
-      <c r="F95" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="G95" s="116"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="114"/>
-      <c r="B96" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D96" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F96" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="G96" s="116"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="114"/>
+      <c r="G95" s="119"/>
+      <c r="H95" s="187"/>
+    </row>
+    <row r="96" spans="1:9" s="135" customFormat="1">
+      <c r="A96" s="121"/>
+      <c r="B96" s="131" t="s">
+        <v>933</v>
+      </c>
+      <c r="C96" s="132" t="s">
+        <v>934</v>
+      </c>
+      <c r="D96" s="133" t="s">
+        <v>935</v>
+      </c>
+      <c r="E96" s="134" t="s">
+        <v>936</v>
+      </c>
+      <c r="F96" s="133" t="s">
+        <v>937</v>
+      </c>
+      <c r="G96" s="119"/>
+      <c r="H96" s="188">
+        <v>1</v>
+      </c>
+      <c r="I96" s="135" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="121"/>
       <c r="B97" s="32" t="s">
         <v>4</v>
       </c>
@@ -8908,13 +9313,13 @@
         <v>38</v>
       </c>
       <c r="F97" s="28" t="s">
-        <v>878</v>
-      </c>
-      <c r="G97" s="116"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="114" t="s">
-        <v>572</v>
+        <v>876</v>
+      </c>
+      <c r="G97" s="119"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="121" t="s">
+        <v>570</v>
       </c>
       <c r="B98" s="23" t="s">
         <v>26</v>
@@ -8926,75 +9331,84 @@
         <v>26</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G98" s="116"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="114"/>
+      <c r="G98" s="119"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="121"/>
       <c r="B99" s="23" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C99" s="46" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="E99" s="47" t="s">
+        <v>577</v>
+      </c>
+      <c r="F99" s="53" t="s">
+        <v>568</v>
+      </c>
+      <c r="G99" s="119"/>
+      <c r="H99" s="183" t="s">
+        <v>955</v>
+      </c>
+      <c r="I99" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="121" t="s">
+        <v>789</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="E99" s="47" t="s">
-        <v>579</v>
-      </c>
-      <c r="F99" s="53" t="s">
-        <v>570</v>
-      </c>
-      <c r="G99" s="116"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="114" t="s">
-        <v>791</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>571</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G100" s="116"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="114"/>
+      <c r="G100" s="119"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="121"/>
       <c r="B101" s="23" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C101" s="46" t="s">
         <v>28</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E101" s="47" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F101" s="53" t="s">
-        <v>574</v>
-      </c>
-      <c r="G101" s="116"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="114" t="s">
-        <v>582</v>
+        <v>572</v>
+      </c>
+      <c r="G101" s="119"/>
+      <c r="H101" s="183" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="121" t="s">
+        <v>580</v>
       </c>
       <c r="B102" s="23" t="s">
         <v>26</v>
@@ -9006,125 +9420,138 @@
         <v>26</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G102" s="116"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="114"/>
-      <c r="B103" s="95"/>
-      <c r="C103" s="92" t="s">
+      <c r="G102" s="119"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="121"/>
+      <c r="B103" s="91"/>
+      <c r="C103" s="88" t="s">
+        <v>759</v>
+      </c>
+      <c r="D103" s="90" t="s">
+        <v>760</v>
+      </c>
+      <c r="E103" s="44" t="s">
+        <v>881</v>
+      </c>
+      <c r="F103" s="45" t="s">
         <v>761</v>
       </c>
-      <c r="D103" s="94" t="s">
-        <v>762</v>
-      </c>
-      <c r="E103" s="44" t="s">
-        <v>883</v>
-      </c>
-      <c r="F103" s="45" t="s">
-        <v>763</v>
-      </c>
-      <c r="G103" s="116"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="114"/>
-      <c r="B104" s="95"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="94"/>
+      <c r="G103" s="119"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="121"/>
+      <c r="B104" s="91"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="90"/>
       <c r="E104" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G104" s="116"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="114"/>
-      <c r="B105" s="95" t="s">
+      <c r="G104" s="119"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="121"/>
+      <c r="B105" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="C105" s="92" t="s">
+      <c r="C105" s="88" t="s">
         <v>534</v>
       </c>
-      <c r="D105" s="94" t="s">
-        <v>759</v>
+      <c r="D105" s="90" t="s">
+        <v>757</v>
       </c>
       <c r="E105" s="44" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F105" s="45" t="s">
-        <v>879</v>
-      </c>
-      <c r="G105" s="116"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="114"/>
+        <v>877</v>
+      </c>
+      <c r="G105" s="119"/>
+      <c r="H105" s="183" t="s">
+        <v>960</v>
+      </c>
+      <c r="I105" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="121"/>
       <c r="B106" s="23" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C106" s="46" t="s">
         <v>28</v>
       </c>
       <c r="D106" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="E106" s="47" t="s">
+        <v>578</v>
+      </c>
+      <c r="F106" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="G106" s="119"/>
+      <c r="H106" s="183" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="151" customFormat="1">
+      <c r="A107" s="146" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107" s="147" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="148" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="148" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="149" t="s">
+        <v>581</v>
+      </c>
+      <c r="F107" s="150" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" s="119"/>
+      <c r="H107" s="189"/>
+    </row>
+    <row r="108" spans="1:9" s="151" customFormat="1">
+      <c r="A108" s="146"/>
+      <c r="B108" s="147" t="s">
+        <v>884</v>
+      </c>
+      <c r="C108" s="148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="152" t="s">
+        <v>562</v>
+      </c>
+      <c r="E108" s="153" t="s">
+        <v>579</v>
+      </c>
+      <c r="F108" s="154" t="s">
         <v>576</v>
       </c>
-      <c r="E106" s="47" t="s">
-        <v>580</v>
-      </c>
-      <c r="F106" s="53" t="s">
-        <v>577</v>
-      </c>
-      <c r="G106" s="116"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="114" t="s">
-        <v>183</v>
-      </c>
-      <c r="B107" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C107" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D107" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E107" s="5" t="s">
+      <c r="G108" s="120"/>
+      <c r="H108" s="189" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="121" t="s">
         <v>583</v>
       </c>
-      <c r="F107" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" s="116"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="114"/>
-      <c r="B108" s="23" t="s">
-        <v>886</v>
-      </c>
-      <c r="C108" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="E108" s="47" t="s">
-        <v>581</v>
-      </c>
-      <c r="F108" s="53" t="s">
-        <v>578</v>
-      </c>
-      <c r="G108" s="117"/>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="114" t="s">
-        <v>585</v>
-      </c>
       <c r="B109" s="23" t="s">
         <v>26</v>
       </c>
@@ -9135,155 +9562,173 @@
         <v>26</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G109" s="115" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="114"/>
-      <c r="B110" s="127" t="s">
+      <c r="G109" s="122" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="121"/>
+      <c r="B110" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="C110" s="102" t="s">
+        <v>755</v>
+      </c>
+      <c r="D110" s="123" t="s">
+        <v>762</v>
+      </c>
+      <c r="E110" s="44" t="s">
+        <v>753</v>
+      </c>
+      <c r="F110" s="45" t="s">
         <v>756</v>
       </c>
-      <c r="C110" s="106" t="s">
-        <v>757</v>
-      </c>
-      <c r="D110" s="125" t="s">
+      <c r="G110" s="119"/>
+    </row>
+    <row r="111" spans="1:9" ht="55.5">
+      <c r="A111" s="121"/>
+      <c r="B111" s="114"/>
+      <c r="C111" s="114"/>
+      <c r="D111" s="124"/>
+      <c r="E111" s="59" t="s">
+        <v>752</v>
+      </c>
+      <c r="F111" s="54" t="s">
+        <v>585</v>
+      </c>
+      <c r="G111" s="119"/>
+    </row>
+    <row r="112" spans="1:9" ht="41.65">
+      <c r="A112" s="121"/>
+      <c r="B112" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="E112" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="F112" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="G112" s="119"/>
+    </row>
+    <row r="113" spans="1:10" s="143" customFormat="1">
+      <c r="A113" s="136" t="s">
         <v>764</v>
       </c>
-      <c r="E110" s="44" t="s">
-        <v>755</v>
-      </c>
-      <c r="F110" s="45" t="s">
+      <c r="B113" s="137"/>
+      <c r="C113" s="138" t="s">
+        <v>759</v>
+      </c>
+      <c r="D113" s="139" t="s">
+        <v>774</v>
+      </c>
+      <c r="E113" s="140" t="s">
+        <v>775</v>
+      </c>
+      <c r="F113" s="141" t="s">
+        <v>776</v>
+      </c>
+      <c r="G113" s="142" t="s">
+        <v>889</v>
+      </c>
+      <c r="H113" s="190" t="s">
+        <v>942</v>
+      </c>
+      <c r="I113" s="143" t="s">
+        <v>943</v>
+      </c>
+      <c r="J113" s="143" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="143" customFormat="1">
+      <c r="A114" s="144"/>
+      <c r="B114" s="137" t="s">
         <v>758</v>
       </c>
-      <c r="G110" s="116"/>
-    </row>
-    <row r="111" spans="1:7" ht="56">
-      <c r="A111" s="114"/>
-      <c r="B111" s="128"/>
-      <c r="C111" s="128"/>
-      <c r="D111" s="126"/>
-      <c r="E111" s="61" t="s">
-        <v>754</v>
-      </c>
-      <c r="F111" s="55" t="s">
-        <v>587</v>
-      </c>
-      <c r="G111" s="116"/>
-    </row>
-    <row r="112" spans="1:7" ht="42">
-      <c r="A112" s="114"/>
-      <c r="B112" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" s="7" t="s">
+      <c r="C114" s="138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="139" t="s">
+        <v>771</v>
+      </c>
+      <c r="E114" s="140" t="s">
+        <v>772</v>
+      </c>
+      <c r="F114" s="141" t="s">
+        <v>773</v>
+      </c>
+      <c r="G114" s="144"/>
+      <c r="H114" s="190" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="143" customFormat="1">
+      <c r="A115" s="144"/>
+      <c r="B115" s="137" t="s">
+        <v>758</v>
+      </c>
+      <c r="C115" s="138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="E115" s="140" t="s">
+        <v>769</v>
+      </c>
+      <c r="F115" s="141" t="s">
+        <v>770</v>
+      </c>
+      <c r="G115" s="144"/>
+      <c r="H115" s="190" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="143" customFormat="1">
+      <c r="A116" s="145"/>
+      <c r="B116" s="137" t="s">
+        <v>758</v>
+      </c>
+      <c r="C116" s="138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="139" t="s">
+        <v>766</v>
+      </c>
+      <c r="E116" s="140" t="s">
         <v>765</v>
       </c>
-      <c r="E112" s="52" t="s">
-        <v>586</v>
-      </c>
-      <c r="F112" s="55" t="s">
-        <v>796</v>
-      </c>
-      <c r="G112" s="116"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="122" t="s">
-        <v>766</v>
-      </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="84" t="s">
-        <v>761</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="E113" s="85" t="s">
-        <v>777</v>
-      </c>
-      <c r="F113" s="55" t="s">
-        <v>778</v>
-      </c>
-      <c r="G113" s="115" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="116"/>
-      <c r="B114" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="C114" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>773</v>
-      </c>
-      <c r="E114" s="85" t="s">
-        <v>774</v>
-      </c>
-      <c r="F114" s="55" t="s">
-        <v>775</v>
-      </c>
-      <c r="G114" s="116"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="116"/>
-      <c r="B115" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="C115" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="E115" s="85" t="s">
-        <v>771</v>
-      </c>
-      <c r="F115" s="55" t="s">
-        <v>772</v>
-      </c>
-      <c r="G115" s="116"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="117"/>
-      <c r="B116" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="C116" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="E116" s="85" t="s">
+      <c r="F116" s="141" t="s">
         <v>767</v>
       </c>
-      <c r="F116" s="55" t="s">
-        <v>769</v>
-      </c>
-      <c r="G116" s="117"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="114" t="s">
-        <v>602</v>
+      <c r="G116" s="145"/>
+      <c r="H116" s="190" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="121" t="s">
+        <v>600</v>
       </c>
       <c r="B117" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C117" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D117" s="58" t="s">
+      <c r="C117" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="56" t="s">
         <v>26</v>
       </c>
       <c r="E117" s="5" t="s">
@@ -9292,12 +9737,12 @@
       <c r="F117" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="118" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="114"/>
+      <c r="G117" s="127" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="121"/>
       <c r="B118" s="32" t="s">
         <v>110</v>
       </c>
@@ -9305,18 +9750,18 @@
         <v>28</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F118" s="28" t="s">
-        <v>599</v>
-      </c>
-      <c r="G118" s="118"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="114"/>
+        <v>597</v>
+      </c>
+      <c r="G118" s="127"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="121"/>
       <c r="B119" s="32" t="s">
         <v>550</v>
       </c>
@@ -9324,482 +9769,479 @@
         <v>28</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F119" s="28" t="s">
-        <v>600</v>
-      </c>
-      <c r="G119" s="118"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="114" t="s">
-        <v>603</v>
+        <v>598</v>
+      </c>
+      <c r="G119" s="127"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="121" t="s">
+        <v>601</v>
       </c>
       <c r="B120" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C120" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D120" s="59" t="s">
+      <c r="C120" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="57" t="s">
         <v>26</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G120" s="115" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="114"/>
+      <c r="G120" s="122" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="121"/>
       <c r="B121" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="F121" s="28" t="s">
         <v>609</v>
       </c>
-      <c r="C121" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D121" s="28" t="s">
+      <c r="G121" s="119"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="121"/>
+      <c r="B122" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="28" t="s">
         <v>610</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="F121" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="G121" s="116"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="114"/>
-      <c r="B122" s="32" t="s">
-        <v>609</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122" s="28" t="s">
-        <v>612</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>225</v>
       </c>
       <c r="F122" s="28" t="s">
+        <v>611</v>
+      </c>
+      <c r="G122" s="119"/>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="121"/>
+      <c r="B123" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="F123" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="G122" s="116"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="114"/>
-      <c r="B123" s="32" t="s">
+      <c r="G123" s="119"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="121"/>
+      <c r="B124" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" s="28" t="s">
+      <c r="C124" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="28" t="s">
         <v>614</v>
       </c>
-      <c r="E123" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="F123" s="28" t="s">
+      <c r="E124" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="F124" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="G124" s="119"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="121"/>
+      <c r="B125" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="F125" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="G125" s="119"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="121"/>
+      <c r="B126" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="F126" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="G126" s="119"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="121"/>
+      <c r="B127" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="F127" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="G127" s="119"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="121"/>
+      <c r="B128" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="E128" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="G123" s="116"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="114"/>
-      <c r="B124" s="32" t="s">
-        <v>608</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D124" s="28" t="s">
-        <v>616</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="F124" s="28" t="s">
-        <v>618</v>
-      </c>
-      <c r="G124" s="116"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="114"/>
-      <c r="B125" s="32" t="s">
-        <v>607</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F125" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="G125" s="116"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="114"/>
-      <c r="B126" s="32" t="s">
-        <v>607</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D126" s="28" t="s">
-        <v>621</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="F126" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="G126" s="116"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="114"/>
-      <c r="B127" s="32" t="s">
-        <v>606</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D127" s="28" t="s">
-        <v>623</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F127" s="28" t="s">
+      <c r="F128" s="28" t="s">
         <v>624</v>
       </c>
-      <c r="G127" s="116"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="114"/>
-      <c r="B128" s="32" t="s">
-        <v>605</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D128" s="28" t="s">
-        <v>625</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="F128" s="28" t="s">
-        <v>626</v>
-      </c>
-      <c r="G128" s="117"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="114" t="s">
-        <v>892</v>
+      <c r="G128" s="120"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="121" t="s">
+        <v>890</v>
       </c>
       <c r="B129" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C129" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="D129" s="93" t="s">
+      <c r="C129" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" s="89" t="s">
         <v>26</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G129" s="115" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="114"/>
+      <c r="G129" s="122" t="s">
+        <v>911</v>
+      </c>
+      <c r="H129" s="191"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="121"/>
       <c r="B130" s="32"/>
       <c r="C130" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D130" s="28" t="s">
+        <v>891</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="F130" s="28" t="s">
+        <v>896</v>
+      </c>
+      <c r="G130" s="119"/>
+      <c r="H130" s="191" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="121" t="s">
         <v>893</v>
       </c>
-      <c r="E130" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="F130" s="28" t="s">
-        <v>898</v>
-      </c>
-      <c r="G130" s="116"/>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="114" t="s">
-        <v>895</v>
-      </c>
       <c r="B131" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="D131" s="93" t="s">
+      <c r="C131" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" s="89" t="s">
         <v>26</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G131" s="116"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="114"/>
+      <c r="G131" s="119"/>
+      <c r="H131" s="191"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="121"/>
       <c r="B132" s="32"/>
       <c r="C132" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F132" s="28" t="s">
-        <v>897</v>
-      </c>
-      <c r="G132" s="116"/>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="114" t="s">
-        <v>901</v>
+        <v>895</v>
+      </c>
+      <c r="G132" s="119"/>
+      <c r="H132" s="191" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="121" t="s">
+        <v>899</v>
       </c>
       <c r="B133" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C133" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="D133" s="93" t="s">
+      <c r="C133" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="89" t="s">
         <v>26</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G133" s="116"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="114"/>
+      <c r="G133" s="119"/>
+      <c r="H133" s="191"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="121"/>
       <c r="B134" s="32"/>
       <c r="C134" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F134" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="G134" s="119"/>
+      <c r="H134" s="192" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="121" t="s">
         <v>900</v>
       </c>
-      <c r="G134" s="116"/>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="114" t="s">
-        <v>902</v>
-      </c>
       <c r="B135" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C135" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="D135" s="93" t="s">
+      <c r="C135" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="89" t="s">
         <v>26</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F135" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G135" s="116"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="114"/>
+      <c r="G135" s="119"/>
+      <c r="H135" s="192"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="121"/>
       <c r="B136" s="23"/>
       <c r="C136" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D136" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="F136" s="28" t="s">
         <v>905</v>
       </c>
-      <c r="E136" s="9" t="s">
-        <v>906</v>
-      </c>
-      <c r="F136" s="28" t="s">
-        <v>907</v>
-      </c>
-      <c r="G136" s="116"/>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="114"/>
+      <c r="G136" s="119"/>
+      <c r="H136" s="192" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="121"/>
       <c r="B137" s="23"/>
-      <c r="C137" s="93"/>
-      <c r="D137" s="93"/>
+      <c r="C137" s="89"/>
+      <c r="D137" s="89"/>
       <c r="E137" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G137" s="116"/>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="114"/>
+      <c r="G137" s="119"/>
+      <c r="H137" s="192"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="121"/>
       <c r="B138" s="32"/>
       <c r="C138" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F138" s="28" t="s">
-        <v>904</v>
-      </c>
-      <c r="G138" s="116"/>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="114" t="s">
-        <v>908</v>
+        <v>902</v>
+      </c>
+      <c r="G138" s="119"/>
+      <c r="H138" s="192" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="121" t="s">
+        <v>906</v>
       </c>
       <c r="B139" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C139" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="D139" s="93" t="s">
+      <c r="C139" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="89" t="s">
         <v>26</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F139" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G139" s="116"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="114"/>
+      <c r="G139" s="119"/>
+      <c r="H139" s="192"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="121"/>
       <c r="B140" s="23"/>
       <c r="C140" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F140" s="28" t="s">
-        <v>911</v>
-      </c>
-      <c r="G140" s="116"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="114"/>
+        <v>909</v>
+      </c>
+      <c r="G140" s="119"/>
+      <c r="H140" s="192" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="121"/>
       <c r="B141" s="23"/>
-      <c r="C141" s="93"/>
-      <c r="D141" s="93"/>
+      <c r="C141" s="89"/>
+      <c r="D141" s="89"/>
       <c r="E141" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F141" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G141" s="116"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="114"/>
+      <c r="G141" s="119"/>
+      <c r="H141" s="192"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="121"/>
       <c r="B142" s="32"/>
       <c r="C142" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F142" s="28" t="s">
-        <v>912</v>
-      </c>
-      <c r="G142" s="117"/>
+        <v>910</v>
+      </c>
+      <c r="G142" s="120"/>
+      <c r="H142" s="192" t="s">
+        <v>950</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="G93:G108"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="G113:G116"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="G129:G142"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A134"/>
     <mergeCell ref="A120:A128"/>
     <mergeCell ref="G120:G128"/>
     <mergeCell ref="G23:G43"/>
@@ -9816,12 +10258,43 @@
     <mergeCell ref="G87:G92"/>
     <mergeCell ref="G44:G51"/>
     <mergeCell ref="A63:A68"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="G129:G142"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="G93:G108"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="G113:G116"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B88:B90"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9830,28 +10303,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D0906-052D-43FD-A4BB-226D0BB88B0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.5" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>746</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+    <row r="1" spans="1:6" ht="41.55" customHeight="1">
+      <c r="A1" s="105" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -9874,7 +10347,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="104" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -9894,7 +10367,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
@@ -9911,8 +10384,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="37.5">
-      <c r="A5" s="108"/>
+    <row r="5" spans="1:6" ht="38.25">
+      <c r="A5" s="104"/>
       <c r="B5" s="38" t="s">
         <v>4</v>
       </c>
@@ -9930,7 +10403,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="108"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="38" t="s">
         <v>4</v>
       </c>
@@ -9948,7 +10421,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="38" t="s">
         <v>4</v>
       </c>
@@ -9966,7 +10439,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="110"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="38" t="s">
         <v>163</v>
       </c>
@@ -9984,7 +10457,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="104" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -10004,7 +10477,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="108"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="38" t="s">
         <v>4</v>
       </c>
@@ -10022,7 +10495,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="108"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="38" t="s">
         <v>4</v>
       </c>
@@ -10040,7 +10513,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="108"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="38" t="s">
         <v>4</v>
       </c>
@@ -10058,7 +10531,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="108"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="38" t="s">
         <v>4</v>
       </c>
@@ -10076,7 +10549,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="108"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="38" t="s">
         <v>4</v>
       </c>
@@ -10093,8 +10566,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="112.5">
-      <c r="A15" s="110"/>
+    <row r="15" spans="1:6" ht="127.5">
+      <c r="A15" s="106"/>
       <c r="B15" s="38" t="s">
         <v>345</v>
       </c>
@@ -10102,7 +10575,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>156</v>
@@ -10112,7 +10585,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="104" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="38" t="s">
@@ -10132,7 +10605,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="110"/>
+      <c r="A17" s="106"/>
       <c r="B17" s="38" t="s">
         <v>4</v>
       </c>
@@ -10150,7 +10623,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="104" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -10170,7 +10643,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="110"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="38" t="s">
         <v>4</v>
       </c>
@@ -10188,7 +10661,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="106" t="s">
+      <c r="A20" s="102" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -10207,8 +10680,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="50">
-      <c r="A21" s="111"/>
+    <row r="21" spans="1:6" ht="51">
+      <c r="A21" s="107"/>
       <c r="B21" s="38" t="s">
         <v>4</v>
       </c>
@@ -10226,7 +10699,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="111"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="38" t="s">
         <v>4</v>
       </c>
@@ -10244,7 +10717,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="111"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="38" t="s">
         <v>4</v>
       </c>
@@ -10262,7 +10735,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="111"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="38" t="s">
         <v>4</v>
       </c>
@@ -10280,7 +10753,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="111"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="38" t="s">
         <v>4</v>
       </c>
@@ -10298,7 +10771,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="107"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="38" t="s">
         <v>4</v>
       </c>
@@ -10316,7 +10789,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="102" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="38" t="s">
@@ -10336,7 +10809,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="111"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="38" t="s">
         <v>4</v>
       </c>
@@ -10353,8 +10826,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="100">
-      <c r="A29" s="111"/>
+    <row r="29" spans="1:6" ht="102">
+      <c r="A29" s="107"/>
       <c r="B29" s="38" t="s">
         <v>4</v>
       </c>
@@ -10372,7 +10845,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="111"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="38" t="s">
         <v>4</v>
       </c>
@@ -10389,8 +10862,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="112.5">
-      <c r="A31" s="107"/>
+    <row r="31" spans="1:6" ht="114.75">
+      <c r="A31" s="103"/>
       <c r="B31" s="38" t="s">
         <v>4</v>
       </c>
@@ -10408,7 +10881,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="108" t="s">
+      <c r="A32" s="104" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="38" t="s">
@@ -10428,7 +10901,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="108"/>
+      <c r="A33" s="104"/>
       <c r="B33" s="38" t="s">
         <v>371</v>
       </c>
@@ -10445,8 +10918,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13" customHeight="1">
-      <c r="A34" s="108" t="s">
+    <row r="34" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A34" s="104" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="38" t="s">
@@ -10466,7 +10939,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="108"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="38" t="s">
         <v>372</v>
       </c>
@@ -10484,10 +10957,10 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="86"/>
-      <c r="B36" s="86"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="86"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="5" t="s">
         <v>395</v>
       </c>
@@ -10496,61 +10969,62 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="100"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="D37" s="100" t="s">
-        <v>933</v>
+        <v>779</v>
+      </c>
+      <c r="D37" s="96" t="s">
+        <v>931</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>263</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="84">
-      <c r="A38" s="111"/>
-      <c r="B38" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="86" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="83.25">
+      <c r="A38" s="107"/>
+      <c r="B38" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="82" t="s">
+        <v>779</v>
+      </c>
+      <c r="D38" s="82" t="s">
+        <v>780</v>
+      </c>
+      <c r="E38" s="83" t="s">
         <v>781</v>
       </c>
-      <c r="D38" s="86" t="s">
+      <c r="F38" s="84" t="s">
         <v>782</v>
       </c>
-      <c r="E38" s="87" t="s">
-        <v>783</v>
-      </c>
-      <c r="F38" s="88" t="s">
-        <v>784</v>
-      </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="107"/>
-      <c r="B39" s="86" t="s">
+      <c r="A39" s="103"/>
+      <c r="B39" s="82" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="86" t="s">
-        <v>779</v>
+      <c r="D39" s="82" t="s">
+        <v>777</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
@@ -10560,7 +11034,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A20:A26"/>
     <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A37:A39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10569,29 +11042,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9074A8-11E0-48D9-822A-54D3CEF7052B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="2" max="2" width="12.08203125" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="105" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -10614,7 +11087,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="104" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -10634,7 +11107,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="110"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
@@ -10672,7 +11145,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="104" t="s">
         <v>126</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -10692,7 +11165,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="110"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="43" t="s">
         <v>4</v>
       </c>
@@ -10720,227 +11193,227 @@
         <v>28</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E8" s="44" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="106" t="s">
-        <v>841</v>
-      </c>
-      <c r="C9" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="106" t="s">
-        <v>750</v>
+      <c r="B9" s="102" t="s">
+        <v>839</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>748</v>
       </c>
       <c r="E9" s="44" t="s">
+        <v>836</v>
+      </c>
+      <c r="F9" s="45" t="s">
         <v>838</v>
       </c>
-      <c r="F9" s="45" t="s">
-        <v>840</v>
-      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="132"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
       <c r="E10" s="44" t="s">
+        <v>835</v>
+      </c>
+      <c r="F10" s="45" t="s">
         <v>837</v>
       </c>
-      <c r="F10" s="45" t="s">
-        <v>839</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="132"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
       <c r="E11" s="44" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="132"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="44" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="132"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
       <c r="E13" s="44" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="132"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="44" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="132"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="44" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="132"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
       <c r="E16" s="44" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="132"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
       <c r="E17" s="44" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="132"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
       <c r="E18" s="44" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="132"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
       <c r="E19" s="44" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="132"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="44" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="132"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
       <c r="E21" s="44" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="132"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="44" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="132"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
       <c r="E23" s="44" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="128"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
       <c r="E24" s="44" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="106" t="s">
-        <v>863</v>
-      </c>
-      <c r="C25" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="106" t="s">
-        <v>751</v>
+      <c r="B25" s="102" t="s">
+        <v>861</v>
+      </c>
+      <c r="C25" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="102" t="s">
+        <v>749</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>230</v>
@@ -10950,162 +11423,162 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="132"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
       <c r="E26" s="44" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="132"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
       <c r="E27" s="44" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="132"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
       <c r="E28" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="132"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
       <c r="E29" s="44" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="132"/>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
       <c r="E30" s="44" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="132"/>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="98" t="s">
-        <v>823</v>
-      </c>
-      <c r="F31" s="99" t="s">
-        <v>849</v>
+      <c r="A31" s="113"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="F31" s="95" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="132"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="98" t="s">
-        <v>821</v>
-      </c>
-      <c r="F32" s="99" t="s">
-        <v>848</v>
+      <c r="A32" s="113"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="94" t="s">
+        <v>819</v>
+      </c>
+      <c r="F32" s="95" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="132"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="98" t="s">
-        <v>819</v>
-      </c>
-      <c r="F33" s="99" t="s">
-        <v>847</v>
+      <c r="A33" s="113"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="94" t="s">
+        <v>817</v>
+      </c>
+      <c r="F33" s="95" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="132"/>
-      <c r="B34" s="132"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
       <c r="E34" s="44" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="132"/>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
       <c r="E35" s="44" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="132"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
       <c r="E36" s="44" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="132"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
       <c r="E37" s="44" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="128"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
       <c r="E38" s="44" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="13" customHeight="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13.05" customHeight="1">
       <c r="A39" s="43" t="s">
         <v>432</v>
       </c>
@@ -11185,7 +11658,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13" customHeight="1">
+    <row r="43" spans="1:6" ht="13.05" customHeight="1">
       <c r="A43" s="43" t="s">
         <v>442</v>
       </c>
@@ -11265,7 +11738,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13" customHeight="1">
+    <row r="47" spans="1:6" ht="13.05" customHeight="1">
       <c r="A47" s="43" t="s">
         <v>451</v>
       </c>
@@ -11285,61 +11758,61 @@
         <v>450</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13" customHeight="1">
-      <c r="A48" s="106" t="s">
+    <row r="48" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A48" s="102" t="s">
         <v>554</v>
       </c>
-      <c r="B48" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="93"/>
+      <c r="B48" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="89"/>
       <c r="E48" s="5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13" customHeight="1">
-      <c r="A49" s="132"/>
-      <c r="B49" s="132"/>
-      <c r="C49" s="132"/>
-      <c r="D49" s="106" t="s">
+    <row r="49" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A49" s="113"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="102" t="s">
+        <v>862</v>
+      </c>
+      <c r="E49" s="44" t="s">
         <v>864</v>
       </c>
-      <c r="E49" s="44" t="s">
-        <v>866</v>
-      </c>
       <c r="F49" s="45" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="13" customHeight="1">
-      <c r="A50" s="128"/>
-      <c r="B50" s="128"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="128"/>
+        <v>865</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A50" s="114"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
       <c r="E50" s="44" t="s">
         <v>502</v>
       </c>
       <c r="F50" s="45" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="13" customHeight="1">
-      <c r="A51" s="106" t="s">
-        <v>568</v>
-      </c>
-      <c r="B51" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="106" t="s">
-        <v>871</v>
-      </c>
-      <c r="D51" s="96"/>
+        <v>863</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A51" s="102" t="s">
+        <v>566</v>
+      </c>
+      <c r="B51" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="102" t="s">
+        <v>869</v>
+      </c>
+      <c r="D51" s="92"/>
       <c r="E51" s="5" t="s">
         <v>407</v>
       </c>
@@ -11347,20 +11820,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="13" customHeight="1">
-      <c r="A52" s="128"/>
-      <c r="B52" s="128"/>
-      <c r="C52" s="128"/>
-      <c r="D52" s="93"/>
+    <row r="52" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A52" s="114"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="89"/>
       <c r="E52" s="44" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="108" t="s">
+      <c r="A53" s="104" t="s">
         <v>452</v>
       </c>
       <c r="B53" s="43" t="s">
@@ -11380,7 +11853,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="110"/>
+      <c r="A54" s="106"/>
       <c r="B54" s="43" t="s">
         <v>4</v>
       </c>
@@ -11394,11 +11867,11 @@
         <v>502</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="108" t="s">
+      <c r="A55" s="104" t="s">
         <v>454</v>
       </c>
       <c r="B55" s="43" t="s">
@@ -11418,29 +11891,29 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="110"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="43" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E56" s="43" t="s">
         <v>502</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="106" t="s">
+      <c r="A57" s="102" t="s">
         <v>455</v>
       </c>
-      <c r="B57" s="106" t="s">
-        <v>877</v>
+      <c r="B57" s="102" t="s">
+        <v>875</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>26</v>
@@ -11456,71 +11929,71 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="111"/>
-      <c r="B58" s="132"/>
-      <c r="C58" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="106" t="s">
+      <c r="A58" s="107"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="102" t="s">
         <v>456</v>
       </c>
-      <c r="E58" s="93" t="s">
+      <c r="E58" s="89" t="s">
         <v>45</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="111"/>
-      <c r="B59" s="132"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="132"/>
-      <c r="E59" s="93" t="s">
+      <c r="A59" s="107"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="89" t="s">
         <v>43</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="111"/>
-      <c r="B60" s="132"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="132"/>
-      <c r="E60" s="93" t="s">
+      <c r="A60" s="107"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="89" t="s">
         <v>42</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="111"/>
-      <c r="B61" s="132"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="93" t="s">
+      <c r="A61" s="107"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="89" t="s">
         <v>41</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="107"/>
-      <c r="B62" s="128"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="128"/>
+      <c r="A62" s="103"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="114"/>
       <c r="E62" s="43" t="s">
         <v>38</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="104" t="s">
         <v>457</v>
       </c>
       <c r="B63" s="43" t="s">
@@ -11540,7 +12013,7 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="110"/>
+      <c r="A64" s="106"/>
       <c r="B64" s="43" t="s">
         <v>4</v>
       </c>
@@ -11551,14 +12024,14 @@
         <v>458</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="102" t="s">
         <v>460</v>
       </c>
       <c r="B65" s="43" t="s">
@@ -11578,7 +12051,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="107"/>
+      <c r="A66" s="103"/>
       <c r="B66" s="43" t="s">
         <v>4</v>
       </c>
@@ -11589,14 +12062,14 @@
         <v>461</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="102" t="s">
         <v>463</v>
       </c>
       <c r="B67" s="43" t="s">
@@ -11616,7 +12089,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="107"/>
+      <c r="A68" s="103"/>
       <c r="B68" s="43" t="s">
         <v>4</v>
       </c>
@@ -11627,197 +12100,197 @@
         <v>464</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F68" s="13" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="13" customHeight="1">
-      <c r="A69" s="60" t="s">
+    <row r="69" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A69" s="58" t="s">
+        <v>632</v>
+      </c>
+      <c r="B69" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="58" t="s">
+        <v>633</v>
+      </c>
+      <c r="E69" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="102" t="s">
         <v>634</v>
       </c>
-      <c r="B69" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="60" t="s">
+      <c r="B70" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>635</v>
-      </c>
-      <c r="E69" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="106" t="s">
-        <v>636</v>
-      </c>
-      <c r="B70" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>637</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="111"/>
-      <c r="B71" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="60" t="s">
+      <c r="A71" s="107"/>
+      <c r="B71" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D71" s="60" t="s">
+      <c r="D71" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="E71" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="107"/>
+      <c r="B72" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="58" t="s">
+        <v>637</v>
+      </c>
+      <c r="E72" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="107"/>
+      <c r="B73" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="58" t="s">
         <v>638</v>
       </c>
-      <c r="E71" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="F71" s="13"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="111"/>
-      <c r="B72" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="60" t="s">
-        <v>639</v>
-      </c>
-      <c r="E72" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="F72" s="13"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="111"/>
-      <c r="B73" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="60" t="s">
-        <v>640</v>
-      </c>
-      <c r="E73" s="60" t="s">
+      <c r="E73" s="58" t="s">
         <v>263</v>
       </c>
       <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="107"/>
-      <c r="B74" s="60" t="s">
+      <c r="A74" s="103"/>
+      <c r="B74" s="58" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D74" s="60" t="s">
+      <c r="D74" s="58" t="s">
+        <v>639</v>
+      </c>
+      <c r="E74" s="58" t="s">
+        <v>640</v>
+      </c>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A75" s="58" t="s">
         <v>641</v>
       </c>
-      <c r="E74" s="60" t="s">
+      <c r="B75" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="58" t="s">
         <v>642</v>
       </c>
-      <c r="F74" s="13"/>
-    </row>
-    <row r="75" spans="1:6" ht="13" customHeight="1">
-      <c r="A75" s="60" t="s">
+      <c r="E75" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A76" s="58" t="s">
         <v>643</v>
       </c>
-      <c r="B75" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="60" t="s">
+      <c r="B76" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D75" s="60" t="s">
+      <c r="D76" s="58" t="s">
         <v>644</v>
       </c>
-      <c r="E75" s="60" t="s">
+      <c r="E76" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="13"/>
-    </row>
-    <row r="76" spans="1:6" ht="13" customHeight="1">
-      <c r="A76" s="60" t="s">
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A77" s="58" t="s">
         <v>645</v>
       </c>
-      <c r="B76" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="60" t="s">
+      <c r="B77" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D76" s="60" t="s">
+      <c r="D77" s="58" t="s">
         <v>646</v>
       </c>
-      <c r="E76" s="60" t="s">
+      <c r="E77" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F76" s="13"/>
-    </row>
-    <row r="77" spans="1:6" ht="13" customHeight="1">
-      <c r="A77" s="60" t="s">
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A78" s="58" t="s">
         <v>647</v>
       </c>
-      <c r="B77" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="60" t="s">
+      <c r="B78" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="60" t="s">
+      <c r="D78" s="58" t="s">
         <v>648</v>
       </c>
-      <c r="E77" s="60" t="s">
+      <c r="E78" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F77" s="13"/>
-    </row>
-    <row r="78" spans="1:6" ht="13" customHeight="1">
-      <c r="A78" s="60" t="s">
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="102" t="s">
         <v>649</v>
       </c>
-      <c r="B78" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="60" t="s">
-        <v>650</v>
-      </c>
-      <c r="E78" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="13"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="106" t="s">
-        <v>651</v>
-      </c>
-      <c r="B79" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="60" t="s">
+      <c r="B79" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E79" s="5" t="s">
@@ -11828,98 +12301,98 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="111"/>
-      <c r="B80" s="60" t="s">
-        <v>660</v>
-      </c>
-      <c r="C80" s="60" t="s">
+      <c r="A80" s="107"/>
+      <c r="B80" s="58" t="s">
+        <v>658</v>
+      </c>
+      <c r="C80" s="58" t="s">
+        <v>654</v>
+      </c>
+      <c r="D80" s="58" t="s">
+        <v>657</v>
+      </c>
+      <c r="E80" s="44" t="s">
         <v>656</v>
       </c>
-      <c r="D80" s="60" t="s">
+      <c r="F80" s="45" t="s">
         <v>659</v>
       </c>
-      <c r="E80" s="44" t="s">
-        <v>658</v>
-      </c>
-      <c r="F80" s="45" t="s">
-        <v>661</v>
-      </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="111"/>
-      <c r="B81" s="60" t="s">
+      <c r="A81" s="107"/>
+      <c r="B81" s="58" t="s">
+        <v>653</v>
+      </c>
+      <c r="C81" s="58" t="s">
+        <v>654</v>
+      </c>
+      <c r="D81" s="58" t="s">
+        <v>651</v>
+      </c>
+      <c r="E81" s="44" t="s">
+        <v>652</v>
+      </c>
+      <c r="F81" s="45" t="s">
         <v>655</v>
       </c>
-      <c r="C81" s="60" t="s">
-        <v>656</v>
-      </c>
-      <c r="D81" s="60" t="s">
-        <v>653</v>
-      </c>
-      <c r="E81" s="44" t="s">
-        <v>654</v>
-      </c>
-      <c r="F81" s="45" t="s">
-        <v>657</v>
-      </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="107"/>
-      <c r="B82" s="60" t="s">
+      <c r="A82" s="103"/>
+      <c r="B82" s="58" t="s">
         <v>4</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D82" s="60" t="s">
-        <v>652</v>
-      </c>
-      <c r="E82" s="60" t="s">
+      <c r="D82" s="58" t="s">
+        <v>650</v>
+      </c>
+      <c r="E82" s="58" t="s">
         <v>38</v>
       </c>
       <c r="F82" s="13"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="106" t="s">
-        <v>662</v>
-      </c>
-      <c r="B83" s="60"/>
+      <c r="A83" s="102" t="s">
+        <v>660</v>
+      </c>
+      <c r="B83" s="58"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="60"/>
+      <c r="D83" s="58"/>
       <c r="E83" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="13" customHeight="1">
-      <c r="A84" s="128"/>
-      <c r="B84" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="60" t="s">
+    <row r="84" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A84" s="114"/>
+      <c r="B84" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D84" s="60" t="s">
+      <c r="D84" s="58" t="s">
+        <v>661</v>
+      </c>
+      <c r="E84" s="58" t="s">
+        <v>662</v>
+      </c>
+      <c r="F84" s="13" t="s">
         <v>663</v>
-      </c>
-      <c r="E84" s="60" t="s">
-        <v>664</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>665</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="B57:B62"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A7"/>
@@ -11936,13 +12409,13 @@
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11951,29 +12424,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5462A84-5583-420E-A5C1-7ED4CC9711D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="2" max="2" width="12.08203125" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>747</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="A1" s="105" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -11996,7 +12469,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="104" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="43"/>
@@ -12010,7 +12483,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
@@ -12028,7 +12501,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="43" t="s">
         <v>4</v>
       </c>
@@ -12046,7 +12519,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="108"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="43" t="s">
         <v>4</v>
       </c>
@@ -12064,7 +12537,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="43" t="s">
         <v>4</v>
       </c>
@@ -12082,7 +12555,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="108"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="43" t="s">
         <v>4</v>
       </c>
@@ -12100,7 +12573,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="108"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="43" t="s">
         <v>4</v>
       </c>
@@ -12118,7 +12591,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="108"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="43" t="s">
         <v>4</v>
       </c>
@@ -12136,7 +12609,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="108"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="43" t="s">
         <v>4</v>
       </c>
@@ -12154,7 +12627,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="108"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="43" t="s">
         <v>4</v>
       </c>
@@ -12172,7 +12645,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="108"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="43" t="s">
         <v>4</v>
       </c>
@@ -12190,7 +12663,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="108"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="43" t="s">
         <v>4</v>
       </c>
@@ -12208,7 +12681,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="108"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="43" t="s">
         <v>4</v>
       </c>
@@ -12226,7 +12699,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="108"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="43" t="s">
         <v>4</v>
       </c>
@@ -12244,7 +12717,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="108"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="43"/>
       <c r="C17" s="8"/>
       <c r="D17" s="43"/>
@@ -12256,7 +12729,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="108"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
@@ -12274,7 +12747,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="108"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="43" t="s">
         <v>4</v>
       </c>
@@ -12292,7 +12765,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="110"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="43" t="s">
         <v>4</v>
       </c>
@@ -12410,7 +12883,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="104" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="43" t="s">
@@ -12430,7 +12903,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="110"/>
+      <c r="A27" s="106"/>
       <c r="B27" s="43" t="s">
         <v>4</v>
       </c>
@@ -12448,7 +12921,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="104" t="s">
         <v>432</v>
       </c>
       <c r="B28" s="43" t="s">
@@ -12468,7 +12941,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="110"/>
+      <c r="A29" s="106"/>
       <c r="B29" s="43" t="s">
         <v>4</v>
       </c>
@@ -12486,7 +12959,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="104" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="43" t="s">
@@ -12506,7 +12979,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="110"/>
+      <c r="A31" s="106"/>
       <c r="B31" s="43" t="s">
         <v>4</v>
       </c>
@@ -12523,8 +12996,8 @@
         <v>517</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13" customHeight="1">
-      <c r="A32" s="108" t="s">
+    <row r="32" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A32" s="104" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="43" t="s">
@@ -12544,7 +13017,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="110"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="43" t="s">
         <v>4</v>
       </c>
@@ -12562,7 +13035,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="108" t="s">
+      <c r="A34" s="104" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="43" t="s">
@@ -12582,7 +13055,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="110"/>
+      <c r="A35" s="106"/>
       <c r="B35" s="43" t="s">
         <v>4</v>
       </c>
@@ -12599,8 +13072,8 @@
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13" customHeight="1">
-      <c r="A36" s="108" t="s">
+    <row r="36" spans="1:6" ht="13.05" customHeight="1">
+      <c r="A36" s="104" t="s">
         <v>442</v>
       </c>
       <c r="B36" s="43" t="s">
@@ -12620,7 +13093,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="110"/>
+      <c r="A37" s="106"/>
       <c r="B37" s="43" t="s">
         <v>4</v>
       </c>
@@ -12638,7 +13111,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="108" t="s">
+      <c r="A38" s="104" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="43" t="s">
@@ -12658,7 +13131,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="110"/>
+      <c r="A39" s="106"/>
       <c r="B39" s="43" t="s">
         <v>4</v>
       </c>
@@ -12676,7 +13149,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="104" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="43" t="s">
@@ -12696,7 +13169,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="110"/>
+      <c r="A41" s="106"/>
       <c r="B41" s="43" t="s">
         <v>4</v>
       </c>
@@ -12714,7 +13187,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="104" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="43" t="s">
@@ -12734,7 +13207,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="110"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="43" t="s">
         <v>4</v>
       </c>
@@ -12752,7 +13225,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="104" t="s">
         <v>451</v>
       </c>
       <c r="B44" s="43" t="s">
@@ -12772,7 +13245,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="110"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="43" t="s">
         <v>4</v>
       </c>
@@ -12790,83 +13263,83 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="85" t="s">
         <v>554</v>
       </c>
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="90" t="s">
-        <v>785</v>
-      </c>
-      <c r="E46" s="90" t="s">
+      <c r="D46" s="86" t="s">
+        <v>783</v>
+      </c>
+      <c r="E46" s="86" t="s">
         <v>5</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="89" t="s">
-        <v>568</v>
-      </c>
-      <c r="B47" s="90" t="s">
+      <c r="A47" s="85" t="s">
+        <v>566</v>
+      </c>
+      <c r="B47" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="90" t="s">
-        <v>787</v>
-      </c>
-      <c r="E47" s="90" t="s">
+      <c r="D47" s="86" t="s">
+        <v>785</v>
+      </c>
+      <c r="E47" s="86" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="89" t="s">
-        <v>572</v>
-      </c>
-      <c r="B48" s="90" t="s">
+      <c r="A48" s="85" t="s">
+        <v>570</v>
+      </c>
+      <c r="B48" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="90" t="s">
+      <c r="D48" s="86" t="s">
+        <v>787</v>
+      </c>
+      <c r="E48" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="85" t="s">
         <v>789</v>
       </c>
-      <c r="E48" s="90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="89" t="s">
-        <v>791</v>
-      </c>
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="90" t="s">
-        <v>792</v>
-      </c>
-      <c r="E49" s="90" t="s">
+      <c r="D49" s="86" t="s">
+        <v>790</v>
+      </c>
+      <c r="E49" s="86" t="s">
         <v>5</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -12891,29 +13364,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D8D7B2-3DC2-4B4A-B1C5-224E4D25B711}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="2" max="2" width="12.08203125" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="105" t="s">
         <v>382</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -12936,7 +13409,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="104" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -12953,8 +13426,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25">
-      <c r="A4" s="108"/>
+    <row r="4" spans="1:6" ht="25.5">
+      <c r="A4" s="104"/>
       <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
@@ -12971,8 +13444,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="37.5">
-      <c r="A5" s="108"/>
+    <row r="5" spans="1:6" ht="38.25">
+      <c r="A5" s="104"/>
       <c r="B5" s="43" t="s">
         <v>4</v>
       </c>
@@ -12990,7 +13463,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="108"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="43" t="s">
         <v>110</v>
       </c>
@@ -13008,7 +13481,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="43" t="s">
         <v>110</v>
       </c>
@@ -13026,7 +13499,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="108"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="43" t="s">
         <v>4</v>
       </c>
@@ -13044,7 +13517,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="110"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="43" t="s">
         <v>4</v>
       </c>
@@ -13062,7 +13535,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="104" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="43" t="s">
@@ -13082,7 +13555,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="108"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="43" t="s">
         <v>4</v>
       </c>
@@ -13100,7 +13573,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="108"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="43" t="s">
         <v>4</v>
       </c>
@@ -13118,7 +13591,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="108"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="43" t="s">
         <v>4</v>
       </c>
@@ -13136,7 +13609,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="108"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="43" t="s">
         <v>4</v>
       </c>
@@ -13154,7 +13627,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="110"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="43" t="s">
         <v>4</v>
       </c>
@@ -13172,7 +13645,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="104" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -13192,7 +13665,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="108"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="43" t="s">
         <v>4</v>
       </c>
@@ -13210,7 +13683,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="108"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
@@ -13228,7 +13701,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="110"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="43" t="s">
         <v>4</v>
       </c>
@@ -13246,7 +13719,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="104" t="s">
         <v>418</v>
       </c>
       <c r="B20" s="43" t="s">
@@ -13266,7 +13739,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="108"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="43" t="s">
         <v>4</v>
       </c>
@@ -13284,7 +13757,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="108"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="43" t="s">
         <v>4</v>
       </c>
@@ -13302,7 +13775,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="110"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="43" t="s">
         <v>4</v>
       </c>

--- a/doc/XBR820  system spec/xbr820_register.xlsx
+++ b/doc/XBR820  system spec/xbr820_register.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="971">
   <si>
     <t>RO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3627,10 +3627,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>adc dc average 1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>adc_dc_12bit_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3848,14 +3844,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>内部DC平均值与ｎｏｉｓｅ的差值门限</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>１０在门限之内也不更新ｎｏｉｓｅ</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>ｎｏｉｓｅ初值</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3868,10 +3856,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ｐ２．１算法模块输出</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>写１时ｐ２．１由ｉｏ＿ｖａｌｕｅ控制</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3884,7 +3868,39 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>锁定停顿延时</t>
+    <t>adc dc average 1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部DC累加值与ｎｏｉｓｅ的累加差值门限</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测到的使用的noise平均值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接和thrsh1比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调这里可以去工频干扰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调这里可以调感应距离</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>１０在门限之内也不更新ｎｏｉｓｅ，相当于锁定，threshold2不起作用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定停顿延时，比如能处理掉继电器的干扰自激荡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ｐ２．１算法模块输出使能，bit3写1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -4096,7 +4112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4195,14 +4211,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="31"/>
       </patternFill>
     </fill>
   </fills>
@@ -4480,7 +4502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4635,9 +4657,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4711,71 +4730,260 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -4783,226 +4991,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="13" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="13" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="12" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5276,7 +5322,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5301,348 +5347,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.4" thickBot="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>666</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>667</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>668</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>669</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.4" thickBot="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>672</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>673</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>674</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="64" t="s">
         <v>675</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="64" t="s">
         <v>676</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="65" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.4" thickBot="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
         <v>679</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="66" t="s">
         <v>680</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="67" t="s">
         <v>681</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="67" t="s">
         <v>682</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="65" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="144" t="s">
         <v>684</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="68" t="s">
         <v>685</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>686</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="68" t="s">
         <v>687</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="68" t="s">
         <v>688</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="69" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="100"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="145"/>
+      <c r="B5" s="70" t="s">
         <v>690</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="70" t="s">
         <v>691</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="70" t="s">
         <v>687</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="70" t="s">
         <v>692</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="71" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="100"/>
-      <c r="B6" s="71" t="s">
+      <c r="A6" s="145"/>
+      <c r="B6" s="70" t="s">
         <v>694</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="70" t="s">
         <v>695</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="70" t="s">
         <v>696</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="70" t="s">
         <v>697</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="71" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="100"/>
-      <c r="B7" s="71" t="s">
+      <c r="A7" s="145"/>
+      <c r="B7" s="70" t="s">
         <v>699</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="70" t="s">
         <v>700</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="70" t="s">
         <v>696</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="70" t="s">
         <v>701</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="71" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="100"/>
-      <c r="B8" s="71" t="s">
+      <c r="A8" s="145"/>
+      <c r="B8" s="70" t="s">
         <v>703</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="70" t="s">
         <v>704</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="70" t="s">
         <v>696</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="70" t="s">
         <v>705</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="71" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="100"/>
-      <c r="B9" s="71" t="s">
+      <c r="A9" s="145"/>
+      <c r="B9" s="70" t="s">
         <v>707</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="70" t="s">
         <v>708</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="70" t="s">
         <v>696</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="70" t="s">
         <v>709</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="71" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="100"/>
-      <c r="B10" s="71" t="s">
+      <c r="A10" s="145"/>
+      <c r="B10" s="70" t="s">
         <v>711</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="70" t="s">
         <v>712</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="70" t="s">
         <v>696</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="70" t="s">
         <v>713</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="71" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.4" thickBot="1">
-      <c r="A11" s="100"/>
-      <c r="B11" s="73" t="s">
+      <c r="A11" s="145"/>
+      <c r="B11" s="72" t="s">
         <v>715</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="72" t="s">
         <v>716</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="72" t="s">
         <v>696</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="72" t="s">
         <v>717</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="73" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="146" t="s">
         <v>719</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="72" t="s">
         <v>720</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>721</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="72" t="s">
         <v>696</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="72" t="s">
         <v>682</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="73" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="100"/>
-      <c r="B13" s="73" t="s">
+      <c r="A13" s="145"/>
+      <c r="B13" s="72" t="s">
         <v>722</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="72" t="s">
         <v>723</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="72" t="s">
         <v>696</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="72" t="s">
         <v>793</v>
       </c>
-      <c r="F13" s="74"/>
+      <c r="F13" s="73"/>
     </row>
     <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="100"/>
-      <c r="B14" s="75" t="s">
+      <c r="A14" s="145"/>
+      <c r="B14" s="74" t="s">
         <v>724</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="74" t="s">
         <v>725</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="74" t="s">
         <v>696</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="76"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75"/>
     </row>
     <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="100"/>
-      <c r="B15" s="75" t="s">
+      <c r="A15" s="145"/>
+      <c r="B15" s="74" t="s">
         <v>726</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="74" t="s">
         <v>727</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="74" t="s">
         <v>696</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="100"/>
-      <c r="B16" s="75" t="s">
+      <c r="A16" s="145"/>
+      <c r="B16" s="74" t="s">
         <v>728</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="74" t="s">
         <v>729</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="74" t="s">
         <v>696</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="75"/>
     </row>
     <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="100"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="145"/>
+      <c r="B17" s="74" t="s">
         <v>730</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="74" t="s">
         <v>731</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="74" t="s">
         <v>696</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="75"/>
     </row>
     <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="100"/>
-      <c r="B18" s="75" t="s">
+      <c r="A18" s="145"/>
+      <c r="B18" s="74" t="s">
         <v>732</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="74" t="s">
         <v>733</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="74" t="s">
         <v>696</v>
       </c>
-      <c r="E18" s="75"/>
-      <c r="F18" s="76"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="19" spans="1:6" ht="15.4" thickBot="1">
-      <c r="A19" s="100"/>
-      <c r="B19" s="77" t="s">
+      <c r="A19" s="145"/>
+      <c r="B19" s="76" t="s">
         <v>734</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="76" t="s">
         <v>735</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="76" t="s">
         <v>696</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
     </row>
     <row r="20" spans="1:6" ht="15.4" thickBot="1">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="78" t="s">
         <v>736</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="79" t="s">
         <v>737</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="79" t="s">
         <v>738</v>
       </c>
-      <c r="D20" s="80" t="s">
+      <c r="D20" s="79" t="s">
         <v>739</v>
       </c>
-      <c r="E20" s="80" t="s">
+      <c r="E20" s="79" t="s">
         <v>740</v>
       </c>
-      <c r="F20" s="81"/>
+      <c r="F20" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5669,117 +5715,117 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
-      <c r="B3" s="87">
+      <c r="B3" s="86">
         <v>0</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="86" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="87">
+      <c r="B4" s="86">
         <v>1</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="86" t="s">
         <v>555</v>
       </c>
       <c r="D4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="87">
+      <c r="B5" s="86">
         <v>2</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="86" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="87">
+      <c r="B6" s="86">
         <v>3</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="86" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="87">
-        <v>4</v>
-      </c>
-      <c r="C7" s="87" t="s">
+      <c r="B7" s="86">
+        <v>4</v>
+      </c>
+      <c r="C7" s="86" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="87">
+      <c r="B8" s="86">
         <v>5</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="86" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="87">
+      <c r="B9" s="86">
         <v>6</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="86" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="87">
+      <c r="B10" s="86">
         <v>7</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="86" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="87">
+      <c r="B11" s="86">
         <v>8</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="86" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="87">
+      <c r="B12" s="86">
         <v>9</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="86" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="87">
+      <c r="B13" s="86">
         <v>10</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="86" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="87">
+      <c r="B14" s="86">
         <v>11</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="86" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="87">
+      <c r="B15" s="86">
         <v>12</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="86" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="87">
+      <c r="B16" s="86">
         <v>13</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="86" t="s">
         <v>806</v>
       </c>
     </row>
@@ -5808,14 +5854,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="47" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="150" t="s">
         <v>741</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -5838,7 +5884,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="149" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -5858,7 +5904,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="106"/>
+      <c r="A4" s="151"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -5876,7 +5922,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5896,7 +5942,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="106"/>
+      <c r="A6" s="151"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -5914,7 +5960,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="147" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="17"/>
@@ -5928,7 +5974,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" customHeight="1">
-      <c r="A8" s="107"/>
+      <c r="A8" s="152"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -5946,7 +5992,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="76.5">
-      <c r="A9" s="103"/>
+      <c r="A9" s="148"/>
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
@@ -5964,7 +6010,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="149" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -5984,7 +6030,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="38.25">
-      <c r="A11" s="106"/>
+      <c r="A11" s="151"/>
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
@@ -6002,7 +6048,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="149" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -6022,7 +6068,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="38.25">
-      <c r="A13" s="104"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
@@ -6040,7 +6086,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="149" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -6060,7 +6106,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="25.5">
-      <c r="A15" s="104"/>
+      <c r="A15" s="149"/>
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
@@ -6160,7 +6206,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.55" customHeight="1">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="149" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="6"/>
@@ -6178,7 +6224,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.55" customHeight="1">
-      <c r="A21" s="104"/>
+      <c r="A21" s="149"/>
       <c r="B21" s="17" t="s">
         <v>4</v>
       </c>
@@ -6196,7 +6242,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="104"/>
+      <c r="A22" s="149"/>
       <c r="B22" s="6" t="s">
         <v>4</v>
       </c>
@@ -6214,7 +6260,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="104"/>
+      <c r="A23" s="149"/>
       <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
@@ -6232,7 +6278,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="104"/>
+      <c r="A24" s="149"/>
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
@@ -6250,7 +6296,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="17.55" customHeight="1">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="149" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="17"/>
@@ -6268,7 +6314,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="25.5">
-      <c r="A26" s="104"/>
+      <c r="A26" s="149"/>
       <c r="B26" s="17" t="s">
         <v>4</v>
       </c>
@@ -6286,7 +6332,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="25.5">
-      <c r="A27" s="104"/>
+      <c r="A27" s="149"/>
       <c r="B27" s="17" t="s">
         <v>4</v>
       </c>
@@ -6304,7 +6350,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="25.5">
-      <c r="A28" s="104"/>
+      <c r="A28" s="149"/>
       <c r="B28" s="17" t="s">
         <v>4</v>
       </c>
@@ -6322,7 +6368,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="149" t="s">
         <v>77</v>
       </c>
       <c r="B29" s="6"/>
@@ -6340,7 +6386,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="104"/>
+      <c r="A30" s="149"/>
       <c r="B30" s="6" t="s">
         <v>4</v>
       </c>
@@ -6358,7 +6404,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="104"/>
+      <c r="A31" s="149"/>
       <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
@@ -6376,7 +6422,7 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="104"/>
+      <c r="A32" s="149"/>
       <c r="B32" s="6" t="s">
         <v>4</v>
       </c>
@@ -6394,7 +6440,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="147" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="10"/>
@@ -6412,7 +6458,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="103"/>
+      <c r="A34" s="148"/>
       <c r="B34" s="10" t="s">
         <v>18</v>
       </c>
@@ -6430,7 +6476,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="147" t="s">
         <v>79</v>
       </c>
       <c r="B35" s="16"/>
@@ -6448,7 +6494,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="103"/>
+      <c r="A36" s="148"/>
       <c r="B36" s="16" t="s">
         <v>4</v>
       </c>
@@ -6501,14 +6547,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.5" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="150" t="s">
         <v>742</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -6531,7 +6577,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="149" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -6551,7 +6597,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="106"/>
+      <c r="A4" s="151"/>
       <c r="B4" s="18" t="s">
         <v>82</v>
       </c>
@@ -6569,7 +6615,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -6589,7 +6635,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="106"/>
+      <c r="A6" s="151"/>
       <c r="B6" s="18" t="s">
         <v>110</v>
       </c>
@@ -6607,7 +6653,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="149" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="18"/>
@@ -6621,7 +6667,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="104"/>
+      <c r="A8" s="149"/>
       <c r="B8" s="21" t="s">
         <v>4</v>
       </c>
@@ -6639,7 +6685,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="56.55" customHeight="1">
-      <c r="A9" s="104"/>
+      <c r="A9" s="149"/>
       <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
@@ -6657,7 +6703,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="149" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="18"/>
@@ -6671,7 +6717,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="104"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="18" t="s">
         <v>4</v>
       </c>
@@ -6689,7 +6735,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="153" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="18"/>
@@ -6703,7 +6749,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="109"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="18" t="s">
         <v>4</v>
       </c>
@@ -6721,7 +6767,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="109"/>
+      <c r="A14" s="154"/>
       <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
@@ -6739,7 +6785,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="109"/>
+      <c r="A15" s="154"/>
       <c r="B15" s="18" t="s">
         <v>4</v>
       </c>
@@ -6757,7 +6803,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="109"/>
+      <c r="A16" s="154"/>
       <c r="B16" s="18" t="s">
         <v>4</v>
       </c>
@@ -6775,7 +6821,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="109"/>
+      <c r="A17" s="154"/>
       <c r="B17" s="18" t="s">
         <v>4</v>
       </c>
@@ -6793,7 +6839,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="153" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="18"/>
@@ -6807,7 +6853,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="109"/>
+      <c r="A19" s="154"/>
       <c r="B19" s="18" t="s">
         <v>4</v>
       </c>
@@ -6825,7 +6871,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="109"/>
+      <c r="A20" s="154"/>
       <c r="B20" s="18" t="s">
         <v>4</v>
       </c>
@@ -6843,7 +6889,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="109"/>
+      <c r="A21" s="154"/>
       <c r="B21" s="18" t="s">
         <v>4</v>
       </c>
@@ -6861,7 +6907,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="109"/>
+      <c r="A22" s="154"/>
       <c r="B22" s="18" t="s">
         <v>4</v>
       </c>
@@ -6908,14 +6954,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42.5" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="150" t="s">
         <v>746</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -6938,7 +6984,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="149" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -6958,7 +7004,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="104"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
@@ -6976,7 +7022,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="104"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -6994,7 +7040,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="106"/>
+      <c r="A6" s="151"/>
       <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
@@ -7012,7 +7058,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -7032,7 +7078,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="38.25">
-      <c r="A8" s="104"/>
+      <c r="A8" s="149"/>
       <c r="B8" s="21" t="s">
         <v>4</v>
       </c>
@@ -7050,7 +7096,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="38.25">
-      <c r="A9" s="104"/>
+      <c r="A9" s="149"/>
       <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
@@ -7068,7 +7114,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5">
-      <c r="A10" s="106"/>
+      <c r="A10" s="151"/>
       <c r="B10" s="21" t="s">
         <v>110</v>
       </c>
@@ -7086,7 +7132,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="149" t="s">
         <v>126</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -7106,7 +7152,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="104"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="21" t="s">
         <v>4</v>
       </c>
@@ -7124,7 +7170,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="106"/>
+      <c r="A13" s="151"/>
       <c r="B13" s="21" t="s">
         <v>110</v>
       </c>
@@ -7162,7 +7208,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="149" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -7182,7 +7228,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="25.5">
-      <c r="A16" s="104"/>
+      <c r="A16" s="149"/>
       <c r="B16" s="21" t="s">
         <v>136</v>
       </c>
@@ -7200,7 +7246,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="149" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -7220,7 +7266,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="38.25">
-      <c r="A18" s="104"/>
+      <c r="A18" s="149"/>
       <c r="B18" s="21" t="s">
         <v>141</v>
       </c>
@@ -7238,7 +7284,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="149" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -7258,7 +7304,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="104"/>
+      <c r="A20" s="149"/>
       <c r="B20" s="21" t="s">
         <v>145</v>
       </c>
@@ -7276,7 +7322,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="149" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -7296,7 +7342,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="25.5">
-      <c r="A22" s="104"/>
+      <c r="A22" s="149"/>
       <c r="B22" s="21" t="s">
         <v>148</v>
       </c>
@@ -7314,7 +7360,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="149" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -7334,7 +7380,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="104"/>
+      <c r="A24" s="149"/>
       <c r="B24" s="21" t="s">
         <v>149</v>
       </c>
@@ -7352,7 +7398,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="149" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -7372,7 +7418,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="104"/>
+      <c r="A26" s="149"/>
       <c r="B26" s="21" t="s">
         <v>153</v>
       </c>
@@ -7412,8 +7458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9"/>
@@ -7423,20 +7469,20 @@
     <col min="5" max="5" width="8.6640625" style="1"/>
     <col min="6" max="6" width="63.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.3984375" customWidth="1"/>
-    <col min="8" max="8" width="34.9296875" style="183" customWidth="1"/>
+    <col min="8" max="8" width="34.9296875" style="135" customWidth="1"/>
     <col min="9" max="9" width="15.9296875" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.55" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="150" t="s">
         <v>743</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="25" t="s">
@@ -7459,7 +7505,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="149" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -7477,12 +7523,12 @@
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="122" t="s">
+      <c r="G3" s="156" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="104"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="23" t="s">
         <v>163</v>
       </c>
@@ -7498,10 +7544,10 @@
       <c r="F4" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="119"/>
+      <c r="G4" s="157"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="104"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
@@ -7517,10 +7563,10 @@
       <c r="F5" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="G5" s="119"/>
+      <c r="G5" s="157"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="106"/>
+      <c r="A6" s="151"/>
       <c r="B6" s="23" t="s">
         <v>27</v>
       </c>
@@ -7536,10 +7582,10 @@
       <c r="F6" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="G6" s="120"/>
+      <c r="G6" s="158"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -7557,12 +7603,12 @@
       <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="156" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15">
-      <c r="A8" s="104"/>
+      <c r="A8" s="149"/>
       <c r="B8" s="23" t="s">
         <v>110</v>
       </c>
@@ -7578,10 +7624,10 @@
       <c r="F8" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="119"/>
+      <c r="G8" s="157"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="104"/>
+      <c r="A9" s="149"/>
       <c r="B9" s="23" t="s">
         <v>168</v>
       </c>
@@ -7597,10 +7643,10 @@
       <c r="F9" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="119"/>
+      <c r="G9" s="157"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="106"/>
+      <c r="A10" s="151"/>
       <c r="B10" s="23" t="s">
         <v>169</v>
       </c>
@@ -7616,10 +7662,10 @@
       <c r="F10" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="120"/>
+      <c r="G10" s="158"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="149" t="s">
         <v>126</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -7637,12 +7683,12 @@
       <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="128" t="s">
+      <c r="G11" s="161" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="104"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="23" t="s">
         <v>183</v>
       </c>
@@ -7658,10 +7704,10 @@
       <c r="F12" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="G12" s="129"/>
+      <c r="G12" s="162"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="104"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="23" t="s">
         <v>184</v>
       </c>
@@ -7677,10 +7723,10 @@
       <c r="F13" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="G13" s="129"/>
+      <c r="G13" s="162"/>
     </row>
     <row r="14" spans="1:7" ht="15">
-      <c r="A14" s="106"/>
+      <c r="A14" s="151"/>
       <c r="B14" s="23" t="s">
         <v>110</v>
       </c>
@@ -7696,10 +7742,10 @@
       <c r="F14" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="130"/>
+      <c r="G14" s="163"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="149" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -7717,12 +7763,12 @@
       <c r="F15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="128" t="s">
+      <c r="G15" s="161" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="104"/>
+      <c r="A16" s="149"/>
       <c r="B16" s="23" t="s">
         <v>4</v>
       </c>
@@ -7738,10 +7784,10 @@
       <c r="F16" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="G16" s="129"/>
+      <c r="G16" s="162"/>
     </row>
     <row r="17" spans="1:7" ht="15">
-      <c r="A17" s="104"/>
+      <c r="A17" s="149"/>
       <c r="B17" s="23" t="s">
         <v>110</v>
       </c>
@@ -7757,10 +7803,10 @@
       <c r="F17" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G17" s="129"/>
+      <c r="G17" s="162"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="104"/>
+      <c r="A18" s="149"/>
       <c r="B18" s="23" t="s">
         <v>4</v>
       </c>
@@ -7776,10 +7822,10 @@
       <c r="F18" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="G18" s="129"/>
+      <c r="G18" s="162"/>
     </row>
     <row r="19" spans="1:7" ht="15">
-      <c r="A19" s="106"/>
+      <c r="A19" s="151"/>
       <c r="B19" s="23" t="s">
         <v>110</v>
       </c>
@@ -7795,10 +7841,10 @@
       <c r="F19" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G19" s="130"/>
+      <c r="G19" s="163"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="149" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -7816,12 +7862,12 @@
       <c r="F20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="128" t="s">
+      <c r="G20" s="161" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="104"/>
+      <c r="A21" s="149"/>
       <c r="B21" s="23" t="s">
         <v>110</v>
       </c>
@@ -7837,10 +7883,10 @@
       <c r="F21" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="G21" s="129"/>
+      <c r="G21" s="162"/>
     </row>
     <row r="22" spans="1:7" ht="15">
-      <c r="A22" s="104"/>
+      <c r="A22" s="149"/>
       <c r="B22" s="23" t="s">
         <v>4</v>
       </c>
@@ -7856,10 +7902,10 @@
       <c r="F22" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="130"/>
+      <c r="G22" s="163"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="149" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -7877,12 +7923,12 @@
       <c r="F23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="127" t="s">
+      <c r="G23" s="159" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15">
-      <c r="A24" s="104"/>
+      <c r="A24" s="149"/>
       <c r="B24" s="32" t="s">
         <v>218</v>
       </c>
@@ -7898,10 +7944,10 @@
       <c r="F24" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="G24" s="127"/>
+      <c r="G24" s="159"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="104"/>
+      <c r="A25" s="149"/>
       <c r="B25" s="32" t="s">
         <v>218</v>
       </c>
@@ -7917,10 +7963,10 @@
       <c r="F25" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="G25" s="127"/>
+      <c r="G25" s="159"/>
     </row>
     <row r="26" spans="1:7" ht="15">
-      <c r="A26" s="104"/>
+      <c r="A26" s="149"/>
       <c r="B26" s="32" t="s">
         <v>219</v>
       </c>
@@ -7936,10 +7982,10 @@
       <c r="F26" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="G26" s="127"/>
+      <c r="G26" s="159"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="104"/>
+      <c r="A27" s="149"/>
       <c r="B27" s="32" t="s">
         <v>218</v>
       </c>
@@ -7955,10 +8001,10 @@
       <c r="F27" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="G27" s="127"/>
+      <c r="G27" s="159"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="104"/>
+      <c r="A28" s="149"/>
       <c r="B28" s="32" t="s">
         <v>220</v>
       </c>
@@ -7974,10 +8020,10 @@
       <c r="F28" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G28" s="127"/>
+      <c r="G28" s="159"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="104"/>
+      <c r="A29" s="149"/>
       <c r="B29" s="32" t="s">
         <v>218</v>
       </c>
@@ -7993,10 +8039,10 @@
       <c r="F29" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="G29" s="127"/>
+      <c r="G29" s="159"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="104"/>
+      <c r="A30" s="149"/>
       <c r="B30" s="32" t="s">
         <v>220</v>
       </c>
@@ -8012,10 +8058,10 @@
       <c r="F30" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="G30" s="127"/>
+      <c r="G30" s="159"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="104"/>
+      <c r="A31" s="149"/>
       <c r="B31" s="32" t="s">
         <v>221</v>
       </c>
@@ -8031,10 +8077,10 @@
       <c r="F31" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="G31" s="127"/>
+      <c r="G31" s="159"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="104"/>
+      <c r="A32" s="149"/>
       <c r="B32" s="32" t="s">
         <v>218</v>
       </c>
@@ -8050,10 +8096,10 @@
       <c r="F32" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="G32" s="127"/>
+      <c r="G32" s="159"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="121" t="s">
+      <c r="A33" s="155" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="23" t="s">
@@ -8071,10 +8117,10 @@
       <c r="F33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="127"/>
+      <c r="G33" s="159"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="121"/>
+      <c r="A34" s="155"/>
       <c r="B34" s="23" t="s">
         <v>18</v>
       </c>
@@ -8090,10 +8136,10 @@
       <c r="F34" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="G34" s="127"/>
+      <c r="G34" s="159"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="121"/>
+      <c r="A35" s="155"/>
       <c r="B35" s="32" t="s">
         <v>250</v>
       </c>
@@ -8109,10 +8155,10 @@
       <c r="F35" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="127"/>
+      <c r="G35" s="159"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="121"/>
+      <c r="A36" s="155"/>
       <c r="B36" s="32" t="s">
         <v>219</v>
       </c>
@@ -8128,10 +8174,10 @@
       <c r="F36" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="127"/>
+      <c r="G36" s="159"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="121"/>
+      <c r="A37" s="155"/>
       <c r="B37" s="32" t="s">
         <v>251</v>
       </c>
@@ -8147,10 +8193,10 @@
       <c r="F37" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="G37" s="127"/>
+      <c r="G37" s="159"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="121"/>
+      <c r="A38" s="155"/>
       <c r="B38" s="32" t="s">
         <v>218</v>
       </c>
@@ -8166,10 +8212,10 @@
       <c r="F38" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="G38" s="127"/>
+      <c r="G38" s="159"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="121"/>
+      <c r="A39" s="155"/>
       <c r="B39" s="32" t="s">
         <v>218</v>
       </c>
@@ -8185,10 +8231,10 @@
       <c r="F39" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="G39" s="127"/>
+      <c r="G39" s="159"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="121"/>
+      <c r="A40" s="155"/>
       <c r="B40" s="32" t="s">
         <v>218</v>
       </c>
@@ -8204,10 +8250,10 @@
       <c r="F40" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="G40" s="127"/>
+      <c r="G40" s="159"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="121"/>
+      <c r="A41" s="155"/>
       <c r="B41" s="32" t="s">
         <v>219</v>
       </c>
@@ -8223,10 +8269,10 @@
       <c r="F41" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="G41" s="127"/>
+      <c r="G41" s="159"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="121"/>
+      <c r="A42" s="155"/>
       <c r="B42" s="32" t="s">
         <v>219</v>
       </c>
@@ -8242,10 +8288,10 @@
       <c r="F42" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="G42" s="127"/>
+      <c r="G42" s="159"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="121"/>
+      <c r="A43" s="155"/>
       <c r="B43" s="32" t="s">
         <v>219</v>
       </c>
@@ -8261,10 +8307,10 @@
       <c r="F43" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="G43" s="127"/>
+      <c r="G43" s="159"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="121" t="s">
+      <c r="A44" s="155" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -8282,12 +8328,12 @@
       <c r="F44" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="122" t="s">
+      <c r="G44" s="156" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="121"/>
+      <c r="A45" s="155"/>
       <c r="B45" s="48" t="s">
         <v>218</v>
       </c>
@@ -8303,10 +8349,10 @@
       <c r="F45" s="50" t="s">
         <v>533</v>
       </c>
-      <c r="G45" s="119"/>
+      <c r="G45" s="157"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="121"/>
+      <c r="A46" s="155"/>
       <c r="B46" s="33" t="s">
         <v>218</v>
       </c>
@@ -8322,10 +8368,10 @@
       <c r="F46" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="G46" s="119"/>
+      <c r="G46" s="157"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="121"/>
+      <c r="A47" s="155"/>
       <c r="B47" s="33" t="s">
         <v>219</v>
       </c>
@@ -8341,10 +8387,10 @@
       <c r="F47" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="G47" s="119"/>
+      <c r="G47" s="157"/>
     </row>
     <row r="48" spans="1:7" ht="15">
-      <c r="A48" s="121"/>
+      <c r="A48" s="155"/>
       <c r="B48" s="34" t="s">
         <v>218</v>
       </c>
@@ -8360,10 +8406,10 @@
       <c r="F48" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="G48" s="119"/>
+      <c r="G48" s="157"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="121"/>
+      <c r="A49" s="155"/>
       <c r="B49" s="33" t="s">
         <v>218</v>
       </c>
@@ -8379,10 +8425,10 @@
       <c r="F49" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="G49" s="119"/>
+      <c r="G49" s="157"/>
     </row>
     <row r="50" spans="1:7" ht="15">
-      <c r="A50" s="121"/>
+      <c r="A50" s="155"/>
       <c r="B50" s="33" t="s">
         <v>218</v>
       </c>
@@ -8398,10 +8444,10 @@
       <c r="F50" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="G50" s="119"/>
+      <c r="G50" s="157"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="121"/>
+      <c r="A51" s="155"/>
       <c r="B51" s="33" t="s">
         <v>218</v>
       </c>
@@ -8417,10 +8463,10 @@
       <c r="F51" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="G51" s="120"/>
+      <c r="G51" s="158"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="118" t="s">
+      <c r="A52" s="164" t="s">
         <v>22</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -8438,12 +8484,12 @@
       <c r="F52" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="127" t="s">
+      <c r="G52" s="159" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="125"/>
+      <c r="A53" s="165"/>
       <c r="B53" s="35" t="s">
         <v>218</v>
       </c>
@@ -8459,10 +8505,10 @@
       <c r="F53" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="G53" s="127"/>
+      <c r="G53" s="159"/>
     </row>
     <row r="54" spans="1:7" ht="15">
-      <c r="A54" s="125"/>
+      <c r="A54" s="165"/>
       <c r="B54" s="35" t="s">
         <v>218</v>
       </c>
@@ -8478,10 +8524,10 @@
       <c r="F54" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G54" s="127"/>
+      <c r="G54" s="159"/>
     </row>
     <row r="55" spans="1:7" ht="15">
-      <c r="A55" s="125"/>
+      <c r="A55" s="165"/>
       <c r="B55" s="35" t="s">
         <v>218</v>
       </c>
@@ -8497,10 +8543,10 @@
       <c r="F55" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="G55" s="127"/>
+      <c r="G55" s="159"/>
     </row>
     <row r="56" spans="1:7" ht="15">
-      <c r="A56" s="125"/>
+      <c r="A56" s="165"/>
       <c r="B56" s="35" t="s">
         <v>218</v>
       </c>
@@ -8516,10 +8562,10 @@
       <c r="F56" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="G56" s="127"/>
+      <c r="G56" s="159"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="125"/>
+      <c r="A57" s="165"/>
       <c r="B57" s="35" t="s">
         <v>303</v>
       </c>
@@ -8535,10 +8581,10 @@
       <c r="F57" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="G57" s="127"/>
+      <c r="G57" s="159"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="125"/>
+      <c r="A58" s="165"/>
       <c r="B58" s="35" t="s">
         <v>303</v>
       </c>
@@ -8554,10 +8600,10 @@
       <c r="F58" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="G58" s="127"/>
+      <c r="G58" s="159"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="126"/>
+      <c r="A59" s="166"/>
       <c r="B59" s="35" t="s">
         <v>303</v>
       </c>
@@ -8573,10 +8619,10 @@
       <c r="F59" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="G59" s="127"/>
+      <c r="G59" s="159"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="121" t="s">
+      <c r="A60" s="155" t="s">
         <v>23</v>
       </c>
       <c r="B60" s="23" t="s">
@@ -8594,12 +8640,12 @@
       <c r="F60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="122" t="s">
+      <c r="G60" s="156" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="121"/>
+      <c r="A61" s="155"/>
       <c r="B61" s="32" t="s">
         <v>4</v>
       </c>
@@ -8615,10 +8661,10 @@
       <c r="F61" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G61" s="119"/>
+      <c r="G61" s="157"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="121"/>
+      <c r="A62" s="155"/>
       <c r="B62" s="32" t="s">
         <v>4</v>
       </c>
@@ -8634,10 +8680,10 @@
       <c r="F62" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G62" s="120"/>
+      <c r="G62" s="158"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="121" t="s">
+      <c r="A63" s="155" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -8655,12 +8701,12 @@
       <c r="F63" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="127" t="s">
+      <c r="G63" s="159" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="121"/>
+      <c r="A64" s="155"/>
       <c r="B64" s="32" t="s">
         <v>4</v>
       </c>
@@ -8676,10 +8722,10 @@
       <c r="F64" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="G64" s="127"/>
+      <c r="G64" s="159"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="121"/>
+      <c r="A65" s="155"/>
       <c r="B65" s="32" t="s">
         <v>4</v>
       </c>
@@ -8695,10 +8741,10 @@
       <c r="F65" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="G65" s="127"/>
+      <c r="G65" s="159"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="121"/>
+      <c r="A66" s="155"/>
       <c r="B66" s="32" t="s">
         <v>3</v>
       </c>
@@ -8714,10 +8760,10 @@
       <c r="F66" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="G66" s="127"/>
+      <c r="G66" s="159"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="121"/>
+      <c r="A67" s="155"/>
       <c r="B67" s="32" t="s">
         <v>3</v>
       </c>
@@ -8733,122 +8779,122 @@
       <c r="F67" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="G67" s="127"/>
-    </row>
-    <row r="68" spans="1:8" s="182" customFormat="1">
-      <c r="A68" s="121"/>
-      <c r="B68" s="178" t="s">
+      <c r="G67" s="159"/>
+    </row>
+    <row r="68" spans="1:8" s="134" customFormat="1">
+      <c r="A68" s="155"/>
+      <c r="B68" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="179" t="s">
+      <c r="C68" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="180" t="s">
+      <c r="D68" s="132" t="s">
         <v>321</v>
       </c>
-      <c r="E68" s="181" t="s">
+      <c r="E68" s="133" t="s">
         <v>322</v>
       </c>
-      <c r="F68" s="180" t="s">
+      <c r="F68" s="132" t="s">
         <v>323</v>
       </c>
-      <c r="G68" s="127"/>
-      <c r="H68" s="184" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="166" customFormat="1">
-      <c r="A69" s="161" t="s">
+      <c r="G68" s="159"/>
+      <c r="H68" s="136" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="124" customFormat="1">
+      <c r="A69" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="162" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="163" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="163" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="164" t="s">
+      <c r="B69" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="122" t="s">
         <v>536</v>
       </c>
-      <c r="F69" s="165" t="s">
+      <c r="F69" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="127" t="s">
-        <v>913</v>
-      </c>
-      <c r="H69" s="185"/>
-    </row>
-    <row r="70" spans="1:8" s="166" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="161"/>
-      <c r="B70" s="167" t="s">
+      <c r="G69" s="159" t="s">
+        <v>912</v>
+      </c>
+      <c r="H69" s="137"/>
+    </row>
+    <row r="70" spans="1:8" s="124" customFormat="1" ht="15" customHeight="1">
+      <c r="A70" s="160"/>
+      <c r="B70" s="125" t="s">
         <v>544</v>
       </c>
-      <c r="C70" s="168" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="169" t="s">
+      <c r="C70" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="127" t="s">
         <v>537</v>
       </c>
-      <c r="E70" s="168" t="s">
+      <c r="E70" s="126" t="s">
         <v>502</v>
       </c>
-      <c r="F70" s="169" t="s">
+      <c r="F70" s="127" t="s">
         <v>538</v>
       </c>
-      <c r="G70" s="127"/>
-      <c r="H70" s="185" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="166" customFormat="1">
-      <c r="A71" s="161" t="s">
+      <c r="G70" s="159"/>
+      <c r="H70" s="137" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="124" customFormat="1">
+      <c r="A71" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="162" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="163" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="163" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="164" t="s">
+      <c r="B71" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="122" t="s">
         <v>536</v>
       </c>
-      <c r="F71" s="165" t="s">
+      <c r="F71" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="127"/>
-      <c r="H71" s="185"/>
-    </row>
-    <row r="72" spans="1:8" s="166" customFormat="1">
-      <c r="A72" s="161"/>
-      <c r="B72" s="167" t="s">
+      <c r="G71" s="159"/>
+      <c r="H71" s="137"/>
+    </row>
+    <row r="72" spans="1:8" s="124" customFormat="1">
+      <c r="A72" s="160"/>
+      <c r="B72" s="125" t="s">
         <v>545</v>
       </c>
-      <c r="C72" s="168" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="169" t="s">
+      <c r="C72" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="127" t="s">
         <v>539</v>
       </c>
-      <c r="E72" s="168" t="s">
+      <c r="E72" s="126" t="s">
         <v>502</v>
       </c>
-      <c r="F72" s="169" t="s">
+      <c r="F72" s="127" t="s">
         <v>540</v>
       </c>
-      <c r="G72" s="127"/>
-      <c r="H72" s="185" t="s">
-        <v>966</v>
+      <c r="G72" s="159"/>
+      <c r="H72" s="137" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="121" t="s">
+      <c r="A73" s="155" t="s">
         <v>79</v>
       </c>
       <c r="B73" s="23" t="s">
@@ -8863,170 +8909,170 @@
       <c r="F73" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="127"/>
+      <c r="G73" s="159"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="121"/>
-      <c r="B74" s="115" t="s">
+      <c r="A74" s="155"/>
+      <c r="B74" s="173" t="s">
+        <v>920</v>
+      </c>
+      <c r="C74" s="147" t="s">
+        <v>919</v>
+      </c>
+      <c r="D74" s="176" t="s">
         <v>921</v>
       </c>
-      <c r="C74" s="102" t="s">
-        <v>920</v>
-      </c>
-      <c r="D74" s="110" t="s">
-        <v>922</v>
-      </c>
       <c r="E74" s="44" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F74" s="45" t="s">
         <v>847</v>
       </c>
-      <c r="G74" s="127"/>
+      <c r="G74" s="159"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="121"/>
-      <c r="B75" s="113"/>
-      <c r="C75" s="113"/>
-      <c r="D75" s="111"/>
+      <c r="A75" s="155"/>
+      <c r="B75" s="179"/>
+      <c r="C75" s="179"/>
+      <c r="D75" s="177"/>
       <c r="E75" s="44" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F75" s="45" t="s">
         <v>846</v>
       </c>
-      <c r="G75" s="127"/>
+      <c r="G75" s="159"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="121"/>
-      <c r="B76" s="114"/>
-      <c r="C76" s="114"/>
-      <c r="D76" s="112"/>
+      <c r="A76" s="155"/>
+      <c r="B76" s="174"/>
+      <c r="C76" s="174"/>
+      <c r="D76" s="178"/>
       <c r="E76" s="44" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F76" s="45" t="s">
         <v>845</v>
       </c>
-      <c r="G76" s="127"/>
+      <c r="G76" s="159"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="121"/>
+      <c r="A77" s="155"/>
       <c r="B77" s="23"/>
-      <c r="C77" s="93"/>
+      <c r="C77" s="89"/>
       <c r="E77" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="127"/>
-    </row>
-    <row r="78" spans="1:8" s="177" customFormat="1" ht="41.65">
-      <c r="A78" s="121"/>
-      <c r="B78" s="172" t="s">
+      <c r="G77" s="159"/>
+    </row>
+    <row r="78" spans="1:8" s="188" customFormat="1" ht="41.65">
+      <c r="A78" s="155"/>
+      <c r="B78" s="182" t="s">
         <v>218</v>
       </c>
-      <c r="C78" s="173" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" s="174" t="s">
+      <c r="C78" s="183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="184" t="s">
         <v>588</v>
       </c>
-      <c r="E78" s="175" t="s">
+      <c r="E78" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="F78" s="176" t="s">
+      <c r="F78" s="186" t="s">
         <v>590</v>
       </c>
-      <c r="G78" s="127"/>
-      <c r="H78" s="186" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="166" customFormat="1" ht="41.65">
-      <c r="A79" s="121"/>
-      <c r="B79" s="167" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="168" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="169" t="s">
+      <c r="G78" s="159"/>
+      <c r="H78" s="187" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="124" customFormat="1" ht="41.65">
+      <c r="A79" s="155"/>
+      <c r="B79" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="127" t="s">
         <v>586</v>
       </c>
-      <c r="E79" s="170" t="s">
+      <c r="E79" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="171" t="s">
+      <c r="F79" s="129" t="s">
         <v>587</v>
       </c>
-      <c r="G79" s="127"/>
-      <c r="H79" s="185" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="166" customFormat="1">
-      <c r="A80" s="121"/>
-      <c r="B80" s="167"/>
-      <c r="C80" s="168"/>
-      <c r="D80" s="169"/>
-      <c r="E80" s="164" t="s">
+      <c r="G79" s="159"/>
+      <c r="H79" s="137" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="124" customFormat="1">
+      <c r="A80" s="155"/>
+      <c r="B80" s="125"/>
+      <c r="C80" s="126"/>
+      <c r="D80" s="127"/>
+      <c r="E80" s="122" t="s">
+        <v>913</v>
+      </c>
+      <c r="F80" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="159"/>
+      <c r="H80" s="137"/>
+    </row>
+    <row r="81" spans="1:9" s="188" customFormat="1">
+      <c r="A81" s="155"/>
+      <c r="B81" s="189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="190" t="s">
+        <v>541</v>
+      </c>
+      <c r="E81" s="183" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="190" t="s">
         <v>914</v>
       </c>
-      <c r="F80" s="165" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="127"/>
-      <c r="H80" s="185"/>
-    </row>
-    <row r="81" spans="1:9" s="166" customFormat="1">
-      <c r="A81" s="121"/>
-      <c r="B81" s="167" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="168" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" s="169" t="s">
-        <v>541</v>
-      </c>
-      <c r="E81" s="168" t="s">
-        <v>41</v>
-      </c>
-      <c r="F81" s="169" t="s">
-        <v>915</v>
-      </c>
-      <c r="G81" s="127"/>
-      <c r="H81" s="185" t="s">
-        <v>963</v>
-      </c>
-      <c r="I81" s="166" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="166" customFormat="1">
-      <c r="A82" s="121"/>
-      <c r="B82" s="167" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="168" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="169" t="s">
+      <c r="G81" s="159"/>
+      <c r="H81" s="187" t="s">
+        <v>959</v>
+      </c>
+      <c r="I81" s="188" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="188" customFormat="1">
+      <c r="A82" s="155"/>
+      <c r="B82" s="189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="190" t="s">
         <v>542</v>
       </c>
-      <c r="E82" s="168" t="s">
+      <c r="E82" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="F82" s="169" t="s">
+      <c r="F82" s="190" t="s">
         <v>543</v>
       </c>
-      <c r="G82" s="127"/>
-      <c r="H82" s="185"/>
+      <c r="G82" s="159"/>
+      <c r="H82" s="187"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="121" t="s">
+      <c r="A83" s="155" t="s">
         <v>546</v>
       </c>
       <c r="B83" s="23" t="s">
@@ -9044,12 +9090,12 @@
       <c r="F83" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="127" t="s">
+      <c r="G83" s="159" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="121"/>
+      <c r="A84" s="155"/>
       <c r="B84" s="23" t="s">
         <v>4</v>
       </c>
@@ -9065,10 +9111,10 @@
       <c r="F84" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="G84" s="127"/>
+      <c r="G84" s="159"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="121"/>
+      <c r="A85" s="155"/>
       <c r="B85" s="32" t="s">
         <v>4</v>
       </c>
@@ -9084,10 +9130,10 @@
       <c r="F85" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="G85" s="127"/>
+      <c r="G85" s="159"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="121"/>
+      <c r="A86" s="155"/>
       <c r="B86" s="32" t="s">
         <v>550</v>
       </c>
@@ -9103,10 +9149,10 @@
       <c r="F86" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="G86" s="127"/>
+      <c r="G86" s="159"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="121" t="s">
+      <c r="A87" s="155" t="s">
         <v>554</v>
       </c>
       <c r="B87" s="23" t="s">
@@ -9119,62 +9165,62 @@
         <v>26</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="127" t="s">
+      <c r="G87" s="159" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="121"/>
-      <c r="B88" s="115" t="s">
+      <c r="A88" s="155"/>
+      <c r="B88" s="173" t="s">
         <v>303</v>
       </c>
-      <c r="C88" s="102" t="s">
+      <c r="C88" s="147" t="s">
         <v>885</v>
       </c>
-      <c r="D88" s="102" t="s">
+      <c r="D88" s="147" t="s">
         <v>886</v>
       </c>
-      <c r="E88" s="97" t="s">
+      <c r="E88" s="93" t="s">
+        <v>927</v>
+      </c>
+      <c r="F88" s="94" t="s">
         <v>928</v>
       </c>
-      <c r="F88" s="98" t="s">
-        <v>929</v>
-      </c>
-      <c r="G88" s="127"/>
+      <c r="G88" s="159"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="121"/>
-      <c r="B89" s="113"/>
-      <c r="C89" s="113"/>
-      <c r="D89" s="116"/>
-      <c r="E89" s="97" t="s">
-        <v>924</v>
-      </c>
-      <c r="F89" s="98" t="s">
+      <c r="A89" s="155"/>
+      <c r="B89" s="179"/>
+      <c r="C89" s="179"/>
+      <c r="D89" s="180"/>
+      <c r="E89" s="93" t="s">
         <v>923</v>
       </c>
-      <c r="G89" s="127"/>
+      <c r="F89" s="94" t="s">
+        <v>922</v>
+      </c>
+      <c r="G89" s="159"/>
     </row>
     <row r="90" spans="1:9" ht="27.75">
-      <c r="A90" s="121"/>
-      <c r="B90" s="114"/>
-      <c r="C90" s="114"/>
-      <c r="D90" s="117"/>
+      <c r="A90" s="155"/>
+      <c r="B90" s="174"/>
+      <c r="C90" s="174"/>
+      <c r="D90" s="181"/>
       <c r="E90" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="F90" s="55" t="s">
-        <v>925</v>
-      </c>
-      <c r="G90" s="127"/>
+      <c r="F90" s="54" t="s">
+        <v>924</v>
+      </c>
+      <c r="G90" s="159"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="121"/>
+      <c r="A91" s="155"/>
       <c r="B91" s="32" t="s">
         <v>4</v>
       </c>
@@ -9190,10 +9236,10 @@
       <c r="F91" s="28" t="s">
         <v>558</v>
       </c>
-      <c r="G91" s="127"/>
+      <c r="G91" s="159"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="121"/>
+      <c r="A92" s="155"/>
       <c r="B92" s="32" t="s">
         <v>4</v>
       </c>
@@ -9209,10 +9255,10 @@
       <c r="F92" s="28" t="s">
         <v>559</v>
       </c>
-      <c r="G92" s="127"/>
+      <c r="G92" s="159"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="121" t="s">
+      <c r="A93" s="155" t="s">
         <v>566</v>
       </c>
       <c r="B93" s="23" t="s">
@@ -9230,12 +9276,12 @@
       <c r="F93" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G93" s="122" t="s">
+      <c r="G93" s="156" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="25.5">
-      <c r="A94" s="121"/>
+      <c r="A94" s="155"/>
       <c r="B94" s="23" t="s">
         <v>110</v>
       </c>
@@ -9243,63 +9289,63 @@
         <v>28</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E94" s="15" t="s">
         <v>813</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>927</v>
-      </c>
-      <c r="G94" s="119"/>
-    </row>
-    <row r="95" spans="1:9" s="160" customFormat="1" ht="76.5">
-      <c r="A95" s="121"/>
-      <c r="B95" s="155" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="156" t="s">
-        <v>28</v>
-      </c>
-      <c r="D95" s="157" t="s">
+        <v>926</v>
+      </c>
+      <c r="G94" s="157"/>
+    </row>
+    <row r="95" spans="1:9" s="119" customFormat="1" ht="76.5">
+      <c r="A95" s="155"/>
+      <c r="B95" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="116" t="s">
         <v>563</v>
       </c>
-      <c r="E95" s="158" t="s">
+      <c r="E95" s="117" t="s">
         <v>564</v>
       </c>
-      <c r="F95" s="159" t="s">
+      <c r="F95" s="118" t="s">
         <v>565</v>
       </c>
-      <c r="G95" s="119"/>
-      <c r="H95" s="187"/>
-    </row>
-    <row r="96" spans="1:9" s="135" customFormat="1">
-      <c r="A96" s="121"/>
-      <c r="B96" s="131" t="s">
+      <c r="G95" s="157"/>
+      <c r="H95" s="138"/>
+    </row>
+    <row r="96" spans="1:9" s="99" customFormat="1">
+      <c r="A96" s="155"/>
+      <c r="B96" s="95" t="s">
+        <v>932</v>
+      </c>
+      <c r="C96" s="96" t="s">
         <v>933</v>
       </c>
-      <c r="C96" s="132" t="s">
+      <c r="D96" s="97" t="s">
         <v>934</v>
       </c>
-      <c r="D96" s="133" t="s">
+      <c r="E96" s="98" t="s">
         <v>935</v>
       </c>
-      <c r="E96" s="134" t="s">
+      <c r="F96" s="97" t="s">
         <v>936</v>
       </c>
-      <c r="F96" s="133" t="s">
-        <v>937</v>
-      </c>
-      <c r="G96" s="119"/>
-      <c r="H96" s="188">
+      <c r="G96" s="157"/>
+      <c r="H96" s="139">
         <v>1</v>
       </c>
-      <c r="I96" s="135" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="121"/>
+      <c r="I96" s="99" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="155"/>
       <c r="B97" s="32" t="s">
         <v>4</v>
       </c>
@@ -9315,241 +9361,254 @@
       <c r="F97" s="28" t="s">
         <v>876</v>
       </c>
-      <c r="G97" s="119"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="121" t="s">
+      <c r="G97" s="157"/>
+    </row>
+    <row r="98" spans="1:10" s="188" customFormat="1">
+      <c r="A98" s="191" t="s">
         <v>570</v>
       </c>
-      <c r="B98" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C98" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D98" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="5" t="s">
+      <c r="B98" s="182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="192" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="192" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="193" t="s">
         <v>569</v>
       </c>
-      <c r="F98" s="12" t="s">
+      <c r="F98" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="G98" s="119"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="121"/>
-      <c r="B99" s="23" t="s">
+      <c r="G98" s="157"/>
+      <c r="H98" s="187"/>
+    </row>
+    <row r="99" spans="1:10" s="188" customFormat="1">
+      <c r="A99" s="191"/>
+      <c r="B99" s="182" t="s">
         <v>887</v>
       </c>
-      <c r="C99" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D99" s="7" t="s">
+      <c r="C99" s="192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="195" t="s">
         <v>567</v>
       </c>
-      <c r="E99" s="47" t="s">
+      <c r="E99" s="185" t="s">
         <v>577</v>
       </c>
-      <c r="F99" s="53" t="s">
+      <c r="F99" s="196" t="s">
         <v>568</v>
       </c>
-      <c r="G99" s="119"/>
-      <c r="H99" s="183" t="s">
+      <c r="G99" s="157"/>
+      <c r="H99" s="187" t="s">
+        <v>954</v>
+      </c>
+      <c r="I99" s="188" t="s">
         <v>955</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" s="188" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="188" customFormat="1">
+      <c r="A100" s="191" t="s">
+        <v>789</v>
+      </c>
+      <c r="B100" s="182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="192" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="192" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="193" t="s">
+        <v>569</v>
+      </c>
+      <c r="F100" s="194" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="157"/>
+      <c r="H100" s="187"/>
+    </row>
+    <row r="101" spans="1:10" s="188" customFormat="1">
+      <c r="A101" s="191"/>
+      <c r="B101" s="182" t="s">
+        <v>888</v>
+      </c>
+      <c r="C101" s="192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="195" t="s">
+        <v>571</v>
+      </c>
+      <c r="E101" s="185" t="s">
+        <v>577</v>
+      </c>
+      <c r="F101" s="196" t="s">
+        <v>572</v>
+      </c>
+      <c r="G101" s="157"/>
+      <c r="H101" s="187" t="s">
+        <v>963</v>
+      </c>
+      <c r="J101" s="188" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="188" customFormat="1">
+      <c r="A102" s="191" t="s">
+        <v>580</v>
+      </c>
+      <c r="B102" s="182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="192" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" s="192" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="193" t="s">
+        <v>882</v>
+      </c>
+      <c r="F102" s="194" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" s="157"/>
+      <c r="H102" s="187"/>
+    </row>
+    <row r="103" spans="1:10" s="188" customFormat="1">
+      <c r="A103" s="191"/>
+      <c r="B103" s="197"/>
+      <c r="C103" s="198" t="s">
+        <v>759</v>
+      </c>
+      <c r="D103" s="199" t="s">
+        <v>760</v>
+      </c>
+      <c r="E103" s="192" t="s">
+        <v>881</v>
+      </c>
+      <c r="F103" s="200" t="s">
+        <v>761</v>
+      </c>
+      <c r="G103" s="157"/>
+      <c r="H103" s="187" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="188" customFormat="1">
+      <c r="A104" s="191"/>
+      <c r="B104" s="197"/>
+      <c r="C104" s="198"/>
+      <c r="D104" s="199"/>
+      <c r="E104" s="193" t="s">
+        <v>880</v>
+      </c>
+      <c r="F104" s="194" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="157"/>
+      <c r="H104" s="187"/>
+    </row>
+    <row r="105" spans="1:10" s="188" customFormat="1">
+      <c r="A105" s="191"/>
+      <c r="B105" s="197" t="s">
+        <v>218</v>
+      </c>
+      <c r="C105" s="198" t="s">
+        <v>534</v>
+      </c>
+      <c r="D105" s="199" t="s">
+        <v>757</v>
+      </c>
+      <c r="E105" s="192" t="s">
+        <v>879</v>
+      </c>
+      <c r="F105" s="200" t="s">
+        <v>877</v>
+      </c>
+      <c r="G105" s="157"/>
+      <c r="H105" s="187" t="s">
+        <v>957</v>
+      </c>
+      <c r="I105" s="188" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="188" customFormat="1">
+      <c r="A106" s="191"/>
+      <c r="B106" s="182" t="s">
+        <v>883</v>
+      </c>
+      <c r="C106" s="192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="195" t="s">
+        <v>574</v>
+      </c>
+      <c r="E106" s="185" t="s">
+        <v>578</v>
+      </c>
+      <c r="F106" s="196" t="s">
+        <v>575</v>
+      </c>
+      <c r="G106" s="157"/>
+      <c r="H106" s="187" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="121" t="s">
-        <v>789</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="F100" s="12" t="s">
+    <row r="107" spans="1:10" s="110" customFormat="1">
+      <c r="A107" s="170" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="108" t="s">
+        <v>581</v>
+      </c>
+      <c r="F107" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="G100" s="119"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="121"/>
-      <c r="B101" s="23" t="s">
-        <v>888</v>
-      </c>
-      <c r="C101" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="E101" s="47" t="s">
-        <v>577</v>
-      </c>
-      <c r="F101" s="53" t="s">
-        <v>572</v>
-      </c>
-      <c r="G101" s="119"/>
-      <c r="H101" s="183" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="121" t="s">
-        <v>580</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D102" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" s="119"/>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="121"/>
-      <c r="B103" s="91"/>
-      <c r="C103" s="88" t="s">
-        <v>759</v>
-      </c>
-      <c r="D103" s="90" t="s">
-        <v>760</v>
-      </c>
-      <c r="E103" s="44" t="s">
-        <v>881</v>
-      </c>
-      <c r="F103" s="45" t="s">
-        <v>761</v>
-      </c>
-      <c r="G103" s="119"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="121"/>
-      <c r="B104" s="91"/>
-      <c r="C104" s="88"/>
-      <c r="D104" s="90"/>
-      <c r="E104" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" s="119"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="121"/>
-      <c r="B105" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="C105" s="88" t="s">
-        <v>534</v>
-      </c>
-      <c r="D105" s="90" t="s">
-        <v>757</v>
-      </c>
-      <c r="E105" s="44" t="s">
-        <v>879</v>
-      </c>
-      <c r="F105" s="45" t="s">
-        <v>877</v>
-      </c>
-      <c r="G105" s="119"/>
-      <c r="H105" s="183" t="s">
-        <v>960</v>
-      </c>
-      <c r="I105" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="121"/>
-      <c r="B106" s="23" t="s">
-        <v>883</v>
-      </c>
-      <c r="C106" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="E106" s="47" t="s">
-        <v>578</v>
-      </c>
-      <c r="F106" s="53" t="s">
-        <v>575</v>
-      </c>
-      <c r="G106" s="119"/>
-      <c r="H106" s="183" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="151" customFormat="1">
-      <c r="A107" s="146" t="s">
-        <v>183</v>
-      </c>
-      <c r="B107" s="147" t="s">
-        <v>26</v>
-      </c>
-      <c r="C107" s="148" t="s">
-        <v>26</v>
-      </c>
-      <c r="D107" s="148" t="s">
-        <v>26</v>
-      </c>
-      <c r="E107" s="149" t="s">
-        <v>581</v>
-      </c>
-      <c r="F107" s="150" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" s="119"/>
-      <c r="H107" s="189"/>
-    </row>
-    <row r="108" spans="1:9" s="151" customFormat="1">
-      <c r="A108" s="146"/>
-      <c r="B108" s="147" t="s">
+      <c r="G107" s="157"/>
+      <c r="H107" s="140"/>
+    </row>
+    <row r="108" spans="1:10" s="110" customFormat="1">
+      <c r="A108" s="170"/>
+      <c r="B108" s="106" t="s">
         <v>884</v>
       </c>
-      <c r="C108" s="148" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" s="152" t="s">
+      <c r="C108" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="111" t="s">
         <v>562</v>
       </c>
-      <c r="E108" s="153" t="s">
+      <c r="E108" s="112" t="s">
         <v>579</v>
       </c>
-      <c r="F108" s="154" t="s">
+      <c r="F108" s="113" t="s">
         <v>576</v>
       </c>
-      <c r="G108" s="120"/>
-      <c r="H108" s="189" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="121" t="s">
+      <c r="G108" s="158"/>
+      <c r="H108" s="140" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="155" t="s">
         <v>583</v>
       </c>
       <c r="B109" s="23" t="s">
@@ -9567,19 +9626,19 @@
       <c r="F109" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G109" s="122" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="121"/>
-      <c r="B110" s="115" t="s">
+      <c r="G109" s="156" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="155"/>
+      <c r="B110" s="173" t="s">
         <v>754</v>
       </c>
-      <c r="C110" s="102" t="s">
+      <c r="C110" s="147" t="s">
         <v>755</v>
       </c>
-      <c r="D110" s="123" t="s">
+      <c r="D110" s="171" t="s">
         <v>762</v>
       </c>
       <c r="E110" s="44" t="s">
@@ -9588,23 +9647,23 @@
       <c r="F110" s="45" t="s">
         <v>756</v>
       </c>
-      <c r="G110" s="119"/>
-    </row>
-    <row r="111" spans="1:9" ht="55.5">
-      <c r="A111" s="121"/>
-      <c r="B111" s="114"/>
-      <c r="C111" s="114"/>
-      <c r="D111" s="124"/>
-      <c r="E111" s="59" t="s">
+      <c r="G110" s="157"/>
+    </row>
+    <row r="111" spans="1:10" ht="55.5">
+      <c r="A111" s="155"/>
+      <c r="B111" s="174"/>
+      <c r="C111" s="174"/>
+      <c r="D111" s="172"/>
+      <c r="E111" s="58" t="s">
         <v>752</v>
       </c>
-      <c r="F111" s="54" t="s">
+      <c r="F111" s="53" t="s">
         <v>585</v>
       </c>
-      <c r="G111" s="119"/>
-    </row>
-    <row r="112" spans="1:9" ht="41.65">
-      <c r="A112" s="121"/>
+      <c r="G111" s="157"/>
+    </row>
+    <row r="112" spans="1:10" ht="41.65">
+      <c r="A112" s="155"/>
       <c r="B112" s="23" t="s">
         <v>4</v>
       </c>
@@ -9617,118 +9676,118 @@
       <c r="E112" s="52" t="s">
         <v>584</v>
       </c>
-      <c r="F112" s="54" t="s">
+      <c r="F112" s="53" t="s">
         <v>794</v>
       </c>
-      <c r="G112" s="119"/>
-    </row>
-    <row r="113" spans="1:10" s="143" customFormat="1">
-      <c r="A113" s="136" t="s">
+      <c r="G112" s="157"/>
+    </row>
+    <row r="113" spans="1:10" s="105" customFormat="1">
+      <c r="A113" s="167" t="s">
         <v>764</v>
       </c>
-      <c r="B113" s="137"/>
-      <c r="C113" s="138" t="s">
+      <c r="B113" s="100"/>
+      <c r="C113" s="101" t="s">
         <v>759</v>
       </c>
-      <c r="D113" s="139" t="s">
+      <c r="D113" s="102" t="s">
         <v>774</v>
       </c>
-      <c r="E113" s="140" t="s">
+      <c r="E113" s="103" t="s">
         <v>775</v>
       </c>
-      <c r="F113" s="141" t="s">
+      <c r="F113" s="104" t="s">
         <v>776</v>
       </c>
-      <c r="G113" s="142" t="s">
+      <c r="G113" s="175" t="s">
         <v>889</v>
       </c>
-      <c r="H113" s="190" t="s">
+      <c r="H113" s="141" t="s">
+        <v>941</v>
+      </c>
+      <c r="I113" s="105" t="s">
         <v>942</v>
       </c>
-      <c r="I113" s="143" t="s">
+      <c r="J113" s="105" t="s">
         <v>943</v>
       </c>
-      <c r="J113" s="143" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="143" customFormat="1">
-      <c r="A114" s="144"/>
-      <c r="B114" s="137" t="s">
+    </row>
+    <row r="114" spans="1:10" s="105" customFormat="1">
+      <c r="A114" s="168"/>
+      <c r="B114" s="100" t="s">
         <v>758</v>
       </c>
-      <c r="C114" s="138" t="s">
-        <v>28</v>
-      </c>
-      <c r="D114" s="139" t="s">
+      <c r="C114" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="102" t="s">
         <v>771</v>
       </c>
-      <c r="E114" s="140" t="s">
+      <c r="E114" s="103" t="s">
         <v>772</v>
       </c>
-      <c r="F114" s="141" t="s">
+      <c r="F114" s="104" t="s">
         <v>773</v>
       </c>
-      <c r="G114" s="144"/>
-      <c r="H114" s="190" t="s">
+      <c r="G114" s="168"/>
+      <c r="H114" s="141" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="105" customFormat="1">
+      <c r="A115" s="168"/>
+      <c r="B115" s="100" t="s">
+        <v>758</v>
+      </c>
+      <c r="C115" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="102" t="s">
+        <v>768</v>
+      </c>
+      <c r="E115" s="103" t="s">
+        <v>769</v>
+      </c>
+      <c r="F115" s="104" t="s">
+        <v>770</v>
+      </c>
+      <c r="G115" s="168"/>
+      <c r="H115" s="141" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="105" customFormat="1">
+      <c r="A116" s="169"/>
+      <c r="B116" s="100" t="s">
+        <v>758</v>
+      </c>
+      <c r="C116" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="102" t="s">
+        <v>766</v>
+      </c>
+      <c r="E116" s="103" t="s">
+        <v>765</v>
+      </c>
+      <c r="F116" s="104" t="s">
+        <v>767</v>
+      </c>
+      <c r="G116" s="169"/>
+      <c r="H116" s="141" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="143" customFormat="1">
-      <c r="A115" s="144"/>
-      <c r="B115" s="137" t="s">
-        <v>758</v>
-      </c>
-      <c r="C115" s="138" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="E115" s="140" t="s">
-        <v>769</v>
-      </c>
-      <c r="F115" s="141" t="s">
-        <v>770</v>
-      </c>
-      <c r="G115" s="144"/>
-      <c r="H115" s="190" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="143" customFormat="1">
-      <c r="A116" s="145"/>
-      <c r="B116" s="137" t="s">
-        <v>758</v>
-      </c>
-      <c r="C116" s="138" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" s="139" t="s">
-        <v>766</v>
-      </c>
-      <c r="E116" s="140" t="s">
-        <v>765</v>
-      </c>
-      <c r="F116" s="141" t="s">
-        <v>767</v>
-      </c>
-      <c r="G116" s="145"/>
-      <c r="H116" s="190" t="s">
-        <v>954</v>
-      </c>
-    </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="121" t="s">
+      <c r="A117" s="155" t="s">
         <v>600</v>
       </c>
       <c r="B117" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C117" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D117" s="56" t="s">
+      <c r="C117" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="55" t="s">
         <v>26</v>
       </c>
       <c r="E117" s="5" t="s">
@@ -9737,12 +9796,12 @@
       <c r="F117" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="127" t="s">
+      <c r="G117" s="159" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="121"/>
+      <c r="A118" s="155"/>
       <c r="B118" s="32" t="s">
         <v>110</v>
       </c>
@@ -9758,10 +9817,10 @@
       <c r="F118" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="G118" s="127"/>
+      <c r="G118" s="159"/>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="121"/>
+      <c r="A119" s="155"/>
       <c r="B119" s="32" t="s">
         <v>550</v>
       </c>
@@ -9777,19 +9836,19 @@
       <c r="F119" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="G119" s="127"/>
+      <c r="G119" s="159"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="121" t="s">
+      <c r="A120" s="155" t="s">
         <v>601</v>
       </c>
       <c r="B120" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C120" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="D120" s="57" t="s">
+      <c r="C120" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="56" t="s">
         <v>26</v>
       </c>
       <c r="E120" s="5" t="s">
@@ -9798,12 +9857,12 @@
       <c r="F120" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G120" s="122" t="s">
+      <c r="G120" s="156" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="121"/>
+      <c r="A121" s="155"/>
       <c r="B121" s="32" t="s">
         <v>607</v>
       </c>
@@ -9819,10 +9878,10 @@
       <c r="F121" s="28" t="s">
         <v>609</v>
       </c>
-      <c r="G121" s="119"/>
+      <c r="G121" s="157"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="121"/>
+      <c r="A122" s="155"/>
       <c r="B122" s="32" t="s">
         <v>607</v>
       </c>
@@ -9838,10 +9897,10 @@
       <c r="F122" s="28" t="s">
         <v>611</v>
       </c>
-      <c r="G122" s="119"/>
+      <c r="G122" s="157"/>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="121"/>
+      <c r="A123" s="155"/>
       <c r="B123" s="32" t="s">
         <v>604</v>
       </c>
@@ -9857,10 +9916,10 @@
       <c r="F123" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="G123" s="119"/>
+      <c r="G123" s="157"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="121"/>
+      <c r="A124" s="155"/>
       <c r="B124" s="32" t="s">
         <v>606</v>
       </c>
@@ -9876,10 +9935,10 @@
       <c r="F124" s="28" t="s">
         <v>616</v>
       </c>
-      <c r="G124" s="119"/>
+      <c r="G124" s="157"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="121"/>
+      <c r="A125" s="155"/>
       <c r="B125" s="32" t="s">
         <v>605</v>
       </c>
@@ -9895,10 +9954,10 @@
       <c r="F125" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="G125" s="119"/>
+      <c r="G125" s="157"/>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="121"/>
+      <c r="A126" s="155"/>
       <c r="B126" s="32" t="s">
         <v>605</v>
       </c>
@@ -9914,10 +9973,10 @@
       <c r="F126" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="G126" s="119"/>
+      <c r="G126" s="157"/>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="121"/>
+      <c r="A127" s="155"/>
       <c r="B127" s="32" t="s">
         <v>604</v>
       </c>
@@ -9933,10 +9992,10 @@
       <c r="F127" s="28" t="s">
         <v>622</v>
       </c>
-      <c r="G127" s="119"/>
+      <c r="G127" s="157"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="121"/>
+      <c r="A128" s="155"/>
       <c r="B128" s="32" t="s">
         <v>603</v>
       </c>
@@ -9952,19 +10011,19 @@
       <c r="F128" s="28" t="s">
         <v>624</v>
       </c>
-      <c r="G128" s="120"/>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="121" t="s">
+      <c r="G128" s="158"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="155" t="s">
         <v>890</v>
       </c>
       <c r="B129" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C129" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="D129" s="89" t="s">
+      <c r="C129" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" s="87" t="s">
         <v>26</v>
       </c>
       <c r="E129" s="5" t="s">
@@ -9973,13 +10032,13 @@
       <c r="F129" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G129" s="122" t="s">
-        <v>911</v>
-      </c>
-      <c r="H129" s="191"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="121"/>
+      <c r="G129" s="156" t="s">
+        <v>910</v>
+      </c>
+      <c r="H129" s="142"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="155"/>
       <c r="B130" s="32"/>
       <c r="C130" s="9" t="s">
         <v>0</v>
@@ -9993,22 +10052,25 @@
       <c r="F130" s="28" t="s">
         <v>896</v>
       </c>
-      <c r="G130" s="119"/>
-      <c r="H130" s="191" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="121" t="s">
+      <c r="G130" s="157"/>
+      <c r="H130" s="142" t="s">
+        <v>945</v>
+      </c>
+      <c r="I130" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="155" t="s">
         <v>893</v>
       </c>
       <c r="B131" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="D131" s="89" t="s">
+      <c r="C131" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" s="87" t="s">
         <v>26</v>
       </c>
       <c r="E131" s="5" t="s">
@@ -10017,11 +10079,11 @@
       <c r="F131" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G131" s="119"/>
-      <c r="H131" s="191"/>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="121"/>
+      <c r="G131" s="157"/>
+      <c r="H131" s="142"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="155"/>
       <c r="B132" s="32"/>
       <c r="C132" s="9" t="s">
         <v>0</v>
@@ -10035,22 +10097,22 @@
       <c r="F132" s="28" t="s">
         <v>895</v>
       </c>
-      <c r="G132" s="119"/>
-      <c r="H132" s="191" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="121" t="s">
+      <c r="G132" s="157"/>
+      <c r="H132" s="142" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="155" t="s">
         <v>899</v>
       </c>
       <c r="B133" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C133" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="D133" s="89" t="s">
+      <c r="C133" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="87" t="s">
         <v>26</v>
       </c>
       <c r="E133" s="5" t="s">
@@ -10059,11 +10121,11 @@
       <c r="F133" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G133" s="119"/>
-      <c r="H133" s="191"/>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="121"/>
+      <c r="G133" s="157"/>
+      <c r="H133" s="142"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="155"/>
       <c r="B134" s="32"/>
       <c r="C134" s="9" t="s">
         <v>0</v>
@@ -10077,22 +10139,22 @@
       <c r="F134" s="28" t="s">
         <v>898</v>
       </c>
-      <c r="G134" s="119"/>
-      <c r="H134" s="192" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="121" t="s">
+      <c r="G134" s="157"/>
+      <c r="H134" s="143" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="155" t="s">
         <v>900</v>
       </c>
       <c r="B135" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C135" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="D135" s="89" t="s">
+      <c r="C135" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="87" t="s">
         <v>26</v>
       </c>
       <c r="E135" s="5" t="s">
@@ -10101,45 +10163,45 @@
       <c r="F135" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G135" s="119"/>
-      <c r="H135" s="192"/>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="121"/>
+      <c r="G135" s="157"/>
+      <c r="H135" s="143"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="155"/>
       <c r="B136" s="23"/>
       <c r="C136" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D136" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="E136" s="9" t="s">
         <v>903</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="F136" s="28" t="s">
         <v>904</v>
       </c>
-      <c r="F136" s="28" t="s">
-        <v>905</v>
-      </c>
-      <c r="G136" s="119"/>
-      <c r="H136" s="192" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="121"/>
+      <c r="G136" s="157"/>
+      <c r="H136" s="143" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="155"/>
       <c r="B137" s="23"/>
-      <c r="C137" s="89"/>
-      <c r="D137" s="89"/>
+      <c r="C137" s="87"/>
+      <c r="D137" s="87"/>
       <c r="E137" s="5" t="s">
         <v>878</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G137" s="119"/>
-      <c r="H137" s="192"/>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="121"/>
+      <c r="G137" s="157"/>
+      <c r="H137" s="143"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="155"/>
       <c r="B138" s="32"/>
       <c r="C138" s="9" t="s">
         <v>0</v>
@@ -10151,24 +10213,24 @@
         <v>662</v>
       </c>
       <c r="F138" s="28" t="s">
-        <v>902</v>
-      </c>
-      <c r="G138" s="119"/>
-      <c r="H138" s="192" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="121" t="s">
-        <v>906</v>
+        <v>962</v>
+      </c>
+      <c r="G138" s="157"/>
+      <c r="H138" s="143" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="155" t="s">
+        <v>905</v>
       </c>
       <c r="B139" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C139" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="D139" s="89" t="s">
+      <c r="C139" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="87" t="s">
         <v>26</v>
       </c>
       <c r="E139" s="5" t="s">
@@ -10177,71 +10239,102 @@
       <c r="F139" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G139" s="119"/>
-      <c r="H139" s="192"/>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="121"/>
+      <c r="G139" s="157"/>
+      <c r="H139" s="143"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="155"/>
       <c r="B140" s="23"/>
       <c r="C140" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D140" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="F140" s="28" t="s">
         <v>908</v>
       </c>
-      <c r="E140" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="F140" s="28" t="s">
-        <v>909</v>
-      </c>
-      <c r="G140" s="119"/>
-      <c r="H140" s="192" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="121"/>
+      <c r="G140" s="157"/>
+      <c r="H140" s="143" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="155"/>
       <c r="B141" s="23"/>
-      <c r="C141" s="89"/>
-      <c r="D141" s="89"/>
+      <c r="C141" s="87"/>
+      <c r="D141" s="87"/>
       <c r="E141" s="5" t="s">
         <v>878</v>
       </c>
       <c r="F141" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G141" s="119"/>
-      <c r="H141" s="192"/>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="121"/>
+      <c r="G141" s="157"/>
+      <c r="H141" s="143"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="155"/>
       <c r="B142" s="32"/>
       <c r="C142" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>662</v>
       </c>
       <c r="F142" s="28" t="s">
-        <v>910</v>
-      </c>
-      <c r="G142" s="120"/>
-      <c r="H142" s="192" t="s">
-        <v>950</v>
+        <v>909</v>
+      </c>
+      <c r="G142" s="158"/>
+      <c r="H142" s="143" t="s">
+        <v>949</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="G129:G142"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="G93:G108"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="G113:G116"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G20:G22"/>
     <mergeCell ref="A120:A128"/>
     <mergeCell ref="G120:G128"/>
     <mergeCell ref="G23:G43"/>
@@ -10258,43 +10351,12 @@
     <mergeCell ref="G87:G92"/>
     <mergeCell ref="G44:G51"/>
     <mergeCell ref="A63:A68"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="G93:G108"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="G113:G116"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="G129:G142"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A134"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10317,14 +10379,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41.55" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="150" t="s">
         <v>744</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -10347,7 +10409,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="149" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -10367,7 +10429,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="104"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
@@ -10385,7 +10447,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="38" t="s">
         <v>4</v>
       </c>
@@ -10403,7 +10465,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="104"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="38" t="s">
         <v>4</v>
       </c>
@@ -10421,7 +10483,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="104"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="38" t="s">
         <v>4</v>
       </c>
@@ -10439,7 +10501,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="106"/>
+      <c r="A8" s="151"/>
       <c r="B8" s="38" t="s">
         <v>163</v>
       </c>
@@ -10457,7 +10519,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -10477,7 +10539,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="104"/>
+      <c r="A10" s="149"/>
       <c r="B10" s="38" t="s">
         <v>4</v>
       </c>
@@ -10495,7 +10557,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="104"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="38" t="s">
         <v>4</v>
       </c>
@@ -10513,7 +10575,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="104"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="38" t="s">
         <v>4</v>
       </c>
@@ -10531,7 +10593,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="104"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="38" t="s">
         <v>4</v>
       </c>
@@ -10549,7 +10611,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="104"/>
+      <c r="A14" s="149"/>
       <c r="B14" s="38" t="s">
         <v>4</v>
       </c>
@@ -10567,7 +10629,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="127.5">
-      <c r="A15" s="106"/>
+      <c r="A15" s="151"/>
       <c r="B15" s="38" t="s">
         <v>345</v>
       </c>
@@ -10585,7 +10647,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="149" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="38" t="s">
@@ -10605,7 +10667,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="106"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="38" t="s">
         <v>4</v>
       </c>
@@ -10623,7 +10685,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="149" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -10643,7 +10705,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="106"/>
+      <c r="A19" s="151"/>
       <c r="B19" s="38" t="s">
         <v>4</v>
       </c>
@@ -10661,7 +10723,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="147" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -10681,7 +10743,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="51">
-      <c r="A21" s="107"/>
+      <c r="A21" s="152"/>
       <c r="B21" s="38" t="s">
         <v>4</v>
       </c>
@@ -10699,7 +10761,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="107"/>
+      <c r="A22" s="152"/>
       <c r="B22" s="38" t="s">
         <v>4</v>
       </c>
@@ -10717,7 +10779,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="107"/>
+      <c r="A23" s="152"/>
       <c r="B23" s="38" t="s">
         <v>4</v>
       </c>
@@ -10735,7 +10797,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="107"/>
+      <c r="A24" s="152"/>
       <c r="B24" s="38" t="s">
         <v>4</v>
       </c>
@@ -10753,7 +10815,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="107"/>
+      <c r="A25" s="152"/>
       <c r="B25" s="38" t="s">
         <v>4</v>
       </c>
@@ -10771,7 +10833,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="103"/>
+      <c r="A26" s="148"/>
       <c r="B26" s="38" t="s">
         <v>4</v>
       </c>
@@ -10789,7 +10851,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="147" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="38" t="s">
@@ -10809,7 +10871,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="107"/>
+      <c r="A28" s="152"/>
       <c r="B28" s="38" t="s">
         <v>4</v>
       </c>
@@ -10827,7 +10889,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="102">
-      <c r="A29" s="107"/>
+      <c r="A29" s="152"/>
       <c r="B29" s="38" t="s">
         <v>4</v>
       </c>
@@ -10845,7 +10907,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="107"/>
+      <c r="A30" s="152"/>
       <c r="B30" s="38" t="s">
         <v>4</v>
       </c>
@@ -10863,7 +10925,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="114.75">
-      <c r="A31" s="103"/>
+      <c r="A31" s="148"/>
       <c r="B31" s="38" t="s">
         <v>4</v>
       </c>
@@ -10881,7 +10943,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="104" t="s">
+      <c r="A32" s="149" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="38" t="s">
@@ -10901,7 +10963,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="104"/>
+      <c r="A33" s="149"/>
       <c r="B33" s="38" t="s">
         <v>371</v>
       </c>
@@ -10919,7 +10981,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="149" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="38" t="s">
@@ -10939,7 +11001,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="104"/>
+      <c r="A35" s="149"/>
       <c r="B35" s="38" t="s">
         <v>372</v>
       </c>
@@ -10957,10 +11019,10 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="82"/>
+      <c r="D36" s="81"/>
       <c r="E36" s="5" t="s">
         <v>395</v>
       </c>
@@ -10969,50 +11031,50 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="96"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="D37" s="96" t="s">
-        <v>931</v>
+      <c r="D37" s="92" t="s">
+        <v>930</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>263</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="83.25">
-      <c r="A38" s="107"/>
-      <c r="B38" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="82" t="s">
+      <c r="A38" s="152"/>
+      <c r="B38" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="81" t="s">
         <v>779</v>
       </c>
-      <c r="D38" s="82" t="s">
+      <c r="D38" s="81" t="s">
         <v>780</v>
       </c>
-      <c r="E38" s="83" t="s">
+      <c r="E38" s="82" t="s">
         <v>781</v>
       </c>
-      <c r="F38" s="84" t="s">
+      <c r="F38" s="83" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="103"/>
-      <c r="B39" s="82" t="s">
+      <c r="A39" s="148"/>
+      <c r="B39" s="81" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="82" t="s">
+      <c r="D39" s="81" t="s">
         <v>777</v>
       </c>
       <c r="E39" s="15" t="s">
@@ -11057,14 +11119,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -11087,7 +11149,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="149" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -11107,7 +11169,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="106"/>
+      <c r="A4" s="151"/>
       <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
@@ -11145,7 +11207,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="149" t="s">
         <v>126</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -11165,7 +11227,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="106"/>
+      <c r="A7" s="151"/>
       <c r="B7" s="43" t="s">
         <v>4</v>
       </c>
@@ -11203,16 +11265,16 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="147" t="s">
         <v>839</v>
       </c>
-      <c r="C9" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="102" t="s">
+      <c r="C9" s="147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="147" t="s">
         <v>748</v>
       </c>
       <c r="E9" s="44" t="s">
@@ -11223,10 +11285,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="113"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="44" t="s">
         <v>835</v>
       </c>
@@ -11235,10 +11297,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="113"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="44" t="s">
         <v>833</v>
       </c>
@@ -11247,10 +11309,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="179"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="44" t="s">
         <v>831</v>
       </c>
@@ -11259,10 +11321,10 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="179"/>
+      <c r="B13" s="179"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="44" t="s">
         <v>829</v>
       </c>
@@ -11271,10 +11333,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
+      <c r="A14" s="179"/>
+      <c r="B14" s="179"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="44" t="s">
         <v>827</v>
       </c>
@@ -11283,10 +11345,10 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="113"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
+      <c r="A15" s="179"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="44" t="s">
         <v>825</v>
       </c>
@@ -11295,10 +11357,10 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="113"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="44" t="s">
         <v>823</v>
       </c>
@@ -11307,10 +11369,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="113"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="44" t="s">
         <v>821</v>
       </c>
@@ -11319,10 +11381,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="113"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
+      <c r="A18" s="179"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="44" t="s">
         <v>819</v>
       </c>
@@ -11331,10 +11393,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="113"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
+      <c r="A19" s="179"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="179"/>
       <c r="E19" s="44" t="s">
         <v>817</v>
       </c>
@@ -11343,10 +11405,10 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="44" t="s">
         <v>815</v>
       </c>
@@ -11355,10 +11417,10 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="44" t="s">
         <v>813</v>
       </c>
@@ -11367,10 +11429,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="113"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
       <c r="E22" s="44" t="s">
         <v>811</v>
       </c>
@@ -11379,10 +11441,10 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="179"/>
       <c r="E23" s="44" t="s">
         <v>809</v>
       </c>
@@ -11391,10 +11453,10 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="114"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
+      <c r="A24" s="174"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="44" t="s">
         <v>807</v>
       </c>
@@ -11403,16 +11465,16 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="147" t="s">
         <v>861</v>
       </c>
-      <c r="C25" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="102" t="s">
+      <c r="C25" s="147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="147" t="s">
         <v>749</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -11423,10 +11485,10 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="113"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
+      <c r="A26" s="179"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
       <c r="E26" s="44" t="s">
         <v>856</v>
       </c>
@@ -11435,10 +11497,10 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="113"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
+      <c r="A27" s="179"/>
+      <c r="B27" s="179"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="179"/>
       <c r="E27" s="44" t="s">
         <v>854</v>
       </c>
@@ -11447,10 +11509,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="113"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
+      <c r="A28" s="179"/>
+      <c r="B28" s="179"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="179"/>
       <c r="E28" s="44" t="s">
         <v>852</v>
       </c>
@@ -11459,10 +11521,10 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="113"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="179"/>
       <c r="E29" s="44" t="s">
         <v>850</v>
       </c>
@@ -11471,10 +11533,10 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="113"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
+      <c r="A30" s="179"/>
+      <c r="B30" s="179"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
       <c r="E30" s="44" t="s">
         <v>848</v>
       </c>
@@ -11483,46 +11545,46 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="94" t="s">
+      <c r="A31" s="179"/>
+      <c r="B31" s="179"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="90" t="s">
         <v>821</v>
       </c>
-      <c r="F31" s="95" t="s">
+      <c r="F31" s="91" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="94" t="s">
+      <c r="A32" s="179"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="90" t="s">
         <v>819</v>
       </c>
-      <c r="F32" s="95" t="s">
+      <c r="F32" s="91" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="113"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="94" t="s">
+      <c r="A33" s="179"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="90" t="s">
         <v>817</v>
       </c>
-      <c r="F33" s="95" t="s">
+      <c r="F33" s="91" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="113"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
+      <c r="A34" s="179"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
       <c r="E34" s="44" t="s">
         <v>815</v>
       </c>
@@ -11531,10 +11593,10 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="113"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="44" t="s">
         <v>813</v>
       </c>
@@ -11543,10 +11605,10 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="113"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="179"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="44" t="s">
         <v>811</v>
       </c>
@@ -11555,10 +11617,10 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="113"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
+      <c r="A37" s="179"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="44" t="s">
         <v>809</v>
       </c>
@@ -11567,10 +11629,10 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="114"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
+      <c r="A38" s="174"/>
+      <c r="B38" s="174"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="44" t="s">
         <v>807</v>
       </c>
@@ -11759,16 +11821,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A48" s="102" t="s">
+      <c r="A48" s="147" t="s">
         <v>554</v>
       </c>
-      <c r="B48" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="89"/>
+      <c r="B48" s="147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="87"/>
       <c r="E48" s="5" t="s">
         <v>866</v>
       </c>
@@ -11777,10 +11839,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A49" s="113"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="102" t="s">
+      <c r="A49" s="179"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="147" t="s">
         <v>862</v>
       </c>
       <c r="E49" s="44" t="s">
@@ -11791,10 +11853,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A50" s="114"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
+      <c r="A50" s="174"/>
+      <c r="B50" s="174"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="44" t="s">
         <v>502</v>
       </c>
@@ -11803,16 +11865,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A51" s="102" t="s">
+      <c r="A51" s="147" t="s">
         <v>566</v>
       </c>
-      <c r="B51" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="102" t="s">
+      <c r="B51" s="147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="147" t="s">
         <v>869</v>
       </c>
-      <c r="D51" s="92"/>
+      <c r="D51" s="88"/>
       <c r="E51" s="5" t="s">
         <v>407</v>
       </c>
@@ -11821,10 +11883,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A52" s="114"/>
-      <c r="B52" s="114"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="89"/>
+      <c r="A52" s="174"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="87"/>
       <c r="E52" s="44" t="s">
         <v>867</v>
       </c>
@@ -11833,7 +11895,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="104" t="s">
+      <c r="A53" s="149" t="s">
         <v>452</v>
       </c>
       <c r="B53" s="43" t="s">
@@ -11853,7 +11915,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="106"/>
+      <c r="A54" s="151"/>
       <c r="B54" s="43" t="s">
         <v>4</v>
       </c>
@@ -11871,7 +11933,7 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="104" t="s">
+      <c r="A55" s="149" t="s">
         <v>454</v>
       </c>
       <c r="B55" s="43" t="s">
@@ -11891,7 +11953,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="106"/>
+      <c r="A56" s="151"/>
       <c r="B56" s="43" t="s">
         <v>860</v>
       </c>
@@ -11909,10 +11971,10 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="102" t="s">
+      <c r="A57" s="147" t="s">
         <v>455</v>
       </c>
-      <c r="B57" s="102" t="s">
+      <c r="B57" s="147" t="s">
         <v>875</v>
       </c>
       <c r="C57" s="43" t="s">
@@ -11929,15 +11991,15 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="107"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="102" t="s">
+      <c r="A58" s="152"/>
+      <c r="B58" s="179"/>
+      <c r="C58" s="147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="147" t="s">
         <v>456</v>
       </c>
-      <c r="E58" s="89" t="s">
+      <c r="E58" s="87" t="s">
         <v>45</v>
       </c>
       <c r="F58" s="13" t="s">
@@ -11945,11 +12007,11 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="107"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="89" t="s">
+      <c r="A59" s="152"/>
+      <c r="B59" s="179"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="179"/>
+      <c r="E59" s="87" t="s">
         <v>43</v>
       </c>
       <c r="F59" s="13" t="s">
@@ -11957,11 +12019,11 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="107"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="89" t="s">
+      <c r="A60" s="152"/>
+      <c r="B60" s="179"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="179"/>
+      <c r="E60" s="87" t="s">
         <v>42</v>
       </c>
       <c r="F60" s="13" t="s">
@@ -11969,11 +12031,11 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="107"/>
-      <c r="B61" s="113"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="89" t="s">
+      <c r="A61" s="152"/>
+      <c r="B61" s="179"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="179"/>
+      <c r="E61" s="87" t="s">
         <v>41</v>
       </c>
       <c r="F61" s="13" t="s">
@@ -11981,10 +12043,10 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="103"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="120"/>
-      <c r="D62" s="114"/>
+      <c r="A62" s="148"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="158"/>
+      <c r="D62" s="174"/>
       <c r="E62" s="43" t="s">
         <v>38</v>
       </c>
@@ -11993,7 +12055,7 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="104" t="s">
+      <c r="A63" s="149" t="s">
         <v>457</v>
       </c>
       <c r="B63" s="43" t="s">
@@ -12013,7 +12075,7 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="106"/>
+      <c r="A64" s="151"/>
       <c r="B64" s="43" t="s">
         <v>4</v>
       </c>
@@ -12031,7 +12093,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="102" t="s">
+      <c r="A65" s="147" t="s">
         <v>460</v>
       </c>
       <c r="B65" s="43" t="s">
@@ -12051,7 +12113,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="103"/>
+      <c r="A66" s="148"/>
       <c r="B66" s="43" t="s">
         <v>4</v>
       </c>
@@ -12069,7 +12131,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="147" t="s">
         <v>463</v>
       </c>
       <c r="B67" s="43" t="s">
@@ -12089,7 +12151,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="103"/>
+      <c r="A68" s="148"/>
       <c r="B68" s="43" t="s">
         <v>4</v>
       </c>
@@ -12107,34 +12169,34 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="57" t="s">
         <v>632</v>
       </c>
-      <c r="B69" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="58" t="s">
+      <c r="B69" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="58" t="s">
+      <c r="D69" s="57" t="s">
         <v>633</v>
       </c>
-      <c r="E69" s="58" t="s">
+      <c r="E69" s="57" t="s">
         <v>5</v>
       </c>
       <c r="F69" s="13"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="102" t="s">
+      <c r="A70" s="147" t="s">
         <v>634</v>
       </c>
-      <c r="B70" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" s="58" t="s">
+      <c r="B70" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="57" t="s">
         <v>26</v>
       </c>
       <c r="E70" s="5" t="s">
@@ -12145,152 +12207,152 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="107"/>
-      <c r="B71" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="58" t="s">
+      <c r="A71" s="152"/>
+      <c r="B71" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D71" s="58" t="s">
+      <c r="D71" s="57" t="s">
         <v>636</v>
       </c>
-      <c r="E71" s="58" t="s">
+      <c r="E71" s="57" t="s">
         <v>334</v>
       </c>
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="107"/>
-      <c r="B72" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="58" t="s">
+      <c r="A72" s="152"/>
+      <c r="B72" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D72" s="58" t="s">
+      <c r="D72" s="57" t="s">
         <v>637</v>
       </c>
-      <c r="E72" s="58" t="s">
+      <c r="E72" s="57" t="s">
         <v>172</v>
       </c>
       <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="107"/>
-      <c r="B73" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="58" t="s">
+      <c r="A73" s="152"/>
+      <c r="B73" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="58" t="s">
+      <c r="D73" s="57" t="s">
         <v>638</v>
       </c>
-      <c r="E73" s="58" t="s">
+      <c r="E73" s="57" t="s">
         <v>263</v>
       </c>
       <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="103"/>
-      <c r="B74" s="58" t="s">
+      <c r="A74" s="148"/>
+      <c r="B74" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D74" s="58" t="s">
+      <c r="D74" s="57" t="s">
         <v>639</v>
       </c>
-      <c r="E74" s="58" t="s">
+      <c r="E74" s="57" t="s">
         <v>640</v>
       </c>
       <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A75" s="58" t="s">
+      <c r="A75" s="57" t="s">
         <v>641</v>
       </c>
-      <c r="B75" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="58" t="s">
+      <c r="B75" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D75" s="57" t="s">
         <v>642</v>
       </c>
-      <c r="E75" s="58" t="s">
+      <c r="E75" s="57" t="s">
         <v>5</v>
       </c>
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A76" s="58" t="s">
+      <c r="A76" s="57" t="s">
         <v>643</v>
       </c>
-      <c r="B76" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="58" t="s">
+      <c r="B76" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D76" s="58" t="s">
+      <c r="D76" s="57" t="s">
         <v>644</v>
       </c>
-      <c r="E76" s="58" t="s">
+      <c r="E76" s="57" t="s">
         <v>5</v>
       </c>
       <c r="F76" s="13"/>
     </row>
     <row r="77" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A77" s="58" t="s">
+      <c r="A77" s="57" t="s">
         <v>645</v>
       </c>
-      <c r="B77" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="58" t="s">
+      <c r="B77" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="58" t="s">
+      <c r="D77" s="57" t="s">
         <v>646</v>
       </c>
-      <c r="E77" s="58" t="s">
+      <c r="E77" s="57" t="s">
         <v>5</v>
       </c>
       <c r="F77" s="13"/>
     </row>
     <row r="78" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A78" s="58" t="s">
+      <c r="A78" s="57" t="s">
         <v>647</v>
       </c>
-      <c r="B78" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="58" t="s">
+      <c r="B78" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D78" s="58" t="s">
+      <c r="D78" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="E78" s="58" t="s">
+      <c r="E78" s="57" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="13"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="102" t="s">
+      <c r="A79" s="147" t="s">
         <v>649</v>
       </c>
-      <c r="B79" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="58" t="s">
+      <c r="B79" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="57" t="s">
         <v>26</v>
       </c>
       <c r="E79" s="5" t="s">
@@ -12301,14 +12363,14 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="107"/>
-      <c r="B80" s="58" t="s">
+      <c r="A80" s="152"/>
+      <c r="B80" s="57" t="s">
         <v>658</v>
       </c>
-      <c r="C80" s="58" t="s">
+      <c r="C80" s="57" t="s">
         <v>654</v>
       </c>
-      <c r="D80" s="58" t="s">
+      <c r="D80" s="57" t="s">
         <v>657</v>
       </c>
       <c r="E80" s="44" t="s">
@@ -12319,14 +12381,14 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="107"/>
-      <c r="B81" s="58" t="s">
+      <c r="A81" s="152"/>
+      <c r="B81" s="57" t="s">
         <v>653</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="57" t="s">
         <v>654</v>
       </c>
-      <c r="D81" s="58" t="s">
+      <c r="D81" s="57" t="s">
         <v>651</v>
       </c>
       <c r="E81" s="44" t="s">
@@ -12337,28 +12399,28 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="103"/>
-      <c r="B82" s="58" t="s">
+      <c r="A82" s="148"/>
+      <c r="B82" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D82" s="58" t="s">
+      <c r="D82" s="57" t="s">
         <v>650</v>
       </c>
-      <c r="E82" s="58" t="s">
+      <c r="E82" s="57" t="s">
         <v>38</v>
       </c>
       <c r="F82" s="13"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="102" t="s">
+      <c r="A83" s="147" t="s">
         <v>660</v>
       </c>
-      <c r="B83" s="58"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="58"/>
+      <c r="D83" s="57"/>
       <c r="E83" s="5" t="s">
         <v>664</v>
       </c>
@@ -12367,17 +12429,17 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A84" s="114"/>
-      <c r="B84" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="58" t="s">
+      <c r="A84" s="174"/>
+      <c r="B84" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D84" s="58" t="s">
+      <c r="D84" s="57" t="s">
         <v>661</v>
       </c>
-      <c r="E84" s="58" t="s">
+      <c r="E84" s="57" t="s">
         <v>662</v>
       </c>
       <c r="F84" s="13" t="s">
@@ -12386,13 +12448,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A62"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A7"/>
@@ -12409,13 +12471,13 @@
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="C48:C50"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="B57:B62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12439,14 +12501,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="150" t="s">
         <v>745</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -12469,7 +12531,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="149" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="43"/>
@@ -12483,7 +12545,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="104"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
@@ -12501,7 +12563,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="104"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="43" t="s">
         <v>4</v>
       </c>
@@ -12519,7 +12581,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="104"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="43" t="s">
         <v>4</v>
       </c>
@@ -12537,7 +12599,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="104"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="43" t="s">
         <v>4</v>
       </c>
@@ -12555,7 +12617,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="104"/>
+      <c r="A8" s="149"/>
       <c r="B8" s="43" t="s">
         <v>4</v>
       </c>
@@ -12573,7 +12635,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="104"/>
+      <c r="A9" s="149"/>
       <c r="B9" s="43" t="s">
         <v>4</v>
       </c>
@@ -12591,7 +12653,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="104"/>
+      <c r="A10" s="149"/>
       <c r="B10" s="43" t="s">
         <v>4</v>
       </c>
@@ -12609,7 +12671,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="104"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="43" t="s">
         <v>4</v>
       </c>
@@ -12627,7 +12689,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="104"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="43" t="s">
         <v>4</v>
       </c>
@@ -12645,7 +12707,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="104"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="43" t="s">
         <v>4</v>
       </c>
@@ -12663,7 +12725,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="104"/>
+      <c r="A14" s="149"/>
       <c r="B14" s="43" t="s">
         <v>4</v>
       </c>
@@ -12681,7 +12743,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="104"/>
+      <c r="A15" s="149"/>
       <c r="B15" s="43" t="s">
         <v>4</v>
       </c>
@@ -12699,7 +12761,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="104"/>
+      <c r="A16" s="149"/>
       <c r="B16" s="43" t="s">
         <v>4</v>
       </c>
@@ -12717,7 +12779,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="104"/>
+      <c r="A17" s="149"/>
       <c r="B17" s="43"/>
       <c r="C17" s="8"/>
       <c r="D17" s="43"/>
@@ -12729,7 +12791,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="104"/>
+      <c r="A18" s="149"/>
       <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
@@ -12747,7 +12809,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="104"/>
+      <c r="A19" s="149"/>
       <c r="B19" s="43" t="s">
         <v>4</v>
       </c>
@@ -12765,7 +12827,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="106"/>
+      <c r="A20" s="151"/>
       <c r="B20" s="43" t="s">
         <v>4</v>
       </c>
@@ -12883,7 +12945,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="104" t="s">
+      <c r="A26" s="149" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="43" t="s">
@@ -12903,7 +12965,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="106"/>
+      <c r="A27" s="151"/>
       <c r="B27" s="43" t="s">
         <v>4</v>
       </c>
@@ -12921,7 +12983,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="149" t="s">
         <v>432</v>
       </c>
       <c r="B28" s="43" t="s">
@@ -12941,7 +13003,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="106"/>
+      <c r="A29" s="151"/>
       <c r="B29" s="43" t="s">
         <v>4</v>
       </c>
@@ -12959,7 +13021,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="149" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="43" t="s">
@@ -12979,7 +13041,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="106"/>
+      <c r="A31" s="151"/>
       <c r="B31" s="43" t="s">
         <v>4</v>
       </c>
@@ -12997,7 +13059,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A32" s="104" t="s">
+      <c r="A32" s="149" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="43" t="s">
@@ -13017,7 +13079,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="106"/>
+      <c r="A33" s="151"/>
       <c r="B33" s="43" t="s">
         <v>4</v>
       </c>
@@ -13035,7 +13097,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="149" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="43" t="s">
@@ -13055,7 +13117,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="106"/>
+      <c r="A35" s="151"/>
       <c r="B35" s="43" t="s">
         <v>4</v>
       </c>
@@ -13073,7 +13135,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.05" customHeight="1">
-      <c r="A36" s="104" t="s">
+      <c r="A36" s="149" t="s">
         <v>442</v>
       </c>
       <c r="B36" s="43" t="s">
@@ -13093,7 +13155,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="106"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="43" t="s">
         <v>4</v>
       </c>
@@ -13111,7 +13173,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="104" t="s">
+      <c r="A38" s="149" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="43" t="s">
@@ -13131,7 +13193,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="106"/>
+      <c r="A39" s="151"/>
       <c r="B39" s="43" t="s">
         <v>4</v>
       </c>
@@ -13149,7 +13211,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="104" t="s">
+      <c r="A40" s="149" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="43" t="s">
@@ -13169,7 +13231,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="106"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="43" t="s">
         <v>4</v>
       </c>
@@ -13187,7 +13249,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="104" t="s">
+      <c r="A42" s="149" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="43" t="s">
@@ -13207,7 +13269,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="106"/>
+      <c r="A43" s="151"/>
       <c r="B43" s="43" t="s">
         <v>4</v>
       </c>
@@ -13225,7 +13287,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="104" t="s">
+      <c r="A44" s="149" t="s">
         <v>451</v>
       </c>
       <c r="B44" s="43" t="s">
@@ -13245,7 +13307,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="106"/>
+      <c r="A45" s="151"/>
       <c r="B45" s="43" t="s">
         <v>4</v>
       </c>
@@ -13263,19 +13325,19 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="84" t="s">
         <v>554</v>
       </c>
-      <c r="B46" s="86" t="s">
+      <c r="B46" s="85" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="86" t="s">
+      <c r="D46" s="85" t="s">
         <v>783</v>
       </c>
-      <c r="E46" s="86" t="s">
+      <c r="E46" s="85" t="s">
         <v>5</v>
       </c>
       <c r="F46" s="13" t="s">
@@ -13283,19 +13345,19 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="84" t="s">
         <v>566</v>
       </c>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="85" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="86" t="s">
+      <c r="D47" s="85" t="s">
         <v>785</v>
       </c>
-      <c r="E47" s="86" t="s">
+      <c r="E47" s="85" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="13" t="s">
@@ -13303,19 +13365,19 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="85" t="s">
+      <c r="A48" s="84" t="s">
         <v>570</v>
       </c>
-      <c r="B48" s="86" t="s">
+      <c r="B48" s="85" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="86" t="s">
+      <c r="D48" s="85" t="s">
         <v>787</v>
       </c>
-      <c r="E48" s="86" t="s">
+      <c r="E48" s="85" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="13" t="s">
@@ -13323,19 +13385,19 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="84" t="s">
         <v>789</v>
       </c>
-      <c r="B49" s="86" t="s">
+      <c r="B49" s="85" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="86" t="s">
+      <c r="D49" s="85" t="s">
         <v>790</v>
       </c>
-      <c r="E49" s="86" t="s">
+      <c r="E49" s="85" t="s">
         <v>5</v>
       </c>
       <c r="F49" s="13" t="s">
@@ -13379,14 +13441,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="150" t="s">
         <v>382</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -13409,7 +13471,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="149" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -13427,7 +13489,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.5">
-      <c r="A4" s="104"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
@@ -13445,7 +13507,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="43" t="s">
         <v>4</v>
       </c>
@@ -13463,7 +13525,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="104"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="43" t="s">
         <v>110</v>
       </c>
@@ -13481,7 +13543,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="104"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="43" t="s">
         <v>110</v>
       </c>
@@ -13499,7 +13561,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="104"/>
+      <c r="A8" s="149"/>
       <c r="B8" s="43" t="s">
         <v>4</v>
       </c>
@@ -13517,7 +13579,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="106"/>
+      <c r="A9" s="151"/>
       <c r="B9" s="43" t="s">
         <v>4</v>
       </c>
@@ -13535,7 +13597,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="43" t="s">
@@ -13555,7 +13617,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="104"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="43" t="s">
         <v>4</v>
       </c>
@@ -13573,7 +13635,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="104"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="43" t="s">
         <v>4</v>
       </c>
@@ -13591,7 +13653,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="104"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="43" t="s">
         <v>4</v>
       </c>
@@ -13609,7 +13671,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="104"/>
+      <c r="A14" s="149"/>
       <c r="B14" s="43" t="s">
         <v>4</v>
       </c>
@@ -13627,7 +13689,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="106"/>
+      <c r="A15" s="151"/>
       <c r="B15" s="43" t="s">
         <v>4</v>
       </c>
@@ -13645,7 +13707,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="149" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -13665,7 +13727,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="104"/>
+      <c r="A17" s="149"/>
       <c r="B17" s="43" t="s">
         <v>4</v>
       </c>
@@ -13683,7 +13745,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="104"/>
+      <c r="A18" s="149"/>
       <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
@@ -13701,7 +13763,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="106"/>
+      <c r="A19" s="151"/>
       <c r="B19" s="43" t="s">
         <v>4</v>
       </c>
@@ -13719,7 +13781,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="149" t="s">
         <v>418</v>
       </c>
       <c r="B20" s="43" t="s">
@@ -13739,7 +13801,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="104"/>
+      <c r="A21" s="149"/>
       <c r="B21" s="43" t="s">
         <v>4</v>
       </c>
@@ -13757,7 +13819,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="104"/>
+      <c r="A22" s="149"/>
       <c r="B22" s="43" t="s">
         <v>4</v>
       </c>
@@ -13775,7 +13837,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="106"/>
+      <c r="A23" s="151"/>
       <c r="B23" s="43" t="s">
         <v>4</v>
       </c>
